--- a/144F20/Topic 4/PayingMinOnCC.xlsx
+++ b/144F20/Topic 4/PayingMinOnCC.xlsx
@@ -810,9 +810,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{B0F3A63E-17D9-468E-83B7-6EF6F1DD77C7}" name="Richard Ketchersid" id="-1739566882" dateTime="2020-10-01T16:52:36"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/144F20/Topic 4/PayingMinOnCC.xlsx
+++ b/144F20/Topic 4/PayingMinOnCC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{50F7E876-53C6-4F88-879C-F9D6191B7C83}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{EC1C17E5-C8D3-4CF7-B78B-B6EEA52A7904}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{CF10E6CE-D87B-417F-86FF-EEF4FA94E14B}"/>
   </bookViews>
@@ -27,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -737,23 +739,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -858,23 +847,56 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -910,8 +932,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{7141F9C3-3013-4AF5-8CE2-86AE16DCF587}">
-  <header guid="{7141F9C3-3013-4AF5-8CE2-86AE16DCF587}" dateTime="2020-10-18T17:48:40" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{54C8D951-656F-4448-A816-A0941F66915F}">
+  <header guid="{54C8D951-656F-4448-A816-A0941F66915F}" dateTime="2020-10-28T12:20:08" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -925,9 +947,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{7141F9C3-3013-4AF5-8CE2-86AE16DCF587}" name="Richard Ketchersid" id="-1739529657" dateTime="2020-10-18T17:48:40"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1230,7 +1250,7 @@
   <dimension ref="A1:L298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="C8" sqref="C8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1243,38 +1263,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.4" customHeight="1" thickBot="1">
-      <c r="A1" s="48" t="str">
+      <c r="A1" s="39" t="str">
         <f ca="1">"See how long it takes to pay off $"&amp;Random!H19&amp;" credit card debt paying the minimal payment which is the maximum of "&amp;Random!H20&amp;"% or $"&amp;Random!H22&amp;". The credit card has "&amp;Random!H21&amp;"% APR compounded monthly. You want to find out how long it takes you to pay this off and how much you end up paying. Assume you make your payment on the current balance at the beginnig of each period (month), before interest is acrued."</f>
         <v>See how long it takes to pay off $2200 credit card debt paying the minimal payment which is the maximum of 3.5% or $30. The credit card has 21% APR compounded monthly. You want to find out how long it takes you to pay this off and how much you end up paying. Assume you make your payment on the current balance at the beginnig of each period (month), before interest is acrued.</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:12" ht="15" thickTop="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="53"/>
-      <c r="I2" s="34" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="44"/>
+      <c r="I2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="35"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
       <c r="I3" s="9" t="s">
         <v>14</v>
       </c>
@@ -1283,13 +1303,13 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
       <c r="I4" s="11" t="s">
         <v>16</v>
       </c>
@@ -1298,13 +1318,13 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="53"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
       <c r="I5" s="13" t="s">
         <v>18</v>
       </c>
@@ -1313,13 +1333,13 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1">
-      <c r="A6" s="54"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
       <c r="I6" s="14" t="s">
         <v>20</v>
       </c>
@@ -1336,95 +1356,95 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="63" t="s">
+      <c r="B8" s="54"/>
+      <c r="C8" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1"/>
     <row r="10" spans="1:12" ht="28.2" customHeight="1" thickBot="1">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="36" t="s">
+      <c r="B10" s="52"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="38"/>
-      <c r="J10" s="45" t="s">
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
+      <c r="J10" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="46"/>
-      <c r="L10" s="47"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="15" thickBot="1">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="41"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="41"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="32"/>
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="41"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="21"/>
+      <c r="B14" s="61"/>
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32"/>
     </row>
     <row r="15" spans="1:12" ht="15" thickBot="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="35"/>
     </row>
     <row r="17" spans="1:12" ht="15" thickBot="1"/>
     <row r="18" spans="1:12" ht="29.4" thickBot="1">
@@ -1445,1970 +1465,1970 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="G19" s="33" t="s">
+      <c r="A19" s="63"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="G19" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="18"/>
-      <c r="L19" s="27"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="67"/>
+      <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="24"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="G20" s="33" t="s">
+      <c r="A20" s="63"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="G20" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="26"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="65"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="24"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="24"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="24"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="24"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="24"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="24"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="24"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="24"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="24"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="24"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="24"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="24"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="24"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="24"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="24"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="24"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="24"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="24"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="24"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="24"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="24"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="24"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="24"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
+      <c r="A43" s="63"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="24"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
+      <c r="A44" s="63"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="24"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="24"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="24"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="24"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
+      <c r="A48" s="63"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="24"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="24"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
+      <c r="A50" s="63"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="24"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
+      <c r="A51" s="63"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="24"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
+      <c r="A52" s="63"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="24"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
+      <c r="A53" s="63"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="64"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="24"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
+      <c r="A54" s="63"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="64"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="24"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
+      <c r="A55" s="63"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="64"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="24"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
+      <c r="A56" s="63"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="64"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="24"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
+      <c r="A57" s="63"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="64"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="24"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
+      <c r="A58" s="63"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="64"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="24"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
+      <c r="A59" s="63"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="64"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="24"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
+      <c r="A60" s="63"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="64"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="24"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
+      <c r="A61" s="63"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="64"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="24"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
+      <c r="A62" s="63"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="64"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="24"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
+      <c r="A63" s="63"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="64"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="24"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
+      <c r="A64" s="63"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="64"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="24"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
+      <c r="A65" s="63"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="64"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="24"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
+      <c r="A66" s="63"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="24"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
+      <c r="A67" s="63"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="64"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="24"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
+      <c r="A68" s="63"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="24"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
+      <c r="A69" s="63"/>
+      <c r="B69" s="65"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="64"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="24"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
+      <c r="A70" s="63"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="64"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="24"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
+      <c r="A71" s="63"/>
+      <c r="B71" s="65"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="64"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="24"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
+      <c r="A72" s="63"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="64"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="24"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
+      <c r="A73" s="63"/>
+      <c r="B73" s="65"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="64"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="24"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
+      <c r="A74" s="63"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="64"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="24"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
+      <c r="A75" s="63"/>
+      <c r="B75" s="65"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="64"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="24"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
+      <c r="A76" s="63"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="64"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="24"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
+      <c r="A77" s="63"/>
+      <c r="B77" s="65"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="64"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="24"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
+      <c r="A78" s="63"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="64"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="24"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
+      <c r="A79" s="63"/>
+      <c r="B79" s="65"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="64"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="24"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
+      <c r="A80" s="63"/>
+      <c r="B80" s="65"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="64"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="24"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
+      <c r="A81" s="63"/>
+      <c r="B81" s="65"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="64"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="24"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
+      <c r="A82" s="63"/>
+      <c r="B82" s="65"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="64"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="24"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
+      <c r="A83" s="63"/>
+      <c r="B83" s="65"/>
+      <c r="C83" s="64"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="64"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="24"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
+      <c r="A84" s="63"/>
+      <c r="B84" s="65"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="64"/>
+      <c r="E84" s="64"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="24"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
+      <c r="A85" s="63"/>
+      <c r="B85" s="65"/>
+      <c r="C85" s="64"/>
+      <c r="D85" s="64"/>
+      <c r="E85" s="64"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="24"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
+      <c r="A86" s="63"/>
+      <c r="B86" s="65"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="64"/>
+      <c r="E86" s="64"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="24"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
+      <c r="A87" s="63"/>
+      <c r="B87" s="65"/>
+      <c r="C87" s="64"/>
+      <c r="D87" s="64"/>
+      <c r="E87" s="64"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="24"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
+      <c r="A88" s="63"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="64"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="64"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="24"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
+      <c r="A89" s="63"/>
+      <c r="B89" s="65"/>
+      <c r="C89" s="64"/>
+      <c r="D89" s="64"/>
+      <c r="E89" s="64"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="24"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
+      <c r="A90" s="63"/>
+      <c r="B90" s="65"/>
+      <c r="C90" s="64"/>
+      <c r="D90" s="64"/>
+      <c r="E90" s="64"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="24"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
+      <c r="A91" s="63"/>
+      <c r="B91" s="65"/>
+      <c r="C91" s="64"/>
+      <c r="D91" s="64"/>
+      <c r="E91" s="64"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="24"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
+      <c r="A92" s="63"/>
+      <c r="B92" s="65"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="64"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="24"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
+      <c r="A93" s="63"/>
+      <c r="B93" s="65"/>
+      <c r="C93" s="64"/>
+      <c r="D93" s="64"/>
+      <c r="E93" s="64"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="24"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
+      <c r="A94" s="63"/>
+      <c r="B94" s="65"/>
+      <c r="C94" s="64"/>
+      <c r="D94" s="64"/>
+      <c r="E94" s="64"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="24"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="25"/>
-      <c r="E95" s="25"/>
+      <c r="A95" s="63"/>
+      <c r="B95" s="65"/>
+      <c r="C95" s="64"/>
+      <c r="D95" s="64"/>
+      <c r="E95" s="64"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="24"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
+      <c r="A96" s="63"/>
+      <c r="B96" s="65"/>
+      <c r="C96" s="64"/>
+      <c r="D96" s="64"/>
+      <c r="E96" s="64"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="24"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
+      <c r="A97" s="63"/>
+      <c r="B97" s="65"/>
+      <c r="C97" s="64"/>
+      <c r="D97" s="64"/>
+      <c r="E97" s="64"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="24"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25"/>
+      <c r="A98" s="63"/>
+      <c r="B98" s="65"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="64"/>
+      <c r="E98" s="64"/>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="24"/>
-      <c r="B99" s="26"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
+      <c r="A99" s="63"/>
+      <c r="B99" s="65"/>
+      <c r="C99" s="64"/>
+      <c r="D99" s="64"/>
+      <c r="E99" s="64"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="24"/>
-      <c r="B100" s="26"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
+      <c r="A100" s="63"/>
+      <c r="B100" s="65"/>
+      <c r="C100" s="64"/>
+      <c r="D100" s="64"/>
+      <c r="E100" s="64"/>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="24"/>
-      <c r="B101" s="26"/>
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
-      <c r="E101" s="25"/>
+      <c r="A101" s="63"/>
+      <c r="B101" s="65"/>
+      <c r="C101" s="64"/>
+      <c r="D101" s="64"/>
+      <c r="E101" s="64"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="24"/>
-      <c r="B102" s="26"/>
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
-      <c r="E102" s="25"/>
+      <c r="A102" s="63"/>
+      <c r="B102" s="65"/>
+      <c r="C102" s="64"/>
+      <c r="D102" s="64"/>
+      <c r="E102" s="64"/>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="24"/>
-      <c r="B103" s="26"/>
-      <c r="C103" s="25"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="25"/>
+      <c r="A103" s="63"/>
+      <c r="B103" s="65"/>
+      <c r="C103" s="64"/>
+      <c r="D103" s="64"/>
+      <c r="E103" s="64"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="24"/>
-      <c r="B104" s="26"/>
-      <c r="C104" s="25"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="25"/>
+      <c r="A104" s="63"/>
+      <c r="B104" s="65"/>
+      <c r="C104" s="64"/>
+      <c r="D104" s="64"/>
+      <c r="E104" s="64"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="24"/>
-      <c r="B105" s="26"/>
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
-      <c r="E105" s="25"/>
+      <c r="A105" s="63"/>
+      <c r="B105" s="65"/>
+      <c r="C105" s="64"/>
+      <c r="D105" s="64"/>
+      <c r="E105" s="64"/>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="24"/>
-      <c r="B106" s="26"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
-      <c r="E106" s="25"/>
+      <c r="A106" s="63"/>
+      <c r="B106" s="65"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="64"/>
+      <c r="E106" s="64"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="24"/>
-      <c r="B107" s="26"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
-      <c r="E107" s="25"/>
+      <c r="A107" s="63"/>
+      <c r="B107" s="65"/>
+      <c r="C107" s="64"/>
+      <c r="D107" s="64"/>
+      <c r="E107" s="64"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="24"/>
-      <c r="B108" s="26"/>
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
-      <c r="E108" s="25"/>
+      <c r="A108" s="63"/>
+      <c r="B108" s="65"/>
+      <c r="C108" s="64"/>
+      <c r="D108" s="64"/>
+      <c r="E108" s="64"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="24"/>
-      <c r="B109" s="26"/>
-      <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
-      <c r="E109" s="25"/>
+      <c r="A109" s="63"/>
+      <c r="B109" s="65"/>
+      <c r="C109" s="64"/>
+      <c r="D109" s="64"/>
+      <c r="E109" s="64"/>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="24"/>
-      <c r="B110" s="26"/>
-      <c r="C110" s="25"/>
-      <c r="D110" s="25"/>
-      <c r="E110" s="25"/>
+      <c r="A110" s="63"/>
+      <c r="B110" s="65"/>
+      <c r="C110" s="64"/>
+      <c r="D110" s="64"/>
+      <c r="E110" s="64"/>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="24"/>
-      <c r="B111" s="26"/>
-      <c r="C111" s="25"/>
-      <c r="D111" s="25"/>
-      <c r="E111" s="25"/>
+      <c r="A111" s="63"/>
+      <c r="B111" s="65"/>
+      <c r="C111" s="64"/>
+      <c r="D111" s="64"/>
+      <c r="E111" s="64"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="24"/>
-      <c r="B112" s="26"/>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
+      <c r="A112" s="63"/>
+      <c r="B112" s="65"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="64"/>
+      <c r="E112" s="64"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="24"/>
-      <c r="B113" s="26"/>
-      <c r="C113" s="25"/>
-      <c r="D113" s="25"/>
-      <c r="E113" s="25"/>
+      <c r="A113" s="63"/>
+      <c r="B113" s="65"/>
+      <c r="C113" s="64"/>
+      <c r="D113" s="64"/>
+      <c r="E113" s="64"/>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="24"/>
-      <c r="B114" s="26"/>
-      <c r="C114" s="25"/>
-      <c r="D114" s="25"/>
-      <c r="E114" s="25"/>
+      <c r="A114" s="63"/>
+      <c r="B114" s="65"/>
+      <c r="C114" s="64"/>
+      <c r="D114" s="64"/>
+      <c r="E114" s="64"/>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="24"/>
-      <c r="B115" s="26"/>
-      <c r="C115" s="25"/>
-      <c r="D115" s="25"/>
-      <c r="E115" s="25"/>
+      <c r="A115" s="63"/>
+      <c r="B115" s="65"/>
+      <c r="C115" s="64"/>
+      <c r="D115" s="64"/>
+      <c r="E115" s="64"/>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="24"/>
-      <c r="B116" s="26"/>
-      <c r="C116" s="25"/>
-      <c r="D116" s="25"/>
-      <c r="E116" s="25"/>
+      <c r="A116" s="63"/>
+      <c r="B116" s="65"/>
+      <c r="C116" s="64"/>
+      <c r="D116" s="64"/>
+      <c r="E116" s="64"/>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="24"/>
-      <c r="B117" s="26"/>
-      <c r="C117" s="25"/>
-      <c r="D117" s="25"/>
-      <c r="E117" s="25"/>
+      <c r="A117" s="63"/>
+      <c r="B117" s="65"/>
+      <c r="C117" s="64"/>
+      <c r="D117" s="64"/>
+      <c r="E117" s="64"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="24"/>
-      <c r="B118" s="26"/>
-      <c r="C118" s="25"/>
-      <c r="D118" s="25"/>
-      <c r="E118" s="25"/>
+      <c r="A118" s="63"/>
+      <c r="B118" s="65"/>
+      <c r="C118" s="64"/>
+      <c r="D118" s="64"/>
+      <c r="E118" s="64"/>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="24"/>
-      <c r="B119" s="26"/>
-      <c r="C119" s="25"/>
-      <c r="D119" s="25"/>
-      <c r="E119" s="25"/>
+      <c r="A119" s="63"/>
+      <c r="B119" s="65"/>
+      <c r="C119" s="64"/>
+      <c r="D119" s="64"/>
+      <c r="E119" s="64"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="24"/>
-      <c r="B120" s="26"/>
-      <c r="C120" s="25"/>
-      <c r="D120" s="25"/>
-      <c r="E120" s="25"/>
+      <c r="A120" s="63"/>
+      <c r="B120" s="65"/>
+      <c r="C120" s="64"/>
+      <c r="D120" s="64"/>
+      <c r="E120" s="64"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="24"/>
-      <c r="B121" s="26"/>
-      <c r="C121" s="25"/>
-      <c r="D121" s="25"/>
-      <c r="E121" s="25"/>
+      <c r="A121" s="63"/>
+      <c r="B121" s="65"/>
+      <c r="C121" s="64"/>
+      <c r="D121" s="64"/>
+      <c r="E121" s="64"/>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="24"/>
-      <c r="B122" s="26"/>
-      <c r="C122" s="25"/>
-      <c r="D122" s="25"/>
-      <c r="E122" s="25"/>
+      <c r="A122" s="63"/>
+      <c r="B122" s="65"/>
+      <c r="C122" s="64"/>
+      <c r="D122" s="64"/>
+      <c r="E122" s="64"/>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="24"/>
-      <c r="B123" s="26"/>
-      <c r="C123" s="25"/>
-      <c r="D123" s="25"/>
-      <c r="E123" s="25"/>
+      <c r="A123" s="63"/>
+      <c r="B123" s="65"/>
+      <c r="C123" s="64"/>
+      <c r="D123" s="64"/>
+      <c r="E123" s="64"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="24"/>
-      <c r="B124" s="26"/>
-      <c r="C124" s="25"/>
-      <c r="D124" s="25"/>
-      <c r="E124" s="25"/>
+      <c r="A124" s="63"/>
+      <c r="B124" s="65"/>
+      <c r="C124" s="64"/>
+      <c r="D124" s="64"/>
+      <c r="E124" s="64"/>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="24"/>
-      <c r="B125" s="26"/>
-      <c r="C125" s="25"/>
-      <c r="D125" s="25"/>
-      <c r="E125" s="25"/>
+      <c r="A125" s="63"/>
+      <c r="B125" s="65"/>
+      <c r="C125" s="64"/>
+      <c r="D125" s="64"/>
+      <c r="E125" s="64"/>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="24"/>
-      <c r="B126" s="26"/>
-      <c r="C126" s="25"/>
-      <c r="D126" s="25"/>
-      <c r="E126" s="25"/>
+      <c r="A126" s="63"/>
+      <c r="B126" s="65"/>
+      <c r="C126" s="64"/>
+      <c r="D126" s="64"/>
+      <c r="E126" s="64"/>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="24"/>
-      <c r="B127" s="26"/>
-      <c r="C127" s="25"/>
-      <c r="D127" s="25"/>
-      <c r="E127" s="25"/>
+      <c r="A127" s="63"/>
+      <c r="B127" s="65"/>
+      <c r="C127" s="64"/>
+      <c r="D127" s="64"/>
+      <c r="E127" s="64"/>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="24"/>
-      <c r="B128" s="26"/>
-      <c r="C128" s="25"/>
-      <c r="D128" s="25"/>
-      <c r="E128" s="25"/>
+      <c r="A128" s="63"/>
+      <c r="B128" s="65"/>
+      <c r="C128" s="64"/>
+      <c r="D128" s="64"/>
+      <c r="E128" s="64"/>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="24"/>
-      <c r="B129" s="26"/>
-      <c r="C129" s="25"/>
-      <c r="D129" s="25"/>
-      <c r="E129" s="25"/>
+      <c r="A129" s="63"/>
+      <c r="B129" s="65"/>
+      <c r="C129" s="64"/>
+      <c r="D129" s="64"/>
+      <c r="E129" s="64"/>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="24"/>
-      <c r="B130" s="26"/>
-      <c r="C130" s="25"/>
-      <c r="D130" s="25"/>
-      <c r="E130" s="25"/>
+      <c r="A130" s="63"/>
+      <c r="B130" s="65"/>
+      <c r="C130" s="64"/>
+      <c r="D130" s="64"/>
+      <c r="E130" s="64"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="24"/>
-      <c r="B131" s="26"/>
-      <c r="C131" s="25"/>
-      <c r="D131" s="25"/>
-      <c r="E131" s="25"/>
+      <c r="A131" s="63"/>
+      <c r="B131" s="65"/>
+      <c r="C131" s="64"/>
+      <c r="D131" s="64"/>
+      <c r="E131" s="64"/>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="24"/>
-      <c r="B132" s="26"/>
-      <c r="C132" s="25"/>
-      <c r="D132" s="25"/>
-      <c r="E132" s="25"/>
+      <c r="A132" s="63"/>
+      <c r="B132" s="65"/>
+      <c r="C132" s="64"/>
+      <c r="D132" s="64"/>
+      <c r="E132" s="64"/>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="24"/>
-      <c r="B133" s="26"/>
-      <c r="C133" s="25"/>
-      <c r="D133" s="25"/>
-      <c r="E133" s="25"/>
+      <c r="A133" s="63"/>
+      <c r="B133" s="65"/>
+      <c r="C133" s="64"/>
+      <c r="D133" s="64"/>
+      <c r="E133" s="64"/>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="24"/>
-      <c r="B134" s="26"/>
-      <c r="C134" s="25"/>
-      <c r="D134" s="25"/>
-      <c r="E134" s="25"/>
+      <c r="A134" s="63"/>
+      <c r="B134" s="65"/>
+      <c r="C134" s="64"/>
+      <c r="D134" s="64"/>
+      <c r="E134" s="64"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="24"/>
-      <c r="B135" s="26"/>
-      <c r="C135" s="25"/>
-      <c r="D135" s="25"/>
-      <c r="E135" s="25"/>
+      <c r="A135" s="63"/>
+      <c r="B135" s="65"/>
+      <c r="C135" s="64"/>
+      <c r="D135" s="64"/>
+      <c r="E135" s="64"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="24"/>
-      <c r="B136" s="26"/>
-      <c r="C136" s="25"/>
-      <c r="D136" s="25"/>
-      <c r="E136" s="25"/>
+      <c r="A136" s="63"/>
+      <c r="B136" s="65"/>
+      <c r="C136" s="64"/>
+      <c r="D136" s="64"/>
+      <c r="E136" s="64"/>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="24"/>
-      <c r="B137" s="26"/>
-      <c r="C137" s="25"/>
-      <c r="D137" s="25"/>
-      <c r="E137" s="25"/>
+      <c r="A137" s="63"/>
+      <c r="B137" s="65"/>
+      <c r="C137" s="64"/>
+      <c r="D137" s="64"/>
+      <c r="E137" s="64"/>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="24"/>
-      <c r="B138" s="26"/>
-      <c r="C138" s="25"/>
-      <c r="D138" s="25"/>
-      <c r="E138" s="25"/>
+      <c r="A138" s="63"/>
+      <c r="B138" s="65"/>
+      <c r="C138" s="64"/>
+      <c r="D138" s="64"/>
+      <c r="E138" s="64"/>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="24"/>
-      <c r="B139" s="26"/>
-      <c r="C139" s="25"/>
-      <c r="D139" s="25"/>
-      <c r="E139" s="25"/>
+      <c r="A139" s="63"/>
+      <c r="B139" s="65"/>
+      <c r="C139" s="64"/>
+      <c r="D139" s="64"/>
+      <c r="E139" s="64"/>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="24"/>
-      <c r="B140" s="26"/>
-      <c r="C140" s="25"/>
-      <c r="D140" s="25"/>
-      <c r="E140" s="25"/>
+      <c r="A140" s="63"/>
+      <c r="B140" s="65"/>
+      <c r="C140" s="64"/>
+      <c r="D140" s="64"/>
+      <c r="E140" s="64"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="24"/>
-      <c r="B141" s="26"/>
-      <c r="C141" s="25"/>
-      <c r="D141" s="25"/>
-      <c r="E141" s="25"/>
+      <c r="A141" s="63"/>
+      <c r="B141" s="65"/>
+      <c r="C141" s="64"/>
+      <c r="D141" s="64"/>
+      <c r="E141" s="64"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="24"/>
-      <c r="B142" s="26"/>
-      <c r="C142" s="25"/>
-      <c r="D142" s="25"/>
-      <c r="E142" s="25"/>
+      <c r="A142" s="63"/>
+      <c r="B142" s="65"/>
+      <c r="C142" s="64"/>
+      <c r="D142" s="64"/>
+      <c r="E142" s="64"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="24"/>
-      <c r="B143" s="26"/>
-      <c r="C143" s="25"/>
-      <c r="D143" s="25"/>
-      <c r="E143" s="25"/>
+      <c r="A143" s="63"/>
+      <c r="B143" s="65"/>
+      <c r="C143" s="64"/>
+      <c r="D143" s="64"/>
+      <c r="E143" s="64"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="24"/>
-      <c r="B144" s="26"/>
-      <c r="C144" s="25"/>
-      <c r="D144" s="25"/>
-      <c r="E144" s="25"/>
+      <c r="A144" s="63"/>
+      <c r="B144" s="65"/>
+      <c r="C144" s="64"/>
+      <c r="D144" s="64"/>
+      <c r="E144" s="64"/>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="24"/>
-      <c r="B145" s="26"/>
-      <c r="C145" s="25"/>
-      <c r="D145" s="25"/>
-      <c r="E145" s="25"/>
+      <c r="A145" s="63"/>
+      <c r="B145" s="65"/>
+      <c r="C145" s="64"/>
+      <c r="D145" s="64"/>
+      <c r="E145" s="64"/>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="24"/>
-      <c r="B146" s="26"/>
-      <c r="C146" s="25"/>
-      <c r="D146" s="25"/>
-      <c r="E146" s="25"/>
+      <c r="A146" s="63"/>
+      <c r="B146" s="65"/>
+      <c r="C146" s="64"/>
+      <c r="D146" s="64"/>
+      <c r="E146" s="64"/>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="24"/>
-      <c r="B147" s="26"/>
-      <c r="C147" s="25"/>
-      <c r="D147" s="25"/>
-      <c r="E147" s="25"/>
+      <c r="A147" s="63"/>
+      <c r="B147" s="65"/>
+      <c r="C147" s="64"/>
+      <c r="D147" s="64"/>
+      <c r="E147" s="64"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="24"/>
-      <c r="B148" s="26"/>
-      <c r="C148" s="25"/>
-      <c r="D148" s="25"/>
-      <c r="E148" s="25"/>
+      <c r="A148" s="63"/>
+      <c r="B148" s="65"/>
+      <c r="C148" s="64"/>
+      <c r="D148" s="64"/>
+      <c r="E148" s="64"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="24"/>
-      <c r="B149" s="26"/>
-      <c r="C149" s="25"/>
-      <c r="D149" s="25"/>
-      <c r="E149" s="25"/>
+      <c r="A149" s="63"/>
+      <c r="B149" s="65"/>
+      <c r="C149" s="64"/>
+      <c r="D149" s="64"/>
+      <c r="E149" s="64"/>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="24"/>
-      <c r="B150" s="26"/>
-      <c r="C150" s="25"/>
-      <c r="D150" s="25"/>
-      <c r="E150" s="25"/>
+      <c r="A150" s="63"/>
+      <c r="B150" s="65"/>
+      <c r="C150" s="64"/>
+      <c r="D150" s="64"/>
+      <c r="E150" s="64"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="24"/>
-      <c r="B151" s="26"/>
-      <c r="C151" s="25"/>
-      <c r="D151" s="25"/>
-      <c r="E151" s="25"/>
+      <c r="A151" s="63"/>
+      <c r="B151" s="65"/>
+      <c r="C151" s="64"/>
+      <c r="D151" s="64"/>
+      <c r="E151" s="64"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="24"/>
-      <c r="B152" s="26"/>
-      <c r="C152" s="25"/>
-      <c r="D152" s="25"/>
-      <c r="E152" s="25"/>
+      <c r="A152" s="63"/>
+      <c r="B152" s="65"/>
+      <c r="C152" s="64"/>
+      <c r="D152" s="64"/>
+      <c r="E152" s="64"/>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="24"/>
-      <c r="B153" s="26"/>
-      <c r="C153" s="25"/>
-      <c r="D153" s="25"/>
-      <c r="E153" s="25"/>
+      <c r="A153" s="63"/>
+      <c r="B153" s="65"/>
+      <c r="C153" s="64"/>
+      <c r="D153" s="64"/>
+      <c r="E153" s="64"/>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="24"/>
-      <c r="B154" s="26"/>
-      <c r="C154" s="25"/>
-      <c r="D154" s="25"/>
-      <c r="E154" s="25"/>
+      <c r="A154" s="63"/>
+      <c r="B154" s="65"/>
+      <c r="C154" s="64"/>
+      <c r="D154" s="64"/>
+      <c r="E154" s="64"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="24"/>
-      <c r="B155" s="26"/>
-      <c r="C155" s="25"/>
-      <c r="D155" s="25"/>
-      <c r="E155" s="25"/>
+      <c r="A155" s="63"/>
+      <c r="B155" s="65"/>
+      <c r="C155" s="64"/>
+      <c r="D155" s="64"/>
+      <c r="E155" s="64"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="24"/>
-      <c r="B156" s="26"/>
-      <c r="C156" s="25"/>
-      <c r="D156" s="25"/>
-      <c r="E156" s="25"/>
+      <c r="A156" s="63"/>
+      <c r="B156" s="65"/>
+      <c r="C156" s="64"/>
+      <c r="D156" s="64"/>
+      <c r="E156" s="64"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="24"/>
-      <c r="B157" s="26"/>
-      <c r="C157" s="25"/>
-      <c r="D157" s="25"/>
-      <c r="E157" s="25"/>
+      <c r="A157" s="63"/>
+      <c r="B157" s="65"/>
+      <c r="C157" s="64"/>
+      <c r="D157" s="64"/>
+      <c r="E157" s="64"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="24"/>
-      <c r="B158" s="26"/>
-      <c r="C158" s="25"/>
-      <c r="D158" s="25"/>
-      <c r="E158" s="25"/>
+      <c r="A158" s="63"/>
+      <c r="B158" s="65"/>
+      <c r="C158" s="64"/>
+      <c r="D158" s="64"/>
+      <c r="E158" s="64"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="24"/>
-      <c r="B159" s="26"/>
-      <c r="C159" s="25"/>
-      <c r="D159" s="25"/>
-      <c r="E159" s="25"/>
+      <c r="A159" s="63"/>
+      <c r="B159" s="65"/>
+      <c r="C159" s="64"/>
+      <c r="D159" s="64"/>
+      <c r="E159" s="64"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="24"/>
-      <c r="B160" s="26"/>
-      <c r="C160" s="25"/>
-      <c r="D160" s="25"/>
-      <c r="E160" s="25"/>
+      <c r="A160" s="63"/>
+      <c r="B160" s="65"/>
+      <c r="C160" s="64"/>
+      <c r="D160" s="64"/>
+      <c r="E160" s="64"/>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="24"/>
-      <c r="B161" s="26"/>
-      <c r="C161" s="25"/>
-      <c r="D161" s="25"/>
-      <c r="E161" s="25"/>
+      <c r="A161" s="63"/>
+      <c r="B161" s="65"/>
+      <c r="C161" s="64"/>
+      <c r="D161" s="64"/>
+      <c r="E161" s="64"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="24"/>
-      <c r="B162" s="26"/>
-      <c r="C162" s="25"/>
-      <c r="D162" s="25"/>
-      <c r="E162" s="25"/>
+      <c r="A162" s="63"/>
+      <c r="B162" s="65"/>
+      <c r="C162" s="64"/>
+      <c r="D162" s="64"/>
+      <c r="E162" s="64"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="24"/>
-      <c r="B163" s="26"/>
-      <c r="C163" s="25"/>
-      <c r="D163" s="25"/>
-      <c r="E163" s="25"/>
+      <c r="A163" s="63"/>
+      <c r="B163" s="65"/>
+      <c r="C163" s="64"/>
+      <c r="D163" s="64"/>
+      <c r="E163" s="64"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="24"/>
-      <c r="B164" s="26"/>
-      <c r="C164" s="25"/>
-      <c r="D164" s="25"/>
-      <c r="E164" s="25"/>
+      <c r="A164" s="63"/>
+      <c r="B164" s="65"/>
+      <c r="C164" s="64"/>
+      <c r="D164" s="64"/>
+      <c r="E164" s="64"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="24"/>
-      <c r="B165" s="26"/>
-      <c r="C165" s="25"/>
-      <c r="D165" s="25"/>
-      <c r="E165" s="25"/>
+      <c r="A165" s="63"/>
+      <c r="B165" s="65"/>
+      <c r="C165" s="64"/>
+      <c r="D165" s="64"/>
+      <c r="E165" s="64"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="24"/>
-      <c r="B166" s="26"/>
-      <c r="C166" s="25"/>
-      <c r="D166" s="25"/>
-      <c r="E166" s="25"/>
+      <c r="A166" s="63"/>
+      <c r="B166" s="65"/>
+      <c r="C166" s="64"/>
+      <c r="D166" s="64"/>
+      <c r="E166" s="64"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="24"/>
-      <c r="B167" s="26"/>
-      <c r="C167" s="25"/>
-      <c r="D167" s="25"/>
-      <c r="E167" s="25"/>
+      <c r="A167" s="63"/>
+      <c r="B167" s="65"/>
+      <c r="C167" s="64"/>
+      <c r="D167" s="64"/>
+      <c r="E167" s="64"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="24"/>
-      <c r="B168" s="26"/>
-      <c r="C168" s="25"/>
-      <c r="D168" s="25"/>
-      <c r="E168" s="25"/>
+      <c r="A168" s="63"/>
+      <c r="B168" s="65"/>
+      <c r="C168" s="64"/>
+      <c r="D168" s="64"/>
+      <c r="E168" s="64"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="24"/>
-      <c r="B169" s="26"/>
-      <c r="C169" s="25"/>
-      <c r="D169" s="25"/>
-      <c r="E169" s="25"/>
+      <c r="A169" s="63"/>
+      <c r="B169" s="65"/>
+      <c r="C169" s="64"/>
+      <c r="D169" s="64"/>
+      <c r="E169" s="64"/>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="24"/>
-      <c r="B170" s="26"/>
-      <c r="C170" s="25"/>
-      <c r="D170" s="25"/>
-      <c r="E170" s="25"/>
+      <c r="A170" s="63"/>
+      <c r="B170" s="65"/>
+      <c r="C170" s="64"/>
+      <c r="D170" s="64"/>
+      <c r="E170" s="64"/>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="24"/>
-      <c r="B171" s="26"/>
-      <c r="C171" s="25"/>
-      <c r="D171" s="25"/>
-      <c r="E171" s="25"/>
+      <c r="A171" s="63"/>
+      <c r="B171" s="65"/>
+      <c r="C171" s="64"/>
+      <c r="D171" s="64"/>
+      <c r="E171" s="64"/>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="24"/>
-      <c r="B172" s="26"/>
-      <c r="C172" s="25"/>
-      <c r="D172" s="25"/>
-      <c r="E172" s="25"/>
+      <c r="A172" s="63"/>
+      <c r="B172" s="65"/>
+      <c r="C172" s="64"/>
+      <c r="D172" s="64"/>
+      <c r="E172" s="64"/>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="24"/>
-      <c r="B173" s="26"/>
-      <c r="C173" s="25"/>
-      <c r="D173" s="25"/>
-      <c r="E173" s="25"/>
+      <c r="A173" s="63"/>
+      <c r="B173" s="65"/>
+      <c r="C173" s="64"/>
+      <c r="D173" s="64"/>
+      <c r="E173" s="64"/>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="24"/>
-      <c r="B174" s="26"/>
-      <c r="C174" s="25"/>
-      <c r="D174" s="25"/>
-      <c r="E174" s="25"/>
+      <c r="A174" s="63"/>
+      <c r="B174" s="65"/>
+      <c r="C174" s="64"/>
+      <c r="D174" s="64"/>
+      <c r="E174" s="64"/>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="24"/>
-      <c r="B175" s="26"/>
-      <c r="C175" s="25"/>
-      <c r="D175" s="25"/>
-      <c r="E175" s="25"/>
+      <c r="A175" s="63"/>
+      <c r="B175" s="65"/>
+      <c r="C175" s="64"/>
+      <c r="D175" s="64"/>
+      <c r="E175" s="64"/>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="24"/>
-      <c r="B176" s="26"/>
-      <c r="C176" s="25"/>
-      <c r="D176" s="25"/>
-      <c r="E176" s="25"/>
+      <c r="A176" s="63"/>
+      <c r="B176" s="65"/>
+      <c r="C176" s="64"/>
+      <c r="D176" s="64"/>
+      <c r="E176" s="64"/>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="24"/>
-      <c r="B177" s="26"/>
-      <c r="C177" s="25"/>
-      <c r="D177" s="25"/>
-      <c r="E177" s="25"/>
+      <c r="A177" s="63"/>
+      <c r="B177" s="65"/>
+      <c r="C177" s="64"/>
+      <c r="D177" s="64"/>
+      <c r="E177" s="64"/>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="24"/>
-      <c r="B178" s="26"/>
-      <c r="C178" s="25"/>
-      <c r="D178" s="25"/>
-      <c r="E178" s="25"/>
+      <c r="A178" s="63"/>
+      <c r="B178" s="65"/>
+      <c r="C178" s="64"/>
+      <c r="D178" s="64"/>
+      <c r="E178" s="64"/>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="24"/>
-      <c r="B179" s="26"/>
-      <c r="C179" s="25"/>
-      <c r="D179" s="25"/>
-      <c r="E179" s="25"/>
+      <c r="A179" s="63"/>
+      <c r="B179" s="65"/>
+      <c r="C179" s="64"/>
+      <c r="D179" s="64"/>
+      <c r="E179" s="64"/>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="24"/>
-      <c r="B180" s="26"/>
-      <c r="C180" s="25"/>
-      <c r="D180" s="25"/>
-      <c r="E180" s="25"/>
+      <c r="A180" s="63"/>
+      <c r="B180" s="65"/>
+      <c r="C180" s="64"/>
+      <c r="D180" s="64"/>
+      <c r="E180" s="64"/>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="24"/>
-      <c r="B181" s="26"/>
-      <c r="C181" s="25"/>
-      <c r="D181" s="25"/>
-      <c r="E181" s="25"/>
+      <c r="A181" s="63"/>
+      <c r="B181" s="65"/>
+      <c r="C181" s="64"/>
+      <c r="D181" s="64"/>
+      <c r="E181" s="64"/>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="24"/>
-      <c r="B182" s="26"/>
-      <c r="C182" s="25"/>
-      <c r="D182" s="25"/>
-      <c r="E182" s="25"/>
+      <c r="A182" s="63"/>
+      <c r="B182" s="65"/>
+      <c r="C182" s="64"/>
+      <c r="D182" s="64"/>
+      <c r="E182" s="64"/>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="24"/>
-      <c r="B183" s="26"/>
-      <c r="C183" s="25"/>
-      <c r="D183" s="25"/>
-      <c r="E183" s="25"/>
+      <c r="A183" s="63"/>
+      <c r="B183" s="65"/>
+      <c r="C183" s="64"/>
+      <c r="D183" s="64"/>
+      <c r="E183" s="64"/>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="24"/>
-      <c r="B184" s="26"/>
-      <c r="C184" s="25"/>
-      <c r="D184" s="25"/>
-      <c r="E184" s="25"/>
+      <c r="A184" s="63"/>
+      <c r="B184" s="65"/>
+      <c r="C184" s="64"/>
+      <c r="D184" s="64"/>
+      <c r="E184" s="64"/>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="24"/>
-      <c r="B185" s="26"/>
-      <c r="C185" s="25"/>
-      <c r="D185" s="25"/>
-      <c r="E185" s="25"/>
+      <c r="A185" s="63"/>
+      <c r="B185" s="65"/>
+      <c r="C185" s="64"/>
+      <c r="D185" s="64"/>
+      <c r="E185" s="64"/>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="24"/>
-      <c r="B186" s="26"/>
-      <c r="C186" s="25"/>
-      <c r="D186" s="25"/>
-      <c r="E186" s="25"/>
+      <c r="A186" s="63"/>
+      <c r="B186" s="65"/>
+      <c r="C186" s="64"/>
+      <c r="D186" s="64"/>
+      <c r="E186" s="64"/>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="24"/>
-      <c r="B187" s="26"/>
-      <c r="C187" s="25"/>
-      <c r="D187" s="25"/>
-      <c r="E187" s="25"/>
+      <c r="A187" s="63"/>
+      <c r="B187" s="65"/>
+      <c r="C187" s="64"/>
+      <c r="D187" s="64"/>
+      <c r="E187" s="64"/>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="24"/>
-      <c r="B188" s="26"/>
-      <c r="C188" s="25"/>
-      <c r="D188" s="25"/>
-      <c r="E188" s="25"/>
+      <c r="A188" s="63"/>
+      <c r="B188" s="65"/>
+      <c r="C188" s="64"/>
+      <c r="D188" s="64"/>
+      <c r="E188" s="64"/>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189" s="24"/>
-      <c r="B189" s="26"/>
-      <c r="C189" s="25"/>
-      <c r="D189" s="25"/>
-      <c r="E189" s="25"/>
+      <c r="A189" s="63"/>
+      <c r="B189" s="65"/>
+      <c r="C189" s="64"/>
+      <c r="D189" s="64"/>
+      <c r="E189" s="64"/>
     </row>
     <row r="190" spans="1:5">
-      <c r="A190" s="24"/>
-      <c r="B190" s="26"/>
-      <c r="C190" s="25"/>
-      <c r="D190" s="25"/>
-      <c r="E190" s="25"/>
+      <c r="A190" s="63"/>
+      <c r="B190" s="65"/>
+      <c r="C190" s="64"/>
+      <c r="D190" s="64"/>
+      <c r="E190" s="64"/>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="24"/>
-      <c r="B191" s="26"/>
-      <c r="C191" s="25"/>
-      <c r="D191" s="25"/>
-      <c r="E191" s="25"/>
+      <c r="A191" s="63"/>
+      <c r="B191" s="65"/>
+      <c r="C191" s="64"/>
+      <c r="D191" s="64"/>
+      <c r="E191" s="64"/>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192" s="24"/>
-      <c r="B192" s="26"/>
-      <c r="C192" s="25"/>
-      <c r="D192" s="25"/>
-      <c r="E192" s="25"/>
+      <c r="A192" s="63"/>
+      <c r="B192" s="65"/>
+      <c r="C192" s="64"/>
+      <c r="D192" s="64"/>
+      <c r="E192" s="64"/>
     </row>
     <row r="193" spans="1:5">
-      <c r="A193" s="24"/>
-      <c r="B193" s="26"/>
-      <c r="C193" s="25"/>
-      <c r="D193" s="25"/>
-      <c r="E193" s="25"/>
+      <c r="A193" s="63"/>
+      <c r="B193" s="65"/>
+      <c r="C193" s="64"/>
+      <c r="D193" s="64"/>
+      <c r="E193" s="64"/>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194" s="24"/>
-      <c r="B194" s="26"/>
-      <c r="C194" s="25"/>
-      <c r="D194" s="25"/>
-      <c r="E194" s="25"/>
+      <c r="A194" s="63"/>
+      <c r="B194" s="65"/>
+      <c r="C194" s="64"/>
+      <c r="D194" s="64"/>
+      <c r="E194" s="64"/>
     </row>
     <row r="195" spans="1:5">
-      <c r="A195" s="24"/>
-      <c r="B195" s="26"/>
-      <c r="C195" s="25"/>
-      <c r="D195" s="25"/>
-      <c r="E195" s="25"/>
+      <c r="A195" s="63"/>
+      <c r="B195" s="65"/>
+      <c r="C195" s="64"/>
+      <c r="D195" s="64"/>
+      <c r="E195" s="64"/>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196" s="24"/>
-      <c r="B196" s="26"/>
-      <c r="C196" s="25"/>
-      <c r="D196" s="25"/>
-      <c r="E196" s="25"/>
+      <c r="A196" s="63"/>
+      <c r="B196" s="65"/>
+      <c r="C196" s="64"/>
+      <c r="D196" s="64"/>
+      <c r="E196" s="64"/>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197" s="24"/>
-      <c r="B197" s="26"/>
-      <c r="C197" s="25"/>
-      <c r="D197" s="25"/>
-      <c r="E197" s="25"/>
+      <c r="A197" s="63"/>
+      <c r="B197" s="65"/>
+      <c r="C197" s="64"/>
+      <c r="D197" s="64"/>
+      <c r="E197" s="64"/>
     </row>
     <row r="198" spans="1:5">
-      <c r="A198" s="24"/>
-      <c r="B198" s="26"/>
-      <c r="C198" s="25"/>
-      <c r="D198" s="25"/>
-      <c r="E198" s="25"/>
+      <c r="A198" s="63"/>
+      <c r="B198" s="65"/>
+      <c r="C198" s="64"/>
+      <c r="D198" s="64"/>
+      <c r="E198" s="64"/>
     </row>
     <row r="199" spans="1:5">
-      <c r="A199" s="24"/>
-      <c r="B199" s="26"/>
-      <c r="C199" s="25"/>
-      <c r="D199" s="25"/>
-      <c r="E199" s="25"/>
+      <c r="A199" s="63"/>
+      <c r="B199" s="65"/>
+      <c r="C199" s="64"/>
+      <c r="D199" s="64"/>
+      <c r="E199" s="64"/>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200" s="24"/>
-      <c r="B200" s="26"/>
-      <c r="C200" s="25"/>
-      <c r="D200" s="25"/>
-      <c r="E200" s="25"/>
+      <c r="A200" s="63"/>
+      <c r="B200" s="65"/>
+      <c r="C200" s="64"/>
+      <c r="D200" s="64"/>
+      <c r="E200" s="64"/>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201" s="24"/>
-      <c r="B201" s="26"/>
-      <c r="C201" s="25"/>
-      <c r="D201" s="25"/>
-      <c r="E201" s="25"/>
+      <c r="A201" s="63"/>
+      <c r="B201" s="65"/>
+      <c r="C201" s="64"/>
+      <c r="D201" s="64"/>
+      <c r="E201" s="64"/>
     </row>
     <row r="202" spans="1:5">
-      <c r="A202" s="24"/>
-      <c r="B202" s="26"/>
-      <c r="C202" s="25"/>
-      <c r="D202" s="25"/>
-      <c r="E202" s="25"/>
+      <c r="A202" s="63"/>
+      <c r="B202" s="65"/>
+      <c r="C202" s="64"/>
+      <c r="D202" s="64"/>
+      <c r="E202" s="64"/>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="24"/>
-      <c r="B203" s="26"/>
-      <c r="C203" s="25"/>
-      <c r="D203" s="25"/>
-      <c r="E203" s="25"/>
+      <c r="A203" s="63"/>
+      <c r="B203" s="65"/>
+      <c r="C203" s="64"/>
+      <c r="D203" s="64"/>
+      <c r="E203" s="64"/>
     </row>
     <row r="204" spans="1:5">
-      <c r="A204" s="24"/>
-      <c r="B204" s="26"/>
-      <c r="C204" s="25"/>
-      <c r="D204" s="25"/>
-      <c r="E204" s="25"/>
+      <c r="A204" s="63"/>
+      <c r="B204" s="65"/>
+      <c r="C204" s="64"/>
+      <c r="D204" s="64"/>
+      <c r="E204" s="64"/>
     </row>
     <row r="205" spans="1:5">
-      <c r="A205" s="24"/>
-      <c r="B205" s="26"/>
-      <c r="C205" s="25"/>
-      <c r="D205" s="25"/>
-      <c r="E205" s="25"/>
+      <c r="A205" s="63"/>
+      <c r="B205" s="65"/>
+      <c r="C205" s="64"/>
+      <c r="D205" s="64"/>
+      <c r="E205" s="64"/>
     </row>
     <row r="206" spans="1:5">
-      <c r="A206" s="24"/>
-      <c r="B206" s="26"/>
-      <c r="C206" s="25"/>
-      <c r="D206" s="25"/>
-      <c r="E206" s="25"/>
+      <c r="A206" s="63"/>
+      <c r="B206" s="65"/>
+      <c r="C206" s="64"/>
+      <c r="D206" s="64"/>
+      <c r="E206" s="64"/>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207" s="24"/>
-      <c r="B207" s="26"/>
-      <c r="C207" s="25"/>
-      <c r="D207" s="25"/>
-      <c r="E207" s="25"/>
+      <c r="A207" s="63"/>
+      <c r="B207" s="65"/>
+      <c r="C207" s="64"/>
+      <c r="D207" s="64"/>
+      <c r="E207" s="64"/>
     </row>
     <row r="208" spans="1:5">
-      <c r="A208" s="24"/>
-      <c r="B208" s="26"/>
-      <c r="C208" s="25"/>
-      <c r="D208" s="25"/>
-      <c r="E208" s="25"/>
+      <c r="A208" s="63"/>
+      <c r="B208" s="65"/>
+      <c r="C208" s="64"/>
+      <c r="D208" s="64"/>
+      <c r="E208" s="64"/>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="24"/>
-      <c r="B209" s="26"/>
-      <c r="C209" s="25"/>
-      <c r="D209" s="25"/>
-      <c r="E209" s="25"/>
+      <c r="A209" s="63"/>
+      <c r="B209" s="65"/>
+      <c r="C209" s="64"/>
+      <c r="D209" s="64"/>
+      <c r="E209" s="64"/>
     </row>
     <row r="210" spans="1:5">
-      <c r="A210" s="24"/>
-      <c r="B210" s="26"/>
-      <c r="C210" s="25"/>
-      <c r="D210" s="25"/>
-      <c r="E210" s="25"/>
+      <c r="A210" s="63"/>
+      <c r="B210" s="65"/>
+      <c r="C210" s="64"/>
+      <c r="D210" s="64"/>
+      <c r="E210" s="64"/>
     </row>
     <row r="211" spans="1:5">
-      <c r="A211" s="24"/>
-      <c r="B211" s="26"/>
-      <c r="C211" s="25"/>
-      <c r="D211" s="25"/>
-      <c r="E211" s="25"/>
+      <c r="A211" s="63"/>
+      <c r="B211" s="65"/>
+      <c r="C211" s="64"/>
+      <c r="D211" s="64"/>
+      <c r="E211" s="64"/>
     </row>
     <row r="212" spans="1:5">
-      <c r="A212" s="24"/>
-      <c r="B212" s="26"/>
-      <c r="C212" s="25"/>
-      <c r="D212" s="25"/>
-      <c r="E212" s="25"/>
+      <c r="A212" s="63"/>
+      <c r="B212" s="65"/>
+      <c r="C212" s="64"/>
+      <c r="D212" s="64"/>
+      <c r="E212" s="64"/>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213" s="24"/>
-      <c r="B213" s="26"/>
-      <c r="C213" s="25"/>
-      <c r="D213" s="25"/>
-      <c r="E213" s="25"/>
+      <c r="A213" s="63"/>
+      <c r="B213" s="65"/>
+      <c r="C213" s="64"/>
+      <c r="D213" s="64"/>
+      <c r="E213" s="64"/>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214" s="24"/>
-      <c r="B214" s="26"/>
-      <c r="C214" s="25"/>
-      <c r="D214" s="25"/>
-      <c r="E214" s="25"/>
+      <c r="A214" s="63"/>
+      <c r="B214" s="65"/>
+      <c r="C214" s="64"/>
+      <c r="D214" s="64"/>
+      <c r="E214" s="64"/>
     </row>
     <row r="215" spans="1:5">
-      <c r="A215" s="24"/>
-      <c r="B215" s="26"/>
-      <c r="C215" s="25"/>
-      <c r="D215" s="25"/>
-      <c r="E215" s="25"/>
+      <c r="A215" s="63"/>
+      <c r="B215" s="65"/>
+      <c r="C215" s="64"/>
+      <c r="D215" s="64"/>
+      <c r="E215" s="64"/>
     </row>
     <row r="216" spans="1:5">
-      <c r="A216" s="24"/>
-      <c r="B216" s="26"/>
-      <c r="C216" s="25"/>
-      <c r="D216" s="25"/>
-      <c r="E216" s="25"/>
+      <c r="A216" s="63"/>
+      <c r="B216" s="65"/>
+      <c r="C216" s="64"/>
+      <c r="D216" s="64"/>
+      <c r="E216" s="64"/>
     </row>
     <row r="217" spans="1:5">
-      <c r="A217" s="24"/>
-      <c r="B217" s="26"/>
-      <c r="C217" s="25"/>
-      <c r="D217" s="25"/>
-      <c r="E217" s="25"/>
+      <c r="A217" s="63"/>
+      <c r="B217" s="65"/>
+      <c r="C217" s="64"/>
+      <c r="D217" s="64"/>
+      <c r="E217" s="64"/>
     </row>
     <row r="218" spans="1:5">
-      <c r="A218" s="24"/>
-      <c r="B218" s="26"/>
-      <c r="C218" s="25"/>
-      <c r="D218" s="25"/>
-      <c r="E218" s="25"/>
+      <c r="A218" s="63"/>
+      <c r="B218" s="65"/>
+      <c r="C218" s="64"/>
+      <c r="D218" s="64"/>
+      <c r="E218" s="64"/>
     </row>
     <row r="219" spans="1:5">
-      <c r="A219" s="24"/>
-      <c r="B219" s="26"/>
-      <c r="C219" s="25"/>
-      <c r="D219" s="25"/>
-      <c r="E219" s="25"/>
+      <c r="A219" s="63"/>
+      <c r="B219" s="65"/>
+      <c r="C219" s="64"/>
+      <c r="D219" s="64"/>
+      <c r="E219" s="64"/>
     </row>
     <row r="220" spans="1:5">
-      <c r="A220" s="24"/>
-      <c r="B220" s="26"/>
-      <c r="C220" s="25"/>
-      <c r="D220" s="25"/>
-      <c r="E220" s="25"/>
+      <c r="A220" s="63"/>
+      <c r="B220" s="65"/>
+      <c r="C220" s="64"/>
+      <c r="D220" s="64"/>
+      <c r="E220" s="64"/>
     </row>
     <row r="221" spans="1:5">
-      <c r="A221" s="24"/>
-      <c r="B221" s="26"/>
-      <c r="C221" s="25"/>
-      <c r="D221" s="25"/>
-      <c r="E221" s="25"/>
+      <c r="A221" s="63"/>
+      <c r="B221" s="65"/>
+      <c r="C221" s="64"/>
+      <c r="D221" s="64"/>
+      <c r="E221" s="64"/>
     </row>
     <row r="222" spans="1:5">
-      <c r="A222" s="24"/>
-      <c r="B222" s="26"/>
-      <c r="C222" s="25"/>
-      <c r="D222" s="25"/>
-      <c r="E222" s="25"/>
+      <c r="A222" s="63"/>
+      <c r="B222" s="65"/>
+      <c r="C222" s="64"/>
+      <c r="D222" s="64"/>
+      <c r="E222" s="64"/>
     </row>
     <row r="223" spans="1:5">
-      <c r="A223" s="24"/>
-      <c r="B223" s="26"/>
-      <c r="C223" s="25"/>
-      <c r="D223" s="25"/>
-      <c r="E223" s="25"/>
+      <c r="A223" s="63"/>
+      <c r="B223" s="65"/>
+      <c r="C223" s="64"/>
+      <c r="D223" s="64"/>
+      <c r="E223" s="64"/>
     </row>
     <row r="224" spans="1:5">
-      <c r="A224" s="24"/>
-      <c r="B224" s="26"/>
-      <c r="C224" s="25"/>
-      <c r="D224" s="25"/>
-      <c r="E224" s="25"/>
+      <c r="A224" s="63"/>
+      <c r="B224" s="65"/>
+      <c r="C224" s="64"/>
+      <c r="D224" s="64"/>
+      <c r="E224" s="64"/>
     </row>
     <row r="225" spans="1:5">
-      <c r="A225" s="24"/>
-      <c r="B225" s="26"/>
-      <c r="C225" s="25"/>
-      <c r="D225" s="25"/>
-      <c r="E225" s="25"/>
+      <c r="A225" s="63"/>
+      <c r="B225" s="65"/>
+      <c r="C225" s="64"/>
+      <c r="D225" s="64"/>
+      <c r="E225" s="64"/>
     </row>
     <row r="226" spans="1:5">
-      <c r="A226" s="24"/>
-      <c r="B226" s="26"/>
-      <c r="C226" s="25"/>
-      <c r="D226" s="25"/>
-      <c r="E226" s="25"/>
+      <c r="A226" s="63"/>
+      <c r="B226" s="65"/>
+      <c r="C226" s="64"/>
+      <c r="D226" s="64"/>
+      <c r="E226" s="64"/>
     </row>
     <row r="227" spans="1:5">
-      <c r="A227" s="24"/>
-      <c r="B227" s="26"/>
-      <c r="C227" s="25"/>
-      <c r="D227" s="25"/>
-      <c r="E227" s="25"/>
+      <c r="A227" s="63"/>
+      <c r="B227" s="65"/>
+      <c r="C227" s="64"/>
+      <c r="D227" s="64"/>
+      <c r="E227" s="64"/>
     </row>
     <row r="228" spans="1:5">
-      <c r="A228" s="24"/>
-      <c r="B228" s="26"/>
-      <c r="C228" s="25"/>
-      <c r="D228" s="25"/>
-      <c r="E228" s="25"/>
+      <c r="A228" s="63"/>
+      <c r="B228" s="65"/>
+      <c r="C228" s="64"/>
+      <c r="D228" s="64"/>
+      <c r="E228" s="64"/>
     </row>
     <row r="229" spans="1:5">
-      <c r="A229" s="24"/>
-      <c r="B229" s="26"/>
-      <c r="C229" s="25"/>
-      <c r="D229" s="25"/>
-      <c r="E229" s="25"/>
+      <c r="A229" s="63"/>
+      <c r="B229" s="65"/>
+      <c r="C229" s="64"/>
+      <c r="D229" s="64"/>
+      <c r="E229" s="64"/>
     </row>
     <row r="230" spans="1:5">
-      <c r="A230" s="24"/>
-      <c r="B230" s="26"/>
-      <c r="C230" s="25"/>
-      <c r="D230" s="25"/>
-      <c r="E230" s="25"/>
+      <c r="A230" s="63"/>
+      <c r="B230" s="65"/>
+      <c r="C230" s="64"/>
+      <c r="D230" s="64"/>
+      <c r="E230" s="64"/>
     </row>
     <row r="231" spans="1:5">
-      <c r="A231" s="24"/>
-      <c r="B231" s="26"/>
-      <c r="C231" s="25"/>
-      <c r="D231" s="25"/>
-      <c r="E231" s="25"/>
+      <c r="A231" s="63"/>
+      <c r="B231" s="65"/>
+      <c r="C231" s="64"/>
+      <c r="D231" s="64"/>
+      <c r="E231" s="64"/>
     </row>
     <row r="232" spans="1:5">
-      <c r="A232" s="24"/>
-      <c r="B232" s="26"/>
-      <c r="C232" s="25"/>
-      <c r="D232" s="25"/>
-      <c r="E232" s="25"/>
+      <c r="A232" s="63"/>
+      <c r="B232" s="65"/>
+      <c r="C232" s="64"/>
+      <c r="D232" s="64"/>
+      <c r="E232" s="64"/>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" s="24"/>
-      <c r="B233" s="26"/>
-      <c r="C233" s="25"/>
-      <c r="D233" s="25"/>
-      <c r="E233" s="25"/>
+      <c r="A233" s="63"/>
+      <c r="B233" s="65"/>
+      <c r="C233" s="64"/>
+      <c r="D233" s="64"/>
+      <c r="E233" s="64"/>
     </row>
     <row r="234" spans="1:5">
-      <c r="A234" s="24"/>
-      <c r="B234" s="26"/>
-      <c r="C234" s="25"/>
-      <c r="D234" s="25"/>
-      <c r="E234" s="25"/>
+      <c r="A234" s="63"/>
+      <c r="B234" s="65"/>
+      <c r="C234" s="64"/>
+      <c r="D234" s="64"/>
+      <c r="E234" s="64"/>
     </row>
     <row r="235" spans="1:5">
-      <c r="A235" s="24"/>
-      <c r="B235" s="26"/>
-      <c r="C235" s="25"/>
-      <c r="D235" s="25"/>
-      <c r="E235" s="25"/>
+      <c r="A235" s="63"/>
+      <c r="B235" s="65"/>
+      <c r="C235" s="64"/>
+      <c r="D235" s="64"/>
+      <c r="E235" s="64"/>
     </row>
     <row r="236" spans="1:5">
-      <c r="A236" s="24"/>
-      <c r="B236" s="26"/>
-      <c r="C236" s="25"/>
-      <c r="D236" s="25"/>
-      <c r="E236" s="25"/>
+      <c r="A236" s="63"/>
+      <c r="B236" s="65"/>
+      <c r="C236" s="64"/>
+      <c r="D236" s="64"/>
+      <c r="E236" s="64"/>
     </row>
     <row r="237" spans="1:5">
-      <c r="A237" s="24"/>
-      <c r="B237" s="26"/>
-      <c r="C237" s="25"/>
-      <c r="D237" s="25"/>
-      <c r="E237" s="25"/>
+      <c r="A237" s="63"/>
+      <c r="B237" s="65"/>
+      <c r="C237" s="64"/>
+      <c r="D237" s="64"/>
+      <c r="E237" s="64"/>
     </row>
     <row r="238" spans="1:5">
-      <c r="A238" s="24"/>
-      <c r="B238" s="26"/>
-      <c r="C238" s="25"/>
-      <c r="D238" s="25"/>
-      <c r="E238" s="25"/>
+      <c r="A238" s="63"/>
+      <c r="B238" s="65"/>
+      <c r="C238" s="64"/>
+      <c r="D238" s="64"/>
+      <c r="E238" s="64"/>
     </row>
     <row r="239" spans="1:5">
-      <c r="A239" s="24"/>
-      <c r="B239" s="26"/>
-      <c r="C239" s="25"/>
-      <c r="D239" s="25"/>
-      <c r="E239" s="25"/>
+      <c r="A239" s="63"/>
+      <c r="B239" s="65"/>
+      <c r="C239" s="64"/>
+      <c r="D239" s="64"/>
+      <c r="E239" s="64"/>
     </row>
     <row r="240" spans="1:5">
-      <c r="A240" s="24"/>
-      <c r="B240" s="26"/>
-      <c r="C240" s="25"/>
-      <c r="D240" s="25"/>
-      <c r="E240" s="25"/>
+      <c r="A240" s="63"/>
+      <c r="B240" s="65"/>
+      <c r="C240" s="64"/>
+      <c r="D240" s="64"/>
+      <c r="E240" s="64"/>
     </row>
     <row r="241" spans="1:5">
-      <c r="A241" s="24"/>
-      <c r="B241" s="26"/>
-      <c r="C241" s="25"/>
-      <c r="D241" s="25"/>
-      <c r="E241" s="25"/>
+      <c r="A241" s="63"/>
+      <c r="B241" s="65"/>
+      <c r="C241" s="64"/>
+      <c r="D241" s="64"/>
+      <c r="E241" s="64"/>
     </row>
     <row r="242" spans="1:5">
-      <c r="A242" s="24"/>
-      <c r="B242" s="26"/>
-      <c r="C242" s="25"/>
-      <c r="D242" s="25"/>
-      <c r="E242" s="25"/>
+      <c r="A242" s="63"/>
+      <c r="B242" s="65"/>
+      <c r="C242" s="64"/>
+      <c r="D242" s="64"/>
+      <c r="E242" s="64"/>
     </row>
     <row r="243" spans="1:5">
-      <c r="A243" s="24"/>
-      <c r="B243" s="26"/>
-      <c r="C243" s="25"/>
-      <c r="D243" s="25"/>
-      <c r="E243" s="25"/>
+      <c r="A243" s="63"/>
+      <c r="B243" s="65"/>
+      <c r="C243" s="64"/>
+      <c r="D243" s="64"/>
+      <c r="E243" s="64"/>
     </row>
     <row r="244" spans="1:5">
-      <c r="A244" s="24"/>
-      <c r="B244" s="26"/>
-      <c r="C244" s="25"/>
-      <c r="D244" s="25"/>
-      <c r="E244" s="25"/>
+      <c r="A244" s="63"/>
+      <c r="B244" s="65"/>
+      <c r="C244" s="64"/>
+      <c r="D244" s="64"/>
+      <c r="E244" s="64"/>
     </row>
     <row r="245" spans="1:5">
-      <c r="A245" s="24"/>
-      <c r="B245" s="26"/>
-      <c r="C245" s="25"/>
-      <c r="D245" s="25"/>
-      <c r="E245" s="25"/>
+      <c r="A245" s="63"/>
+      <c r="B245" s="65"/>
+      <c r="C245" s="64"/>
+      <c r="D245" s="64"/>
+      <c r="E245" s="64"/>
     </row>
     <row r="246" spans="1:5">
-      <c r="A246" s="24"/>
-      <c r="B246" s="26"/>
-      <c r="C246" s="25"/>
-      <c r="D246" s="25"/>
-      <c r="E246" s="25"/>
+      <c r="A246" s="63"/>
+      <c r="B246" s="65"/>
+      <c r="C246" s="64"/>
+      <c r="D246" s="64"/>
+      <c r="E246" s="64"/>
     </row>
     <row r="247" spans="1:5">
-      <c r="A247" s="24"/>
-      <c r="B247" s="26"/>
-      <c r="C247" s="25"/>
-      <c r="D247" s="25"/>
-      <c r="E247" s="25"/>
+      <c r="A247" s="63"/>
+      <c r="B247" s="65"/>
+      <c r="C247" s="64"/>
+      <c r="D247" s="64"/>
+      <c r="E247" s="64"/>
     </row>
     <row r="248" spans="1:5">
-      <c r="A248" s="24"/>
-      <c r="B248" s="26"/>
-      <c r="C248" s="25"/>
-      <c r="D248" s="25"/>
-      <c r="E248" s="25"/>
+      <c r="A248" s="63"/>
+      <c r="B248" s="65"/>
+      <c r="C248" s="64"/>
+      <c r="D248" s="64"/>
+      <c r="E248" s="64"/>
     </row>
     <row r="249" spans="1:5">
-      <c r="A249" s="24"/>
-      <c r="B249" s="26"/>
-      <c r="C249" s="25"/>
-      <c r="D249" s="25"/>
-      <c r="E249" s="25"/>
+      <c r="A249" s="63"/>
+      <c r="B249" s="65"/>
+      <c r="C249" s="64"/>
+      <c r="D249" s="64"/>
+      <c r="E249" s="64"/>
     </row>
     <row r="250" spans="1:5">
-      <c r="A250" s="24"/>
-      <c r="B250" s="26"/>
-      <c r="C250" s="25"/>
-      <c r="D250" s="25"/>
-      <c r="E250" s="25"/>
+      <c r="A250" s="63"/>
+      <c r="B250" s="65"/>
+      <c r="C250" s="64"/>
+      <c r="D250" s="64"/>
+      <c r="E250" s="64"/>
     </row>
     <row r="251" spans="1:5">
-      <c r="A251" s="24"/>
-      <c r="B251" s="26"/>
-      <c r="C251" s="25"/>
-      <c r="D251" s="25"/>
-      <c r="E251" s="25"/>
+      <c r="A251" s="63"/>
+      <c r="B251" s="65"/>
+      <c r="C251" s="64"/>
+      <c r="D251" s="64"/>
+      <c r="E251" s="64"/>
     </row>
     <row r="252" spans="1:5">
-      <c r="A252" s="24"/>
-      <c r="B252" s="26"/>
-      <c r="C252" s="25"/>
-      <c r="D252" s="25"/>
-      <c r="E252" s="25"/>
+      <c r="A252" s="63"/>
+      <c r="B252" s="65"/>
+      <c r="C252" s="64"/>
+      <c r="D252" s="64"/>
+      <c r="E252" s="64"/>
     </row>
     <row r="253" spans="1:5">
-      <c r="A253" s="17"/>
-      <c r="B253" s="18"/>
-      <c r="C253" s="18"/>
-      <c r="D253" s="18"/>
-      <c r="E253" s="18"/>
+      <c r="A253" s="66"/>
+      <c r="B253" s="67"/>
+      <c r="C253" s="67"/>
+      <c r="D253" s="67"/>
+      <c r="E253" s="67"/>
     </row>
     <row r="254" spans="1:5">
-      <c r="A254" s="17"/>
-      <c r="B254" s="18"/>
-      <c r="C254" s="18"/>
-      <c r="D254" s="18"/>
-      <c r="E254" s="18"/>
+      <c r="A254" s="66"/>
+      <c r="B254" s="67"/>
+      <c r="C254" s="67"/>
+      <c r="D254" s="67"/>
+      <c r="E254" s="67"/>
     </row>
     <row r="255" spans="1:5">
-      <c r="A255" s="17"/>
-      <c r="B255" s="18"/>
-      <c r="C255" s="18"/>
-      <c r="D255" s="18"/>
-      <c r="E255" s="18"/>
+      <c r="A255" s="66"/>
+      <c r="B255" s="67"/>
+      <c r="C255" s="67"/>
+      <c r="D255" s="67"/>
+      <c r="E255" s="67"/>
     </row>
     <row r="256" spans="1:5">
-      <c r="A256" s="17"/>
-      <c r="B256" s="18"/>
-      <c r="C256" s="18"/>
-      <c r="D256" s="18"/>
-      <c r="E256" s="18"/>
+      <c r="A256" s="66"/>
+      <c r="B256" s="67"/>
+      <c r="C256" s="67"/>
+      <c r="D256" s="67"/>
+      <c r="E256" s="67"/>
     </row>
     <row r="257" spans="1:5">
-      <c r="A257" s="17"/>
-      <c r="B257" s="18"/>
-      <c r="C257" s="18"/>
-      <c r="D257" s="18"/>
-      <c r="E257" s="18"/>
+      <c r="A257" s="66"/>
+      <c r="B257" s="67"/>
+      <c r="C257" s="67"/>
+      <c r="D257" s="67"/>
+      <c r="E257" s="67"/>
     </row>
     <row r="258" spans="1:5">
-      <c r="A258" s="17"/>
-      <c r="B258" s="18"/>
-      <c r="C258" s="18"/>
-      <c r="D258" s="18"/>
-      <c r="E258" s="18"/>
+      <c r="A258" s="66"/>
+      <c r="B258" s="67"/>
+      <c r="C258" s="67"/>
+      <c r="D258" s="67"/>
+      <c r="E258" s="67"/>
     </row>
     <row r="259" spans="1:5">
-      <c r="A259" s="17"/>
-      <c r="B259" s="18"/>
-      <c r="C259" s="18"/>
-      <c r="D259" s="18"/>
-      <c r="E259" s="18"/>
+      <c r="A259" s="66"/>
+      <c r="B259" s="67"/>
+      <c r="C259" s="67"/>
+      <c r="D259" s="67"/>
+      <c r="E259" s="67"/>
     </row>
     <row r="260" spans="1:5">
-      <c r="A260" s="17"/>
-      <c r="B260" s="18"/>
-      <c r="C260" s="18"/>
-      <c r="D260" s="18"/>
-      <c r="E260" s="18"/>
+      <c r="A260" s="66"/>
+      <c r="B260" s="67"/>
+      <c r="C260" s="67"/>
+      <c r="D260" s="67"/>
+      <c r="E260" s="67"/>
     </row>
     <row r="261" spans="1:5">
-      <c r="A261" s="17"/>
-      <c r="B261" s="18"/>
-      <c r="C261" s="18"/>
-      <c r="D261" s="18"/>
-      <c r="E261" s="18"/>
+      <c r="A261" s="66"/>
+      <c r="B261" s="67"/>
+      <c r="C261" s="67"/>
+      <c r="D261" s="67"/>
+      <c r="E261" s="67"/>
     </row>
     <row r="262" spans="1:5">
-      <c r="A262" s="17"/>
-      <c r="B262" s="18"/>
-      <c r="C262" s="18"/>
-      <c r="D262" s="18"/>
-      <c r="E262" s="18"/>
+      <c r="A262" s="66"/>
+      <c r="B262" s="67"/>
+      <c r="C262" s="67"/>
+      <c r="D262" s="67"/>
+      <c r="E262" s="67"/>
     </row>
     <row r="263" spans="1:5">
-      <c r="A263" s="17"/>
-      <c r="B263" s="18"/>
-      <c r="C263" s="18"/>
-      <c r="D263" s="18"/>
-      <c r="E263" s="18"/>
+      <c r="A263" s="66"/>
+      <c r="B263" s="67"/>
+      <c r="C263" s="67"/>
+      <c r="D263" s="67"/>
+      <c r="E263" s="67"/>
     </row>
     <row r="264" spans="1:5">
-      <c r="A264" s="17"/>
-      <c r="B264" s="18"/>
-      <c r="C264" s="18"/>
-      <c r="D264" s="18"/>
-      <c r="E264" s="18"/>
+      <c r="A264" s="66"/>
+      <c r="B264" s="67"/>
+      <c r="C264" s="67"/>
+      <c r="D264" s="67"/>
+      <c r="E264" s="67"/>
     </row>
     <row r="265" spans="1:5">
-      <c r="A265" s="17"/>
-      <c r="B265" s="18"/>
-      <c r="C265" s="18"/>
-      <c r="D265" s="18"/>
-      <c r="E265" s="18"/>
+      <c r="A265" s="66"/>
+      <c r="B265" s="67"/>
+      <c r="C265" s="67"/>
+      <c r="D265" s="67"/>
+      <c r="E265" s="67"/>
     </row>
     <row r="266" spans="1:5">
-      <c r="A266" s="17"/>
-      <c r="B266" s="18"/>
-      <c r="C266" s="18"/>
-      <c r="D266" s="18"/>
-      <c r="E266" s="18"/>
+      <c r="A266" s="66"/>
+      <c r="B266" s="67"/>
+      <c r="C266" s="67"/>
+      <c r="D266" s="67"/>
+      <c r="E266" s="67"/>
     </row>
     <row r="267" spans="1:5">
-      <c r="A267" s="17"/>
-      <c r="B267" s="18"/>
-      <c r="C267" s="18"/>
-      <c r="D267" s="18"/>
-      <c r="E267" s="18"/>
+      <c r="A267" s="66"/>
+      <c r="B267" s="67"/>
+      <c r="C267" s="67"/>
+      <c r="D267" s="67"/>
+      <c r="E267" s="67"/>
     </row>
     <row r="268" spans="1:5">
-      <c r="A268" s="17"/>
-      <c r="B268" s="18"/>
-      <c r="C268" s="18"/>
-      <c r="D268" s="18"/>
-      <c r="E268" s="18"/>
+      <c r="A268" s="66"/>
+      <c r="B268" s="67"/>
+      <c r="C268" s="67"/>
+      <c r="D268" s="67"/>
+      <c r="E268" s="67"/>
     </row>
     <row r="269" spans="1:5">
-      <c r="A269" s="17"/>
-      <c r="B269" s="18"/>
-      <c r="C269" s="18"/>
-      <c r="D269" s="18"/>
-      <c r="E269" s="18"/>
+      <c r="A269" s="66"/>
+      <c r="B269" s="67"/>
+      <c r="C269" s="67"/>
+      <c r="D269" s="67"/>
+      <c r="E269" s="67"/>
     </row>
     <row r="270" spans="1:5">
-      <c r="A270" s="17"/>
-      <c r="B270" s="18"/>
-      <c r="C270" s="18"/>
-      <c r="D270" s="18"/>
-      <c r="E270" s="18"/>
+      <c r="A270" s="66"/>
+      <c r="B270" s="67"/>
+      <c r="C270" s="67"/>
+      <c r="D270" s="67"/>
+      <c r="E270" s="67"/>
     </row>
     <row r="271" spans="1:5">
-      <c r="A271" s="17"/>
-      <c r="B271" s="18"/>
-      <c r="C271" s="18"/>
-      <c r="D271" s="18"/>
-      <c r="E271" s="18"/>
+      <c r="A271" s="66"/>
+      <c r="B271" s="67"/>
+      <c r="C271" s="67"/>
+      <c r="D271" s="67"/>
+      <c r="E271" s="67"/>
     </row>
     <row r="272" spans="1:5">
-      <c r="A272" s="17"/>
-      <c r="B272" s="18"/>
-      <c r="C272" s="18"/>
-      <c r="D272" s="18"/>
-      <c r="E272" s="18"/>
+      <c r="A272" s="66"/>
+      <c r="B272" s="67"/>
+      <c r="C272" s="67"/>
+      <c r="D272" s="67"/>
+      <c r="E272" s="67"/>
     </row>
     <row r="273" spans="1:5">
-      <c r="A273" s="17"/>
-      <c r="B273" s="18"/>
-      <c r="C273" s="18"/>
-      <c r="D273" s="18"/>
-      <c r="E273" s="18"/>
+      <c r="A273" s="66"/>
+      <c r="B273" s="67"/>
+      <c r="C273" s="67"/>
+      <c r="D273" s="67"/>
+      <c r="E273" s="67"/>
     </row>
     <row r="274" spans="1:5">
-      <c r="A274" s="17"/>
-      <c r="B274" s="18"/>
-      <c r="C274" s="18"/>
-      <c r="D274" s="18"/>
-      <c r="E274" s="18"/>
+      <c r="A274" s="66"/>
+      <c r="B274" s="67"/>
+      <c r="C274" s="67"/>
+      <c r="D274" s="67"/>
+      <c r="E274" s="67"/>
     </row>
     <row r="275" spans="1:5">
-      <c r="A275" s="17"/>
-      <c r="B275" s="18"/>
-      <c r="C275" s="18"/>
-      <c r="D275" s="18"/>
-      <c r="E275" s="18"/>
+      <c r="A275" s="66"/>
+      <c r="B275" s="67"/>
+      <c r="C275" s="67"/>
+      <c r="D275" s="67"/>
+      <c r="E275" s="67"/>
     </row>
     <row r="276" spans="1:5">
-      <c r="A276" s="17"/>
-      <c r="B276" s="18"/>
-      <c r="C276" s="18"/>
-      <c r="D276" s="18"/>
-      <c r="E276" s="18"/>
+      <c r="A276" s="66"/>
+      <c r="B276" s="67"/>
+      <c r="C276" s="67"/>
+      <c r="D276" s="67"/>
+      <c r="E276" s="67"/>
     </row>
     <row r="277" spans="1:5">
-      <c r="A277" s="17"/>
-      <c r="B277" s="18"/>
-      <c r="C277" s="18"/>
-      <c r="D277" s="18"/>
-      <c r="E277" s="18"/>
+      <c r="A277" s="66"/>
+      <c r="B277" s="67"/>
+      <c r="C277" s="67"/>
+      <c r="D277" s="67"/>
+      <c r="E277" s="67"/>
     </row>
     <row r="278" spans="1:5">
-      <c r="A278" s="17"/>
-      <c r="B278" s="18"/>
-      <c r="C278" s="18"/>
-      <c r="D278" s="18"/>
-      <c r="E278" s="18"/>
+      <c r="A278" s="66"/>
+      <c r="B278" s="67"/>
+      <c r="C278" s="67"/>
+      <c r="D278" s="67"/>
+      <c r="E278" s="67"/>
     </row>
     <row r="279" spans="1:5">
-      <c r="A279" s="17"/>
-      <c r="B279" s="18"/>
-      <c r="C279" s="18"/>
-      <c r="D279" s="18"/>
-      <c r="E279" s="18"/>
+      <c r="A279" s="66"/>
+      <c r="B279" s="67"/>
+      <c r="C279" s="67"/>
+      <c r="D279" s="67"/>
+      <c r="E279" s="67"/>
     </row>
     <row r="280" spans="1:5">
-      <c r="A280" s="17"/>
-      <c r="B280" s="18"/>
-      <c r="C280" s="18"/>
-      <c r="D280" s="18"/>
-      <c r="E280" s="18"/>
+      <c r="A280" s="66"/>
+      <c r="B280" s="67"/>
+      <c r="C280" s="67"/>
+      <c r="D280" s="67"/>
+      <c r="E280" s="67"/>
     </row>
     <row r="281" spans="1:5">
-      <c r="A281" s="17"/>
-      <c r="B281" s="18"/>
-      <c r="C281" s="18"/>
-      <c r="D281" s="18"/>
-      <c r="E281" s="18"/>
+      <c r="A281" s="66"/>
+      <c r="B281" s="67"/>
+      <c r="C281" s="67"/>
+      <c r="D281" s="67"/>
+      <c r="E281" s="67"/>
     </row>
     <row r="282" spans="1:5">
-      <c r="A282" s="17"/>
-      <c r="B282" s="18"/>
-      <c r="C282" s="18"/>
-      <c r="D282" s="18"/>
-      <c r="E282" s="18"/>
+      <c r="A282" s="66"/>
+      <c r="B282" s="67"/>
+      <c r="C282" s="67"/>
+      <c r="D282" s="67"/>
+      <c r="E282" s="67"/>
     </row>
     <row r="283" spans="1:5">
-      <c r="A283" s="17"/>
-      <c r="B283" s="18"/>
-      <c r="C283" s="18"/>
-      <c r="D283" s="18"/>
-      <c r="E283" s="18"/>
+      <c r="A283" s="66"/>
+      <c r="B283" s="67"/>
+      <c r="C283" s="67"/>
+      <c r="D283" s="67"/>
+      <c r="E283" s="67"/>
     </row>
     <row r="284" spans="1:5">
-      <c r="A284" s="17"/>
-      <c r="B284" s="18"/>
-      <c r="C284" s="18"/>
-      <c r="D284" s="18"/>
-      <c r="E284" s="18"/>
+      <c r="A284" s="66"/>
+      <c r="B284" s="67"/>
+      <c r="C284" s="67"/>
+      <c r="D284" s="67"/>
+      <c r="E284" s="67"/>
     </row>
     <row r="285" spans="1:5">
-      <c r="A285" s="17"/>
-      <c r="B285" s="18"/>
-      <c r="C285" s="18"/>
-      <c r="D285" s="18"/>
-      <c r="E285" s="18"/>
+      <c r="A285" s="66"/>
+      <c r="B285" s="67"/>
+      <c r="C285" s="67"/>
+      <c r="D285" s="67"/>
+      <c r="E285" s="67"/>
     </row>
     <row r="286" spans="1:5">
-      <c r="A286" s="17"/>
-      <c r="B286" s="18"/>
-      <c r="C286" s="18"/>
-      <c r="D286" s="18"/>
-      <c r="E286" s="18"/>
+      <c r="A286" s="66"/>
+      <c r="B286" s="67"/>
+      <c r="C286" s="67"/>
+      <c r="D286" s="67"/>
+      <c r="E286" s="67"/>
     </row>
     <row r="287" spans="1:5">
-      <c r="A287" s="17"/>
-      <c r="B287" s="18"/>
-      <c r="C287" s="18"/>
-      <c r="D287" s="18"/>
-      <c r="E287" s="18"/>
+      <c r="A287" s="66"/>
+      <c r="B287" s="67"/>
+      <c r="C287" s="67"/>
+      <c r="D287" s="67"/>
+      <c r="E287" s="67"/>
     </row>
     <row r="288" spans="1:5">
-      <c r="A288" s="17"/>
-      <c r="B288" s="18"/>
-      <c r="C288" s="18"/>
-      <c r="D288" s="18"/>
-      <c r="E288" s="18"/>
+      <c r="A288" s="66"/>
+      <c r="B288" s="67"/>
+      <c r="C288" s="67"/>
+      <c r="D288" s="67"/>
+      <c r="E288" s="67"/>
     </row>
     <row r="289" spans="1:5">
-      <c r="A289" s="17"/>
-      <c r="B289" s="18"/>
-      <c r="C289" s="18"/>
-      <c r="D289" s="18"/>
-      <c r="E289" s="18"/>
+      <c r="A289" s="66"/>
+      <c r="B289" s="67"/>
+      <c r="C289" s="67"/>
+      <c r="D289" s="67"/>
+      <c r="E289" s="67"/>
     </row>
     <row r="290" spans="1:5">
-      <c r="A290" s="17"/>
-      <c r="B290" s="18"/>
-      <c r="C290" s="18"/>
-      <c r="D290" s="18"/>
-      <c r="E290" s="18"/>
+      <c r="A290" s="66"/>
+      <c r="B290" s="67"/>
+      <c r="C290" s="67"/>
+      <c r="D290" s="67"/>
+      <c r="E290" s="67"/>
     </row>
     <row r="291" spans="1:5">
-      <c r="A291" s="17"/>
-      <c r="B291" s="18"/>
-      <c r="C291" s="18"/>
-      <c r="D291" s="18"/>
-      <c r="E291" s="18"/>
+      <c r="A291" s="66"/>
+      <c r="B291" s="67"/>
+      <c r="C291" s="67"/>
+      <c r="D291" s="67"/>
+      <c r="E291" s="67"/>
     </row>
     <row r="292" spans="1:5">
-      <c r="A292" s="17"/>
-      <c r="B292" s="18"/>
-      <c r="C292" s="18"/>
-      <c r="D292" s="18"/>
-      <c r="E292" s="18"/>
+      <c r="A292" s="66"/>
+      <c r="B292" s="67"/>
+      <c r="C292" s="67"/>
+      <c r="D292" s="67"/>
+      <c r="E292" s="67"/>
     </row>
     <row r="293" spans="1:5">
-      <c r="A293" s="17"/>
-      <c r="B293" s="18"/>
-      <c r="C293" s="18"/>
-      <c r="D293" s="18"/>
-      <c r="E293" s="18"/>
+      <c r="A293" s="66"/>
+      <c r="B293" s="67"/>
+      <c r="C293" s="67"/>
+      <c r="D293" s="67"/>
+      <c r="E293" s="67"/>
     </row>
     <row r="294" spans="1:5">
-      <c r="A294" s="17"/>
-      <c r="B294" s="18"/>
-      <c r="C294" s="18"/>
-      <c r="D294" s="18"/>
-      <c r="E294" s="18"/>
+      <c r="A294" s="66"/>
+      <c r="B294" s="67"/>
+      <c r="C294" s="67"/>
+      <c r="D294" s="67"/>
+      <c r="E294" s="67"/>
     </row>
     <row r="295" spans="1:5">
-      <c r="A295" s="17"/>
-      <c r="B295" s="18"/>
-      <c r="C295" s="18"/>
-      <c r="D295" s="18"/>
-      <c r="E295" s="18"/>
+      <c r="A295" s="66"/>
+      <c r="B295" s="67"/>
+      <c r="C295" s="67"/>
+      <c r="D295" s="67"/>
+      <c r="E295" s="67"/>
     </row>
     <row r="296" spans="1:5">
-      <c r="A296" s="17"/>
-      <c r="B296" s="18"/>
-      <c r="C296" s="18"/>
-      <c r="D296" s="18"/>
-      <c r="E296" s="18"/>
+      <c r="A296" s="66"/>
+      <c r="B296" s="67"/>
+      <c r="C296" s="67"/>
+      <c r="D296" s="67"/>
+      <c r="E296" s="67"/>
     </row>
     <row r="297" spans="1:5">
-      <c r="A297" s="17"/>
-      <c r="B297" s="18"/>
-      <c r="C297" s="18"/>
-      <c r="D297" s="18"/>
-      <c r="E297" s="18"/>
+      <c r="A297" s="66"/>
+      <c r="B297" s="67"/>
+      <c r="C297" s="67"/>
+      <c r="D297" s="67"/>
+      <c r="E297" s="67"/>
     </row>
     <row r="298" spans="1:5">
       <c r="B298" s="2"/>
@@ -3417,10 +3437,10 @@
       <c r="E298" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jTyBjisaZZsRojeX0KlRaoTD0v5Ff9NnI3FNShcU/47ttzDx5I4l90+2SWo28GWNaWZIH5x7EeHyiiBB2cZEhw==" saltValue="YslMR2wBNDY45DxOPgZfyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="H+LywdS1i2HwEVZNKnRp2LZ325icjG7QCT8n4MF63Xip+QDy+ayL8b4q4GTJlXmDoMxF9AO7v75vZ9jib5HegA==" saltValue="9AhrJgsWhEofnapevuzQ8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
   <customSheetViews>
     <customSheetView guid="{0C13EE4D-7CE1-4AA1-8E50-FA0088A2A213}">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="C8" sqref="C8:E8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -4227,7 +4247,7 @@
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="62">
+      <c r="B13" s="18">
         <f t="shared" ref="B13:B33" ca="1" si="3">MOD(B12*F$11+F$12,F$13)</f>
         <v>22544</v>
       </c>
@@ -4302,7 +4322,7 @@
       <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="62">
+      <c r="B14" s="18">
         <f t="shared" ca="1" si="3"/>
         <v>3849</v>
       </c>
@@ -4374,7 +4394,7 @@
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="62">
+      <c r="B15" s="18">
         <f t="shared" ca="1" si="3"/>
         <v>21774</v>
       </c>
@@ -4446,7 +4466,7 @@
       <c r="A16" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="62">
+      <c r="B16" s="18">
         <f t="shared" ca="1" si="3"/>
         <v>11055</v>
       </c>
@@ -4518,7 +4538,7 @@
       <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="62">
+      <c r="B17" s="18">
         <f t="shared" ca="1" si="3"/>
         <v>25916</v>
       </c>
@@ -4590,7 +4610,7 @@
       <c r="A18" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="62">
+      <c r="B18" s="18">
         <f t="shared" ca="1" si="3"/>
         <v>4805</v>
       </c>
@@ -4611,7 +4631,7 @@
       <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="62">
+      <c r="B19" s="18">
         <f t="shared" ca="1" si="3"/>
         <v>13338</v>
       </c>
@@ -4636,7 +4656,7 @@
       <c r="A20" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="62">
+      <c r="B20" s="18">
         <f t="shared" ca="1" si="3"/>
         <v>19275</v>
       </c>
@@ -4661,7 +4681,7 @@
       <c r="A21" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="62">
+      <c r="B21" s="18">
         <f t="shared" ca="1" si="3"/>
         <v>6440</v>
       </c>
@@ -4686,7 +4706,7 @@
       <c r="A22" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="62">
+      <c r="B22" s="18">
         <f t="shared" ca="1" si="3"/>
         <v>5697</v>
       </c>
@@ -4706,13 +4726,13 @@
         <f ca="1">20+SUM(C29:C31)*5</f>
         <v>30</v>
       </c>
-      <c r="M22" s="62"/>
+      <c r="M22" s="18"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="62">
+      <c r="B23" s="18">
         <f t="shared" ca="1" si="3"/>
         <v>30694</v>
       </c>
@@ -4728,13 +4748,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-      <c r="M23" s="62"/>
+      <c r="M23" s="18"/>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="62">
+      <c r="B24" s="18">
         <f t="shared" ca="1" si="3"/>
         <v>20775</v>
       </c>
@@ -4750,13 +4770,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="M24" s="62"/>
+      <c r="M24" s="18"/>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="62">
+      <c r="B25" s="18">
         <f t="shared" ca="1" si="3"/>
         <v>8148</v>
       </c>
@@ -4772,13 +4792,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="M25" s="62"/>
+      <c r="M25" s="18"/>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="62">
+      <c r="B26" s="18">
         <f t="shared" ca="1" si="3"/>
         <v>21885</v>
       </c>
@@ -4794,13 +4814,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="M26" s="62"/>
+      <c r="M26" s="18"/>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="62">
+      <c r="B27" s="18">
         <f t="shared" ca="1" si="3"/>
         <v>11378</v>
       </c>
@@ -4816,13 +4836,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="M27" s="62"/>
+      <c r="M27" s="18"/>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="62">
+      <c r="B28" s="18">
         <f t="shared" ca="1" si="3"/>
         <v>22723</v>
       </c>
@@ -4838,13 +4858,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="M28" s="62"/>
+      <c r="M28" s="18"/>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="62">
+      <c r="B29" s="18">
         <f t="shared" ca="1" si="3"/>
         <v>25920</v>
       </c>
@@ -4860,13 +4880,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-      <c r="M29" s="62"/>
+      <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="62">
+      <c r="B30" s="18">
         <f t="shared" ca="1" si="3"/>
         <v>19577</v>
       </c>
@@ -4882,13 +4902,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="M30" s="62"/>
+      <c r="M30" s="18"/>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="62">
+      <c r="B31" s="18">
         <f t="shared" ca="1" si="3"/>
         <v>7614</v>
       </c>
@@ -4904,13 +4924,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="M31" s="62"/>
+      <c r="M31" s="18"/>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="62">
+      <c r="B32" s="18">
         <f t="shared" ca="1" si="3"/>
         <v>15903</v>
       </c>
@@ -4926,13 +4946,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="M32" s="62"/>
+      <c r="M32" s="18"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="62">
+      <c r="B33" s="18">
         <f t="shared" ca="1" si="3"/>
         <v>5484</v>
       </c>
@@ -4948,7 +4968,7 @@
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="M33" s="62"/>
+      <c r="M33" s="18"/>
     </row>
   </sheetData>
   <customSheetViews>

--- a/144F20/Topic 4/PayingMinOnCC.xlsx
+++ b/144F20/Topic 4/PayingMinOnCC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{EC1C17E5-C8D3-4CF7-B78B-B6EEA52A7904}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{8B6573E0-F1D7-4842-8F08-09D183625E54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{CF10E6CE-D87B-417F-86FF-EEF4FA94E14B}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="15624" windowHeight="11508" xr2:uid="{CF10E6CE-D87B-417F-86FF-EEF4FA94E14B}"/>
   </bookViews>
   <sheets>
     <sheet name="PayoffCC" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{0C13EE4D-7CE1-4AA1-8E50-FA0088A2A213}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1060" activeSheetId="1" showComments="commIndAndComment"/>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{0C13EE4D-7CE1-4AA1-8E50-FA0088A2A213}" mergeInterval="0" personalView="1" xWindow="32" yWindow="32" windowWidth="1302" windowHeight="959" activeSheetId="1" showComments="commIndAndComment"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -743,6 +743,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -863,39 +896,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -932,8 +932,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{54C8D951-656F-4448-A816-A0941F66915F}">
-  <header guid="{54C8D951-656F-4448-A816-A0941F66915F}" dateTime="2020-10-28T12:20:08" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{A8951CBF-D355-4FA9-9B19-5A15E0AF3C49}">
+  <header guid="{A8951CBF-D355-4FA9-9B19-5A15E0AF3C49}" dateTime="2020-10-30T14:40:41" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -947,7 +947,9 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{A8951CBF-D355-4FA9-9B19-5A15E0AF3C49}" name="Richard Ketchersid" id="-1739533752" dateTime="2020-10-30T14:40:41"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1263,38 +1265,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.4" customHeight="1" thickBot="1">
-      <c r="A1" s="39" t="str">
+      <c r="A1" s="49" t="str">
         <f ca="1">"See how long it takes to pay off $"&amp;Random!H19&amp;" credit card debt paying the minimal payment which is the maximum of "&amp;Random!H20&amp;"% or $"&amp;Random!H22&amp;". The credit card has "&amp;Random!H21&amp;"% APR compounded monthly. You want to find out how long it takes you to pay this off and how much you end up paying. Assume you make your payment on the current balance at the beginnig of each period (month), before interest is acrued."</f>
         <v>See how long it takes to pay off $2200 credit card debt paying the minimal payment which is the maximum of 3.5% or $30. The credit card has 21% APR compounded monthly. You want to find out how long it takes you to pay this off and how much you end up paying. Assume you make your payment on the current balance at the beginnig of each period (month), before interest is acrued.</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="51"/>
     </row>
     <row r="2" spans="1:12" ht="15" thickTop="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
-      <c r="I2" s="25" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="54"/>
+      <c r="I2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="26"/>
+      <c r="J2" s="36"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="I3" s="9" t="s">
         <v>14</v>
       </c>
@@ -1303,13 +1305,13 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="54"/>
       <c r="I4" s="11" t="s">
         <v>16</v>
       </c>
@@ -1318,13 +1320,13 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="54"/>
       <c r="I5" s="13" t="s">
         <v>18</v>
       </c>
@@ -1333,13 +1335,13 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="57"/>
       <c r="I6" s="14" t="s">
         <v>20</v>
       </c>
@@ -1356,95 +1358,95 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55" t="s">
+      <c r="B8" s="64"/>
+      <c r="C8" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1"/>
     <row r="10" spans="1:12" ht="28.2" customHeight="1" thickBot="1">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="27" t="s">
+      <c r="B10" s="62"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
-      <c r="J10" s="36" t="s">
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="39"/>
+      <c r="J10" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="38"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="48"/>
     </row>
     <row r="11" spans="1:12" ht="15" thickBot="1">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="32"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="61"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="32"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
     </row>
     <row r="15" spans="1:12" ht="15" thickBot="1">
-      <c r="A15" s="23"/>
-      <c r="B15" s="62"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="35"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
     </row>
     <row r="17" spans="1:12" ht="15" thickBot="1"/>
     <row r="18" spans="1:12" ht="29.4" thickBot="1">
@@ -1465,1970 +1467,1970 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="63"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="G19" s="24" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="G19" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="67"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="28"/>
       <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="63"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="G20" s="24" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="G20" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="65"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="63"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="63"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="63"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="63"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="63"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="63"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="63"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="63"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="63"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="63"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="63"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="63"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="63"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="63"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="63"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="63"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="63"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="63"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="63"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="63"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="63"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="63"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="63"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="63"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="63"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="63"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="63"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="63"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="63"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="63"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="63"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="63"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="63"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="63"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="63"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="64"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="63"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="63"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="64"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="63"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="64"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="63"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="64"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="63"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="64"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="63"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="64"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="63"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="63"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="63"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="63"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
+      <c r="A65" s="24"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="63"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="63"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
+      <c r="A67" s="24"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="63"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="64"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="63"/>
-      <c r="B69" s="65"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="64"/>
+      <c r="A69" s="24"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="63"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="64"/>
+      <c r="A70" s="24"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="63"/>
-      <c r="B71" s="65"/>
-      <c r="C71" s="64"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="64"/>
+      <c r="A71" s="24"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="63"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
+      <c r="A72" s="24"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="63"/>
-      <c r="B73" s="65"/>
-      <c r="C73" s="64"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="64"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="63"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="64"/>
+      <c r="A74" s="24"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="63"/>
-      <c r="B75" s="65"/>
-      <c r="C75" s="64"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="64"/>
+      <c r="A75" s="24"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="63"/>
-      <c r="B76" s="65"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="64"/>
+      <c r="A76" s="24"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="63"/>
-      <c r="B77" s="65"/>
-      <c r="C77" s="64"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="64"/>
+      <c r="A77" s="24"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="63"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
+      <c r="A78" s="24"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="63"/>
-      <c r="B79" s="65"/>
-      <c r="C79" s="64"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="64"/>
+      <c r="A79" s="24"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="63"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="64"/>
-      <c r="D80" s="64"/>
-      <c r="E80" s="64"/>
+      <c r="A80" s="24"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="63"/>
-      <c r="B81" s="65"/>
-      <c r="C81" s="64"/>
-      <c r="D81" s="64"/>
-      <c r="E81" s="64"/>
+      <c r="A81" s="24"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="63"/>
-      <c r="B82" s="65"/>
-      <c r="C82" s="64"/>
-      <c r="D82" s="64"/>
-      <c r="E82" s="64"/>
+      <c r="A82" s="24"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="63"/>
-      <c r="B83" s="65"/>
-      <c r="C83" s="64"/>
-      <c r="D83" s="64"/>
-      <c r="E83" s="64"/>
+      <c r="A83" s="24"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="63"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="64"/>
-      <c r="E84" s="64"/>
+      <c r="A84" s="24"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="63"/>
-      <c r="B85" s="65"/>
-      <c r="C85" s="64"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="64"/>
+      <c r="A85" s="24"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="63"/>
-      <c r="B86" s="65"/>
-      <c r="C86" s="64"/>
-      <c r="D86" s="64"/>
-      <c r="E86" s="64"/>
+      <c r="A86" s="24"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="63"/>
-      <c r="B87" s="65"/>
-      <c r="C87" s="64"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="64"/>
+      <c r="A87" s="24"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="63"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="64"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="64"/>
+      <c r="A88" s="24"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="63"/>
-      <c r="B89" s="65"/>
-      <c r="C89" s="64"/>
-      <c r="D89" s="64"/>
-      <c r="E89" s="64"/>
+      <c r="A89" s="24"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="63"/>
-      <c r="B90" s="65"/>
-      <c r="C90" s="64"/>
-      <c r="D90" s="64"/>
-      <c r="E90" s="64"/>
+      <c r="A90" s="24"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="63"/>
-      <c r="B91" s="65"/>
-      <c r="C91" s="64"/>
-      <c r="D91" s="64"/>
-      <c r="E91" s="64"/>
+      <c r="A91" s="24"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="63"/>
-      <c r="B92" s="65"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="64"/>
-      <c r="E92" s="64"/>
+      <c r="A92" s="24"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="63"/>
-      <c r="B93" s="65"/>
-      <c r="C93" s="64"/>
-      <c r="D93" s="64"/>
-      <c r="E93" s="64"/>
+      <c r="A93" s="24"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="63"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="64"/>
-      <c r="D94" s="64"/>
-      <c r="E94" s="64"/>
+      <c r="A94" s="24"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="63"/>
-      <c r="B95" s="65"/>
-      <c r="C95" s="64"/>
-      <c r="D95" s="64"/>
-      <c r="E95" s="64"/>
+      <c r="A95" s="24"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="63"/>
-      <c r="B96" s="65"/>
-      <c r="C96" s="64"/>
-      <c r="D96" s="64"/>
-      <c r="E96" s="64"/>
+      <c r="A96" s="24"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="63"/>
-      <c r="B97" s="65"/>
-      <c r="C97" s="64"/>
-      <c r="D97" s="64"/>
-      <c r="E97" s="64"/>
+      <c r="A97" s="24"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="63"/>
-      <c r="B98" s="65"/>
-      <c r="C98" s="64"/>
-      <c r="D98" s="64"/>
-      <c r="E98" s="64"/>
+      <c r="A98" s="24"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="63"/>
-      <c r="B99" s="65"/>
-      <c r="C99" s="64"/>
-      <c r="D99" s="64"/>
-      <c r="E99" s="64"/>
+      <c r="A99" s="24"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="25"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="63"/>
-      <c r="B100" s="65"/>
-      <c r="C100" s="64"/>
-      <c r="D100" s="64"/>
-      <c r="E100" s="64"/>
+      <c r="A100" s="24"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="63"/>
-      <c r="B101" s="65"/>
-      <c r="C101" s="64"/>
-      <c r="D101" s="64"/>
-      <c r="E101" s="64"/>
+      <c r="A101" s="24"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="63"/>
-      <c r="B102" s="65"/>
-      <c r="C102" s="64"/>
-      <c r="D102" s="64"/>
-      <c r="E102" s="64"/>
+      <c r="A102" s="24"/>
+      <c r="B102" s="26"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="63"/>
-      <c r="B103" s="65"/>
-      <c r="C103" s="64"/>
-      <c r="D103" s="64"/>
-      <c r="E103" s="64"/>
+      <c r="A103" s="24"/>
+      <c r="B103" s="26"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="63"/>
-      <c r="B104" s="65"/>
-      <c r="C104" s="64"/>
-      <c r="D104" s="64"/>
-      <c r="E104" s="64"/>
+      <c r="A104" s="24"/>
+      <c r="B104" s="26"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="25"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="63"/>
-      <c r="B105" s="65"/>
-      <c r="C105" s="64"/>
-      <c r="D105" s="64"/>
-      <c r="E105" s="64"/>
+      <c r="A105" s="24"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="25"/>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="63"/>
-      <c r="B106" s="65"/>
-      <c r="C106" s="64"/>
-      <c r="D106" s="64"/>
-      <c r="E106" s="64"/>
+      <c r="A106" s="24"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="25"/>
+      <c r="E106" s="25"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="63"/>
-      <c r="B107" s="65"/>
-      <c r="C107" s="64"/>
-      <c r="D107" s="64"/>
-      <c r="E107" s="64"/>
+      <c r="A107" s="24"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
+      <c r="E107" s="25"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="63"/>
-      <c r="B108" s="65"/>
-      <c r="C108" s="64"/>
-      <c r="D108" s="64"/>
-      <c r="E108" s="64"/>
+      <c r="A108" s="24"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="25"/>
+      <c r="E108" s="25"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="63"/>
-      <c r="B109" s="65"/>
-      <c r="C109" s="64"/>
-      <c r="D109" s="64"/>
-      <c r="E109" s="64"/>
+      <c r="A109" s="24"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="25"/>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="63"/>
-      <c r="B110" s="65"/>
-      <c r="C110" s="64"/>
-      <c r="D110" s="64"/>
-      <c r="E110" s="64"/>
+      <c r="A110" s="24"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="25"/>
+      <c r="E110" s="25"/>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="63"/>
-      <c r="B111" s="65"/>
-      <c r="C111" s="64"/>
-      <c r="D111" s="64"/>
-      <c r="E111" s="64"/>
+      <c r="A111" s="24"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="25"/>
+      <c r="E111" s="25"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="63"/>
-      <c r="B112" s="65"/>
-      <c r="C112" s="64"/>
-      <c r="D112" s="64"/>
-      <c r="E112" s="64"/>
+      <c r="A112" s="24"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="63"/>
-      <c r="B113" s="65"/>
-      <c r="C113" s="64"/>
-      <c r="D113" s="64"/>
-      <c r="E113" s="64"/>
+      <c r="A113" s="24"/>
+      <c r="B113" s="26"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="25"/>
+      <c r="E113" s="25"/>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="63"/>
-      <c r="B114" s="65"/>
-      <c r="C114" s="64"/>
-      <c r="D114" s="64"/>
-      <c r="E114" s="64"/>
+      <c r="A114" s="24"/>
+      <c r="B114" s="26"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="25"/>
+      <c r="E114" s="25"/>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="63"/>
-      <c r="B115" s="65"/>
-      <c r="C115" s="64"/>
-      <c r="D115" s="64"/>
-      <c r="E115" s="64"/>
+      <c r="A115" s="24"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="25"/>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="63"/>
-      <c r="B116" s="65"/>
-      <c r="C116" s="64"/>
-      <c r="D116" s="64"/>
-      <c r="E116" s="64"/>
+      <c r="A116" s="24"/>
+      <c r="B116" s="26"/>
+      <c r="C116" s="25"/>
+      <c r="D116" s="25"/>
+      <c r="E116" s="25"/>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="63"/>
-      <c r="B117" s="65"/>
-      <c r="C117" s="64"/>
-      <c r="D117" s="64"/>
-      <c r="E117" s="64"/>
+      <c r="A117" s="24"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="25"/>
+      <c r="D117" s="25"/>
+      <c r="E117" s="25"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="63"/>
-      <c r="B118" s="65"/>
-      <c r="C118" s="64"/>
-      <c r="D118" s="64"/>
-      <c r="E118" s="64"/>
+      <c r="A118" s="24"/>
+      <c r="B118" s="26"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="25"/>
+      <c r="E118" s="25"/>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="63"/>
-      <c r="B119" s="65"/>
-      <c r="C119" s="64"/>
-      <c r="D119" s="64"/>
-      <c r="E119" s="64"/>
+      <c r="A119" s="24"/>
+      <c r="B119" s="26"/>
+      <c r="C119" s="25"/>
+      <c r="D119" s="25"/>
+      <c r="E119" s="25"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="63"/>
-      <c r="B120" s="65"/>
-      <c r="C120" s="64"/>
-      <c r="D120" s="64"/>
-      <c r="E120" s="64"/>
+      <c r="A120" s="24"/>
+      <c r="B120" s="26"/>
+      <c r="C120" s="25"/>
+      <c r="D120" s="25"/>
+      <c r="E120" s="25"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="63"/>
-      <c r="B121" s="65"/>
-      <c r="C121" s="64"/>
-      <c r="D121" s="64"/>
-      <c r="E121" s="64"/>
+      <c r="A121" s="24"/>
+      <c r="B121" s="26"/>
+      <c r="C121" s="25"/>
+      <c r="D121" s="25"/>
+      <c r="E121" s="25"/>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="63"/>
-      <c r="B122" s="65"/>
-      <c r="C122" s="64"/>
-      <c r="D122" s="64"/>
-      <c r="E122" s="64"/>
+      <c r="A122" s="24"/>
+      <c r="B122" s="26"/>
+      <c r="C122" s="25"/>
+      <c r="D122" s="25"/>
+      <c r="E122" s="25"/>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="63"/>
-      <c r="B123" s="65"/>
-      <c r="C123" s="64"/>
-      <c r="D123" s="64"/>
-      <c r="E123" s="64"/>
+      <c r="A123" s="24"/>
+      <c r="B123" s="26"/>
+      <c r="C123" s="25"/>
+      <c r="D123" s="25"/>
+      <c r="E123" s="25"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="63"/>
-      <c r="B124" s="65"/>
-      <c r="C124" s="64"/>
-      <c r="D124" s="64"/>
-      <c r="E124" s="64"/>
+      <c r="A124" s="24"/>
+      <c r="B124" s="26"/>
+      <c r="C124" s="25"/>
+      <c r="D124" s="25"/>
+      <c r="E124" s="25"/>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="63"/>
-      <c r="B125" s="65"/>
-      <c r="C125" s="64"/>
-      <c r="D125" s="64"/>
-      <c r="E125" s="64"/>
+      <c r="A125" s="24"/>
+      <c r="B125" s="26"/>
+      <c r="C125" s="25"/>
+      <c r="D125" s="25"/>
+      <c r="E125" s="25"/>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="63"/>
-      <c r="B126" s="65"/>
-      <c r="C126" s="64"/>
-      <c r="D126" s="64"/>
-      <c r="E126" s="64"/>
+      <c r="A126" s="24"/>
+      <c r="B126" s="26"/>
+      <c r="C126" s="25"/>
+      <c r="D126" s="25"/>
+      <c r="E126" s="25"/>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="63"/>
-      <c r="B127" s="65"/>
-      <c r="C127" s="64"/>
-      <c r="D127" s="64"/>
-      <c r="E127" s="64"/>
+      <c r="A127" s="24"/>
+      <c r="B127" s="26"/>
+      <c r="C127" s="25"/>
+      <c r="D127" s="25"/>
+      <c r="E127" s="25"/>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="63"/>
-      <c r="B128" s="65"/>
-      <c r="C128" s="64"/>
-      <c r="D128" s="64"/>
-      <c r="E128" s="64"/>
+      <c r="A128" s="24"/>
+      <c r="B128" s="26"/>
+      <c r="C128" s="25"/>
+      <c r="D128" s="25"/>
+      <c r="E128" s="25"/>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="63"/>
-      <c r="B129" s="65"/>
-      <c r="C129" s="64"/>
-      <c r="D129" s="64"/>
-      <c r="E129" s="64"/>
+      <c r="A129" s="24"/>
+      <c r="B129" s="26"/>
+      <c r="C129" s="25"/>
+      <c r="D129" s="25"/>
+      <c r="E129" s="25"/>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="63"/>
-      <c r="B130" s="65"/>
-      <c r="C130" s="64"/>
-      <c r="D130" s="64"/>
-      <c r="E130" s="64"/>
+      <c r="A130" s="24"/>
+      <c r="B130" s="26"/>
+      <c r="C130" s="25"/>
+      <c r="D130" s="25"/>
+      <c r="E130" s="25"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="63"/>
-      <c r="B131" s="65"/>
-      <c r="C131" s="64"/>
-      <c r="D131" s="64"/>
-      <c r="E131" s="64"/>
+      <c r="A131" s="24"/>
+      <c r="B131" s="26"/>
+      <c r="C131" s="25"/>
+      <c r="D131" s="25"/>
+      <c r="E131" s="25"/>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="63"/>
-      <c r="B132" s="65"/>
-      <c r="C132" s="64"/>
-      <c r="D132" s="64"/>
-      <c r="E132" s="64"/>
+      <c r="A132" s="24"/>
+      <c r="B132" s="26"/>
+      <c r="C132" s="25"/>
+      <c r="D132" s="25"/>
+      <c r="E132" s="25"/>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="63"/>
-      <c r="B133" s="65"/>
-      <c r="C133" s="64"/>
-      <c r="D133" s="64"/>
-      <c r="E133" s="64"/>
+      <c r="A133" s="24"/>
+      <c r="B133" s="26"/>
+      <c r="C133" s="25"/>
+      <c r="D133" s="25"/>
+      <c r="E133" s="25"/>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="63"/>
-      <c r="B134" s="65"/>
-      <c r="C134" s="64"/>
-      <c r="D134" s="64"/>
-      <c r="E134" s="64"/>
+      <c r="A134" s="24"/>
+      <c r="B134" s="26"/>
+      <c r="C134" s="25"/>
+      <c r="D134" s="25"/>
+      <c r="E134" s="25"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="63"/>
-      <c r="B135" s="65"/>
-      <c r="C135" s="64"/>
-      <c r="D135" s="64"/>
-      <c r="E135" s="64"/>
+      <c r="A135" s="24"/>
+      <c r="B135" s="26"/>
+      <c r="C135" s="25"/>
+      <c r="D135" s="25"/>
+      <c r="E135" s="25"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="63"/>
-      <c r="B136" s="65"/>
-      <c r="C136" s="64"/>
-      <c r="D136" s="64"/>
-      <c r="E136" s="64"/>
+      <c r="A136" s="24"/>
+      <c r="B136" s="26"/>
+      <c r="C136" s="25"/>
+      <c r="D136" s="25"/>
+      <c r="E136" s="25"/>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="63"/>
-      <c r="B137" s="65"/>
-      <c r="C137" s="64"/>
-      <c r="D137" s="64"/>
-      <c r="E137" s="64"/>
+      <c r="A137" s="24"/>
+      <c r="B137" s="26"/>
+      <c r="C137" s="25"/>
+      <c r="D137" s="25"/>
+      <c r="E137" s="25"/>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="63"/>
-      <c r="B138" s="65"/>
-      <c r="C138" s="64"/>
-      <c r="D138" s="64"/>
-      <c r="E138" s="64"/>
+      <c r="A138" s="24"/>
+      <c r="B138" s="26"/>
+      <c r="C138" s="25"/>
+      <c r="D138" s="25"/>
+      <c r="E138" s="25"/>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="63"/>
-      <c r="B139" s="65"/>
-      <c r="C139" s="64"/>
-      <c r="D139" s="64"/>
-      <c r="E139" s="64"/>
+      <c r="A139" s="24"/>
+      <c r="B139" s="26"/>
+      <c r="C139" s="25"/>
+      <c r="D139" s="25"/>
+      <c r="E139" s="25"/>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="63"/>
-      <c r="B140" s="65"/>
-      <c r="C140" s="64"/>
-      <c r="D140" s="64"/>
-      <c r="E140" s="64"/>
+      <c r="A140" s="24"/>
+      <c r="B140" s="26"/>
+      <c r="C140" s="25"/>
+      <c r="D140" s="25"/>
+      <c r="E140" s="25"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="63"/>
-      <c r="B141" s="65"/>
-      <c r="C141" s="64"/>
-      <c r="D141" s="64"/>
-      <c r="E141" s="64"/>
+      <c r="A141" s="24"/>
+      <c r="B141" s="26"/>
+      <c r="C141" s="25"/>
+      <c r="D141" s="25"/>
+      <c r="E141" s="25"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="63"/>
-      <c r="B142" s="65"/>
-      <c r="C142" s="64"/>
-      <c r="D142" s="64"/>
-      <c r="E142" s="64"/>
+      <c r="A142" s="24"/>
+      <c r="B142" s="26"/>
+      <c r="C142" s="25"/>
+      <c r="D142" s="25"/>
+      <c r="E142" s="25"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="63"/>
-      <c r="B143" s="65"/>
-      <c r="C143" s="64"/>
-      <c r="D143" s="64"/>
-      <c r="E143" s="64"/>
+      <c r="A143" s="24"/>
+      <c r="B143" s="26"/>
+      <c r="C143" s="25"/>
+      <c r="D143" s="25"/>
+      <c r="E143" s="25"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="63"/>
-      <c r="B144" s="65"/>
-      <c r="C144" s="64"/>
-      <c r="D144" s="64"/>
-      <c r="E144" s="64"/>
+      <c r="A144" s="24"/>
+      <c r="B144" s="26"/>
+      <c r="C144" s="25"/>
+      <c r="D144" s="25"/>
+      <c r="E144" s="25"/>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="63"/>
-      <c r="B145" s="65"/>
-      <c r="C145" s="64"/>
-      <c r="D145" s="64"/>
-      <c r="E145" s="64"/>
+      <c r="A145" s="24"/>
+      <c r="B145" s="26"/>
+      <c r="C145" s="25"/>
+      <c r="D145" s="25"/>
+      <c r="E145" s="25"/>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="63"/>
-      <c r="B146" s="65"/>
-      <c r="C146" s="64"/>
-      <c r="D146" s="64"/>
-      <c r="E146" s="64"/>
+      <c r="A146" s="24"/>
+      <c r="B146" s="26"/>
+      <c r="C146" s="25"/>
+      <c r="D146" s="25"/>
+      <c r="E146" s="25"/>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="63"/>
-      <c r="B147" s="65"/>
-      <c r="C147" s="64"/>
-      <c r="D147" s="64"/>
-      <c r="E147" s="64"/>
+      <c r="A147" s="24"/>
+      <c r="B147" s="26"/>
+      <c r="C147" s="25"/>
+      <c r="D147" s="25"/>
+      <c r="E147" s="25"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="63"/>
-      <c r="B148" s="65"/>
-      <c r="C148" s="64"/>
-      <c r="D148" s="64"/>
-      <c r="E148" s="64"/>
+      <c r="A148" s="24"/>
+      <c r="B148" s="26"/>
+      <c r="C148" s="25"/>
+      <c r="D148" s="25"/>
+      <c r="E148" s="25"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="63"/>
-      <c r="B149" s="65"/>
-      <c r="C149" s="64"/>
-      <c r="D149" s="64"/>
-      <c r="E149" s="64"/>
+      <c r="A149" s="24"/>
+      <c r="B149" s="26"/>
+      <c r="C149" s="25"/>
+      <c r="D149" s="25"/>
+      <c r="E149" s="25"/>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="63"/>
-      <c r="B150" s="65"/>
-      <c r="C150" s="64"/>
-      <c r="D150" s="64"/>
-      <c r="E150" s="64"/>
+      <c r="A150" s="24"/>
+      <c r="B150" s="26"/>
+      <c r="C150" s="25"/>
+      <c r="D150" s="25"/>
+      <c r="E150" s="25"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="63"/>
-      <c r="B151" s="65"/>
-      <c r="C151" s="64"/>
-      <c r="D151" s="64"/>
-      <c r="E151" s="64"/>
+      <c r="A151" s="24"/>
+      <c r="B151" s="26"/>
+      <c r="C151" s="25"/>
+      <c r="D151" s="25"/>
+      <c r="E151" s="25"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="63"/>
-      <c r="B152" s="65"/>
-      <c r="C152" s="64"/>
-      <c r="D152" s="64"/>
-      <c r="E152" s="64"/>
+      <c r="A152" s="24"/>
+      <c r="B152" s="26"/>
+      <c r="C152" s="25"/>
+      <c r="D152" s="25"/>
+      <c r="E152" s="25"/>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="63"/>
-      <c r="B153" s="65"/>
-      <c r="C153" s="64"/>
-      <c r="D153" s="64"/>
-      <c r="E153" s="64"/>
+      <c r="A153" s="24"/>
+      <c r="B153" s="26"/>
+      <c r="C153" s="25"/>
+      <c r="D153" s="25"/>
+      <c r="E153" s="25"/>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="63"/>
-      <c r="B154" s="65"/>
-      <c r="C154" s="64"/>
-      <c r="D154" s="64"/>
-      <c r="E154" s="64"/>
+      <c r="A154" s="24"/>
+      <c r="B154" s="26"/>
+      <c r="C154" s="25"/>
+      <c r="D154" s="25"/>
+      <c r="E154" s="25"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="63"/>
-      <c r="B155" s="65"/>
-      <c r="C155" s="64"/>
-      <c r="D155" s="64"/>
-      <c r="E155" s="64"/>
+      <c r="A155" s="24"/>
+      <c r="B155" s="26"/>
+      <c r="C155" s="25"/>
+      <c r="D155" s="25"/>
+      <c r="E155" s="25"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="63"/>
-      <c r="B156" s="65"/>
-      <c r="C156" s="64"/>
-      <c r="D156" s="64"/>
-      <c r="E156" s="64"/>
+      <c r="A156" s="24"/>
+      <c r="B156" s="26"/>
+      <c r="C156" s="25"/>
+      <c r="D156" s="25"/>
+      <c r="E156" s="25"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="63"/>
-      <c r="B157" s="65"/>
-      <c r="C157" s="64"/>
-      <c r="D157" s="64"/>
-      <c r="E157" s="64"/>
+      <c r="A157" s="24"/>
+      <c r="B157" s="26"/>
+      <c r="C157" s="25"/>
+      <c r="D157" s="25"/>
+      <c r="E157" s="25"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="63"/>
-      <c r="B158" s="65"/>
-      <c r="C158" s="64"/>
-      <c r="D158" s="64"/>
-      <c r="E158" s="64"/>
+      <c r="A158" s="24"/>
+      <c r="B158" s="26"/>
+      <c r="C158" s="25"/>
+      <c r="D158" s="25"/>
+      <c r="E158" s="25"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="63"/>
-      <c r="B159" s="65"/>
-      <c r="C159" s="64"/>
-      <c r="D159" s="64"/>
-      <c r="E159" s="64"/>
+      <c r="A159" s="24"/>
+      <c r="B159" s="26"/>
+      <c r="C159" s="25"/>
+      <c r="D159" s="25"/>
+      <c r="E159" s="25"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="63"/>
-      <c r="B160" s="65"/>
-      <c r="C160" s="64"/>
-      <c r="D160" s="64"/>
-      <c r="E160" s="64"/>
+      <c r="A160" s="24"/>
+      <c r="B160" s="26"/>
+      <c r="C160" s="25"/>
+      <c r="D160" s="25"/>
+      <c r="E160" s="25"/>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="63"/>
-      <c r="B161" s="65"/>
-      <c r="C161" s="64"/>
-      <c r="D161" s="64"/>
-      <c r="E161" s="64"/>
+      <c r="A161" s="24"/>
+      <c r="B161" s="26"/>
+      <c r="C161" s="25"/>
+      <c r="D161" s="25"/>
+      <c r="E161" s="25"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="63"/>
-      <c r="B162" s="65"/>
-      <c r="C162" s="64"/>
-      <c r="D162" s="64"/>
-      <c r="E162" s="64"/>
+      <c r="A162" s="24"/>
+      <c r="B162" s="26"/>
+      <c r="C162" s="25"/>
+      <c r="D162" s="25"/>
+      <c r="E162" s="25"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="63"/>
-      <c r="B163" s="65"/>
-      <c r="C163" s="64"/>
-      <c r="D163" s="64"/>
-      <c r="E163" s="64"/>
+      <c r="A163" s="24"/>
+      <c r="B163" s="26"/>
+      <c r="C163" s="25"/>
+      <c r="D163" s="25"/>
+      <c r="E163" s="25"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="63"/>
-      <c r="B164" s="65"/>
-      <c r="C164" s="64"/>
-      <c r="D164" s="64"/>
-      <c r="E164" s="64"/>
+      <c r="A164" s="24"/>
+      <c r="B164" s="26"/>
+      <c r="C164" s="25"/>
+      <c r="D164" s="25"/>
+      <c r="E164" s="25"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="63"/>
-      <c r="B165" s="65"/>
-      <c r="C165" s="64"/>
-      <c r="D165" s="64"/>
-      <c r="E165" s="64"/>
+      <c r="A165" s="24"/>
+      <c r="B165" s="26"/>
+      <c r="C165" s="25"/>
+      <c r="D165" s="25"/>
+      <c r="E165" s="25"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="63"/>
-      <c r="B166" s="65"/>
-      <c r="C166" s="64"/>
-      <c r="D166" s="64"/>
-      <c r="E166" s="64"/>
+      <c r="A166" s="24"/>
+      <c r="B166" s="26"/>
+      <c r="C166" s="25"/>
+      <c r="D166" s="25"/>
+      <c r="E166" s="25"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="63"/>
-      <c r="B167" s="65"/>
-      <c r="C167" s="64"/>
-      <c r="D167" s="64"/>
-      <c r="E167" s="64"/>
+      <c r="A167" s="24"/>
+      <c r="B167" s="26"/>
+      <c r="C167" s="25"/>
+      <c r="D167" s="25"/>
+      <c r="E167" s="25"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="63"/>
-      <c r="B168" s="65"/>
-      <c r="C168" s="64"/>
-      <c r="D168" s="64"/>
-      <c r="E168" s="64"/>
+      <c r="A168" s="24"/>
+      <c r="B168" s="26"/>
+      <c r="C168" s="25"/>
+      <c r="D168" s="25"/>
+      <c r="E168" s="25"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="63"/>
-      <c r="B169" s="65"/>
-      <c r="C169" s="64"/>
-      <c r="D169" s="64"/>
-      <c r="E169" s="64"/>
+      <c r="A169" s="24"/>
+      <c r="B169" s="26"/>
+      <c r="C169" s="25"/>
+      <c r="D169" s="25"/>
+      <c r="E169" s="25"/>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="63"/>
-      <c r="B170" s="65"/>
-      <c r="C170" s="64"/>
-      <c r="D170" s="64"/>
-      <c r="E170" s="64"/>
+      <c r="A170" s="24"/>
+      <c r="B170" s="26"/>
+      <c r="C170" s="25"/>
+      <c r="D170" s="25"/>
+      <c r="E170" s="25"/>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="63"/>
-      <c r="B171" s="65"/>
-      <c r="C171" s="64"/>
-      <c r="D171" s="64"/>
-      <c r="E171" s="64"/>
+      <c r="A171" s="24"/>
+      <c r="B171" s="26"/>
+      <c r="C171" s="25"/>
+      <c r="D171" s="25"/>
+      <c r="E171" s="25"/>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="63"/>
-      <c r="B172" s="65"/>
-      <c r="C172" s="64"/>
-      <c r="D172" s="64"/>
-      <c r="E172" s="64"/>
+      <c r="A172" s="24"/>
+      <c r="B172" s="26"/>
+      <c r="C172" s="25"/>
+      <c r="D172" s="25"/>
+      <c r="E172" s="25"/>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="63"/>
-      <c r="B173" s="65"/>
-      <c r="C173" s="64"/>
-      <c r="D173" s="64"/>
-      <c r="E173" s="64"/>
+      <c r="A173" s="24"/>
+      <c r="B173" s="26"/>
+      <c r="C173" s="25"/>
+      <c r="D173" s="25"/>
+      <c r="E173" s="25"/>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="63"/>
-      <c r="B174" s="65"/>
-      <c r="C174" s="64"/>
-      <c r="D174" s="64"/>
-      <c r="E174" s="64"/>
+      <c r="A174" s="24"/>
+      <c r="B174" s="26"/>
+      <c r="C174" s="25"/>
+      <c r="D174" s="25"/>
+      <c r="E174" s="25"/>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="63"/>
-      <c r="B175" s="65"/>
-      <c r="C175" s="64"/>
-      <c r="D175" s="64"/>
-      <c r="E175" s="64"/>
+      <c r="A175" s="24"/>
+      <c r="B175" s="26"/>
+      <c r="C175" s="25"/>
+      <c r="D175" s="25"/>
+      <c r="E175" s="25"/>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="63"/>
-      <c r="B176" s="65"/>
-      <c r="C176" s="64"/>
-      <c r="D176" s="64"/>
-      <c r="E176" s="64"/>
+      <c r="A176" s="24"/>
+      <c r="B176" s="26"/>
+      <c r="C176" s="25"/>
+      <c r="D176" s="25"/>
+      <c r="E176" s="25"/>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="63"/>
-      <c r="B177" s="65"/>
-      <c r="C177" s="64"/>
-      <c r="D177" s="64"/>
-      <c r="E177" s="64"/>
+      <c r="A177" s="24"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="25"/>
+      <c r="D177" s="25"/>
+      <c r="E177" s="25"/>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="63"/>
-      <c r="B178" s="65"/>
-      <c r="C178" s="64"/>
-      <c r="D178" s="64"/>
-      <c r="E178" s="64"/>
+      <c r="A178" s="24"/>
+      <c r="B178" s="26"/>
+      <c r="C178" s="25"/>
+      <c r="D178" s="25"/>
+      <c r="E178" s="25"/>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="63"/>
-      <c r="B179" s="65"/>
-      <c r="C179" s="64"/>
-      <c r="D179" s="64"/>
-      <c r="E179" s="64"/>
+      <c r="A179" s="24"/>
+      <c r="B179" s="26"/>
+      <c r="C179" s="25"/>
+      <c r="D179" s="25"/>
+      <c r="E179" s="25"/>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="63"/>
-      <c r="B180" s="65"/>
-      <c r="C180" s="64"/>
-      <c r="D180" s="64"/>
-      <c r="E180" s="64"/>
+      <c r="A180" s="24"/>
+      <c r="B180" s="26"/>
+      <c r="C180" s="25"/>
+      <c r="D180" s="25"/>
+      <c r="E180" s="25"/>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="63"/>
-      <c r="B181" s="65"/>
-      <c r="C181" s="64"/>
-      <c r="D181" s="64"/>
-      <c r="E181" s="64"/>
+      <c r="A181" s="24"/>
+      <c r="B181" s="26"/>
+      <c r="C181" s="25"/>
+      <c r="D181" s="25"/>
+      <c r="E181" s="25"/>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="63"/>
-      <c r="B182" s="65"/>
-      <c r="C182" s="64"/>
-      <c r="D182" s="64"/>
-      <c r="E182" s="64"/>
+      <c r="A182" s="24"/>
+      <c r="B182" s="26"/>
+      <c r="C182" s="25"/>
+      <c r="D182" s="25"/>
+      <c r="E182" s="25"/>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="63"/>
-      <c r="B183" s="65"/>
-      <c r="C183" s="64"/>
-      <c r="D183" s="64"/>
-      <c r="E183" s="64"/>
+      <c r="A183" s="24"/>
+      <c r="B183" s="26"/>
+      <c r="C183" s="25"/>
+      <c r="D183" s="25"/>
+      <c r="E183" s="25"/>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="63"/>
-      <c r="B184" s="65"/>
-      <c r="C184" s="64"/>
-      <c r="D184" s="64"/>
-      <c r="E184" s="64"/>
+      <c r="A184" s="24"/>
+      <c r="B184" s="26"/>
+      <c r="C184" s="25"/>
+      <c r="D184" s="25"/>
+      <c r="E184" s="25"/>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="63"/>
-      <c r="B185" s="65"/>
-      <c r="C185" s="64"/>
-      <c r="D185" s="64"/>
-      <c r="E185" s="64"/>
+      <c r="A185" s="24"/>
+      <c r="B185" s="26"/>
+      <c r="C185" s="25"/>
+      <c r="D185" s="25"/>
+      <c r="E185" s="25"/>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="63"/>
-      <c r="B186" s="65"/>
-      <c r="C186" s="64"/>
-      <c r="D186" s="64"/>
-      <c r="E186" s="64"/>
+      <c r="A186" s="24"/>
+      <c r="B186" s="26"/>
+      <c r="C186" s="25"/>
+      <c r="D186" s="25"/>
+      <c r="E186" s="25"/>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="63"/>
-      <c r="B187" s="65"/>
-      <c r="C187" s="64"/>
-      <c r="D187" s="64"/>
-      <c r="E187" s="64"/>
+      <c r="A187" s="24"/>
+      <c r="B187" s="26"/>
+      <c r="C187" s="25"/>
+      <c r="D187" s="25"/>
+      <c r="E187" s="25"/>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="63"/>
-      <c r="B188" s="65"/>
-      <c r="C188" s="64"/>
-      <c r="D188" s="64"/>
-      <c r="E188" s="64"/>
+      <c r="A188" s="24"/>
+      <c r="B188" s="26"/>
+      <c r="C188" s="25"/>
+      <c r="D188" s="25"/>
+      <c r="E188" s="25"/>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189" s="63"/>
-      <c r="B189" s="65"/>
-      <c r="C189" s="64"/>
-      <c r="D189" s="64"/>
-      <c r="E189" s="64"/>
+      <c r="A189" s="24"/>
+      <c r="B189" s="26"/>
+      <c r="C189" s="25"/>
+      <c r="D189" s="25"/>
+      <c r="E189" s="25"/>
     </row>
     <row r="190" spans="1:5">
-      <c r="A190" s="63"/>
-      <c r="B190" s="65"/>
-      <c r="C190" s="64"/>
-      <c r="D190" s="64"/>
-      <c r="E190" s="64"/>
+      <c r="A190" s="24"/>
+      <c r="B190" s="26"/>
+      <c r="C190" s="25"/>
+      <c r="D190" s="25"/>
+      <c r="E190" s="25"/>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="63"/>
-      <c r="B191" s="65"/>
-      <c r="C191" s="64"/>
-      <c r="D191" s="64"/>
-      <c r="E191" s="64"/>
+      <c r="A191" s="24"/>
+      <c r="B191" s="26"/>
+      <c r="C191" s="25"/>
+      <c r="D191" s="25"/>
+      <c r="E191" s="25"/>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192" s="63"/>
-      <c r="B192" s="65"/>
-      <c r="C192" s="64"/>
-      <c r="D192" s="64"/>
-      <c r="E192" s="64"/>
+      <c r="A192" s="24"/>
+      <c r="B192" s="26"/>
+      <c r="C192" s="25"/>
+      <c r="D192" s="25"/>
+      <c r="E192" s="25"/>
     </row>
     <row r="193" spans="1:5">
-      <c r="A193" s="63"/>
-      <c r="B193" s="65"/>
-      <c r="C193" s="64"/>
-      <c r="D193" s="64"/>
-      <c r="E193" s="64"/>
+      <c r="A193" s="24"/>
+      <c r="B193" s="26"/>
+      <c r="C193" s="25"/>
+      <c r="D193" s="25"/>
+      <c r="E193" s="25"/>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194" s="63"/>
-      <c r="B194" s="65"/>
-      <c r="C194" s="64"/>
-      <c r="D194" s="64"/>
-      <c r="E194" s="64"/>
+      <c r="A194" s="24"/>
+      <c r="B194" s="26"/>
+      <c r="C194" s="25"/>
+      <c r="D194" s="25"/>
+      <c r="E194" s="25"/>
     </row>
     <row r="195" spans="1:5">
-      <c r="A195" s="63"/>
-      <c r="B195" s="65"/>
-      <c r="C195" s="64"/>
-      <c r="D195" s="64"/>
-      <c r="E195" s="64"/>
+      <c r="A195" s="24"/>
+      <c r="B195" s="26"/>
+      <c r="C195" s="25"/>
+      <c r="D195" s="25"/>
+      <c r="E195" s="25"/>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196" s="63"/>
-      <c r="B196" s="65"/>
-      <c r="C196" s="64"/>
-      <c r="D196" s="64"/>
-      <c r="E196" s="64"/>
+      <c r="A196" s="24"/>
+      <c r="B196" s="26"/>
+      <c r="C196" s="25"/>
+      <c r="D196" s="25"/>
+      <c r="E196" s="25"/>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197" s="63"/>
-      <c r="B197" s="65"/>
-      <c r="C197" s="64"/>
-      <c r="D197" s="64"/>
-      <c r="E197" s="64"/>
+      <c r="A197" s="24"/>
+      <c r="B197" s="26"/>
+      <c r="C197" s="25"/>
+      <c r="D197" s="25"/>
+      <c r="E197" s="25"/>
     </row>
     <row r="198" spans="1:5">
-      <c r="A198" s="63"/>
-      <c r="B198" s="65"/>
-      <c r="C198" s="64"/>
-      <c r="D198" s="64"/>
-      <c r="E198" s="64"/>
+      <c r="A198" s="24"/>
+      <c r="B198" s="26"/>
+      <c r="C198" s="25"/>
+      <c r="D198" s="25"/>
+      <c r="E198" s="25"/>
     </row>
     <row r="199" spans="1:5">
-      <c r="A199" s="63"/>
-      <c r="B199" s="65"/>
-      <c r="C199" s="64"/>
-      <c r="D199" s="64"/>
-      <c r="E199" s="64"/>
+      <c r="A199" s="24"/>
+      <c r="B199" s="26"/>
+      <c r="C199" s="25"/>
+      <c r="D199" s="25"/>
+      <c r="E199" s="25"/>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200" s="63"/>
-      <c r="B200" s="65"/>
-      <c r="C200" s="64"/>
-      <c r="D200" s="64"/>
-      <c r="E200" s="64"/>
+      <c r="A200" s="24"/>
+      <c r="B200" s="26"/>
+      <c r="C200" s="25"/>
+      <c r="D200" s="25"/>
+      <c r="E200" s="25"/>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201" s="63"/>
-      <c r="B201" s="65"/>
-      <c r="C201" s="64"/>
-      <c r="D201" s="64"/>
-      <c r="E201" s="64"/>
+      <c r="A201" s="24"/>
+      <c r="B201" s="26"/>
+      <c r="C201" s="25"/>
+      <c r="D201" s="25"/>
+      <c r="E201" s="25"/>
     </row>
     <row r="202" spans="1:5">
-      <c r="A202" s="63"/>
-      <c r="B202" s="65"/>
-      <c r="C202" s="64"/>
-      <c r="D202" s="64"/>
-      <c r="E202" s="64"/>
+      <c r="A202" s="24"/>
+      <c r="B202" s="26"/>
+      <c r="C202" s="25"/>
+      <c r="D202" s="25"/>
+      <c r="E202" s="25"/>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="63"/>
-      <c r="B203" s="65"/>
-      <c r="C203" s="64"/>
-      <c r="D203" s="64"/>
-      <c r="E203" s="64"/>
+      <c r="A203" s="24"/>
+      <c r="B203" s="26"/>
+      <c r="C203" s="25"/>
+      <c r="D203" s="25"/>
+      <c r="E203" s="25"/>
     </row>
     <row r="204" spans="1:5">
-      <c r="A204" s="63"/>
-      <c r="B204" s="65"/>
-      <c r="C204" s="64"/>
-      <c r="D204" s="64"/>
-      <c r="E204" s="64"/>
+      <c r="A204" s="24"/>
+      <c r="B204" s="26"/>
+      <c r="C204" s="25"/>
+      <c r="D204" s="25"/>
+      <c r="E204" s="25"/>
     </row>
     <row r="205" spans="1:5">
-      <c r="A205" s="63"/>
-      <c r="B205" s="65"/>
-      <c r="C205" s="64"/>
-      <c r="D205" s="64"/>
-      <c r="E205" s="64"/>
+      <c r="A205" s="24"/>
+      <c r="B205" s="26"/>
+      <c r="C205" s="25"/>
+      <c r="D205" s="25"/>
+      <c r="E205" s="25"/>
     </row>
     <row r="206" spans="1:5">
-      <c r="A206" s="63"/>
-      <c r="B206" s="65"/>
-      <c r="C206" s="64"/>
-      <c r="D206" s="64"/>
-      <c r="E206" s="64"/>
+      <c r="A206" s="24"/>
+      <c r="B206" s="26"/>
+      <c r="C206" s="25"/>
+      <c r="D206" s="25"/>
+      <c r="E206" s="25"/>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207" s="63"/>
-      <c r="B207" s="65"/>
-      <c r="C207" s="64"/>
-      <c r="D207" s="64"/>
-      <c r="E207" s="64"/>
+      <c r="A207" s="24"/>
+      <c r="B207" s="26"/>
+      <c r="C207" s="25"/>
+      <c r="D207" s="25"/>
+      <c r="E207" s="25"/>
     </row>
     <row r="208" spans="1:5">
-      <c r="A208" s="63"/>
-      <c r="B208" s="65"/>
-      <c r="C208" s="64"/>
-      <c r="D208" s="64"/>
-      <c r="E208" s="64"/>
+      <c r="A208" s="24"/>
+      <c r="B208" s="26"/>
+      <c r="C208" s="25"/>
+      <c r="D208" s="25"/>
+      <c r="E208" s="25"/>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="63"/>
-      <c r="B209" s="65"/>
-      <c r="C209" s="64"/>
-      <c r="D209" s="64"/>
-      <c r="E209" s="64"/>
+      <c r="A209" s="24"/>
+      <c r="B209" s="26"/>
+      <c r="C209" s="25"/>
+      <c r="D209" s="25"/>
+      <c r="E209" s="25"/>
     </row>
     <row r="210" spans="1:5">
-      <c r="A210" s="63"/>
-      <c r="B210" s="65"/>
-      <c r="C210" s="64"/>
-      <c r="D210" s="64"/>
-      <c r="E210" s="64"/>
+      <c r="A210" s="24"/>
+      <c r="B210" s="26"/>
+      <c r="C210" s="25"/>
+      <c r="D210" s="25"/>
+      <c r="E210" s="25"/>
     </row>
     <row r="211" spans="1:5">
-      <c r="A211" s="63"/>
-      <c r="B211" s="65"/>
-      <c r="C211" s="64"/>
-      <c r="D211" s="64"/>
-      <c r="E211" s="64"/>
+      <c r="A211" s="24"/>
+      <c r="B211" s="26"/>
+      <c r="C211" s="25"/>
+      <c r="D211" s="25"/>
+      <c r="E211" s="25"/>
     </row>
     <row r="212" spans="1:5">
-      <c r="A212" s="63"/>
-      <c r="B212" s="65"/>
-      <c r="C212" s="64"/>
-      <c r="D212" s="64"/>
-      <c r="E212" s="64"/>
+      <c r="A212" s="24"/>
+      <c r="B212" s="26"/>
+      <c r="C212" s="25"/>
+      <c r="D212" s="25"/>
+      <c r="E212" s="25"/>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213" s="63"/>
-      <c r="B213" s="65"/>
-      <c r="C213" s="64"/>
-      <c r="D213" s="64"/>
-      <c r="E213" s="64"/>
+      <c r="A213" s="24"/>
+      <c r="B213" s="26"/>
+      <c r="C213" s="25"/>
+      <c r="D213" s="25"/>
+      <c r="E213" s="25"/>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214" s="63"/>
-      <c r="B214" s="65"/>
-      <c r="C214" s="64"/>
-      <c r="D214" s="64"/>
-      <c r="E214" s="64"/>
+      <c r="A214" s="24"/>
+      <c r="B214" s="26"/>
+      <c r="C214" s="25"/>
+      <c r="D214" s="25"/>
+      <c r="E214" s="25"/>
     </row>
     <row r="215" spans="1:5">
-      <c r="A215" s="63"/>
-      <c r="B215" s="65"/>
-      <c r="C215" s="64"/>
-      <c r="D215" s="64"/>
-      <c r="E215" s="64"/>
+      <c r="A215" s="24"/>
+      <c r="B215" s="26"/>
+      <c r="C215" s="25"/>
+      <c r="D215" s="25"/>
+      <c r="E215" s="25"/>
     </row>
     <row r="216" spans="1:5">
-      <c r="A216" s="63"/>
-      <c r="B216" s="65"/>
-      <c r="C216" s="64"/>
-      <c r="D216" s="64"/>
-      <c r="E216" s="64"/>
+      <c r="A216" s="24"/>
+      <c r="B216" s="26"/>
+      <c r="C216" s="25"/>
+      <c r="D216" s="25"/>
+      <c r="E216" s="25"/>
     </row>
     <row r="217" spans="1:5">
-      <c r="A217" s="63"/>
-      <c r="B217" s="65"/>
-      <c r="C217" s="64"/>
-      <c r="D217" s="64"/>
-      <c r="E217" s="64"/>
+      <c r="A217" s="24"/>
+      <c r="B217" s="26"/>
+      <c r="C217" s="25"/>
+      <c r="D217" s="25"/>
+      <c r="E217" s="25"/>
     </row>
     <row r="218" spans="1:5">
-      <c r="A218" s="63"/>
-      <c r="B218" s="65"/>
-      <c r="C218" s="64"/>
-      <c r="D218" s="64"/>
-      <c r="E218" s="64"/>
+      <c r="A218" s="24"/>
+      <c r="B218" s="26"/>
+      <c r="C218" s="25"/>
+      <c r="D218" s="25"/>
+      <c r="E218" s="25"/>
     </row>
     <row r="219" spans="1:5">
-      <c r="A219" s="63"/>
-      <c r="B219" s="65"/>
-      <c r="C219" s="64"/>
-      <c r="D219" s="64"/>
-      <c r="E219" s="64"/>
+      <c r="A219" s="24"/>
+      <c r="B219" s="26"/>
+      <c r="C219" s="25"/>
+      <c r="D219" s="25"/>
+      <c r="E219" s="25"/>
     </row>
     <row r="220" spans="1:5">
-      <c r="A220" s="63"/>
-      <c r="B220" s="65"/>
-      <c r="C220" s="64"/>
-      <c r="D220" s="64"/>
-      <c r="E220" s="64"/>
+      <c r="A220" s="24"/>
+      <c r="B220" s="26"/>
+      <c r="C220" s="25"/>
+      <c r="D220" s="25"/>
+      <c r="E220" s="25"/>
     </row>
     <row r="221" spans="1:5">
-      <c r="A221" s="63"/>
-      <c r="B221" s="65"/>
-      <c r="C221" s="64"/>
-      <c r="D221" s="64"/>
-      <c r="E221" s="64"/>
+      <c r="A221" s="24"/>
+      <c r="B221" s="26"/>
+      <c r="C221" s="25"/>
+      <c r="D221" s="25"/>
+      <c r="E221" s="25"/>
     </row>
     <row r="222" spans="1:5">
-      <c r="A222" s="63"/>
-      <c r="B222" s="65"/>
-      <c r="C222" s="64"/>
-      <c r="D222" s="64"/>
-      <c r="E222" s="64"/>
+      <c r="A222" s="24"/>
+      <c r="B222" s="26"/>
+      <c r="C222" s="25"/>
+      <c r="D222" s="25"/>
+      <c r="E222" s="25"/>
     </row>
     <row r="223" spans="1:5">
-      <c r="A223" s="63"/>
-      <c r="B223" s="65"/>
-      <c r="C223" s="64"/>
-      <c r="D223" s="64"/>
-      <c r="E223" s="64"/>
+      <c r="A223" s="24"/>
+      <c r="B223" s="26"/>
+      <c r="C223" s="25"/>
+      <c r="D223" s="25"/>
+      <c r="E223" s="25"/>
     </row>
     <row r="224" spans="1:5">
-      <c r="A224" s="63"/>
-      <c r="B224" s="65"/>
-      <c r="C224" s="64"/>
-      <c r="D224" s="64"/>
-      <c r="E224" s="64"/>
+      <c r="A224" s="24"/>
+      <c r="B224" s="26"/>
+      <c r="C224" s="25"/>
+      <c r="D224" s="25"/>
+      <c r="E224" s="25"/>
     </row>
     <row r="225" spans="1:5">
-      <c r="A225" s="63"/>
-      <c r="B225" s="65"/>
-      <c r="C225" s="64"/>
-      <c r="D225" s="64"/>
-      <c r="E225" s="64"/>
+      <c r="A225" s="24"/>
+      <c r="B225" s="26"/>
+      <c r="C225" s="25"/>
+      <c r="D225" s="25"/>
+      <c r="E225" s="25"/>
     </row>
     <row r="226" spans="1:5">
-      <c r="A226" s="63"/>
-      <c r="B226" s="65"/>
-      <c r="C226" s="64"/>
-      <c r="D226" s="64"/>
-      <c r="E226" s="64"/>
+      <c r="A226" s="24"/>
+      <c r="B226" s="26"/>
+      <c r="C226" s="25"/>
+      <c r="D226" s="25"/>
+      <c r="E226" s="25"/>
     </row>
     <row r="227" spans="1:5">
-      <c r="A227" s="63"/>
-      <c r="B227" s="65"/>
-      <c r="C227" s="64"/>
-      <c r="D227" s="64"/>
-      <c r="E227" s="64"/>
+      <c r="A227" s="24"/>
+      <c r="B227" s="26"/>
+      <c r="C227" s="25"/>
+      <c r="D227" s="25"/>
+      <c r="E227" s="25"/>
     </row>
     <row r="228" spans="1:5">
-      <c r="A228" s="63"/>
-      <c r="B228" s="65"/>
-      <c r="C228" s="64"/>
-      <c r="D228" s="64"/>
-      <c r="E228" s="64"/>
+      <c r="A228" s="24"/>
+      <c r="B228" s="26"/>
+      <c r="C228" s="25"/>
+      <c r="D228" s="25"/>
+      <c r="E228" s="25"/>
     </row>
     <row r="229" spans="1:5">
-      <c r="A229" s="63"/>
-      <c r="B229" s="65"/>
-      <c r="C229" s="64"/>
-      <c r="D229" s="64"/>
-      <c r="E229" s="64"/>
+      <c r="A229" s="24"/>
+      <c r="B229" s="26"/>
+      <c r="C229" s="25"/>
+      <c r="D229" s="25"/>
+      <c r="E229" s="25"/>
     </row>
     <row r="230" spans="1:5">
-      <c r="A230" s="63"/>
-      <c r="B230" s="65"/>
-      <c r="C230" s="64"/>
-      <c r="D230" s="64"/>
-      <c r="E230" s="64"/>
+      <c r="A230" s="24"/>
+      <c r="B230" s="26"/>
+      <c r="C230" s="25"/>
+      <c r="D230" s="25"/>
+      <c r="E230" s="25"/>
     </row>
     <row r="231" spans="1:5">
-      <c r="A231" s="63"/>
-      <c r="B231" s="65"/>
-      <c r="C231" s="64"/>
-      <c r="D231" s="64"/>
-      <c r="E231" s="64"/>
+      <c r="A231" s="24"/>
+      <c r="B231" s="26"/>
+      <c r="C231" s="25"/>
+      <c r="D231" s="25"/>
+      <c r="E231" s="25"/>
     </row>
     <row r="232" spans="1:5">
-      <c r="A232" s="63"/>
-      <c r="B232" s="65"/>
-      <c r="C232" s="64"/>
-      <c r="D232" s="64"/>
-      <c r="E232" s="64"/>
+      <c r="A232" s="24"/>
+      <c r="B232" s="26"/>
+      <c r="C232" s="25"/>
+      <c r="D232" s="25"/>
+      <c r="E232" s="25"/>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" s="63"/>
-      <c r="B233" s="65"/>
-      <c r="C233" s="64"/>
-      <c r="D233" s="64"/>
-      <c r="E233" s="64"/>
+      <c r="A233" s="24"/>
+      <c r="B233" s="26"/>
+      <c r="C233" s="25"/>
+      <c r="D233" s="25"/>
+      <c r="E233" s="25"/>
     </row>
     <row r="234" spans="1:5">
-      <c r="A234" s="63"/>
-      <c r="B234" s="65"/>
-      <c r="C234" s="64"/>
-      <c r="D234" s="64"/>
-      <c r="E234" s="64"/>
+      <c r="A234" s="24"/>
+      <c r="B234" s="26"/>
+      <c r="C234" s="25"/>
+      <c r="D234" s="25"/>
+      <c r="E234" s="25"/>
     </row>
     <row r="235" spans="1:5">
-      <c r="A235" s="63"/>
-      <c r="B235" s="65"/>
-      <c r="C235" s="64"/>
-      <c r="D235" s="64"/>
-      <c r="E235" s="64"/>
+      <c r="A235" s="24"/>
+      <c r="B235" s="26"/>
+      <c r="C235" s="25"/>
+      <c r="D235" s="25"/>
+      <c r="E235" s="25"/>
     </row>
     <row r="236" spans="1:5">
-      <c r="A236" s="63"/>
-      <c r="B236" s="65"/>
-      <c r="C236" s="64"/>
-      <c r="D236" s="64"/>
-      <c r="E236" s="64"/>
+      <c r="A236" s="24"/>
+      <c r="B236" s="26"/>
+      <c r="C236" s="25"/>
+      <c r="D236" s="25"/>
+      <c r="E236" s="25"/>
     </row>
     <row r="237" spans="1:5">
-      <c r="A237" s="63"/>
-      <c r="B237" s="65"/>
-      <c r="C237" s="64"/>
-      <c r="D237" s="64"/>
-      <c r="E237" s="64"/>
+      <c r="A237" s="24"/>
+      <c r="B237" s="26"/>
+      <c r="C237" s="25"/>
+      <c r="D237" s="25"/>
+      <c r="E237" s="25"/>
     </row>
     <row r="238" spans="1:5">
-      <c r="A238" s="63"/>
-      <c r="B238" s="65"/>
-      <c r="C238" s="64"/>
-      <c r="D238" s="64"/>
-      <c r="E238" s="64"/>
+      <c r="A238" s="24"/>
+      <c r="B238" s="26"/>
+      <c r="C238" s="25"/>
+      <c r="D238" s="25"/>
+      <c r="E238" s="25"/>
     </row>
     <row r="239" spans="1:5">
-      <c r="A239" s="63"/>
-      <c r="B239" s="65"/>
-      <c r="C239" s="64"/>
-      <c r="D239" s="64"/>
-      <c r="E239" s="64"/>
+      <c r="A239" s="24"/>
+      <c r="B239" s="26"/>
+      <c r="C239" s="25"/>
+      <c r="D239" s="25"/>
+      <c r="E239" s="25"/>
     </row>
     <row r="240" spans="1:5">
-      <c r="A240" s="63"/>
-      <c r="B240" s="65"/>
-      <c r="C240" s="64"/>
-      <c r="D240" s="64"/>
-      <c r="E240" s="64"/>
+      <c r="A240" s="24"/>
+      <c r="B240" s="26"/>
+      <c r="C240" s="25"/>
+      <c r="D240" s="25"/>
+      <c r="E240" s="25"/>
     </row>
     <row r="241" spans="1:5">
-      <c r="A241" s="63"/>
-      <c r="B241" s="65"/>
-      <c r="C241" s="64"/>
-      <c r="D241" s="64"/>
-      <c r="E241" s="64"/>
+      <c r="A241" s="24"/>
+      <c r="B241" s="26"/>
+      <c r="C241" s="25"/>
+      <c r="D241" s="25"/>
+      <c r="E241" s="25"/>
     </row>
     <row r="242" spans="1:5">
-      <c r="A242" s="63"/>
-      <c r="B242" s="65"/>
-      <c r="C242" s="64"/>
-      <c r="D242" s="64"/>
-      <c r="E242" s="64"/>
+      <c r="A242" s="24"/>
+      <c r="B242" s="26"/>
+      <c r="C242" s="25"/>
+      <c r="D242" s="25"/>
+      <c r="E242" s="25"/>
     </row>
     <row r="243" spans="1:5">
-      <c r="A243" s="63"/>
-      <c r="B243" s="65"/>
-      <c r="C243" s="64"/>
-      <c r="D243" s="64"/>
-      <c r="E243" s="64"/>
+      <c r="A243" s="24"/>
+      <c r="B243" s="26"/>
+      <c r="C243" s="25"/>
+      <c r="D243" s="25"/>
+      <c r="E243" s="25"/>
     </row>
     <row r="244" spans="1:5">
-      <c r="A244" s="63"/>
-      <c r="B244" s="65"/>
-      <c r="C244" s="64"/>
-      <c r="D244" s="64"/>
-      <c r="E244" s="64"/>
+      <c r="A244" s="24"/>
+      <c r="B244" s="26"/>
+      <c r="C244" s="25"/>
+      <c r="D244" s="25"/>
+      <c r="E244" s="25"/>
     </row>
     <row r="245" spans="1:5">
-      <c r="A245" s="63"/>
-      <c r="B245" s="65"/>
-      <c r="C245" s="64"/>
-      <c r="D245" s="64"/>
-      <c r="E245" s="64"/>
+      <c r="A245" s="24"/>
+      <c r="B245" s="26"/>
+      <c r="C245" s="25"/>
+      <c r="D245" s="25"/>
+      <c r="E245" s="25"/>
     </row>
     <row r="246" spans="1:5">
-      <c r="A246" s="63"/>
-      <c r="B246" s="65"/>
-      <c r="C246" s="64"/>
-      <c r="D246" s="64"/>
-      <c r="E246" s="64"/>
+      <c r="A246" s="24"/>
+      <c r="B246" s="26"/>
+      <c r="C246" s="25"/>
+      <c r="D246" s="25"/>
+      <c r="E246" s="25"/>
     </row>
     <row r="247" spans="1:5">
-      <c r="A247" s="63"/>
-      <c r="B247" s="65"/>
-      <c r="C247" s="64"/>
-      <c r="D247" s="64"/>
-      <c r="E247" s="64"/>
+      <c r="A247" s="24"/>
+      <c r="B247" s="26"/>
+      <c r="C247" s="25"/>
+      <c r="D247" s="25"/>
+      <c r="E247" s="25"/>
     </row>
     <row r="248" spans="1:5">
-      <c r="A248" s="63"/>
-      <c r="B248" s="65"/>
-      <c r="C248" s="64"/>
-      <c r="D248" s="64"/>
-      <c r="E248" s="64"/>
+      <c r="A248" s="24"/>
+      <c r="B248" s="26"/>
+      <c r="C248" s="25"/>
+      <c r="D248" s="25"/>
+      <c r="E248" s="25"/>
     </row>
     <row r="249" spans="1:5">
-      <c r="A249" s="63"/>
-      <c r="B249" s="65"/>
-      <c r="C249" s="64"/>
-      <c r="D249" s="64"/>
-      <c r="E249" s="64"/>
+      <c r="A249" s="24"/>
+      <c r="B249" s="26"/>
+      <c r="C249" s="25"/>
+      <c r="D249" s="25"/>
+      <c r="E249" s="25"/>
     </row>
     <row r="250" spans="1:5">
-      <c r="A250" s="63"/>
-      <c r="B250" s="65"/>
-      <c r="C250" s="64"/>
-      <c r="D250" s="64"/>
-      <c r="E250" s="64"/>
+      <c r="A250" s="24"/>
+      <c r="B250" s="26"/>
+      <c r="C250" s="25"/>
+      <c r="D250" s="25"/>
+      <c r="E250" s="25"/>
     </row>
     <row r="251" spans="1:5">
-      <c r="A251" s="63"/>
-      <c r="B251" s="65"/>
-      <c r="C251" s="64"/>
-      <c r="D251" s="64"/>
-      <c r="E251" s="64"/>
+      <c r="A251" s="24"/>
+      <c r="B251" s="26"/>
+      <c r="C251" s="25"/>
+      <c r="D251" s="25"/>
+      <c r="E251" s="25"/>
     </row>
     <row r="252" spans="1:5">
-      <c r="A252" s="63"/>
-      <c r="B252" s="65"/>
-      <c r="C252" s="64"/>
-      <c r="D252" s="64"/>
-      <c r="E252" s="64"/>
+      <c r="A252" s="24"/>
+      <c r="B252" s="26"/>
+      <c r="C252" s="25"/>
+      <c r="D252" s="25"/>
+      <c r="E252" s="25"/>
     </row>
     <row r="253" spans="1:5">
-      <c r="A253" s="66"/>
-      <c r="B253" s="67"/>
-      <c r="C253" s="67"/>
-      <c r="D253" s="67"/>
-      <c r="E253" s="67"/>
+      <c r="A253" s="27"/>
+      <c r="B253" s="28"/>
+      <c r="C253" s="28"/>
+      <c r="D253" s="28"/>
+      <c r="E253" s="28"/>
     </row>
     <row r="254" spans="1:5">
-      <c r="A254" s="66"/>
-      <c r="B254" s="67"/>
-      <c r="C254" s="67"/>
-      <c r="D254" s="67"/>
-      <c r="E254" s="67"/>
+      <c r="A254" s="27"/>
+      <c r="B254" s="28"/>
+      <c r="C254" s="28"/>
+      <c r="D254" s="28"/>
+      <c r="E254" s="28"/>
     </row>
     <row r="255" spans="1:5">
-      <c r="A255" s="66"/>
-      <c r="B255" s="67"/>
-      <c r="C255" s="67"/>
-      <c r="D255" s="67"/>
-      <c r="E255" s="67"/>
+      <c r="A255" s="27"/>
+      <c r="B255" s="28"/>
+      <c r="C255" s="28"/>
+      <c r="D255" s="28"/>
+      <c r="E255" s="28"/>
     </row>
     <row r="256" spans="1:5">
-      <c r="A256" s="66"/>
-      <c r="B256" s="67"/>
-      <c r="C256" s="67"/>
-      <c r="D256" s="67"/>
-      <c r="E256" s="67"/>
+      <c r="A256" s="27"/>
+      <c r="B256" s="28"/>
+      <c r="C256" s="28"/>
+      <c r="D256" s="28"/>
+      <c r="E256" s="28"/>
     </row>
     <row r="257" spans="1:5">
-      <c r="A257" s="66"/>
-      <c r="B257" s="67"/>
-      <c r="C257" s="67"/>
-      <c r="D257" s="67"/>
-      <c r="E257" s="67"/>
+      <c r="A257" s="27"/>
+      <c r="B257" s="28"/>
+      <c r="C257" s="28"/>
+      <c r="D257" s="28"/>
+      <c r="E257" s="28"/>
     </row>
     <row r="258" spans="1:5">
-      <c r="A258" s="66"/>
-      <c r="B258" s="67"/>
-      <c r="C258" s="67"/>
-      <c r="D258" s="67"/>
-      <c r="E258" s="67"/>
+      <c r="A258" s="27"/>
+      <c r="B258" s="28"/>
+      <c r="C258" s="28"/>
+      <c r="D258" s="28"/>
+      <c r="E258" s="28"/>
     </row>
     <row r="259" spans="1:5">
-      <c r="A259" s="66"/>
-      <c r="B259" s="67"/>
-      <c r="C259" s="67"/>
-      <c r="D259" s="67"/>
-      <c r="E259" s="67"/>
+      <c r="A259" s="27"/>
+      <c r="B259" s="28"/>
+      <c r="C259" s="28"/>
+      <c r="D259" s="28"/>
+      <c r="E259" s="28"/>
     </row>
     <row r="260" spans="1:5">
-      <c r="A260" s="66"/>
-      <c r="B260" s="67"/>
-      <c r="C260" s="67"/>
-      <c r="D260" s="67"/>
-      <c r="E260" s="67"/>
+      <c r="A260" s="27"/>
+      <c r="B260" s="28"/>
+      <c r="C260" s="28"/>
+      <c r="D260" s="28"/>
+      <c r="E260" s="28"/>
     </row>
     <row r="261" spans="1:5">
-      <c r="A261" s="66"/>
-      <c r="B261" s="67"/>
-      <c r="C261" s="67"/>
-      <c r="D261" s="67"/>
-      <c r="E261" s="67"/>
+      <c r="A261" s="27"/>
+      <c r="B261" s="28"/>
+      <c r="C261" s="28"/>
+      <c r="D261" s="28"/>
+      <c r="E261" s="28"/>
     </row>
     <row r="262" spans="1:5">
-      <c r="A262" s="66"/>
-      <c r="B262" s="67"/>
-      <c r="C262" s="67"/>
-      <c r="D262" s="67"/>
-      <c r="E262" s="67"/>
+      <c r="A262" s="27"/>
+      <c r="B262" s="28"/>
+      <c r="C262" s="28"/>
+      <c r="D262" s="28"/>
+      <c r="E262" s="28"/>
     </row>
     <row r="263" spans="1:5">
-      <c r="A263" s="66"/>
-      <c r="B263" s="67"/>
-      <c r="C263" s="67"/>
-      <c r="D263" s="67"/>
-      <c r="E263" s="67"/>
+      <c r="A263" s="27"/>
+      <c r="B263" s="28"/>
+      <c r="C263" s="28"/>
+      <c r="D263" s="28"/>
+      <c r="E263" s="28"/>
     </row>
     <row r="264" spans="1:5">
-      <c r="A264" s="66"/>
-      <c r="B264" s="67"/>
-      <c r="C264" s="67"/>
-      <c r="D264" s="67"/>
-      <c r="E264" s="67"/>
+      <c r="A264" s="27"/>
+      <c r="B264" s="28"/>
+      <c r="C264" s="28"/>
+      <c r="D264" s="28"/>
+      <c r="E264" s="28"/>
     </row>
     <row r="265" spans="1:5">
-      <c r="A265" s="66"/>
-      <c r="B265" s="67"/>
-      <c r="C265" s="67"/>
-      <c r="D265" s="67"/>
-      <c r="E265" s="67"/>
+      <c r="A265" s="27"/>
+      <c r="B265" s="28"/>
+      <c r="C265" s="28"/>
+      <c r="D265" s="28"/>
+      <c r="E265" s="28"/>
     </row>
     <row r="266" spans="1:5">
-      <c r="A266" s="66"/>
-      <c r="B266" s="67"/>
-      <c r="C266" s="67"/>
-      <c r="D266" s="67"/>
-      <c r="E266" s="67"/>
+      <c r="A266" s="27"/>
+      <c r="B266" s="28"/>
+      <c r="C266" s="28"/>
+      <c r="D266" s="28"/>
+      <c r="E266" s="28"/>
     </row>
     <row r="267" spans="1:5">
-      <c r="A267" s="66"/>
-      <c r="B267" s="67"/>
-      <c r="C267" s="67"/>
-      <c r="D267" s="67"/>
-      <c r="E267" s="67"/>
+      <c r="A267" s="27"/>
+      <c r="B267" s="28"/>
+      <c r="C267" s="28"/>
+      <c r="D267" s="28"/>
+      <c r="E267" s="28"/>
     </row>
     <row r="268" spans="1:5">
-      <c r="A268" s="66"/>
-      <c r="B268" s="67"/>
-      <c r="C268" s="67"/>
-      <c r="D268" s="67"/>
-      <c r="E268" s="67"/>
+      <c r="A268" s="27"/>
+      <c r="B268" s="28"/>
+      <c r="C268" s="28"/>
+      <c r="D268" s="28"/>
+      <c r="E268" s="28"/>
     </row>
     <row r="269" spans="1:5">
-      <c r="A269" s="66"/>
-      <c r="B269" s="67"/>
-      <c r="C269" s="67"/>
-      <c r="D269" s="67"/>
-      <c r="E269" s="67"/>
+      <c r="A269" s="27"/>
+      <c r="B269" s="28"/>
+      <c r="C269" s="28"/>
+      <c r="D269" s="28"/>
+      <c r="E269" s="28"/>
     </row>
     <row r="270" spans="1:5">
-      <c r="A270" s="66"/>
-      <c r="B270" s="67"/>
-      <c r="C270" s="67"/>
-      <c r="D270" s="67"/>
-      <c r="E270" s="67"/>
+      <c r="A270" s="27"/>
+      <c r="B270" s="28"/>
+      <c r="C270" s="28"/>
+      <c r="D270" s="28"/>
+      <c r="E270" s="28"/>
     </row>
     <row r="271" spans="1:5">
-      <c r="A271" s="66"/>
-      <c r="B271" s="67"/>
-      <c r="C271" s="67"/>
-      <c r="D271" s="67"/>
-      <c r="E271" s="67"/>
+      <c r="A271" s="27"/>
+      <c r="B271" s="28"/>
+      <c r="C271" s="28"/>
+      <c r="D271" s="28"/>
+      <c r="E271" s="28"/>
     </row>
     <row r="272" spans="1:5">
-      <c r="A272" s="66"/>
-      <c r="B272" s="67"/>
-      <c r="C272" s="67"/>
-      <c r="D272" s="67"/>
-      <c r="E272" s="67"/>
+      <c r="A272" s="27"/>
+      <c r="B272" s="28"/>
+      <c r="C272" s="28"/>
+      <c r="D272" s="28"/>
+      <c r="E272" s="28"/>
     </row>
     <row r="273" spans="1:5">
-      <c r="A273" s="66"/>
-      <c r="B273" s="67"/>
-      <c r="C273" s="67"/>
-      <c r="D273" s="67"/>
-      <c r="E273" s="67"/>
+      <c r="A273" s="27"/>
+      <c r="B273" s="28"/>
+      <c r="C273" s="28"/>
+      <c r="D273" s="28"/>
+      <c r="E273" s="28"/>
     </row>
     <row r="274" spans="1:5">
-      <c r="A274" s="66"/>
-      <c r="B274" s="67"/>
-      <c r="C274" s="67"/>
-      <c r="D274" s="67"/>
-      <c r="E274" s="67"/>
+      <c r="A274" s="27"/>
+      <c r="B274" s="28"/>
+      <c r="C274" s="28"/>
+      <c r="D274" s="28"/>
+      <c r="E274" s="28"/>
     </row>
     <row r="275" spans="1:5">
-      <c r="A275" s="66"/>
-      <c r="B275" s="67"/>
-      <c r="C275" s="67"/>
-      <c r="D275" s="67"/>
-      <c r="E275" s="67"/>
+      <c r="A275" s="27"/>
+      <c r="B275" s="28"/>
+      <c r="C275" s="28"/>
+      <c r="D275" s="28"/>
+      <c r="E275" s="28"/>
     </row>
     <row r="276" spans="1:5">
-      <c r="A276" s="66"/>
-      <c r="B276" s="67"/>
-      <c r="C276" s="67"/>
-      <c r="D276" s="67"/>
-      <c r="E276" s="67"/>
+      <c r="A276" s="27"/>
+      <c r="B276" s="28"/>
+      <c r="C276" s="28"/>
+      <c r="D276" s="28"/>
+      <c r="E276" s="28"/>
     </row>
     <row r="277" spans="1:5">
-      <c r="A277" s="66"/>
-      <c r="B277" s="67"/>
-      <c r="C277" s="67"/>
-      <c r="D277" s="67"/>
-      <c r="E277" s="67"/>
+      <c r="A277" s="27"/>
+      <c r="B277" s="28"/>
+      <c r="C277" s="28"/>
+      <c r="D277" s="28"/>
+      <c r="E277" s="28"/>
     </row>
     <row r="278" spans="1:5">
-      <c r="A278" s="66"/>
-      <c r="B278" s="67"/>
-      <c r="C278" s="67"/>
-      <c r="D278" s="67"/>
-      <c r="E278" s="67"/>
+      <c r="A278" s="27"/>
+      <c r="B278" s="28"/>
+      <c r="C278" s="28"/>
+      <c r="D278" s="28"/>
+      <c r="E278" s="28"/>
     </row>
     <row r="279" spans="1:5">
-      <c r="A279" s="66"/>
-      <c r="B279" s="67"/>
-      <c r="C279" s="67"/>
-      <c r="D279" s="67"/>
-      <c r="E279" s="67"/>
+      <c r="A279" s="27"/>
+      <c r="B279" s="28"/>
+      <c r="C279" s="28"/>
+      <c r="D279" s="28"/>
+      <c r="E279" s="28"/>
     </row>
     <row r="280" spans="1:5">
-      <c r="A280" s="66"/>
-      <c r="B280" s="67"/>
-      <c r="C280" s="67"/>
-      <c r="D280" s="67"/>
-      <c r="E280" s="67"/>
+      <c r="A280" s="27"/>
+      <c r="B280" s="28"/>
+      <c r="C280" s="28"/>
+      <c r="D280" s="28"/>
+      <c r="E280" s="28"/>
     </row>
     <row r="281" spans="1:5">
-      <c r="A281" s="66"/>
-      <c r="B281" s="67"/>
-      <c r="C281" s="67"/>
-      <c r="D281" s="67"/>
-      <c r="E281" s="67"/>
+      <c r="A281" s="27"/>
+      <c r="B281" s="28"/>
+      <c r="C281" s="28"/>
+      <c r="D281" s="28"/>
+      <c r="E281" s="28"/>
     </row>
     <row r="282" spans="1:5">
-      <c r="A282" s="66"/>
-      <c r="B282" s="67"/>
-      <c r="C282" s="67"/>
-      <c r="D282" s="67"/>
-      <c r="E282" s="67"/>
+      <c r="A282" s="27"/>
+      <c r="B282" s="28"/>
+      <c r="C282" s="28"/>
+      <c r="D282" s="28"/>
+      <c r="E282" s="28"/>
     </row>
     <row r="283" spans="1:5">
-      <c r="A283" s="66"/>
-      <c r="B283" s="67"/>
-      <c r="C283" s="67"/>
-      <c r="D283" s="67"/>
-      <c r="E283" s="67"/>
+      <c r="A283" s="27"/>
+      <c r="B283" s="28"/>
+      <c r="C283" s="28"/>
+      <c r="D283" s="28"/>
+      <c r="E283" s="28"/>
     </row>
     <row r="284" spans="1:5">
-      <c r="A284" s="66"/>
-      <c r="B284" s="67"/>
-      <c r="C284" s="67"/>
-      <c r="D284" s="67"/>
-      <c r="E284" s="67"/>
+      <c r="A284" s="27"/>
+      <c r="B284" s="28"/>
+      <c r="C284" s="28"/>
+      <c r="D284" s="28"/>
+      <c r="E284" s="28"/>
     </row>
     <row r="285" spans="1:5">
-      <c r="A285" s="66"/>
-      <c r="B285" s="67"/>
-      <c r="C285" s="67"/>
-      <c r="D285" s="67"/>
-      <c r="E285" s="67"/>
+      <c r="A285" s="27"/>
+      <c r="B285" s="28"/>
+      <c r="C285" s="28"/>
+      <c r="D285" s="28"/>
+      <c r="E285" s="28"/>
     </row>
     <row r="286" spans="1:5">
-      <c r="A286" s="66"/>
-      <c r="B286" s="67"/>
-      <c r="C286" s="67"/>
-      <c r="D286" s="67"/>
-      <c r="E286" s="67"/>
+      <c r="A286" s="27"/>
+      <c r="B286" s="28"/>
+      <c r="C286" s="28"/>
+      <c r="D286" s="28"/>
+      <c r="E286" s="28"/>
     </row>
     <row r="287" spans="1:5">
-      <c r="A287" s="66"/>
-      <c r="B287" s="67"/>
-      <c r="C287" s="67"/>
-      <c r="D287" s="67"/>
-      <c r="E287" s="67"/>
+      <c r="A287" s="27"/>
+      <c r="B287" s="28"/>
+      <c r="C287" s="28"/>
+      <c r="D287" s="28"/>
+      <c r="E287" s="28"/>
     </row>
     <row r="288" spans="1:5">
-      <c r="A288" s="66"/>
-      <c r="B288" s="67"/>
-      <c r="C288" s="67"/>
-      <c r="D288" s="67"/>
-      <c r="E288" s="67"/>
+      <c r="A288" s="27"/>
+      <c r="B288" s="28"/>
+      <c r="C288" s="28"/>
+      <c r="D288" s="28"/>
+      <c r="E288" s="28"/>
     </row>
     <row r="289" spans="1:5">
-      <c r="A289" s="66"/>
-      <c r="B289" s="67"/>
-      <c r="C289" s="67"/>
-      <c r="D289" s="67"/>
-      <c r="E289" s="67"/>
+      <c r="A289" s="27"/>
+      <c r="B289" s="28"/>
+      <c r="C289" s="28"/>
+      <c r="D289" s="28"/>
+      <c r="E289" s="28"/>
     </row>
     <row r="290" spans="1:5">
-      <c r="A290" s="66"/>
-      <c r="B290" s="67"/>
-      <c r="C290" s="67"/>
-      <c r="D290" s="67"/>
-      <c r="E290" s="67"/>
+      <c r="A290" s="27"/>
+      <c r="B290" s="28"/>
+      <c r="C290" s="28"/>
+      <c r="D290" s="28"/>
+      <c r="E290" s="28"/>
     </row>
     <row r="291" spans="1:5">
-      <c r="A291" s="66"/>
-      <c r="B291" s="67"/>
-      <c r="C291" s="67"/>
-      <c r="D291" s="67"/>
-      <c r="E291" s="67"/>
+      <c r="A291" s="27"/>
+      <c r="B291" s="28"/>
+      <c r="C291" s="28"/>
+      <c r="D291" s="28"/>
+      <c r="E291" s="28"/>
     </row>
     <row r="292" spans="1:5">
-      <c r="A292" s="66"/>
-      <c r="B292" s="67"/>
-      <c r="C292" s="67"/>
-      <c r="D292" s="67"/>
-      <c r="E292" s="67"/>
+      <c r="A292" s="27"/>
+      <c r="B292" s="28"/>
+      <c r="C292" s="28"/>
+      <c r="D292" s="28"/>
+      <c r="E292" s="28"/>
     </row>
     <row r="293" spans="1:5">
-      <c r="A293" s="66"/>
-      <c r="B293" s="67"/>
-      <c r="C293" s="67"/>
-      <c r="D293" s="67"/>
-      <c r="E293" s="67"/>
+      <c r="A293" s="27"/>
+      <c r="B293" s="28"/>
+      <c r="C293" s="28"/>
+      <c r="D293" s="28"/>
+      <c r="E293" s="28"/>
     </row>
     <row r="294" spans="1:5">
-      <c r="A294" s="66"/>
-      <c r="B294" s="67"/>
-      <c r="C294" s="67"/>
-      <c r="D294" s="67"/>
-      <c r="E294" s="67"/>
+      <c r="A294" s="27"/>
+      <c r="B294" s="28"/>
+      <c r="C294" s="28"/>
+      <c r="D294" s="28"/>
+      <c r="E294" s="28"/>
     </row>
     <row r="295" spans="1:5">
-      <c r="A295" s="66"/>
-      <c r="B295" s="67"/>
-      <c r="C295" s="67"/>
-      <c r="D295" s="67"/>
-      <c r="E295" s="67"/>
+      <c r="A295" s="27"/>
+      <c r="B295" s="28"/>
+      <c r="C295" s="28"/>
+      <c r="D295" s="28"/>
+      <c r="E295" s="28"/>
     </row>
     <row r="296" spans="1:5">
-      <c r="A296" s="66"/>
-      <c r="B296" s="67"/>
-      <c r="C296" s="67"/>
-      <c r="D296" s="67"/>
-      <c r="E296" s="67"/>
+      <c r="A296" s="27"/>
+      <c r="B296" s="28"/>
+      <c r="C296" s="28"/>
+      <c r="D296" s="28"/>
+      <c r="E296" s="28"/>
     </row>
     <row r="297" spans="1:5">
-      <c r="A297" s="66"/>
-      <c r="B297" s="67"/>
-      <c r="C297" s="67"/>
-      <c r="D297" s="67"/>
-      <c r="E297" s="67"/>
+      <c r="A297" s="27"/>
+      <c r="B297" s="28"/>
+      <c r="C297" s="28"/>
+      <c r="D297" s="28"/>
+      <c r="E297" s="28"/>
     </row>
     <row r="298" spans="1:5">
       <c r="B298" s="2"/>

--- a/144F20/Topic 4/PayingMinOnCC.xlsx
+++ b/144F20/Topic 4/PayingMinOnCC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{8B6573E0-F1D7-4842-8F08-09D183625E54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{6974F592-801B-47B2-A0F5-E92D6F6DC456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="15624" windowHeight="11508" xr2:uid="{CF10E6CE-D87B-417F-86FF-EEF4FA94E14B}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{0C13EE4D-7CE1-4AA1-8E50-FA0088A2A213}" mergeInterval="0" personalView="1" xWindow="32" yWindow="32" windowWidth="1302" windowHeight="959" activeSheetId="1" showComments="commIndAndComment"/>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{0C13EE4D-7CE1-4AA1-8E50-FA0088A2A213}" mergeInterval="0" personalView="1" xWindow="32" yWindow="32" windowWidth="1302" windowHeight="959" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -932,8 +932,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{A8951CBF-D355-4FA9-9B19-5A15E0AF3C49}">
-  <header guid="{A8951CBF-D355-4FA9-9B19-5A15E0AF3C49}" dateTime="2020-10-30T14:40:41" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{D463C402-115F-4616-88F5-7C9CC8E40231}">
+  <header guid="{D463C402-115F-4616-88F5-7C9CC8E40231}" dateTime="2020-11-14T12:19:58" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -948,7 +948,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{A8951CBF-D355-4FA9-9B19-5A15E0AF3C49}" name="Richard Ketchersid" id="-1739533752" dateTime="2020-10-30T14:40:41"/>
+  <userInfo guid="{D463C402-115F-4616-88F5-7C9CC8E40231}" name="Richard Ketchersid" id="-1739573833" dateTime="2020-11-14T12:19:58"/>
 </users>
 </file>
 
@@ -1252,7 +1252,7 @@
   <dimension ref="A1:L298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:E8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1266,8 +1266,8 @@
   <sheetData>
     <row r="1" spans="1:12" ht="14.4" customHeight="1" thickBot="1">
       <c r="A1" s="49" t="str">
-        <f ca="1">"See how long it takes to pay off $"&amp;Random!H19&amp;" credit card debt paying the minimal payment which is the maximum of "&amp;Random!H20&amp;"% or $"&amp;Random!H22&amp;". The credit card has "&amp;Random!H21&amp;"% APR compounded monthly. You want to find out how long it takes you to pay this off and how much you end up paying. Assume you make your payment on the current balance at the beginnig of each period (month), before interest is acrued."</f>
-        <v>See how long it takes to pay off $2200 credit card debt paying the minimal payment which is the maximum of 3.5% or $30. The credit card has 21% APR compounded monthly. You want to find out how long it takes you to pay this off and how much you end up paying. Assume you make your payment on the current balance at the beginnig of each period (month), before interest is acrued.</v>
+        <f>IF(C8="Your Name Here!", "Enter your name below.","See how long it takes to pay off $"&amp;Random!H19&amp;" credit card debt paying the minimal payment which is the maximum of "&amp;Random!H20&amp;"% or $"&amp;Random!H22&amp;". The credit card has "&amp;Random!H21&amp;"% APR compounded monthly. You want to find out how long it takes you to pay this off and how much you end up paying. Assume you make your payment on the current balance at the beginnig of each period (month), before interest is acrued.")</f>
+        <v>Enter your name below.</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -3439,10 +3439,10 @@
       <c r="E298" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="H+LywdS1i2HwEVZNKnRp2LZ325icjG7QCT8n4MF63Xip+QDy+ayL8b4q4GTJlXmDoMxF9AO7v75vZ9jib5HegA==" saltValue="9AhrJgsWhEofnapevuzQ8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0DybTzz6tUFEA9Q892QjdpAkx0HVIpZLfVKjY1+mj6DSqt+rBdd9LWkmhfr3vsNSRupCUuzm92HFKeyxxcfj2g==" saltValue="dPBMPxp9vhpV4K7WUFVDkg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
   <customSheetViews>
     <customSheetView guid="{0C13EE4D-7CE1-4AA1-8E50-FA0088A2A213}">
-      <selection activeCell="C8" sqref="C8:E8"/>
+      <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>

--- a/144F20/Topic 4/PayingMinOnCC.xlsx
+++ b/144F20/Topic 4/PayingMinOnCC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{6974F592-801B-47B2-A0F5-E92D6F6DC456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{041C586B-57C5-43E8-A08D-BD3DBD2B1F9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="15624" windowHeight="11508" xr2:uid="{CF10E6CE-D87B-417F-86FF-EEF4FA94E14B}"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="19530" windowHeight="14385" xr2:uid="{CF10E6CE-D87B-417F-86FF-EEF4FA94E14B}"/>
   </bookViews>
   <sheets>
     <sheet name="PayoffCC" sheetId="1" r:id="rId1"/>
@@ -229,12 +229,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="10"/>
-      <name val="Comic Sans MS"/>
-      <family val="4"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +240,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
     </font>
   </fonts>
   <fills count="8">
@@ -740,7 +742,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -829,15 +831,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -880,10 +873,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -897,6 +890,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -905,7 +907,17 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -932,8 +944,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{D463C402-115F-4616-88F5-7C9CC8E40231}">
-  <header guid="{D463C402-115F-4616-88F5-7C9CC8E40231}" dateTime="2020-11-14T12:19:58" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{EFD4145D-ED83-4198-AFDA-71CD654C2228}">
+  <header guid="{EFD4145D-ED83-4198-AFDA-71CD654C2228}" dateTime="2021-04-19T12:22:50" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -948,7 +960,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{D463C402-115F-4616-88F5-7C9CC8E40231}" name="Richard Ketchersid" id="-1739573833" dateTime="2020-11-14T12:19:58"/>
+  <userInfo guid="{EFD4145D-ED83-4198-AFDA-71CD654C2228}" name="Richard Ketchersid" id="-1739524408" dateTime="2021-04-19T12:22:50"/>
 </users>
 </file>
 
@@ -1252,51 +1264,51 @@
   <dimension ref="A1:L298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.4" customHeight="1" thickBot="1">
-      <c r="A1" s="49" t="str">
+    <row r="1" spans="1:12" ht="14.45" customHeight="1" thickBot="1">
+      <c r="A1" s="46" t="str">
         <f>IF(C8="Your Name Here!", "Enter your name below.","See how long it takes to pay off $"&amp;Random!H19&amp;" credit card debt paying the minimal payment which is the maximum of "&amp;Random!H20&amp;"% or $"&amp;Random!H22&amp;". The credit card has "&amp;Random!H21&amp;"% APR compounded monthly. You want to find out how long it takes you to pay this off and how much you end up paying. Assume you make your payment on the current balance at the beginnig of each period (month), before interest is acrued.")</f>
         <v>Enter your name below.</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="51"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickTop="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="54"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickTop="1">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
       <c r="I2" s="35" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="36"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
       <c r="I3" s="9" t="s">
         <v>14</v>
       </c>
@@ -1305,13 +1317,13 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="54"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
       <c r="I4" s="11" t="s">
         <v>16</v>
       </c>
@@ -1320,13 +1332,13 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="54"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="51"/>
       <c r="I5" s="13" t="s">
         <v>18</v>
       </c>
@@ -1334,14 +1346,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1">
-      <c r="A6" s="55"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="57"/>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="54"/>
       <c r="I6" s="14" t="s">
         <v>20</v>
       </c>
@@ -1349,7 +1361,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1">
       <c r="I7" s="15" t="s">
         <v>22</v>
       </c>
@@ -1357,23 +1369,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
-      <c r="A8" s="63" t="s">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A8" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="65" t="s">
+      <c r="B8" s="61"/>
+      <c r="C8" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67"/>
-    </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1"/>
-    <row r="10" spans="1:12" ht="28.2" customHeight="1" thickBot="1">
-      <c r="A10" s="61" t="s">
+      <c r="D8" s="63"/>
+      <c r="E8" s="64"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="10" spans="1:12" ht="28.15" customHeight="1" thickBot="1">
+      <c r="A10" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="62"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="19"/>
       <c r="D10" s="37" t="s">
         <v>24</v>
@@ -1382,17 +1394,17 @@
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
       <c r="H10" s="39"/>
-      <c r="J10" s="46" t="s">
+      <c r="J10" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="47"/>
-      <c r="L10" s="48"/>
-    </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1">
-      <c r="A11" s="58" t="s">
+      <c r="K10" s="66"/>
+      <c r="L10" s="67"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A11" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="59"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="20"/>
       <c r="D11" s="40"/>
       <c r="E11" s="41"/>
@@ -1400,11 +1412,11 @@
       <c r="G11" s="41"/>
       <c r="H11" s="42"/>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1">
-      <c r="A12" s="60" t="s">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A12" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="59"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="21"/>
       <c r="D12" s="40"/>
       <c r="E12" s="41"/>
@@ -1412,7 +1424,7 @@
       <c r="G12" s="41"/>
       <c r="H12" s="42"/>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1">
       <c r="A13" s="29" t="s">
         <v>7</v>
       </c>
@@ -1438,7 +1450,7 @@
       <c r="G14" s="41"/>
       <c r="H14" s="42"/>
     </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1">
+    <row r="15" spans="1:12" ht="15.75" thickBot="1">
       <c r="A15" s="33"/>
       <c r="B15" s="23"/>
       <c r="C15" s="4"/>
@@ -1448,8 +1460,8 @@
       <c r="G15" s="44"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="17" spans="1:12" ht="15" thickBot="1"/>
-    <row r="18" spans="1:12" ht="29.4" thickBot="1">
+    <row r="17" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="18" spans="1:12" ht="45.75" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
@@ -3439,10 +3451,10 @@
       <c r="E298" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0DybTzz6tUFEA9Q892QjdpAkx0HVIpZLfVKjY1+mj6DSqt+rBdd9LWkmhfr3vsNSRupCUuzm92HFKeyxxcfj2g==" saltValue="dPBMPxp9vhpV4K7WUFVDkg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fbI8yCf6mSoieicyTlQEzgfwlsBGedn+cBc+RW0QranqkNEgfgqOgSdhvDqf8txM3tj/7XehT89Q0GU00SAoOg==" saltValue="vhh0gyqO3BH/I6Z1eCzBOQ==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{0C13EE4D-7CE1-4AA1-8E50-FA0088A2A213}">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="J13" sqref="J13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -3463,8 +3475,13 @@
     <mergeCell ref="C8:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="C8:E8">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>C8="Your Name Here!"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:I111 J19:J20">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>C8="Your Name Here!"</formula>
+      <formula>$C$8="Your Name Here!"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -3483,7 +3500,7 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="H1">

--- a/144F20/Topic 4/PayingMinOnCC.xlsx
+++ b/144F20/Topic 4/PayingMinOnCC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{041C586B-57C5-43E8-A08D-BD3DBD2B1F9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{F68BCEB6-314B-4768-917A-4943007F4DD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="480" windowWidth="19530" windowHeight="14385" xr2:uid="{CF10E6CE-D87B-417F-86FF-EEF4FA94E14B}"/>
   </bookViews>
@@ -243,8 +243,7 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="10"/>
       <name val="Comic Sans MS"/>
       <family val="4"/>
@@ -689,7 +688,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -891,14 +890,23 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -943,9 +951,65 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D430B32-07CA-4563-ADFA-19601A594784}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8734425" y="1838325"/>
+          <a:ext cx="419100" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{EFD4145D-ED83-4198-AFDA-71CD654C2228}">
-  <header guid="{EFD4145D-ED83-4198-AFDA-71CD654C2228}" dateTime="2021-04-19T12:22:50" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B7F2704E-3800-456D-9EAB-F36BA14F9B15}">
+  <header guid="{B7F2704E-3800-456D-9EAB-F36BA14F9B15}" dateTime="2021-05-13T15:58:43" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -960,7 +1024,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{EFD4145D-ED83-4198-AFDA-71CD654C2228}" name="Richard Ketchersid" id="-1739524408" dateTime="2021-04-19T12:22:50"/>
+  <userInfo guid="{B7F2704E-3800-456D-9EAB-F36BA14F9B15}" name="Richard Ketchersid" id="-1739567592" dateTime="2021-05-13T15:58:43"/>
 </users>
 </file>
 
@@ -1261,10 +1325,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6498914E-259A-4654-875A-D917FE462FEA}">
-  <dimension ref="A1:L298"/>
+  <dimension ref="A1:M298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1276,7 +1340,7 @@
     <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.45" customHeight="1" thickBot="1">
+    <row r="1" spans="1:13" ht="14.45" customHeight="1" thickBot="1">
       <c r="A1" s="46" t="str">
         <f>IF(C8="Your Name Here!", "Enter your name below.","See how long it takes to pay off $"&amp;Random!H19&amp;" credit card debt paying the minimal payment which is the maximum of "&amp;Random!H20&amp;"% or $"&amp;Random!H22&amp;". The credit card has "&amp;Random!H21&amp;"% APR compounded monthly. You want to find out how long it takes you to pay this off and how much you end up paying. Assume you make your payment on the current balance at the beginnig of each period (month), before interest is acrued.")</f>
         <v>Enter your name below.</v>
@@ -1288,7 +1352,7 @@
       <c r="F1" s="47"/>
       <c r="G1" s="48"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickTop="1">
+    <row r="2" spans="1:13" ht="15.75" thickTop="1">
       <c r="A2" s="49"/>
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
@@ -1301,7 +1365,7 @@
       </c>
       <c r="J2" s="36"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="49"/>
       <c r="B3" s="50"/>
       <c r="C3" s="50"/>
@@ -1316,7 +1380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="49"/>
       <c r="B4" s="50"/>
       <c r="C4" s="50"/>
@@ -1331,7 +1395,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="49"/>
       <c r="B5" s="50"/>
       <c r="C5" s="50"/>
@@ -1346,7 +1410,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1">
+    <row r="6" spans="1:13" ht="15.75" thickBot="1">
       <c r="A6" s="52"/>
       <c r="B6" s="53"/>
       <c r="C6" s="53"/>
@@ -1361,7 +1425,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1">
+    <row r="7" spans="1:13" ht="15.75" thickBot="1">
       <c r="I7" s="15" t="s">
         <v>22</v>
       </c>
@@ -1369,7 +1433,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="60" t="s">
         <v>49</v>
       </c>
@@ -1380,8 +1444,8 @@
       <c r="D8" s="63"/>
       <c r="E8" s="64"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="10" spans="1:12" ht="28.15" customHeight="1" thickBot="1">
+    <row r="9" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="10" spans="1:13" ht="28.15" customHeight="1" thickBot="1">
       <c r="A10" s="58" t="s">
         <v>4</v>
       </c>
@@ -1398,9 +1462,10 @@
         <v>25</v>
       </c>
       <c r="K10" s="66"/>
-      <c r="L10" s="67"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1">
+      <c r="L10" s="66"/>
+      <c r="M10" s="67"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
       <c r="A11" s="55" t="s">
         <v>5</v>
       </c>
@@ -1411,8 +1476,12 @@
       <c r="F11" s="41"/>
       <c r="G11" s="41"/>
       <c r="H11" s="42"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1">
+      <c r="J11" s="68"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="70"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1">
       <c r="A12" s="57" t="s">
         <v>6</v>
       </c>
@@ -1424,7 +1493,7 @@
       <c r="G12" s="41"/>
       <c r="H12" s="42"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1">
+    <row r="13" spans="1:13" ht="15.75" thickBot="1">
       <c r="A13" s="29" t="s">
         <v>7</v>
       </c>
@@ -1436,7 +1505,7 @@
       <c r="G13" s="41"/>
       <c r="H13" s="42"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="32" t="s">
         <v>8</v>
       </c>
@@ -1450,7 +1519,7 @@
       <c r="G14" s="41"/>
       <c r="H14" s="42"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1">
+    <row r="15" spans="1:13" ht="15.75" thickBot="1">
       <c r="A15" s="33"/>
       <c r="B15" s="23"/>
       <c r="C15" s="4"/>
@@ -3451,10 +3520,10 @@
       <c r="E298" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fbI8yCf6mSoieicyTlQEzgfwlsBGedn+cBc+RW0QranqkNEgfgqOgSdhvDqf8txM3tj/7XehT89Q0GU00SAoOg==" saltValue="vhh0gyqO3BH/I6Z1eCzBOQ==" spinCount="100000" sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{0C13EE4D-7CE1-4AA1-8E50-FA0088A2A213}">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="O20" sqref="O20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -3466,13 +3535,13 @@
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="D10:H15"/>
-    <mergeCell ref="J10:L10"/>
     <mergeCell ref="A1:G6"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:E8"/>
+    <mergeCell ref="J10:M11"/>
   </mergeCells>
   <conditionalFormatting sqref="C8:E8">
     <cfRule type="expression" dxfId="1" priority="2">
@@ -3485,10 +3554,12 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="J10:L10" r:id="rId2" display="Video explaining this in detail." xr:uid="{2EBAF32A-7F01-4D37-83C0-2C18950ED297}"/>
+    <hyperlink ref="J10:L11" r:id="rId2" display="Video explaining this in detail." xr:uid="{811FF920-C93A-4314-A9D1-01D51463111F}"/>
+    <hyperlink ref="J10:M11" r:id="rId3" display="Video explaining this in detail." xr:uid="{68EA0FE6-A111-4C3D-B416-505BEBE3F22D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/144F20/Topic 4/PayingMinOnCC.xlsx
+++ b/144F20/Topic 4/PayingMinOnCC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{F68BCEB6-314B-4768-917A-4943007F4DD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ECC0DB-1FB3-44CD-AC80-8EAFF891866D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="480" windowWidth="19530" windowHeight="14385" xr2:uid="{CF10E6CE-D87B-417F-86FF-EEF4FA94E14B}"/>
   </bookViews>
@@ -293,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -681,6 +681,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -688,7 +701,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -777,6 +790,16 @@
     <xf numFmtId="43" fontId="0" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -940,6 +963,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1007,9 +1035,440 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1577868" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25915002-C696-4193-B9C4-1FDDF7836A99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="657225"/>
+          <a:ext cx="1577868" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCCFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>This generates the seed.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1554785" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{956AF120-D35B-4849-89C0-AD367211F635}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171825" y="38100"/>
+          <a:ext cx="1554785" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCCFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A table of some primes!</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3319755" cy="953466"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3A6186E-FA44-4037-B073-FB475FA9E4DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="4467225"/>
+          <a:ext cx="3319755" cy="953466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCCFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>The actual formula:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    next = mod((current)*1103515245 +  12345, 32768)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>The first value of "current" is "seed"</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>143358</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9484C0E0-B774-4A35-BD32-DBEB2209CFE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1181100" y="2276475"/>
+          <a:ext cx="2781300" cy="2667483"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3218445" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E70F92A-BB9E-4243-94A5-6F13272AE79D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3971925" y="5667375"/>
+          <a:ext cx="3218445" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCCFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Turn</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> the random int into a number between 0 and 1.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>46555</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B24BA5B-9C8B-472C-94E0-DDA07D4E0C87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2381250" y="2266950"/>
+          <a:ext cx="1590675" cy="3532705"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B7F2704E-3800-456D-9EAB-F36BA14F9B15}">
-  <header guid="{B7F2704E-3800-456D-9EAB-F36BA14F9B15}" dateTime="2021-05-13T15:58:43" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C8874410-06D2-46AE-A3FB-993C78445DF3}">
+  <header guid="{C8874410-06D2-46AE-A3FB-993C78445DF3}" dateTime="2021-12-15T14:11:13" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -1023,9 +1482,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{B7F2704E-3800-456D-9EAB-F36BA14F9B15}" name="Richard Ketchersid" id="-1739567592" dateTime="2021-05-13T15:58:43"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1328,7 +1785,7 @@
   <dimension ref="A1:M298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1341,38 +1798,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.45" customHeight="1" thickBot="1">
-      <c r="A1" s="46" t="str">
+      <c r="A1" s="56" t="str">
         <f>IF(C8="Your Name Here!", "Enter your name below.","See how long it takes to pay off $"&amp;Random!H19&amp;" credit card debt paying the minimal payment which is the maximum of "&amp;Random!H20&amp;"% or $"&amp;Random!H22&amp;". The credit card has "&amp;Random!H21&amp;"% APR compounded monthly. You want to find out how long it takes you to pay this off and how much you end up paying. Assume you make your payment on the current balance at the beginnig of each period (month), before interest is acrued.")</f>
         <v>Enter your name below.</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
-      <c r="I2" s="35" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="61"/>
+      <c r="I2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="36"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
       <c r="I3" s="9" t="s">
         <v>14</v>
       </c>
@@ -1381,13 +1838,13 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
       <c r="I4" s="11" t="s">
         <v>16</v>
       </c>
@@ -1396,13 +1853,13 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="51"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
       <c r="I5" s="13" t="s">
         <v>18</v>
       </c>
@@ -1411,13 +1868,13 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="54"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="64"/>
       <c r="I6" s="14" t="s">
         <v>20</v>
       </c>
@@ -1434,100 +1891,100 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="62" t="s">
+      <c r="B8" s="71"/>
+      <c r="C8" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="64"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="74"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:13" ht="28.15" customHeight="1" thickBot="1">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="59"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="19"/>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="39"/>
-      <c r="J10" s="65" t="s">
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="49"/>
+      <c r="J10" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="67"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="77"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="56"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="20"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="42"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="70"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="52"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="80"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="56"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="42"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="52"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="42" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A15" s="33"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="23"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="45"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="55"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="18" spans="1:12" ht="45.75" thickBot="1">
@@ -1553,11 +2010,11 @@
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
       <c r="J19" s="28"/>
       <c r="L19" s="17"/>
     </row>
@@ -1567,11 +2024,11 @@
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
-      <c r="G20" s="34" t="s">
+      <c r="G20" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
       <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:12">
@@ -3520,10 +3977,10 @@
       <c r="E298" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="j7hY/oNBIjWVtIoQ64yBMLLsvn05JR8b1qTvgkOsoP0BIlupWGJsItClLnh8dCYPB8w1PtPkFItdzF4xxgaYmA==" saltValue="gMZWMdRS8OGkharZFsllFQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{0C13EE4D-7CE1-4AA1-8E50-FA0088A2A213}">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="C9" sqref="C9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -3567,271 +4024,275 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F4AA2A-DDE8-4188-A353-CC009FC8809D}">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="H1">
+      <c r="G1" s="29"/>
+      <c r="H1" s="30">
         <v>1</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="30">
         <v>2</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="30">
         <v>3</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="30">
         <v>4</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="30">
         <v>5</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="30">
         <v>6</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="30">
         <v>7</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="30">
         <v>8</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="30">
         <v>9</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="30">
         <v>10</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="30">
         <v>11</v>
       </c>
-      <c r="S1">
+      <c r="S1" s="30">
         <v>12</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="30">
         <v>13</v>
       </c>
-      <c r="U1">
+      <c r="U1" s="30">
         <v>14</v>
       </c>
-      <c r="V1">
+      <c r="V1" s="30">
         <v>15</v>
       </c>
-      <c r="W1">
+      <c r="W1" s="31">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:23">
-      <c r="G2">
+      <c r="G2" s="32">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="33">
         <v>2</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="33">
         <v>3</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="33">
         <v>5</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="33">
         <v>7</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="33">
         <v>11</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="33">
         <v>13</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="33">
         <v>17</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="33">
         <v>19</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="33">
         <v>23</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="33">
         <v>29</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="33">
         <v>947</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="33">
         <v>953</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="33">
         <v>967</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="33">
         <v>971</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="33">
         <v>977</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="34">
         <v>983</v>
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="G3">
+      <c r="G3" s="32">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="33">
         <v>31</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="33">
         <v>37</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="33">
         <v>41</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="33">
         <v>43</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="33">
         <v>47</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="33">
         <v>53</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="33">
         <v>59</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="33">
         <v>61</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="33">
         <v>67</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="33">
         <v>71</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="33">
         <v>991</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="33">
         <v>997</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="33">
         <v>1009</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="33">
         <v>1013</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="33">
         <v>1019</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="34">
         <v>1021</v>
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="G4">
+      <c r="G4" s="32">
         <v>3</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="33">
         <v>73</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="33">
         <v>79</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="33">
         <v>83</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="33">
         <v>89</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="33">
         <v>97</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="33">
         <v>101</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="33">
         <v>103</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="33">
         <v>107</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="33">
         <v>109</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="33">
         <v>113</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="33">
         <v>1031</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="33">
         <v>1033</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="33">
         <v>1039</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="33">
         <v>1049</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="33">
         <v>1051</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="34">
         <v>1061</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
-      <c r="G5">
+    <row r="5" spans="1:23" ht="15.75" thickBot="1">
+      <c r="G5" s="32">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="33">
         <v>127</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="33">
         <v>131</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="33">
         <v>137</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="33">
         <v>139</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="33">
         <v>149</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="33">
         <v>151</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="33">
         <v>157</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="33">
         <v>163</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="33">
         <v>167</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="33">
         <v>173</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="33">
         <v>1993</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="33">
         <v>1997</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="33">
         <v>1999</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="33">
         <v>2003</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="33">
         <v>2011</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="34">
         <v>2017</v>
       </c>
     </row>
@@ -3839,71 +4300,71 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="29">
         <f>CODE(MID(PayoffCC!C$8,A6,1))</f>
         <v>89</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="30">
         <f>MOD(B6,16)</f>
         <v>9</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="30">
         <f>MOD((B6-C6)/16,16)</f>
         <v>5</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="31">
         <f ca="1">INDIRECT("R"&amp;(C6+1)&amp;"C"&amp;(D6+7),0)</f>
         <v>439</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="32">
         <v>5</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="33">
         <v>179</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="33">
         <v>181</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="33">
         <v>191</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="33">
         <v>193</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="33">
         <v>197</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="33">
         <v>199</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="33">
         <v>211</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="33">
         <v>223</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="33">
         <v>227</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="33">
         <v>229</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="33">
         <v>2063</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="33">
         <v>2069</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="33">
         <v>2081</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="33">
         <v>2083</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="33">
         <v>2087</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="34">
         <v>2089</v>
       </c>
     </row>
@@ -3911,71 +4372,71 @@
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="32">
         <f>CODE(MID(PayoffCC!C$8,A7,1))</f>
         <v>111</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="33">
         <f t="shared" ref="C7:C10" si="0">MOD(B7,16)</f>
         <v>15</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="33">
         <f t="shared" ref="D7:D10" si="1">MOD((B7-C7)/16,16)</f>
         <v>6</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="34">
         <f t="shared" ref="E7:E10" ca="1" si="2">INDIRECT("R"&amp;(C7+1)&amp;"C"&amp;(D7+7),0)</f>
         <v>839</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="32">
         <v>6</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="33">
         <v>233</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="33">
         <v>239</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="33">
         <v>241</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="33">
         <v>251</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="33">
         <v>257</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="33">
         <v>263</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="33">
         <v>269</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="33">
         <v>271</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="33">
         <v>277</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="33">
         <v>281</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="33">
         <v>2131</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="33">
         <v>2137</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="33">
         <v>2141</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="33">
         <v>2143</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="33">
         <v>2153</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="34">
         <v>2161</v>
       </c>
     </row>
@@ -3983,71 +4444,71 @@
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="32">
         <f>CODE(MID(PayoffCC!C$8,A8,1))</f>
         <v>117</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="33">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="34">
         <f t="shared" ca="1" si="2"/>
         <v>211</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="32">
         <v>7</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="33">
         <v>283</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="33">
         <v>293</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="33">
         <v>307</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="33">
         <v>311</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="33">
         <v>313</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="33">
         <v>317</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="33">
         <v>331</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="33">
         <v>337</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="33">
         <v>347</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="33">
         <v>349</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="33">
         <v>2221</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="33">
         <v>2237</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="33">
         <v>2239</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="33">
         <v>2243</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="33">
         <v>2251</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="34">
         <v>2267</v>
       </c>
     </row>
@@ -4055,206 +4516,206 @@
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="32">
         <f>CODE(MID(PayoffCC!C$8,A9,1))</f>
         <v>114</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="33">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="33">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="34">
         <f t="shared" ca="1" si="2"/>
         <v>59</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="32">
         <v>8</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="33">
         <v>353</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="33">
         <v>359</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="33">
         <v>367</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="33">
         <v>373</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="33">
         <v>379</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="33">
         <v>383</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="33">
         <v>389</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="33">
         <v>397</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="33">
         <v>401</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="33">
         <v>409</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="33">
         <v>2293</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="33">
         <v>2297</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="33">
         <v>2309</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="33">
         <v>2311</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="33">
         <v>2333</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="34">
         <v>2339</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" ht="15.75" thickBot="1">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="32">
         <f>CODE(MID(PayoffCC!C$8,A10,1))</f>
         <v>32</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="36">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="37">
         <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="32">
         <v>9</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="33">
         <v>419</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="33">
         <v>421</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="33">
         <v>431</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="33">
         <v>433</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="33">
         <v>439</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="33">
         <v>443</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="33">
         <v>449</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="33">
         <v>457</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="33">
         <v>461</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="33">
         <v>463</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="33">
         <v>2371</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="33">
         <v>2377</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="33">
         <v>2381</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="33">
         <v>2383</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="33">
         <v>2389</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="34">
         <v>2393</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" ht="15.75" thickBot="1">
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="38">
         <f ca="1">MOD(PRODUCT(E6:E10),F13)</f>
         <v>3778</v>
       </c>
       <c r="F11">
         <v>1103515245</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="32">
         <v>10</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="33">
         <v>467</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="33">
         <v>479</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="33">
         <v>487</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="33">
         <v>491</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="33">
         <v>499</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="33">
         <v>503</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="33">
         <v>509</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="33">
         <v>521</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="33">
         <v>523</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="33">
         <v>541</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="33">
         <v>2437</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="33">
         <v>2441</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="33">
         <v>2447</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="33">
         <v>2459</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="33">
         <v>2467</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="34">
         <v>2473</v>
       </c>
     </row>
@@ -4281,55 +4742,55 @@
       <c r="F12">
         <v>12345</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="32">
         <v>11</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="33">
         <v>547</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="33">
         <v>557</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="33">
         <v>563</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="33">
         <v>569</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="33">
         <v>571</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="33">
         <v>577</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="33">
         <v>587</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="33">
         <v>593</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="33">
         <v>599</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="33">
         <v>601</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="33">
         <v>2539</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="33">
         <v>2543</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="33">
         <v>2549</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="33">
         <v>2551</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="33">
         <v>2557</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="34">
         <v>2579</v>
       </c>
     </row>
@@ -4356,55 +4817,55 @@
       <c r="F13">
         <v>32768</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="32">
         <v>12</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="33">
         <v>607</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="33">
         <v>613</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="33">
         <v>617</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="33">
         <v>619</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="33">
         <v>631</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="33">
         <v>641</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="33">
         <v>643</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="33">
         <v>647</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="33">
         <v>653</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="33">
         <v>659</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="33">
         <v>2621</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="33">
         <v>2633</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="33">
         <v>2647</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="33">
         <v>2657</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="33">
         <v>2659</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="34">
         <v>2663</v>
       </c>
     </row>
@@ -4428,55 +4889,55 @@
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="32">
         <v>13</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="33">
         <v>661</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="33">
         <v>673</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="33">
         <v>677</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="33">
         <v>683</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="33">
         <v>691</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="33">
         <v>701</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="33">
         <v>709</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="33">
         <v>719</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="33">
         <v>727</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="33">
         <v>733</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="33">
         <v>2689</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="33">
         <v>2693</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="33">
         <v>2699</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="33">
         <v>2707</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="33">
         <v>2711</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="34">
         <v>2713</v>
       </c>
     </row>
@@ -4500,55 +4961,55 @@
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="32">
         <v>14</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="33">
         <v>739</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="33">
         <v>743</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="33">
         <v>751</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="33">
         <v>757</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="33">
         <v>761</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="33">
         <v>769</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="33">
         <v>773</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="33">
         <v>787</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="33">
         <v>797</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="33">
         <v>809</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="33">
         <v>2749</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="33">
         <v>2753</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="33">
         <v>2767</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="33">
         <v>2777</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="33">
         <v>2789</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="34">
         <v>2791</v>
       </c>
     </row>
@@ -4572,59 +5033,59 @@
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="32">
         <v>15</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="33">
         <v>811</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="33">
         <v>821</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="33">
         <v>823</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="33">
         <v>827</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="33">
         <v>829</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="33">
         <v>839</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="33">
         <v>853</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="33">
         <v>857</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="33">
         <v>859</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="33">
         <v>863</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="33">
         <v>2833</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="33">
         <v>2837</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="33">
         <v>2843</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="33">
         <v>2851</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="33">
         <v>2857</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="34">
         <v>2861</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" ht="15.75" thickBot="1">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -4644,55 +5105,55 @@
         <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="35">
         <v>16</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="36">
         <v>877</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="36">
         <v>881</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="36">
         <v>883</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="36">
         <v>887</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="36">
         <v>907</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="36">
         <v>911</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="36">
         <v>919</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="36">
         <v>929</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="36">
         <v>937</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="36">
         <v>941</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="36">
         <v>2909</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="36">
         <v>2917</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="36">
         <v>2927</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="36">
         <v>2939</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="36">
         <v>2953</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="37">
         <v>2957</v>
       </c>
     </row>
@@ -5062,11 +5523,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{0C13EE4D-7CE1-4AA1-8E50-FA0088A2A213}" state="hidden" topLeftCell="A10">
-      <selection activeCell="H21" sqref="H21"/>
+    <customSheetView guid="{0C13EE4D-7CE1-4AA1-8E50-FA0088A2A213}" state="hidden">
+      <selection activeCell="P25" sqref="P25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/144F20/Topic 4/PayingMinOnCC.xlsx
+++ b/144F20/Topic 4/PayingMinOnCC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ECC0DB-1FB3-44CD-AC80-8EAFF891866D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{814E34F7-CC26-4D7A-82E8-15115143EA0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="480" windowWidth="19530" windowHeight="14385" xr2:uid="{CF10E6CE-D87B-417F-86FF-EEF4FA94E14B}"/>
   </bookViews>
@@ -189,10 +189,10 @@
     <t>Rand22</t>
   </si>
   <si>
-    <t>Your Name</t>
+    <t>Your Name Here!</t>
   </si>
   <si>
-    <t>Your Name Here!</t>
+    <t>Your Name ⇒</t>
   </si>
 </sst>
 </file>
@@ -701,12 +701,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -782,9 +781,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1467,8 +1463,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C8874410-06D2-46AE-A3FB-993C78445DF3}">
-  <header guid="{C8874410-06D2-46AE-A3FB-993C78445DF3}" dateTime="2021-12-15T14:11:13" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{AEAC5393-3BB8-4EDE-BF4A-5E303945DCE5}">
+  <header guid="{AEAC5393-3BB8-4EDE-BF4A-5E303945DCE5}" dateTime="2022-04-13T17:08:31" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -1482,7 +1478,9 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{AEAC5393-3BB8-4EDE-BF4A-5E303945DCE5}" name="Richard Ketchersid" id="-1739562537" dateTime="2022-04-13T17:08:31"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1782,10 +1780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6498914E-259A-4654-875A-D917FE462FEA}">
-  <dimension ref="A1:M298"/>
+  <dimension ref="A1:M517"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1798,2189 +1796,3723 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.45" customHeight="1" thickBot="1">
-      <c r="A1" s="56" t="str">
-        <f>IF(C8="Your Name Here!", "Enter your name below.","See how long it takes to pay off $"&amp;Random!H19&amp;" credit card debt paying the minimal payment which is the maximum of "&amp;Random!H20&amp;"% or $"&amp;Random!H22&amp;". The credit card has "&amp;Random!H21&amp;"% APR compounded monthly. You want to find out how long it takes you to pay this off and how much you end up paying. Assume you make your payment on the current balance at the beginnig of each period (month), before interest is acrued.")</f>
-        <v>Enter your name below.</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="58"/>
+      <c r="A1" s="54" t="str">
+        <f>IF(C8="Your Name Here!", "Enter your name below and your very own problem will appear here:)","See how long it takes to pay off $"&amp;Random!H19&amp;" credit card debt paying the minimal payment which is the maximum of "&amp;Random!H20&amp;"% or $"&amp;Random!H22&amp;". The credit card has "&amp;Random!H21&amp;"% APR compounded monthly. You want to find out how long it takes you to pay this off and how much you end up paying. Assume you make your payment on the current balance at the beginnig of each period (month), before interest is acrued.")</f>
+        <v>Enter your name below and your very own problem will appear here:)</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61"/>
-      <c r="I2" s="45" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
+      <c r="I2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="46"/>
+      <c r="J2" s="44"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
-      <c r="I3" s="9" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="I3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
-      <c r="I4" s="11" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
+      <c r="I4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="61"/>
-      <c r="I5" s="13" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="59"/>
+      <c r="I5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A6" s="62"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
-      <c r="I6" s="14" t="s">
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="62"/>
+      <c r="I6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1">
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="69"/>
+      <c r="C8" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="74"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="72"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:13" ht="28.15" customHeight="1" thickBot="1">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="47" t="s">
+      <c r="B10" s="67"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="49"/>
-      <c r="J10" s="75" t="s">
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="47"/>
+      <c r="J10" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="77"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="75"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="52"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="80"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="78"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="52"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="52"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A15" s="43"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="55"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="18" spans="1:12" ht="45.75" thickBot="1">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="G19" s="44" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="G19" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="28"/>
-      <c r="L19" s="17"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="26"/>
+      <c r="L19" s="16"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="24"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="G20" s="44" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="G20" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="26"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="25"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="24"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="24"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="24"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="24"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="24"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="24"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="24"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="24"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="24"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="24"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="24"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="24"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="24"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="24"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="24"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="24"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="24"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="24"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="24"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="24"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="24"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="24"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="24"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="24"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="24"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="24"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="24"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="24"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="24"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="24"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="24"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="24"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="24"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="24"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="24"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="24"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="24"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="24"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
+      <c r="A58" s="23"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="24"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="24"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="24"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="24"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="24"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="24"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="24"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="24"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="24"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="24"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="24"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="24"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
+      <c r="A70" s="23"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="24"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
+      <c r="A71" s="23"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="24"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
+      <c r="A72" s="23"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="24"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="24"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="24"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="24"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="24"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
+      <c r="A77" s="23"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="24"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
+      <c r="A78" s="23"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="24"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
+      <c r="A79" s="23"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="24"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
+      <c r="A80" s="23"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="24"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
+      <c r="A81" s="23"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="24"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="24"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
+      <c r="A83" s="23"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="24"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
+      <c r="A84" s="23"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="24"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
+      <c r="A85" s="23"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="24"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
+      <c r="A86" s="23"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="24"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
+      <c r="A87" s="23"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="24"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
+      <c r="A88" s="23"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="24"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
+      <c r="A89" s="23"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="24"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
+      <c r="A90" s="23"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="24"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
+      <c r="A91" s="23"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="24"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
+      <c r="A92" s="23"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="24"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
+      <c r="A93" s="23"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="24"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
+      <c r="A94" s="23"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="24"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="25"/>
-      <c r="E95" s="25"/>
+      <c r="A95" s="23"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="24"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
+      <c r="A96" s="23"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="24"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
+      <c r="A97" s="23"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="24"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25"/>
+      <c r="A98" s="23"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="24"/>
-      <c r="B99" s="26"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
+      <c r="A99" s="23"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="24"/>
-      <c r="B100" s="26"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
+      <c r="A100" s="23"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="24"/>
-      <c r="B101" s="26"/>
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
-      <c r="E101" s="25"/>
+      <c r="A101" s="23"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="24"/>
-      <c r="B102" s="26"/>
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
-      <c r="E102" s="25"/>
+      <c r="A102" s="23"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="24"/>
-      <c r="B103" s="26"/>
-      <c r="C103" s="25"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="25"/>
+      <c r="A103" s="23"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="24"/>
-      <c r="B104" s="26"/>
-      <c r="C104" s="25"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="25"/>
+      <c r="A104" s="23"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="24"/>
-      <c r="B105" s="26"/>
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
-      <c r="E105" s="25"/>
+      <c r="A105" s="23"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="24"/>
-      <c r="B106" s="26"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
-      <c r="E106" s="25"/>
+      <c r="A106" s="23"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="24"/>
-      <c r="B107" s="26"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
-      <c r="E107" s="25"/>
+      <c r="A107" s="23"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="24"/>
-      <c r="B108" s="26"/>
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
-      <c r="E108" s="25"/>
+      <c r="A108" s="23"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="24"/>
-      <c r="B109" s="26"/>
-      <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
-      <c r="E109" s="25"/>
+      <c r="A109" s="23"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="24"/>
-      <c r="B110" s="26"/>
-      <c r="C110" s="25"/>
-      <c r="D110" s="25"/>
-      <c r="E110" s="25"/>
+      <c r="A110" s="23"/>
+      <c r="B110" s="25"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="24"/>
-      <c r="B111" s="26"/>
-      <c r="C111" s="25"/>
-      <c r="D111" s="25"/>
-      <c r="E111" s="25"/>
+      <c r="A111" s="23"/>
+      <c r="B111" s="25"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="24"/>
-      <c r="B112" s="26"/>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
+      <c r="A112" s="23"/>
+      <c r="B112" s="25"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="24"/>
-      <c r="B113" s="26"/>
-      <c r="C113" s="25"/>
-      <c r="D113" s="25"/>
-      <c r="E113" s="25"/>
+      <c r="A113" s="23"/>
+      <c r="B113" s="25"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="24"/>
-      <c r="B114" s="26"/>
-      <c r="C114" s="25"/>
-      <c r="D114" s="25"/>
-      <c r="E114" s="25"/>
+      <c r="A114" s="23"/>
+      <c r="B114" s="25"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="24"/>
-      <c r="B115" s="26"/>
-      <c r="C115" s="25"/>
-      <c r="D115" s="25"/>
-      <c r="E115" s="25"/>
+      <c r="A115" s="23"/>
+      <c r="B115" s="25"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="24"/>
-      <c r="B116" s="26"/>
-      <c r="C116" s="25"/>
-      <c r="D116" s="25"/>
-      <c r="E116" s="25"/>
+      <c r="A116" s="23"/>
+      <c r="B116" s="25"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="24"/>
-      <c r="B117" s="26"/>
-      <c r="C117" s="25"/>
-      <c r="D117" s="25"/>
-      <c r="E117" s="25"/>
+      <c r="A117" s="23"/>
+      <c r="B117" s="25"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="24"/>
-      <c r="B118" s="26"/>
-      <c r="C118" s="25"/>
-      <c r="D118" s="25"/>
-      <c r="E118" s="25"/>
+      <c r="A118" s="23"/>
+      <c r="B118" s="25"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="24"/>
-      <c r="B119" s="26"/>
-      <c r="C119" s="25"/>
-      <c r="D119" s="25"/>
-      <c r="E119" s="25"/>
+      <c r="A119" s="23"/>
+      <c r="B119" s="25"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="24"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="24"/>
-      <c r="B120" s="26"/>
-      <c r="C120" s="25"/>
-      <c r="D120" s="25"/>
-      <c r="E120" s="25"/>
+      <c r="A120" s="23"/>
+      <c r="B120" s="25"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="24"/>
-      <c r="B121" s="26"/>
-      <c r="C121" s="25"/>
-      <c r="D121" s="25"/>
-      <c r="E121" s="25"/>
+      <c r="A121" s="23"/>
+      <c r="B121" s="25"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="24"/>
-      <c r="B122" s="26"/>
-      <c r="C122" s="25"/>
-      <c r="D122" s="25"/>
-      <c r="E122" s="25"/>
+      <c r="A122" s="23"/>
+      <c r="B122" s="25"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="24"/>
-      <c r="B123" s="26"/>
-      <c r="C123" s="25"/>
-      <c r="D123" s="25"/>
-      <c r="E123" s="25"/>
+      <c r="A123" s="23"/>
+      <c r="B123" s="25"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="24"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="24"/>
-      <c r="B124" s="26"/>
-      <c r="C124" s="25"/>
-      <c r="D124" s="25"/>
-      <c r="E124" s="25"/>
+      <c r="A124" s="23"/>
+      <c r="B124" s="25"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="24"/>
-      <c r="B125" s="26"/>
-      <c r="C125" s="25"/>
-      <c r="D125" s="25"/>
-      <c r="E125" s="25"/>
+      <c r="A125" s="23"/>
+      <c r="B125" s="25"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="24"/>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="24"/>
-      <c r="B126" s="26"/>
-      <c r="C126" s="25"/>
-      <c r="D126" s="25"/>
-      <c r="E126" s="25"/>
+      <c r="A126" s="23"/>
+      <c r="B126" s="25"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="24"/>
-      <c r="B127" s="26"/>
-      <c r="C127" s="25"/>
-      <c r="D127" s="25"/>
-      <c r="E127" s="25"/>
+      <c r="A127" s="23"/>
+      <c r="B127" s="25"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="24"/>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="24"/>
-      <c r="B128" s="26"/>
-      <c r="C128" s="25"/>
-      <c r="D128" s="25"/>
-      <c r="E128" s="25"/>
+      <c r="A128" s="23"/>
+      <c r="B128" s="25"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="24"/>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="24"/>
-      <c r="B129" s="26"/>
-      <c r="C129" s="25"/>
-      <c r="D129" s="25"/>
-      <c r="E129" s="25"/>
+      <c r="A129" s="23"/>
+      <c r="B129" s="25"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="24"/>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="24"/>
-      <c r="B130" s="26"/>
-      <c r="C130" s="25"/>
-      <c r="D130" s="25"/>
-      <c r="E130" s="25"/>
+      <c r="A130" s="23"/>
+      <c r="B130" s="25"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="24"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="24"/>
-      <c r="B131" s="26"/>
-      <c r="C131" s="25"/>
-      <c r="D131" s="25"/>
-      <c r="E131" s="25"/>
+      <c r="A131" s="23"/>
+      <c r="B131" s="25"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="24"/>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="24"/>
-      <c r="B132" s="26"/>
-      <c r="C132" s="25"/>
-      <c r="D132" s="25"/>
-      <c r="E132" s="25"/>
+      <c r="A132" s="23"/>
+      <c r="B132" s="25"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="24"/>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="24"/>
-      <c r="B133" s="26"/>
-      <c r="C133" s="25"/>
-      <c r="D133" s="25"/>
-      <c r="E133" s="25"/>
+      <c r="A133" s="23"/>
+      <c r="B133" s="25"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="24"/>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="24"/>
-      <c r="B134" s="26"/>
-      <c r="C134" s="25"/>
-      <c r="D134" s="25"/>
-      <c r="E134" s="25"/>
+      <c r="A134" s="23"/>
+      <c r="B134" s="25"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="24"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="24"/>
-      <c r="B135" s="26"/>
-      <c r="C135" s="25"/>
-      <c r="D135" s="25"/>
-      <c r="E135" s="25"/>
+      <c r="A135" s="23"/>
+      <c r="B135" s="25"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="24"/>
+      <c r="E135" s="24"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="24"/>
-      <c r="B136" s="26"/>
-      <c r="C136" s="25"/>
-      <c r="D136" s="25"/>
-      <c r="E136" s="25"/>
+      <c r="A136" s="23"/>
+      <c r="B136" s="25"/>
+      <c r="C136" s="24"/>
+      <c r="D136" s="24"/>
+      <c r="E136" s="24"/>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="24"/>
-      <c r="B137" s="26"/>
-      <c r="C137" s="25"/>
-      <c r="D137" s="25"/>
-      <c r="E137" s="25"/>
+      <c r="A137" s="23"/>
+      <c r="B137" s="25"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="24"/>
+      <c r="E137" s="24"/>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="24"/>
-      <c r="B138" s="26"/>
-      <c r="C138" s="25"/>
-      <c r="D138" s="25"/>
-      <c r="E138" s="25"/>
+      <c r="A138" s="23"/>
+      <c r="B138" s="25"/>
+      <c r="C138" s="24"/>
+      <c r="D138" s="24"/>
+      <c r="E138" s="24"/>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="24"/>
-      <c r="B139" s="26"/>
-      <c r="C139" s="25"/>
-      <c r="D139" s="25"/>
-      <c r="E139" s="25"/>
+      <c r="A139" s="23"/>
+      <c r="B139" s="25"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="24"/>
+      <c r="E139" s="24"/>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="24"/>
-      <c r="B140" s="26"/>
-      <c r="C140" s="25"/>
-      <c r="D140" s="25"/>
-      <c r="E140" s="25"/>
+      <c r="A140" s="23"/>
+      <c r="B140" s="25"/>
+      <c r="C140" s="24"/>
+      <c r="D140" s="24"/>
+      <c r="E140" s="24"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="24"/>
-      <c r="B141" s="26"/>
-      <c r="C141" s="25"/>
-      <c r="D141" s="25"/>
-      <c r="E141" s="25"/>
+      <c r="A141" s="23"/>
+      <c r="B141" s="25"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="24"/>
+      <c r="E141" s="24"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="24"/>
-      <c r="B142" s="26"/>
-      <c r="C142" s="25"/>
-      <c r="D142" s="25"/>
-      <c r="E142" s="25"/>
+      <c r="A142" s="23"/>
+      <c r="B142" s="25"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="24"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="24"/>
-      <c r="B143" s="26"/>
-      <c r="C143" s="25"/>
-      <c r="D143" s="25"/>
-      <c r="E143" s="25"/>
+      <c r="A143" s="23"/>
+      <c r="B143" s="25"/>
+      <c r="C143" s="24"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="24"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="24"/>
-      <c r="B144" s="26"/>
-      <c r="C144" s="25"/>
-      <c r="D144" s="25"/>
-      <c r="E144" s="25"/>
+      <c r="A144" s="23"/>
+      <c r="B144" s="25"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="24"/>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="24"/>
-      <c r="B145" s="26"/>
-      <c r="C145" s="25"/>
-      <c r="D145" s="25"/>
-      <c r="E145" s="25"/>
+      <c r="A145" s="23"/>
+      <c r="B145" s="25"/>
+      <c r="C145" s="24"/>
+      <c r="D145" s="24"/>
+      <c r="E145" s="24"/>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="24"/>
-      <c r="B146" s="26"/>
-      <c r="C146" s="25"/>
-      <c r="D146" s="25"/>
-      <c r="E146" s="25"/>
+      <c r="A146" s="23"/>
+      <c r="B146" s="25"/>
+      <c r="C146" s="24"/>
+      <c r="D146" s="24"/>
+      <c r="E146" s="24"/>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="24"/>
-      <c r="B147" s="26"/>
-      <c r="C147" s="25"/>
-      <c r="D147" s="25"/>
-      <c r="E147" s="25"/>
+      <c r="A147" s="23"/>
+      <c r="B147" s="25"/>
+      <c r="C147" s="24"/>
+      <c r="D147" s="24"/>
+      <c r="E147" s="24"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="24"/>
-      <c r="B148" s="26"/>
-      <c r="C148" s="25"/>
-      <c r="D148" s="25"/>
-      <c r="E148" s="25"/>
+      <c r="A148" s="23"/>
+      <c r="B148" s="25"/>
+      <c r="C148" s="24"/>
+      <c r="D148" s="24"/>
+      <c r="E148" s="24"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="24"/>
-      <c r="B149" s="26"/>
-      <c r="C149" s="25"/>
-      <c r="D149" s="25"/>
-      <c r="E149" s="25"/>
+      <c r="A149" s="23"/>
+      <c r="B149" s="25"/>
+      <c r="C149" s="24"/>
+      <c r="D149" s="24"/>
+      <c r="E149" s="24"/>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="24"/>
-      <c r="B150" s="26"/>
-      <c r="C150" s="25"/>
-      <c r="D150" s="25"/>
-      <c r="E150" s="25"/>
+      <c r="A150" s="23"/>
+      <c r="B150" s="25"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="24"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="24"/>
-      <c r="B151" s="26"/>
-      <c r="C151" s="25"/>
-      <c r="D151" s="25"/>
-      <c r="E151" s="25"/>
+      <c r="A151" s="23"/>
+      <c r="B151" s="25"/>
+      <c r="C151" s="24"/>
+      <c r="D151" s="24"/>
+      <c r="E151" s="24"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="24"/>
-      <c r="B152" s="26"/>
-      <c r="C152" s="25"/>
-      <c r="D152" s="25"/>
-      <c r="E152" s="25"/>
+      <c r="A152" s="23"/>
+      <c r="B152" s="25"/>
+      <c r="C152" s="24"/>
+      <c r="D152" s="24"/>
+      <c r="E152" s="24"/>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="24"/>
-      <c r="B153" s="26"/>
-      <c r="C153" s="25"/>
-      <c r="D153" s="25"/>
-      <c r="E153" s="25"/>
+      <c r="A153" s="23"/>
+      <c r="B153" s="25"/>
+      <c r="C153" s="24"/>
+      <c r="D153" s="24"/>
+      <c r="E153" s="24"/>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="24"/>
-      <c r="B154" s="26"/>
-      <c r="C154" s="25"/>
-      <c r="D154" s="25"/>
-      <c r="E154" s="25"/>
+      <c r="A154" s="23"/>
+      <c r="B154" s="25"/>
+      <c r="C154" s="24"/>
+      <c r="D154" s="24"/>
+      <c r="E154" s="24"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="24"/>
-      <c r="B155" s="26"/>
-      <c r="C155" s="25"/>
-      <c r="D155" s="25"/>
-      <c r="E155" s="25"/>
+      <c r="A155" s="23"/>
+      <c r="B155" s="25"/>
+      <c r="C155" s="24"/>
+      <c r="D155" s="24"/>
+      <c r="E155" s="24"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="24"/>
-      <c r="B156" s="26"/>
-      <c r="C156" s="25"/>
-      <c r="D156" s="25"/>
-      <c r="E156" s="25"/>
+      <c r="A156" s="23"/>
+      <c r="B156" s="25"/>
+      <c r="C156" s="24"/>
+      <c r="D156" s="24"/>
+      <c r="E156" s="24"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="24"/>
-      <c r="B157" s="26"/>
-      <c r="C157" s="25"/>
-      <c r="D157" s="25"/>
-      <c r="E157" s="25"/>
+      <c r="A157" s="23"/>
+      <c r="B157" s="25"/>
+      <c r="C157" s="24"/>
+      <c r="D157" s="24"/>
+      <c r="E157" s="24"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="24"/>
-      <c r="B158" s="26"/>
-      <c r="C158" s="25"/>
-      <c r="D158" s="25"/>
-      <c r="E158" s="25"/>
+      <c r="A158" s="23"/>
+      <c r="B158" s="25"/>
+      <c r="C158" s="24"/>
+      <c r="D158" s="24"/>
+      <c r="E158" s="24"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="24"/>
-      <c r="B159" s="26"/>
-      <c r="C159" s="25"/>
-      <c r="D159" s="25"/>
-      <c r="E159" s="25"/>
+      <c r="A159" s="23"/>
+      <c r="B159" s="25"/>
+      <c r="C159" s="24"/>
+      <c r="D159" s="24"/>
+      <c r="E159" s="24"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="24"/>
-      <c r="B160" s="26"/>
-      <c r="C160" s="25"/>
-      <c r="D160" s="25"/>
-      <c r="E160" s="25"/>
+      <c r="A160" s="23"/>
+      <c r="B160" s="25"/>
+      <c r="C160" s="24"/>
+      <c r="D160" s="24"/>
+      <c r="E160" s="24"/>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="24"/>
-      <c r="B161" s="26"/>
-      <c r="C161" s="25"/>
-      <c r="D161" s="25"/>
-      <c r="E161" s="25"/>
+      <c r="A161" s="23"/>
+      <c r="B161" s="25"/>
+      <c r="C161" s="24"/>
+      <c r="D161" s="24"/>
+      <c r="E161" s="24"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="24"/>
-      <c r="B162" s="26"/>
-      <c r="C162" s="25"/>
-      <c r="D162" s="25"/>
-      <c r="E162" s="25"/>
+      <c r="A162" s="23"/>
+      <c r="B162" s="25"/>
+      <c r="C162" s="24"/>
+      <c r="D162" s="24"/>
+      <c r="E162" s="24"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="24"/>
-      <c r="B163" s="26"/>
-      <c r="C163" s="25"/>
-      <c r="D163" s="25"/>
-      <c r="E163" s="25"/>
+      <c r="A163" s="23"/>
+      <c r="B163" s="25"/>
+      <c r="C163" s="24"/>
+      <c r="D163" s="24"/>
+      <c r="E163" s="24"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="24"/>
-      <c r="B164" s="26"/>
-      <c r="C164" s="25"/>
-      <c r="D164" s="25"/>
-      <c r="E164" s="25"/>
+      <c r="A164" s="23"/>
+      <c r="B164" s="25"/>
+      <c r="C164" s="24"/>
+      <c r="D164" s="24"/>
+      <c r="E164" s="24"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="24"/>
-      <c r="B165" s="26"/>
-      <c r="C165" s="25"/>
-      <c r="D165" s="25"/>
-      <c r="E165" s="25"/>
+      <c r="A165" s="23"/>
+      <c r="B165" s="25"/>
+      <c r="C165" s="24"/>
+      <c r="D165" s="24"/>
+      <c r="E165" s="24"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="24"/>
-      <c r="B166" s="26"/>
-      <c r="C166" s="25"/>
-      <c r="D166" s="25"/>
-      <c r="E166" s="25"/>
+      <c r="A166" s="23"/>
+      <c r="B166" s="25"/>
+      <c r="C166" s="24"/>
+      <c r="D166" s="24"/>
+      <c r="E166" s="24"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="24"/>
-      <c r="B167" s="26"/>
-      <c r="C167" s="25"/>
-      <c r="D167" s="25"/>
-      <c r="E167" s="25"/>
+      <c r="A167" s="23"/>
+      <c r="B167" s="25"/>
+      <c r="C167" s="24"/>
+      <c r="D167" s="24"/>
+      <c r="E167" s="24"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="24"/>
-      <c r="B168" s="26"/>
-      <c r="C168" s="25"/>
-      <c r="D168" s="25"/>
-      <c r="E168" s="25"/>
+      <c r="A168" s="23"/>
+      <c r="B168" s="25"/>
+      <c r="C168" s="24"/>
+      <c r="D168" s="24"/>
+      <c r="E168" s="24"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="24"/>
-      <c r="B169" s="26"/>
-      <c r="C169" s="25"/>
-      <c r="D169" s="25"/>
-      <c r="E169" s="25"/>
+      <c r="A169" s="23"/>
+      <c r="B169" s="25"/>
+      <c r="C169" s="24"/>
+      <c r="D169" s="24"/>
+      <c r="E169" s="24"/>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="24"/>
-      <c r="B170" s="26"/>
-      <c r="C170" s="25"/>
-      <c r="D170" s="25"/>
-      <c r="E170" s="25"/>
+      <c r="A170" s="23"/>
+      <c r="B170" s="25"/>
+      <c r="C170" s="24"/>
+      <c r="D170" s="24"/>
+      <c r="E170" s="24"/>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="24"/>
-      <c r="B171" s="26"/>
-      <c r="C171" s="25"/>
-      <c r="D171" s="25"/>
-      <c r="E171" s="25"/>
+      <c r="A171" s="23"/>
+      <c r="B171" s="25"/>
+      <c r="C171" s="24"/>
+      <c r="D171" s="24"/>
+      <c r="E171" s="24"/>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="24"/>
-      <c r="B172" s="26"/>
-      <c r="C172" s="25"/>
-      <c r="D172" s="25"/>
-      <c r="E172" s="25"/>
+      <c r="A172" s="23"/>
+      <c r="B172" s="25"/>
+      <c r="C172" s="24"/>
+      <c r="D172" s="24"/>
+      <c r="E172" s="24"/>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="24"/>
-      <c r="B173" s="26"/>
-      <c r="C173" s="25"/>
-      <c r="D173" s="25"/>
-      <c r="E173" s="25"/>
+      <c r="A173" s="23"/>
+      <c r="B173" s="25"/>
+      <c r="C173" s="24"/>
+      <c r="D173" s="24"/>
+      <c r="E173" s="24"/>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="24"/>
-      <c r="B174" s="26"/>
-      <c r="C174" s="25"/>
-      <c r="D174" s="25"/>
-      <c r="E174" s="25"/>
+      <c r="A174" s="23"/>
+      <c r="B174" s="25"/>
+      <c r="C174" s="24"/>
+      <c r="D174" s="24"/>
+      <c r="E174" s="24"/>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="24"/>
-      <c r="B175" s="26"/>
-      <c r="C175" s="25"/>
-      <c r="D175" s="25"/>
-      <c r="E175" s="25"/>
+      <c r="A175" s="23"/>
+      <c r="B175" s="25"/>
+      <c r="C175" s="24"/>
+      <c r="D175" s="24"/>
+      <c r="E175" s="24"/>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="24"/>
-      <c r="B176" s="26"/>
-      <c r="C176" s="25"/>
-      <c r="D176" s="25"/>
-      <c r="E176" s="25"/>
+      <c r="A176" s="23"/>
+      <c r="B176" s="25"/>
+      <c r="C176" s="24"/>
+      <c r="D176" s="24"/>
+      <c r="E176" s="24"/>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="24"/>
-      <c r="B177" s="26"/>
-      <c r="C177" s="25"/>
-      <c r="D177" s="25"/>
-      <c r="E177" s="25"/>
+      <c r="A177" s="23"/>
+      <c r="B177" s="25"/>
+      <c r="C177" s="24"/>
+      <c r="D177" s="24"/>
+      <c r="E177" s="24"/>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="24"/>
-      <c r="B178" s="26"/>
-      <c r="C178" s="25"/>
-      <c r="D178" s="25"/>
-      <c r="E178" s="25"/>
+      <c r="A178" s="23"/>
+      <c r="B178" s="25"/>
+      <c r="C178" s="24"/>
+      <c r="D178" s="24"/>
+      <c r="E178" s="24"/>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="24"/>
-      <c r="B179" s="26"/>
-      <c r="C179" s="25"/>
-      <c r="D179" s="25"/>
-      <c r="E179" s="25"/>
+      <c r="A179" s="23"/>
+      <c r="B179" s="25"/>
+      <c r="C179" s="24"/>
+      <c r="D179" s="24"/>
+      <c r="E179" s="24"/>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="24"/>
-      <c r="B180" s="26"/>
-      <c r="C180" s="25"/>
-      <c r="D180" s="25"/>
-      <c r="E180" s="25"/>
+      <c r="A180" s="23"/>
+      <c r="B180" s="25"/>
+      <c r="C180" s="24"/>
+      <c r="D180" s="24"/>
+      <c r="E180" s="24"/>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="24"/>
-      <c r="B181" s="26"/>
-      <c r="C181" s="25"/>
-      <c r="D181" s="25"/>
-      <c r="E181" s="25"/>
+      <c r="A181" s="23"/>
+      <c r="B181" s="25"/>
+      <c r="C181" s="24"/>
+      <c r="D181" s="24"/>
+      <c r="E181" s="24"/>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="24"/>
-      <c r="B182" s="26"/>
-      <c r="C182" s="25"/>
-      <c r="D182" s="25"/>
-      <c r="E182" s="25"/>
+      <c r="A182" s="23"/>
+      <c r="B182" s="25"/>
+      <c r="C182" s="24"/>
+      <c r="D182" s="24"/>
+      <c r="E182" s="24"/>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="24"/>
-      <c r="B183" s="26"/>
-      <c r="C183" s="25"/>
-      <c r="D183" s="25"/>
-      <c r="E183" s="25"/>
+      <c r="A183" s="23"/>
+      <c r="B183" s="25"/>
+      <c r="C183" s="24"/>
+      <c r="D183" s="24"/>
+      <c r="E183" s="24"/>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="24"/>
-      <c r="B184" s="26"/>
-      <c r="C184" s="25"/>
-      <c r="D184" s="25"/>
-      <c r="E184" s="25"/>
+      <c r="A184" s="23"/>
+      <c r="B184" s="25"/>
+      <c r="C184" s="24"/>
+      <c r="D184" s="24"/>
+      <c r="E184" s="24"/>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="24"/>
-      <c r="B185" s="26"/>
-      <c r="C185" s="25"/>
-      <c r="D185" s="25"/>
-      <c r="E185" s="25"/>
+      <c r="A185" s="23"/>
+      <c r="B185" s="25"/>
+      <c r="C185" s="24"/>
+      <c r="D185" s="24"/>
+      <c r="E185" s="24"/>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="24"/>
-      <c r="B186" s="26"/>
-      <c r="C186" s="25"/>
-      <c r="D186" s="25"/>
-      <c r="E186" s="25"/>
+      <c r="A186" s="23"/>
+      <c r="B186" s="25"/>
+      <c r="C186" s="24"/>
+      <c r="D186" s="24"/>
+      <c r="E186" s="24"/>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="24"/>
-      <c r="B187" s="26"/>
-      <c r="C187" s="25"/>
-      <c r="D187" s="25"/>
-      <c r="E187" s="25"/>
+      <c r="A187" s="23"/>
+      <c r="B187" s="25"/>
+      <c r="C187" s="24"/>
+      <c r="D187" s="24"/>
+      <c r="E187" s="24"/>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="24"/>
-      <c r="B188" s="26"/>
-      <c r="C188" s="25"/>
-      <c r="D188" s="25"/>
-      <c r="E188" s="25"/>
+      <c r="A188" s="23"/>
+      <c r="B188" s="25"/>
+      <c r="C188" s="24"/>
+      <c r="D188" s="24"/>
+      <c r="E188" s="24"/>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189" s="24"/>
-      <c r="B189" s="26"/>
-      <c r="C189" s="25"/>
-      <c r="D189" s="25"/>
-      <c r="E189" s="25"/>
+      <c r="A189" s="23"/>
+      <c r="B189" s="25"/>
+      <c r="C189" s="24"/>
+      <c r="D189" s="24"/>
+      <c r="E189" s="24"/>
     </row>
     <row r="190" spans="1:5">
-      <c r="A190" s="24"/>
-      <c r="B190" s="26"/>
-      <c r="C190" s="25"/>
-      <c r="D190" s="25"/>
-      <c r="E190" s="25"/>
+      <c r="A190" s="23"/>
+      <c r="B190" s="25"/>
+      <c r="C190" s="24"/>
+      <c r="D190" s="24"/>
+      <c r="E190" s="24"/>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="24"/>
-      <c r="B191" s="26"/>
-      <c r="C191" s="25"/>
-      <c r="D191" s="25"/>
-      <c r="E191" s="25"/>
+      <c r="A191" s="23"/>
+      <c r="B191" s="25"/>
+      <c r="C191" s="24"/>
+      <c r="D191" s="24"/>
+      <c r="E191" s="24"/>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192" s="24"/>
-      <c r="B192" s="26"/>
-      <c r="C192" s="25"/>
-      <c r="D192" s="25"/>
-      <c r="E192" s="25"/>
+      <c r="A192" s="23"/>
+      <c r="B192" s="25"/>
+      <c r="C192" s="24"/>
+      <c r="D192" s="24"/>
+      <c r="E192" s="24"/>
     </row>
     <row r="193" spans="1:5">
-      <c r="A193" s="24"/>
-      <c r="B193" s="26"/>
-      <c r="C193" s="25"/>
-      <c r="D193" s="25"/>
-      <c r="E193" s="25"/>
+      <c r="A193" s="23"/>
+      <c r="B193" s="25"/>
+      <c r="C193" s="24"/>
+      <c r="D193" s="24"/>
+      <c r="E193" s="24"/>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194" s="24"/>
-      <c r="B194" s="26"/>
-      <c r="C194" s="25"/>
-      <c r="D194" s="25"/>
-      <c r="E194" s="25"/>
+      <c r="A194" s="23"/>
+      <c r="B194" s="25"/>
+      <c r="C194" s="24"/>
+      <c r="D194" s="24"/>
+      <c r="E194" s="24"/>
     </row>
     <row r="195" spans="1:5">
-      <c r="A195" s="24"/>
-      <c r="B195" s="26"/>
-      <c r="C195" s="25"/>
-      <c r="D195" s="25"/>
-      <c r="E195" s="25"/>
+      <c r="A195" s="23"/>
+      <c r="B195" s="25"/>
+      <c r="C195" s="24"/>
+      <c r="D195" s="24"/>
+      <c r="E195" s="24"/>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196" s="24"/>
-      <c r="B196" s="26"/>
-      <c r="C196" s="25"/>
-      <c r="D196" s="25"/>
-      <c r="E196" s="25"/>
+      <c r="A196" s="23"/>
+      <c r="B196" s="25"/>
+      <c r="C196" s="24"/>
+      <c r="D196" s="24"/>
+      <c r="E196" s="24"/>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197" s="24"/>
-      <c r="B197" s="26"/>
-      <c r="C197" s="25"/>
-      <c r="D197" s="25"/>
-      <c r="E197" s="25"/>
+      <c r="A197" s="23"/>
+      <c r="B197" s="25"/>
+      <c r="C197" s="24"/>
+      <c r="D197" s="24"/>
+      <c r="E197" s="24"/>
     </row>
     <row r="198" spans="1:5">
-      <c r="A198" s="24"/>
-      <c r="B198" s="26"/>
-      <c r="C198" s="25"/>
-      <c r="D198" s="25"/>
-      <c r="E198" s="25"/>
+      <c r="A198" s="23"/>
+      <c r="B198" s="25"/>
+      <c r="C198" s="24"/>
+      <c r="D198" s="24"/>
+      <c r="E198" s="24"/>
     </row>
     <row r="199" spans="1:5">
-      <c r="A199" s="24"/>
-      <c r="B199" s="26"/>
-      <c r="C199" s="25"/>
-      <c r="D199" s="25"/>
-      <c r="E199" s="25"/>
+      <c r="A199" s="23"/>
+      <c r="B199" s="25"/>
+      <c r="C199" s="24"/>
+      <c r="D199" s="24"/>
+      <c r="E199" s="24"/>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200" s="24"/>
-      <c r="B200" s="26"/>
-      <c r="C200" s="25"/>
-      <c r="D200" s="25"/>
-      <c r="E200" s="25"/>
+      <c r="A200" s="23"/>
+      <c r="B200" s="25"/>
+      <c r="C200" s="24"/>
+      <c r="D200" s="24"/>
+      <c r="E200" s="24"/>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201" s="24"/>
-      <c r="B201" s="26"/>
-      <c r="C201" s="25"/>
-      <c r="D201" s="25"/>
-      <c r="E201" s="25"/>
+      <c r="A201" s="23"/>
+      <c r="B201" s="25"/>
+      <c r="C201" s="24"/>
+      <c r="D201" s="24"/>
+      <c r="E201" s="24"/>
     </row>
     <row r="202" spans="1:5">
-      <c r="A202" s="24"/>
-      <c r="B202" s="26"/>
-      <c r="C202" s="25"/>
-      <c r="D202" s="25"/>
-      <c r="E202" s="25"/>
+      <c r="A202" s="23"/>
+      <c r="B202" s="25"/>
+      <c r="C202" s="24"/>
+      <c r="D202" s="24"/>
+      <c r="E202" s="24"/>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="24"/>
-      <c r="B203" s="26"/>
-      <c r="C203" s="25"/>
-      <c r="D203" s="25"/>
-      <c r="E203" s="25"/>
+      <c r="A203" s="23"/>
+      <c r="B203" s="25"/>
+      <c r="C203" s="24"/>
+      <c r="D203" s="24"/>
+      <c r="E203" s="24"/>
     </row>
     <row r="204" spans="1:5">
-      <c r="A204" s="24"/>
-      <c r="B204" s="26"/>
-      <c r="C204" s="25"/>
-      <c r="D204" s="25"/>
-      <c r="E204" s="25"/>
+      <c r="A204" s="23"/>
+      <c r="B204" s="25"/>
+      <c r="C204" s="24"/>
+      <c r="D204" s="24"/>
+      <c r="E204" s="24"/>
     </row>
     <row r="205" spans="1:5">
-      <c r="A205" s="24"/>
-      <c r="B205" s="26"/>
-      <c r="C205" s="25"/>
-      <c r="D205" s="25"/>
-      <c r="E205" s="25"/>
+      <c r="A205" s="23"/>
+      <c r="B205" s="25"/>
+      <c r="C205" s="24"/>
+      <c r="D205" s="24"/>
+      <c r="E205" s="24"/>
     </row>
     <row r="206" spans="1:5">
-      <c r="A206" s="24"/>
-      <c r="B206" s="26"/>
-      <c r="C206" s="25"/>
-      <c r="D206" s="25"/>
-      <c r="E206" s="25"/>
+      <c r="A206" s="23"/>
+      <c r="B206" s="25"/>
+      <c r="C206" s="24"/>
+      <c r="D206" s="24"/>
+      <c r="E206" s="24"/>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207" s="24"/>
-      <c r="B207" s="26"/>
-      <c r="C207" s="25"/>
-      <c r="D207" s="25"/>
-      <c r="E207" s="25"/>
+      <c r="A207" s="23"/>
+      <c r="B207" s="25"/>
+      <c r="C207" s="24"/>
+      <c r="D207" s="24"/>
+      <c r="E207" s="24"/>
     </row>
     <row r="208" spans="1:5">
-      <c r="A208" s="24"/>
-      <c r="B208" s="26"/>
-      <c r="C208" s="25"/>
-      <c r="D208" s="25"/>
-      <c r="E208" s="25"/>
+      <c r="A208" s="23"/>
+      <c r="B208" s="25"/>
+      <c r="C208" s="24"/>
+      <c r="D208" s="24"/>
+      <c r="E208" s="24"/>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="24"/>
-      <c r="B209" s="26"/>
-      <c r="C209" s="25"/>
-      <c r="D209" s="25"/>
-      <c r="E209" s="25"/>
+      <c r="A209" s="23"/>
+      <c r="B209" s="25"/>
+      <c r="C209" s="24"/>
+      <c r="D209" s="24"/>
+      <c r="E209" s="24"/>
     </row>
     <row r="210" spans="1:5">
-      <c r="A210" s="24"/>
-      <c r="B210" s="26"/>
-      <c r="C210" s="25"/>
-      <c r="D210" s="25"/>
-      <c r="E210" s="25"/>
+      <c r="A210" s="23"/>
+      <c r="B210" s="25"/>
+      <c r="C210" s="24"/>
+      <c r="D210" s="24"/>
+      <c r="E210" s="24"/>
     </row>
     <row r="211" spans="1:5">
-      <c r="A211" s="24"/>
-      <c r="B211" s="26"/>
-      <c r="C211" s="25"/>
-      <c r="D211" s="25"/>
-      <c r="E211" s="25"/>
+      <c r="A211" s="23"/>
+      <c r="B211" s="25"/>
+      <c r="C211" s="24"/>
+      <c r="D211" s="24"/>
+      <c r="E211" s="24"/>
     </row>
     <row r="212" spans="1:5">
-      <c r="A212" s="24"/>
-      <c r="B212" s="26"/>
-      <c r="C212" s="25"/>
-      <c r="D212" s="25"/>
-      <c r="E212" s="25"/>
+      <c r="A212" s="23"/>
+      <c r="B212" s="25"/>
+      <c r="C212" s="24"/>
+      <c r="D212" s="24"/>
+      <c r="E212" s="24"/>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213" s="24"/>
-      <c r="B213" s="26"/>
-      <c r="C213" s="25"/>
-      <c r="D213" s="25"/>
-      <c r="E213" s="25"/>
+      <c r="A213" s="23"/>
+      <c r="B213" s="25"/>
+      <c r="C213" s="24"/>
+      <c r="D213" s="24"/>
+      <c r="E213" s="24"/>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214" s="24"/>
-      <c r="B214" s="26"/>
-      <c r="C214" s="25"/>
-      <c r="D214" s="25"/>
-      <c r="E214" s="25"/>
+      <c r="A214" s="23"/>
+      <c r="B214" s="25"/>
+      <c r="C214" s="24"/>
+      <c r="D214" s="24"/>
+      <c r="E214" s="24"/>
     </row>
     <row r="215" spans="1:5">
-      <c r="A215" s="24"/>
-      <c r="B215" s="26"/>
-      <c r="C215" s="25"/>
-      <c r="D215" s="25"/>
-      <c r="E215" s="25"/>
+      <c r="A215" s="23"/>
+      <c r="B215" s="25"/>
+      <c r="C215" s="24"/>
+      <c r="D215" s="24"/>
+      <c r="E215" s="24"/>
     </row>
     <row r="216" spans="1:5">
-      <c r="A216" s="24"/>
-      <c r="B216" s="26"/>
-      <c r="C216" s="25"/>
-      <c r="D216" s="25"/>
-      <c r="E216" s="25"/>
+      <c r="A216" s="23"/>
+      <c r="B216" s="25"/>
+      <c r="C216" s="24"/>
+      <c r="D216" s="24"/>
+      <c r="E216" s="24"/>
     </row>
     <row r="217" spans="1:5">
-      <c r="A217" s="24"/>
-      <c r="B217" s="26"/>
-      <c r="C217" s="25"/>
-      <c r="D217" s="25"/>
-      <c r="E217" s="25"/>
+      <c r="A217" s="23"/>
+      <c r="B217" s="25"/>
+      <c r="C217" s="24"/>
+      <c r="D217" s="24"/>
+      <c r="E217" s="24"/>
     </row>
     <row r="218" spans="1:5">
-      <c r="A218" s="24"/>
-      <c r="B218" s="26"/>
-      <c r="C218" s="25"/>
-      <c r="D218" s="25"/>
-      <c r="E218" s="25"/>
+      <c r="A218" s="23"/>
+      <c r="B218" s="25"/>
+      <c r="C218" s="24"/>
+      <c r="D218" s="24"/>
+      <c r="E218" s="24"/>
     </row>
     <row r="219" spans="1:5">
-      <c r="A219" s="24"/>
-      <c r="B219" s="26"/>
-      <c r="C219" s="25"/>
-      <c r="D219" s="25"/>
-      <c r="E219" s="25"/>
+      <c r="A219" s="23"/>
+      <c r="B219" s="25"/>
+      <c r="C219" s="24"/>
+      <c r="D219" s="24"/>
+      <c r="E219" s="24"/>
     </row>
     <row r="220" spans="1:5">
-      <c r="A220" s="24"/>
-      <c r="B220" s="26"/>
-      <c r="C220" s="25"/>
-      <c r="D220" s="25"/>
-      <c r="E220" s="25"/>
+      <c r="A220" s="23"/>
+      <c r="B220" s="25"/>
+      <c r="C220" s="24"/>
+      <c r="D220" s="24"/>
+      <c r="E220" s="24"/>
     </row>
     <row r="221" spans="1:5">
-      <c r="A221" s="24"/>
-      <c r="B221" s="26"/>
-      <c r="C221" s="25"/>
-      <c r="D221" s="25"/>
-      <c r="E221" s="25"/>
+      <c r="A221" s="23"/>
+      <c r="B221" s="25"/>
+      <c r="C221" s="24"/>
+      <c r="D221" s="24"/>
+      <c r="E221" s="24"/>
     </row>
     <row r="222" spans="1:5">
-      <c r="A222" s="24"/>
-      <c r="B222" s="26"/>
-      <c r="C222" s="25"/>
-      <c r="D222" s="25"/>
-      <c r="E222" s="25"/>
+      <c r="A222" s="23"/>
+      <c r="B222" s="25"/>
+      <c r="C222" s="24"/>
+      <c r="D222" s="24"/>
+      <c r="E222" s="24"/>
     </row>
     <row r="223" spans="1:5">
-      <c r="A223" s="24"/>
-      <c r="B223" s="26"/>
-      <c r="C223" s="25"/>
-      <c r="D223" s="25"/>
-      <c r="E223" s="25"/>
+      <c r="A223" s="23"/>
+      <c r="B223" s="25"/>
+      <c r="C223" s="24"/>
+      <c r="D223" s="24"/>
+      <c r="E223" s="24"/>
     </row>
     <row r="224" spans="1:5">
-      <c r="A224" s="24"/>
-      <c r="B224" s="26"/>
-      <c r="C224" s="25"/>
-      <c r="D224" s="25"/>
-      <c r="E224" s="25"/>
+      <c r="A224" s="23"/>
+      <c r="B224" s="25"/>
+      <c r="C224" s="24"/>
+      <c r="D224" s="24"/>
+      <c r="E224" s="24"/>
     </row>
     <row r="225" spans="1:5">
-      <c r="A225" s="24"/>
-      <c r="B225" s="26"/>
-      <c r="C225" s="25"/>
-      <c r="D225" s="25"/>
-      <c r="E225" s="25"/>
+      <c r="A225" s="23"/>
+      <c r="B225" s="25"/>
+      <c r="C225" s="24"/>
+      <c r="D225" s="24"/>
+      <c r="E225" s="24"/>
     </row>
     <row r="226" spans="1:5">
-      <c r="A226" s="24"/>
-      <c r="B226" s="26"/>
-      <c r="C226" s="25"/>
-      <c r="D226" s="25"/>
-      <c r="E226" s="25"/>
+      <c r="A226" s="23"/>
+      <c r="B226" s="25"/>
+      <c r="C226" s="24"/>
+      <c r="D226" s="24"/>
+      <c r="E226" s="24"/>
     </row>
     <row r="227" spans="1:5">
-      <c r="A227" s="24"/>
-      <c r="B227" s="26"/>
-      <c r="C227" s="25"/>
-      <c r="D227" s="25"/>
-      <c r="E227" s="25"/>
+      <c r="A227" s="23"/>
+      <c r="B227" s="25"/>
+      <c r="C227" s="24"/>
+      <c r="D227" s="24"/>
+      <c r="E227" s="24"/>
     </row>
     <row r="228" spans="1:5">
-      <c r="A228" s="24"/>
-      <c r="B228" s="26"/>
-      <c r="C228" s="25"/>
-      <c r="D228" s="25"/>
-      <c r="E228" s="25"/>
+      <c r="A228" s="23"/>
+      <c r="B228" s="25"/>
+      <c r="C228" s="24"/>
+      <c r="D228" s="24"/>
+      <c r="E228" s="24"/>
     </row>
     <row r="229" spans="1:5">
-      <c r="A229" s="24"/>
-      <c r="B229" s="26"/>
-      <c r="C229" s="25"/>
-      <c r="D229" s="25"/>
-      <c r="E229" s="25"/>
+      <c r="A229" s="23"/>
+      <c r="B229" s="25"/>
+      <c r="C229" s="24"/>
+      <c r="D229" s="24"/>
+      <c r="E229" s="24"/>
     </row>
     <row r="230" spans="1:5">
-      <c r="A230" s="24"/>
-      <c r="B230" s="26"/>
-      <c r="C230" s="25"/>
-      <c r="D230" s="25"/>
-      <c r="E230" s="25"/>
+      <c r="A230" s="23"/>
+      <c r="B230" s="25"/>
+      <c r="C230" s="24"/>
+      <c r="D230" s="24"/>
+      <c r="E230" s="24"/>
     </row>
     <row r="231" spans="1:5">
-      <c r="A231" s="24"/>
-      <c r="B231" s="26"/>
-      <c r="C231" s="25"/>
-      <c r="D231" s="25"/>
-      <c r="E231" s="25"/>
+      <c r="A231" s="23"/>
+      <c r="B231" s="25"/>
+      <c r="C231" s="24"/>
+      <c r="D231" s="24"/>
+      <c r="E231" s="24"/>
     </row>
     <row r="232" spans="1:5">
-      <c r="A232" s="24"/>
-      <c r="B232" s="26"/>
-      <c r="C232" s="25"/>
-      <c r="D232" s="25"/>
-      <c r="E232" s="25"/>
+      <c r="A232" s="23"/>
+      <c r="B232" s="25"/>
+      <c r="C232" s="24"/>
+      <c r="D232" s="24"/>
+      <c r="E232" s="24"/>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" s="24"/>
-      <c r="B233" s="26"/>
-      <c r="C233" s="25"/>
-      <c r="D233" s="25"/>
-      <c r="E233" s="25"/>
+      <c r="A233" s="23"/>
+      <c r="B233" s="25"/>
+      <c r="C233" s="24"/>
+      <c r="D233" s="24"/>
+      <c r="E233" s="24"/>
     </row>
     <row r="234" spans="1:5">
-      <c r="A234" s="24"/>
-      <c r="B234" s="26"/>
-      <c r="C234" s="25"/>
-      <c r="D234" s="25"/>
-      <c r="E234" s="25"/>
+      <c r="A234" s="23"/>
+      <c r="B234" s="25"/>
+      <c r="C234" s="24"/>
+      <c r="D234" s="24"/>
+      <c r="E234" s="24"/>
     </row>
     <row r="235" spans="1:5">
-      <c r="A235" s="24"/>
-      <c r="B235" s="26"/>
-      <c r="C235" s="25"/>
-      <c r="D235" s="25"/>
-      <c r="E235" s="25"/>
+      <c r="A235" s="23"/>
+      <c r="B235" s="25"/>
+      <c r="C235" s="24"/>
+      <c r="D235" s="24"/>
+      <c r="E235" s="24"/>
     </row>
     <row r="236" spans="1:5">
-      <c r="A236" s="24"/>
-      <c r="B236" s="26"/>
-      <c r="C236" s="25"/>
-      <c r="D236" s="25"/>
-      <c r="E236" s="25"/>
+      <c r="A236" s="23"/>
+      <c r="B236" s="25"/>
+      <c r="C236" s="24"/>
+      <c r="D236" s="24"/>
+      <c r="E236" s="24"/>
     </row>
     <row r="237" spans="1:5">
-      <c r="A237" s="24"/>
-      <c r="B237" s="26"/>
-      <c r="C237" s="25"/>
-      <c r="D237" s="25"/>
-      <c r="E237" s="25"/>
+      <c r="A237" s="23"/>
+      <c r="B237" s="25"/>
+      <c r="C237" s="24"/>
+      <c r="D237" s="24"/>
+      <c r="E237" s="24"/>
     </row>
     <row r="238" spans="1:5">
-      <c r="A238" s="24"/>
-      <c r="B238" s="26"/>
-      <c r="C238" s="25"/>
-      <c r="D238" s="25"/>
-      <c r="E238" s="25"/>
+      <c r="A238" s="23"/>
+      <c r="B238" s="25"/>
+      <c r="C238" s="24"/>
+      <c r="D238" s="24"/>
+      <c r="E238" s="24"/>
     </row>
     <row r="239" spans="1:5">
-      <c r="A239" s="24"/>
-      <c r="B239" s="26"/>
-      <c r="C239" s="25"/>
-      <c r="D239" s="25"/>
-      <c r="E239" s="25"/>
+      <c r="A239" s="23"/>
+      <c r="B239" s="25"/>
+      <c r="C239" s="24"/>
+      <c r="D239" s="24"/>
+      <c r="E239" s="24"/>
     </row>
     <row r="240" spans="1:5">
-      <c r="A240" s="24"/>
-      <c r="B240" s="26"/>
-      <c r="C240" s="25"/>
-      <c r="D240" s="25"/>
-      <c r="E240" s="25"/>
+      <c r="A240" s="23"/>
+      <c r="B240" s="25"/>
+      <c r="C240" s="24"/>
+      <c r="D240" s="24"/>
+      <c r="E240" s="24"/>
     </row>
     <row r="241" spans="1:5">
-      <c r="A241" s="24"/>
-      <c r="B241" s="26"/>
-      <c r="C241" s="25"/>
-      <c r="D241" s="25"/>
-      <c r="E241" s="25"/>
+      <c r="A241" s="23"/>
+      <c r="B241" s="25"/>
+      <c r="C241" s="24"/>
+      <c r="D241" s="24"/>
+      <c r="E241" s="24"/>
     </row>
     <row r="242" spans="1:5">
-      <c r="A242" s="24"/>
-      <c r="B242" s="26"/>
-      <c r="C242" s="25"/>
-      <c r="D242" s="25"/>
-      <c r="E242" s="25"/>
+      <c r="A242" s="23"/>
+      <c r="B242" s="25"/>
+      <c r="C242" s="24"/>
+      <c r="D242" s="24"/>
+      <c r="E242" s="24"/>
     </row>
     <row r="243" spans="1:5">
-      <c r="A243" s="24"/>
-      <c r="B243" s="26"/>
-      <c r="C243" s="25"/>
-      <c r="D243" s="25"/>
-      <c r="E243" s="25"/>
+      <c r="A243" s="23"/>
+      <c r="B243" s="25"/>
+      <c r="C243" s="24"/>
+      <c r="D243" s="24"/>
+      <c r="E243" s="24"/>
     </row>
     <row r="244" spans="1:5">
-      <c r="A244" s="24"/>
-      <c r="B244" s="26"/>
-      <c r="C244" s="25"/>
-      <c r="D244" s="25"/>
-      <c r="E244" s="25"/>
+      <c r="A244" s="23"/>
+      <c r="B244" s="25"/>
+      <c r="C244" s="24"/>
+      <c r="D244" s="24"/>
+      <c r="E244" s="24"/>
     </row>
     <row r="245" spans="1:5">
-      <c r="A245" s="24"/>
-      <c r="B245" s="26"/>
-      <c r="C245" s="25"/>
-      <c r="D245" s="25"/>
-      <c r="E245" s="25"/>
+      <c r="A245" s="23"/>
+      <c r="B245" s="25"/>
+      <c r="C245" s="24"/>
+      <c r="D245" s="24"/>
+      <c r="E245" s="24"/>
     </row>
     <row r="246" spans="1:5">
-      <c r="A246" s="24"/>
-      <c r="B246" s="26"/>
-      <c r="C246" s="25"/>
-      <c r="D246" s="25"/>
-      <c r="E246" s="25"/>
+      <c r="A246" s="23"/>
+      <c r="B246" s="25"/>
+      <c r="C246" s="24"/>
+      <c r="D246" s="24"/>
+      <c r="E246" s="24"/>
     </row>
     <row r="247" spans="1:5">
-      <c r="A247" s="24"/>
-      <c r="B247" s="26"/>
-      <c r="C247" s="25"/>
-      <c r="D247" s="25"/>
-      <c r="E247" s="25"/>
+      <c r="A247" s="23"/>
+      <c r="B247" s="25"/>
+      <c r="C247" s="24"/>
+      <c r="D247" s="24"/>
+      <c r="E247" s="24"/>
     </row>
     <row r="248" spans="1:5">
-      <c r="A248" s="24"/>
-      <c r="B248" s="26"/>
-      <c r="C248" s="25"/>
-      <c r="D248" s="25"/>
-      <c r="E248" s="25"/>
+      <c r="A248" s="23"/>
+      <c r="B248" s="25"/>
+      <c r="C248" s="24"/>
+      <c r="D248" s="24"/>
+      <c r="E248" s="24"/>
     </row>
     <row r="249" spans="1:5">
-      <c r="A249" s="24"/>
-      <c r="B249" s="26"/>
-      <c r="C249" s="25"/>
-      <c r="D249" s="25"/>
-      <c r="E249" s="25"/>
+      <c r="A249" s="23"/>
+      <c r="B249" s="25"/>
+      <c r="C249" s="24"/>
+      <c r="D249" s="24"/>
+      <c r="E249" s="24"/>
     </row>
     <row r="250" spans="1:5">
-      <c r="A250" s="24"/>
-      <c r="B250" s="26"/>
-      <c r="C250" s="25"/>
-      <c r="D250" s="25"/>
-      <c r="E250" s="25"/>
+      <c r="A250" s="23"/>
+      <c r="B250" s="25"/>
+      <c r="C250" s="24"/>
+      <c r="D250" s="24"/>
+      <c r="E250" s="24"/>
     </row>
     <row r="251" spans="1:5">
-      <c r="A251" s="24"/>
-      <c r="B251" s="26"/>
-      <c r="C251" s="25"/>
-      <c r="D251" s="25"/>
-      <c r="E251" s="25"/>
+      <c r="A251" s="23"/>
+      <c r="B251" s="25"/>
+      <c r="C251" s="24"/>
+      <c r="D251" s="24"/>
+      <c r="E251" s="24"/>
     </row>
     <row r="252" spans="1:5">
-      <c r="A252" s="24"/>
-      <c r="B252" s="26"/>
-      <c r="C252" s="25"/>
-      <c r="D252" s="25"/>
-      <c r="E252" s="25"/>
+      <c r="A252" s="23"/>
+      <c r="B252" s="25"/>
+      <c r="C252" s="24"/>
+      <c r="D252" s="24"/>
+      <c r="E252" s="24"/>
     </row>
     <row r="253" spans="1:5">
-      <c r="A253" s="27"/>
-      <c r="B253" s="28"/>
-      <c r="C253" s="28"/>
-      <c r="D253" s="28"/>
-      <c r="E253" s="28"/>
+      <c r="A253" s="23"/>
+      <c r="B253" s="25"/>
+      <c r="C253" s="24"/>
+      <c r="D253" s="24"/>
+      <c r="E253" s="24"/>
     </row>
     <row r="254" spans="1:5">
-      <c r="A254" s="27"/>
-      <c r="B254" s="28"/>
-      <c r="C254" s="28"/>
-      <c r="D254" s="28"/>
-      <c r="E254" s="28"/>
+      <c r="A254" s="23"/>
+      <c r="B254" s="25"/>
+      <c r="C254" s="24"/>
+      <c r="D254" s="24"/>
+      <c r="E254" s="24"/>
     </row>
     <row r="255" spans="1:5">
-      <c r="A255" s="27"/>
-      <c r="B255" s="28"/>
-      <c r="C255" s="28"/>
-      <c r="D255" s="28"/>
-      <c r="E255" s="28"/>
+      <c r="A255" s="23"/>
+      <c r="B255" s="25"/>
+      <c r="C255" s="24"/>
+      <c r="D255" s="24"/>
+      <c r="E255" s="24"/>
     </row>
     <row r="256" spans="1:5">
-      <c r="A256" s="27"/>
-      <c r="B256" s="28"/>
-      <c r="C256" s="28"/>
-      <c r="D256" s="28"/>
-      <c r="E256" s="28"/>
+      <c r="A256" s="23"/>
+      <c r="B256" s="25"/>
+      <c r="C256" s="24"/>
+      <c r="D256" s="24"/>
+      <c r="E256" s="24"/>
     </row>
     <row r="257" spans="1:5">
-      <c r="A257" s="27"/>
-      <c r="B257" s="28"/>
-      <c r="C257" s="28"/>
-      <c r="D257" s="28"/>
-      <c r="E257" s="28"/>
+      <c r="A257" s="23"/>
+      <c r="B257" s="25"/>
+      <c r="C257" s="24"/>
+      <c r="D257" s="24"/>
+      <c r="E257" s="24"/>
     </row>
     <row r="258" spans="1:5">
-      <c r="A258" s="27"/>
-      <c r="B258" s="28"/>
-      <c r="C258" s="28"/>
-      <c r="D258" s="28"/>
-      <c r="E258" s="28"/>
+      <c r="A258" s="23"/>
+      <c r="B258" s="25"/>
+      <c r="C258" s="24"/>
+      <c r="D258" s="24"/>
+      <c r="E258" s="24"/>
     </row>
     <row r="259" spans="1:5">
-      <c r="A259" s="27"/>
-      <c r="B259" s="28"/>
-      <c r="C259" s="28"/>
-      <c r="D259" s="28"/>
-      <c r="E259" s="28"/>
+      <c r="A259" s="23"/>
+      <c r="B259" s="25"/>
+      <c r="C259" s="24"/>
+      <c r="D259" s="24"/>
+      <c r="E259" s="24"/>
     </row>
     <row r="260" spans="1:5">
-      <c r="A260" s="27"/>
-      <c r="B260" s="28"/>
-      <c r="C260" s="28"/>
-      <c r="D260" s="28"/>
-      <c r="E260" s="28"/>
+      <c r="A260" s="23"/>
+      <c r="B260" s="25"/>
+      <c r="C260" s="24"/>
+      <c r="D260" s="24"/>
+      <c r="E260" s="24"/>
     </row>
     <row r="261" spans="1:5">
-      <c r="A261" s="27"/>
-      <c r="B261" s="28"/>
-      <c r="C261" s="28"/>
-      <c r="D261" s="28"/>
-      <c r="E261" s="28"/>
+      <c r="A261" s="23"/>
+      <c r="B261" s="25"/>
+      <c r="C261" s="24"/>
+      <c r="D261" s="24"/>
+      <c r="E261" s="24"/>
     </row>
     <row r="262" spans="1:5">
-      <c r="A262" s="27"/>
-      <c r="B262" s="28"/>
-      <c r="C262" s="28"/>
-      <c r="D262" s="28"/>
-      <c r="E262" s="28"/>
+      <c r="A262" s="23"/>
+      <c r="B262" s="25"/>
+      <c r="C262" s="24"/>
+      <c r="D262" s="24"/>
+      <c r="E262" s="24"/>
     </row>
     <row r="263" spans="1:5">
-      <c r="A263" s="27"/>
-      <c r="B263" s="28"/>
-      <c r="C263" s="28"/>
-      <c r="D263" s="28"/>
-      <c r="E263" s="28"/>
+      <c r="A263" s="23"/>
+      <c r="B263" s="25"/>
+      <c r="C263" s="24"/>
+      <c r="D263" s="24"/>
+      <c r="E263" s="24"/>
     </row>
     <row r="264" spans="1:5">
-      <c r="A264" s="27"/>
-      <c r="B264" s="28"/>
-      <c r="C264" s="28"/>
-      <c r="D264" s="28"/>
-      <c r="E264" s="28"/>
+      <c r="A264" s="23"/>
+      <c r="B264" s="25"/>
+      <c r="C264" s="24"/>
+      <c r="D264" s="24"/>
+      <c r="E264" s="24"/>
     </row>
     <row r="265" spans="1:5">
-      <c r="A265" s="27"/>
-      <c r="B265" s="28"/>
-      <c r="C265" s="28"/>
-      <c r="D265" s="28"/>
-      <c r="E265" s="28"/>
+      <c r="A265" s="23"/>
+      <c r="B265" s="25"/>
+      <c r="C265" s="24"/>
+      <c r="D265" s="24"/>
+      <c r="E265" s="24"/>
     </row>
     <row r="266" spans="1:5">
-      <c r="A266" s="27"/>
-      <c r="B266" s="28"/>
-      <c r="C266" s="28"/>
-      <c r="D266" s="28"/>
-      <c r="E266" s="28"/>
+      <c r="A266" s="23"/>
+      <c r="B266" s="25"/>
+      <c r="C266" s="24"/>
+      <c r="D266" s="24"/>
+      <c r="E266" s="24"/>
     </row>
     <row r="267" spans="1:5">
-      <c r="A267" s="27"/>
-      <c r="B267" s="28"/>
-      <c r="C267" s="28"/>
-      <c r="D267" s="28"/>
-      <c r="E267" s="28"/>
+      <c r="A267" s="23"/>
+      <c r="B267" s="25"/>
+      <c r="C267" s="24"/>
+      <c r="D267" s="24"/>
+      <c r="E267" s="24"/>
     </row>
     <row r="268" spans="1:5">
-      <c r="A268" s="27"/>
-      <c r="B268" s="28"/>
-      <c r="C268" s="28"/>
-      <c r="D268" s="28"/>
-      <c r="E268" s="28"/>
+      <c r="A268" s="23"/>
+      <c r="B268" s="25"/>
+      <c r="C268" s="24"/>
+      <c r="D268" s="24"/>
+      <c r="E268" s="24"/>
     </row>
     <row r="269" spans="1:5">
-      <c r="A269" s="27"/>
-      <c r="B269" s="28"/>
-      <c r="C269" s="28"/>
-      <c r="D269" s="28"/>
-      <c r="E269" s="28"/>
+      <c r="A269" s="23"/>
+      <c r="B269" s="25"/>
+      <c r="C269" s="24"/>
+      <c r="D269" s="24"/>
+      <c r="E269" s="24"/>
     </row>
     <row r="270" spans="1:5">
-      <c r="A270" s="27"/>
-      <c r="B270" s="28"/>
-      <c r="C270" s="28"/>
-      <c r="D270" s="28"/>
-      <c r="E270" s="28"/>
+      <c r="A270" s="23"/>
+      <c r="B270" s="25"/>
+      <c r="C270" s="24"/>
+      <c r="D270" s="24"/>
+      <c r="E270" s="24"/>
     </row>
     <row r="271" spans="1:5">
-      <c r="A271" s="27"/>
-      <c r="B271" s="28"/>
-      <c r="C271" s="28"/>
-      <c r="D271" s="28"/>
-      <c r="E271" s="28"/>
+      <c r="A271" s="23"/>
+      <c r="B271" s="25"/>
+      <c r="C271" s="24"/>
+      <c r="D271" s="24"/>
+      <c r="E271" s="24"/>
     </row>
     <row r="272" spans="1:5">
-      <c r="A272" s="27"/>
-      <c r="B272" s="28"/>
-      <c r="C272" s="28"/>
-      <c r="D272" s="28"/>
-      <c r="E272" s="28"/>
+      <c r="A272" s="23"/>
+      <c r="B272" s="25"/>
+      <c r="C272" s="24"/>
+      <c r="D272" s="24"/>
+      <c r="E272" s="24"/>
     </row>
     <row r="273" spans="1:5">
-      <c r="A273" s="27"/>
-      <c r="B273" s="28"/>
-      <c r="C273" s="28"/>
-      <c r="D273" s="28"/>
-      <c r="E273" s="28"/>
+      <c r="A273" s="23"/>
+      <c r="B273" s="25"/>
+      <c r="C273" s="24"/>
+      <c r="D273" s="24"/>
+      <c r="E273" s="24"/>
     </row>
     <row r="274" spans="1:5">
-      <c r="A274" s="27"/>
-      <c r="B274" s="28"/>
-      <c r="C274" s="28"/>
-      <c r="D274" s="28"/>
-      <c r="E274" s="28"/>
+      <c r="A274" s="23"/>
+      <c r="B274" s="25"/>
+      <c r="C274" s="24"/>
+      <c r="D274" s="24"/>
+      <c r="E274" s="24"/>
     </row>
     <row r="275" spans="1:5">
-      <c r="A275" s="27"/>
-      <c r="B275" s="28"/>
-      <c r="C275" s="28"/>
-      <c r="D275" s="28"/>
-      <c r="E275" s="28"/>
+      <c r="A275" s="23"/>
+      <c r="B275" s="25"/>
+      <c r="C275" s="24"/>
+      <c r="D275" s="24"/>
+      <c r="E275" s="24"/>
     </row>
     <row r="276" spans="1:5">
-      <c r="A276" s="27"/>
-      <c r="B276" s="28"/>
-      <c r="C276" s="28"/>
-      <c r="D276" s="28"/>
-      <c r="E276" s="28"/>
+      <c r="A276" s="23"/>
+      <c r="B276" s="25"/>
+      <c r="C276" s="24"/>
+      <c r="D276" s="24"/>
+      <c r="E276" s="24"/>
     </row>
     <row r="277" spans="1:5">
-      <c r="A277" s="27"/>
-      <c r="B277" s="28"/>
-      <c r="C277" s="28"/>
-      <c r="D277" s="28"/>
-      <c r="E277" s="28"/>
+      <c r="A277" s="23"/>
+      <c r="B277" s="25"/>
+      <c r="C277" s="24"/>
+      <c r="D277" s="24"/>
+      <c r="E277" s="24"/>
     </row>
     <row r="278" spans="1:5">
-      <c r="A278" s="27"/>
-      <c r="B278" s="28"/>
-      <c r="C278" s="28"/>
-      <c r="D278" s="28"/>
-      <c r="E278" s="28"/>
+      <c r="A278" s="23"/>
+      <c r="B278" s="25"/>
+      <c r="C278" s="24"/>
+      <c r="D278" s="24"/>
+      <c r="E278" s="24"/>
     </row>
     <row r="279" spans="1:5">
-      <c r="A279" s="27"/>
-      <c r="B279" s="28"/>
-      <c r="C279" s="28"/>
-      <c r="D279" s="28"/>
-      <c r="E279" s="28"/>
+      <c r="A279" s="23"/>
+      <c r="B279" s="25"/>
+      <c r="C279" s="24"/>
+      <c r="D279" s="24"/>
+      <c r="E279" s="24"/>
     </row>
     <row r="280" spans="1:5">
-      <c r="A280" s="27"/>
-      <c r="B280" s="28"/>
-      <c r="C280" s="28"/>
-      <c r="D280" s="28"/>
-      <c r="E280" s="28"/>
+      <c r="A280" s="23"/>
+      <c r="B280" s="25"/>
+      <c r="C280" s="24"/>
+      <c r="D280" s="24"/>
+      <c r="E280" s="24"/>
     </row>
     <row r="281" spans="1:5">
-      <c r="A281" s="27"/>
-      <c r="B281" s="28"/>
-      <c r="C281" s="28"/>
-      <c r="D281" s="28"/>
-      <c r="E281" s="28"/>
+      <c r="A281" s="23"/>
+      <c r="B281" s="25"/>
+      <c r="C281" s="24"/>
+      <c r="D281" s="24"/>
+      <c r="E281" s="24"/>
     </row>
     <row r="282" spans="1:5">
-      <c r="A282" s="27"/>
-      <c r="B282" s="28"/>
-      <c r="C282" s="28"/>
-      <c r="D282" s="28"/>
-      <c r="E282" s="28"/>
+      <c r="A282" s="23"/>
+      <c r="B282" s="25"/>
+      <c r="C282" s="24"/>
+      <c r="D282" s="24"/>
+      <c r="E282" s="24"/>
     </row>
     <row r="283" spans="1:5">
-      <c r="A283" s="27"/>
-      <c r="B283" s="28"/>
-      <c r="C283" s="28"/>
-      <c r="D283" s="28"/>
-      <c r="E283" s="28"/>
+      <c r="A283" s="23"/>
+      <c r="B283" s="25"/>
+      <c r="C283" s="24"/>
+      <c r="D283" s="24"/>
+      <c r="E283" s="24"/>
     </row>
     <row r="284" spans="1:5">
-      <c r="A284" s="27"/>
-      <c r="B284" s="28"/>
-      <c r="C284" s="28"/>
-      <c r="D284" s="28"/>
-      <c r="E284" s="28"/>
+      <c r="A284" s="23"/>
+      <c r="B284" s="25"/>
+      <c r="C284" s="24"/>
+      <c r="D284" s="24"/>
+      <c r="E284" s="24"/>
     </row>
     <row r="285" spans="1:5">
-      <c r="A285" s="27"/>
-      <c r="B285" s="28"/>
-      <c r="C285" s="28"/>
-      <c r="D285" s="28"/>
-      <c r="E285" s="28"/>
+      <c r="A285" s="23"/>
+      <c r="B285" s="25"/>
+      <c r="C285" s="24"/>
+      <c r="D285" s="24"/>
+      <c r="E285" s="24"/>
     </row>
     <row r="286" spans="1:5">
-      <c r="A286" s="27"/>
-      <c r="B286" s="28"/>
-      <c r="C286" s="28"/>
-      <c r="D286" s="28"/>
-      <c r="E286" s="28"/>
+      <c r="A286" s="23"/>
+      <c r="B286" s="25"/>
+      <c r="C286" s="24"/>
+      <c r="D286" s="24"/>
+      <c r="E286" s="24"/>
     </row>
     <row r="287" spans="1:5">
-      <c r="A287" s="27"/>
-      <c r="B287" s="28"/>
-      <c r="C287" s="28"/>
-      <c r="D287" s="28"/>
-      <c r="E287" s="28"/>
+      <c r="A287" s="23"/>
+      <c r="B287" s="25"/>
+      <c r="C287" s="24"/>
+      <c r="D287" s="24"/>
+      <c r="E287" s="24"/>
     </row>
     <row r="288" spans="1:5">
-      <c r="A288" s="27"/>
-      <c r="B288" s="28"/>
-      <c r="C288" s="28"/>
-      <c r="D288" s="28"/>
-      <c r="E288" s="28"/>
+      <c r="A288" s="23"/>
+      <c r="B288" s="25"/>
+      <c r="C288" s="24"/>
+      <c r="D288" s="24"/>
+      <c r="E288" s="24"/>
     </row>
     <row r="289" spans="1:5">
-      <c r="A289" s="27"/>
-      <c r="B289" s="28"/>
-      <c r="C289" s="28"/>
-      <c r="D289" s="28"/>
-      <c r="E289" s="28"/>
+      <c r="A289" s="23"/>
+      <c r="B289" s="25"/>
+      <c r="C289" s="24"/>
+      <c r="D289" s="24"/>
+      <c r="E289" s="24"/>
     </row>
     <row r="290" spans="1:5">
-      <c r="A290" s="27"/>
-      <c r="B290" s="28"/>
-      <c r="C290" s="28"/>
-      <c r="D290" s="28"/>
-      <c r="E290" s="28"/>
+      <c r="A290" s="23"/>
+      <c r="B290" s="25"/>
+      <c r="C290" s="24"/>
+      <c r="D290" s="24"/>
+      <c r="E290" s="24"/>
     </row>
     <row r="291" spans="1:5">
-      <c r="A291" s="27"/>
-      <c r="B291" s="28"/>
-      <c r="C291" s="28"/>
-      <c r="D291" s="28"/>
-      <c r="E291" s="28"/>
+      <c r="A291" s="23"/>
+      <c r="B291" s="25"/>
+      <c r="C291" s="24"/>
+      <c r="D291" s="24"/>
+      <c r="E291" s="24"/>
     </row>
     <row r="292" spans="1:5">
-      <c r="A292" s="27"/>
-      <c r="B292" s="28"/>
-      <c r="C292" s="28"/>
-      <c r="D292" s="28"/>
-      <c r="E292" s="28"/>
+      <c r="A292" s="23"/>
+      <c r="B292" s="25"/>
+      <c r="C292" s="24"/>
+      <c r="D292" s="24"/>
+      <c r="E292" s="24"/>
     </row>
     <row r="293" spans="1:5">
-      <c r="A293" s="27"/>
-      <c r="B293" s="28"/>
-      <c r="C293" s="28"/>
-      <c r="D293" s="28"/>
-      <c r="E293" s="28"/>
+      <c r="A293" s="23"/>
+      <c r="B293" s="25"/>
+      <c r="C293" s="24"/>
+      <c r="D293" s="24"/>
+      <c r="E293" s="24"/>
     </row>
     <row r="294" spans="1:5">
-      <c r="A294" s="27"/>
-      <c r="B294" s="28"/>
-      <c r="C294" s="28"/>
-      <c r="D294" s="28"/>
-      <c r="E294" s="28"/>
+      <c r="A294" s="23"/>
+      <c r="B294" s="25"/>
+      <c r="C294" s="24"/>
+      <c r="D294" s="24"/>
+      <c r="E294" s="24"/>
     </row>
     <row r="295" spans="1:5">
-      <c r="A295" s="27"/>
-      <c r="B295" s="28"/>
-      <c r="C295" s="28"/>
-      <c r="D295" s="28"/>
-      <c r="E295" s="28"/>
+      <c r="A295" s="23"/>
+      <c r="B295" s="25"/>
+      <c r="C295" s="24"/>
+      <c r="D295" s="24"/>
+      <c r="E295" s="24"/>
     </row>
     <row r="296" spans="1:5">
-      <c r="A296" s="27"/>
-      <c r="B296" s="28"/>
-      <c r="C296" s="28"/>
-      <c r="D296" s="28"/>
-      <c r="E296" s="28"/>
+      <c r="A296" s="23"/>
+      <c r="B296" s="25"/>
+      <c r="C296" s="24"/>
+      <c r="D296" s="24"/>
+      <c r="E296" s="24"/>
     </row>
     <row r="297" spans="1:5">
-      <c r="A297" s="27"/>
-      <c r="B297" s="28"/>
-      <c r="C297" s="28"/>
-      <c r="D297" s="28"/>
-      <c r="E297" s="28"/>
+      <c r="A297" s="23"/>
+      <c r="B297" s="25"/>
+      <c r="C297" s="24"/>
+      <c r="D297" s="24"/>
+      <c r="E297" s="24"/>
     </row>
     <row r="298" spans="1:5">
-      <c r="B298" s="2"/>
-      <c r="C298" s="2"/>
-      <c r="D298" s="2"/>
-      <c r="E298" s="2"/>
+      <c r="A298" s="23"/>
+      <c r="B298" s="25"/>
+      <c r="C298" s="24"/>
+      <c r="D298" s="24"/>
+      <c r="E298" s="24"/>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="23"/>
+      <c r="B299" s="25"/>
+      <c r="C299" s="24"/>
+      <c r="D299" s="24"/>
+      <c r="E299" s="24"/>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="23"/>
+      <c r="B300" s="25"/>
+      <c r="C300" s="24"/>
+      <c r="D300" s="24"/>
+      <c r="E300" s="24"/>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="23"/>
+      <c r="B301" s="25"/>
+      <c r="C301" s="24"/>
+      <c r="D301" s="24"/>
+      <c r="E301" s="24"/>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="23"/>
+      <c r="B302" s="25"/>
+      <c r="C302" s="24"/>
+      <c r="D302" s="24"/>
+      <c r="E302" s="24"/>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="23"/>
+      <c r="B303" s="25"/>
+      <c r="C303" s="24"/>
+      <c r="D303" s="24"/>
+      <c r="E303" s="24"/>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="23"/>
+      <c r="B304" s="25"/>
+      <c r="C304" s="24"/>
+      <c r="D304" s="24"/>
+      <c r="E304" s="24"/>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="23"/>
+      <c r="B305" s="25"/>
+      <c r="C305" s="24"/>
+      <c r="D305" s="24"/>
+      <c r="E305" s="24"/>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="23"/>
+      <c r="B306" s="25"/>
+      <c r="C306" s="24"/>
+      <c r="D306" s="24"/>
+      <c r="E306" s="24"/>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="23"/>
+      <c r="B307" s="25"/>
+      <c r="C307" s="24"/>
+      <c r="D307" s="24"/>
+      <c r="E307" s="24"/>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="23"/>
+      <c r="B308" s="25"/>
+      <c r="C308" s="24"/>
+      <c r="D308" s="24"/>
+      <c r="E308" s="24"/>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="23"/>
+      <c r="B309" s="25"/>
+      <c r="C309" s="24"/>
+      <c r="D309" s="24"/>
+      <c r="E309" s="24"/>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="23"/>
+      <c r="B310" s="25"/>
+      <c r="C310" s="24"/>
+      <c r="D310" s="24"/>
+      <c r="E310" s="24"/>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="23"/>
+      <c r="B311" s="25"/>
+      <c r="C311" s="24"/>
+      <c r="D311" s="24"/>
+      <c r="E311" s="24"/>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="23"/>
+      <c r="B312" s="25"/>
+      <c r="C312" s="24"/>
+      <c r="D312" s="24"/>
+      <c r="E312" s="24"/>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="23"/>
+      <c r="B313" s="25"/>
+      <c r="C313" s="24"/>
+      <c r="D313" s="24"/>
+      <c r="E313" s="24"/>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="23"/>
+      <c r="B314" s="25"/>
+      <c r="C314" s="24"/>
+      <c r="D314" s="24"/>
+      <c r="E314" s="24"/>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="23"/>
+      <c r="B315" s="25"/>
+      <c r="C315" s="24"/>
+      <c r="D315" s="24"/>
+      <c r="E315" s="24"/>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="23"/>
+      <c r="B316" s="25"/>
+      <c r="C316" s="24"/>
+      <c r="D316" s="24"/>
+      <c r="E316" s="24"/>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="23"/>
+      <c r="B317" s="25"/>
+      <c r="C317" s="24"/>
+      <c r="D317" s="24"/>
+      <c r="E317" s="24"/>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="23"/>
+      <c r="B318" s="25"/>
+      <c r="C318" s="24"/>
+      <c r="D318" s="24"/>
+      <c r="E318" s="24"/>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="23"/>
+      <c r="B319" s="25"/>
+      <c r="C319" s="24"/>
+      <c r="D319" s="24"/>
+      <c r="E319" s="24"/>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="23"/>
+      <c r="B320" s="25"/>
+      <c r="C320" s="24"/>
+      <c r="D320" s="24"/>
+      <c r="E320" s="24"/>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="23"/>
+      <c r="B321" s="25"/>
+      <c r="C321" s="24"/>
+      <c r="D321" s="24"/>
+      <c r="E321" s="24"/>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="23"/>
+      <c r="B322" s="25"/>
+      <c r="C322" s="24"/>
+      <c r="D322" s="24"/>
+      <c r="E322" s="24"/>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="23"/>
+      <c r="B323" s="25"/>
+      <c r="C323" s="24"/>
+      <c r="D323" s="24"/>
+      <c r="E323" s="24"/>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="23"/>
+      <c r="B324" s="25"/>
+      <c r="C324" s="24"/>
+      <c r="D324" s="24"/>
+      <c r="E324" s="24"/>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="23"/>
+      <c r="B325" s="25"/>
+      <c r="C325" s="24"/>
+      <c r="D325" s="24"/>
+      <c r="E325" s="24"/>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="23"/>
+      <c r="B326" s="25"/>
+      <c r="C326" s="24"/>
+      <c r="D326" s="24"/>
+      <c r="E326" s="24"/>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="23"/>
+      <c r="B327" s="25"/>
+      <c r="C327" s="24"/>
+      <c r="D327" s="24"/>
+      <c r="E327" s="24"/>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="23"/>
+      <c r="B328" s="25"/>
+      <c r="C328" s="24"/>
+      <c r="D328" s="24"/>
+      <c r="E328" s="24"/>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="23"/>
+      <c r="B329" s="25"/>
+      <c r="C329" s="24"/>
+      <c r="D329" s="24"/>
+      <c r="E329" s="24"/>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="23"/>
+      <c r="B330" s="25"/>
+      <c r="C330" s="24"/>
+      <c r="D330" s="24"/>
+      <c r="E330" s="24"/>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="23"/>
+      <c r="B331" s="25"/>
+      <c r="C331" s="24"/>
+      <c r="D331" s="24"/>
+      <c r="E331" s="24"/>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="23"/>
+      <c r="B332" s="25"/>
+      <c r="C332" s="24"/>
+      <c r="D332" s="24"/>
+      <c r="E332" s="24"/>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="23"/>
+      <c r="B333" s="25"/>
+      <c r="C333" s="24"/>
+      <c r="D333" s="24"/>
+      <c r="E333" s="24"/>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="23"/>
+      <c r="B334" s="25"/>
+      <c r="C334" s="24"/>
+      <c r="D334" s="24"/>
+      <c r="E334" s="24"/>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="23"/>
+      <c r="B335" s="25"/>
+      <c r="C335" s="24"/>
+      <c r="D335" s="24"/>
+      <c r="E335" s="24"/>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="23"/>
+      <c r="B336" s="25"/>
+      <c r="C336" s="24"/>
+      <c r="D336" s="24"/>
+      <c r="E336" s="24"/>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="23"/>
+      <c r="B337" s="25"/>
+      <c r="C337" s="24"/>
+      <c r="D337" s="24"/>
+      <c r="E337" s="24"/>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="23"/>
+      <c r="B338" s="25"/>
+      <c r="C338" s="24"/>
+      <c r="D338" s="24"/>
+      <c r="E338" s="24"/>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="23"/>
+      <c r="B339" s="25"/>
+      <c r="C339" s="24"/>
+      <c r="D339" s="24"/>
+      <c r="E339" s="24"/>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="23"/>
+      <c r="B340" s="25"/>
+      <c r="C340" s="24"/>
+      <c r="D340" s="24"/>
+      <c r="E340" s="24"/>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="23"/>
+      <c r="B341" s="25"/>
+      <c r="C341" s="24"/>
+      <c r="D341" s="24"/>
+      <c r="E341" s="24"/>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="23"/>
+      <c r="B342" s="25"/>
+      <c r="C342" s="24"/>
+      <c r="D342" s="24"/>
+      <c r="E342" s="24"/>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="23"/>
+      <c r="B343" s="25"/>
+      <c r="C343" s="24"/>
+      <c r="D343" s="24"/>
+      <c r="E343" s="24"/>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="23"/>
+      <c r="B344" s="25"/>
+      <c r="C344" s="24"/>
+      <c r="D344" s="24"/>
+      <c r="E344" s="24"/>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="23"/>
+      <c r="B345" s="25"/>
+      <c r="C345" s="24"/>
+      <c r="D345" s="24"/>
+      <c r="E345" s="24"/>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="23"/>
+      <c r="B346" s="25"/>
+      <c r="C346" s="24"/>
+      <c r="D346" s="24"/>
+      <c r="E346" s="24"/>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="23"/>
+      <c r="B347" s="25"/>
+      <c r="C347" s="24"/>
+      <c r="D347" s="24"/>
+      <c r="E347" s="24"/>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="23"/>
+      <c r="B348" s="25"/>
+      <c r="C348" s="24"/>
+      <c r="D348" s="24"/>
+      <c r="E348" s="24"/>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="23"/>
+      <c r="B349" s="25"/>
+      <c r="C349" s="24"/>
+      <c r="D349" s="24"/>
+      <c r="E349" s="24"/>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="23"/>
+      <c r="B350" s="25"/>
+      <c r="C350" s="24"/>
+      <c r="D350" s="24"/>
+      <c r="E350" s="24"/>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="23"/>
+      <c r="B351" s="25"/>
+      <c r="C351" s="24"/>
+      <c r="D351" s="24"/>
+      <c r="E351" s="24"/>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="23"/>
+      <c r="B352" s="25"/>
+      <c r="C352" s="24"/>
+      <c r="D352" s="24"/>
+      <c r="E352" s="24"/>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="23"/>
+      <c r="B353" s="25"/>
+      <c r="C353" s="24"/>
+      <c r="D353" s="24"/>
+      <c r="E353" s="24"/>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="23"/>
+      <c r="B354" s="25"/>
+      <c r="C354" s="24"/>
+      <c r="D354" s="24"/>
+      <c r="E354" s="24"/>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="23"/>
+      <c r="B355" s="25"/>
+      <c r="C355" s="24"/>
+      <c r="D355" s="24"/>
+      <c r="E355" s="24"/>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="23"/>
+      <c r="B356" s="25"/>
+      <c r="C356" s="24"/>
+      <c r="D356" s="24"/>
+      <c r="E356" s="24"/>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="23"/>
+      <c r="B357" s="25"/>
+      <c r="C357" s="24"/>
+      <c r="D357" s="24"/>
+      <c r="E357" s="24"/>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="23"/>
+      <c r="B358" s="25"/>
+      <c r="C358" s="24"/>
+      <c r="D358" s="24"/>
+      <c r="E358" s="24"/>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="23"/>
+      <c r="B359" s="25"/>
+      <c r="C359" s="24"/>
+      <c r="D359" s="24"/>
+      <c r="E359" s="24"/>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="23"/>
+      <c r="B360" s="25"/>
+      <c r="C360" s="24"/>
+      <c r="D360" s="24"/>
+      <c r="E360" s="24"/>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="23"/>
+      <c r="B361" s="25"/>
+      <c r="C361" s="24"/>
+      <c r="D361" s="24"/>
+      <c r="E361" s="24"/>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="23"/>
+      <c r="B362" s="25"/>
+      <c r="C362" s="24"/>
+      <c r="D362" s="24"/>
+      <c r="E362" s="24"/>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="23"/>
+      <c r="B363" s="25"/>
+      <c r="C363" s="24"/>
+      <c r="D363" s="24"/>
+      <c r="E363" s="24"/>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="23"/>
+      <c r="B364" s="25"/>
+      <c r="C364" s="24"/>
+      <c r="D364" s="24"/>
+      <c r="E364" s="24"/>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="23"/>
+      <c r="B365" s="25"/>
+      <c r="C365" s="24"/>
+      <c r="D365" s="24"/>
+      <c r="E365" s="24"/>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="23"/>
+      <c r="B366" s="25"/>
+      <c r="C366" s="24"/>
+      <c r="D366" s="24"/>
+      <c r="E366" s="24"/>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="23"/>
+      <c r="B367" s="25"/>
+      <c r="C367" s="24"/>
+      <c r="D367" s="24"/>
+      <c r="E367" s="24"/>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="23"/>
+      <c r="B368" s="25"/>
+      <c r="C368" s="24"/>
+      <c r="D368" s="24"/>
+      <c r="E368" s="24"/>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="23"/>
+      <c r="B369" s="25"/>
+      <c r="C369" s="24"/>
+      <c r="D369" s="24"/>
+      <c r="E369" s="24"/>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="23"/>
+      <c r="B370" s="25"/>
+      <c r="C370" s="24"/>
+      <c r="D370" s="24"/>
+      <c r="E370" s="24"/>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="23"/>
+      <c r="B371" s="25"/>
+      <c r="C371" s="24"/>
+      <c r="D371" s="24"/>
+      <c r="E371" s="24"/>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="23"/>
+      <c r="B372" s="25"/>
+      <c r="C372" s="24"/>
+      <c r="D372" s="24"/>
+      <c r="E372" s="24"/>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="23"/>
+      <c r="B373" s="25"/>
+      <c r="C373" s="24"/>
+      <c r="D373" s="24"/>
+      <c r="E373" s="24"/>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="23"/>
+      <c r="B374" s="25"/>
+      <c r="C374" s="24"/>
+      <c r="D374" s="24"/>
+      <c r="E374" s="24"/>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="23"/>
+      <c r="B375" s="25"/>
+      <c r="C375" s="24"/>
+      <c r="D375" s="24"/>
+      <c r="E375" s="24"/>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="23"/>
+      <c r="B376" s="25"/>
+      <c r="C376" s="24"/>
+      <c r="D376" s="24"/>
+      <c r="E376" s="24"/>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="23"/>
+      <c r="B377" s="25"/>
+      <c r="C377" s="24"/>
+      <c r="D377" s="24"/>
+      <c r="E377" s="24"/>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="23"/>
+      <c r="B378" s="25"/>
+      <c r="C378" s="24"/>
+      <c r="D378" s="24"/>
+      <c r="E378" s="24"/>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="23"/>
+      <c r="B379" s="25"/>
+      <c r="C379" s="24"/>
+      <c r="D379" s="24"/>
+      <c r="E379" s="24"/>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="23"/>
+      <c r="B380" s="25"/>
+      <c r="C380" s="24"/>
+      <c r="D380" s="24"/>
+      <c r="E380" s="24"/>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="23"/>
+      <c r="B381" s="25"/>
+      <c r="C381" s="24"/>
+      <c r="D381" s="24"/>
+      <c r="E381" s="24"/>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="23"/>
+      <c r="B382" s="25"/>
+      <c r="C382" s="24"/>
+      <c r="D382" s="24"/>
+      <c r="E382" s="24"/>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="23"/>
+      <c r="B383" s="25"/>
+      <c r="C383" s="24"/>
+      <c r="D383" s="24"/>
+      <c r="E383" s="24"/>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="23"/>
+      <c r="B384" s="25"/>
+      <c r="C384" s="24"/>
+      <c r="D384" s="24"/>
+      <c r="E384" s="24"/>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="23"/>
+      <c r="B385" s="25"/>
+      <c r="C385" s="24"/>
+      <c r="D385" s="24"/>
+      <c r="E385" s="24"/>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="23"/>
+      <c r="B386" s="25"/>
+      <c r="C386" s="24"/>
+      <c r="D386" s="24"/>
+      <c r="E386" s="24"/>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="23"/>
+      <c r="B387" s="25"/>
+      <c r="C387" s="24"/>
+      <c r="D387" s="24"/>
+      <c r="E387" s="24"/>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="23"/>
+      <c r="B388" s="25"/>
+      <c r="C388" s="24"/>
+      <c r="D388" s="24"/>
+      <c r="E388" s="24"/>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="23"/>
+      <c r="B389" s="25"/>
+      <c r="C389" s="24"/>
+      <c r="D389" s="24"/>
+      <c r="E389" s="24"/>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="23"/>
+      <c r="B390" s="25"/>
+      <c r="C390" s="24"/>
+      <c r="D390" s="24"/>
+      <c r="E390" s="24"/>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="23"/>
+      <c r="B391" s="25"/>
+      <c r="C391" s="24"/>
+      <c r="D391" s="24"/>
+      <c r="E391" s="24"/>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="23"/>
+      <c r="B392" s="25"/>
+      <c r="C392" s="24"/>
+      <c r="D392" s="24"/>
+      <c r="E392" s="24"/>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="23"/>
+      <c r="B393" s="25"/>
+      <c r="C393" s="24"/>
+      <c r="D393" s="24"/>
+      <c r="E393" s="24"/>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="23"/>
+      <c r="B394" s="25"/>
+      <c r="C394" s="24"/>
+      <c r="D394" s="24"/>
+      <c r="E394" s="24"/>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="23"/>
+      <c r="B395" s="25"/>
+      <c r="C395" s="24"/>
+      <c r="D395" s="24"/>
+      <c r="E395" s="24"/>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="23"/>
+      <c r="B396" s="25"/>
+      <c r="C396" s="24"/>
+      <c r="D396" s="24"/>
+      <c r="E396" s="24"/>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="23"/>
+      <c r="B397" s="25"/>
+      <c r="C397" s="24"/>
+      <c r="D397" s="24"/>
+      <c r="E397" s="24"/>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="23"/>
+      <c r="B398" s="25"/>
+      <c r="C398" s="24"/>
+      <c r="D398" s="24"/>
+      <c r="E398" s="24"/>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="23"/>
+      <c r="B399" s="25"/>
+      <c r="C399" s="24"/>
+      <c r="D399" s="24"/>
+      <c r="E399" s="24"/>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="23"/>
+      <c r="B400" s="25"/>
+      <c r="C400" s="24"/>
+      <c r="D400" s="24"/>
+      <c r="E400" s="24"/>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" s="23"/>
+      <c r="B401" s="25"/>
+      <c r="C401" s="24"/>
+      <c r="D401" s="24"/>
+      <c r="E401" s="24"/>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="23"/>
+      <c r="B402" s="25"/>
+      <c r="C402" s="24"/>
+      <c r="D402" s="24"/>
+      <c r="E402" s="24"/>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="23"/>
+      <c r="B403" s="25"/>
+      <c r="C403" s="24"/>
+      <c r="D403" s="24"/>
+      <c r="E403" s="24"/>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" s="23"/>
+      <c r="B404" s="25"/>
+      <c r="C404" s="24"/>
+      <c r="D404" s="24"/>
+      <c r="E404" s="24"/>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" s="23"/>
+      <c r="B405" s="25"/>
+      <c r="C405" s="24"/>
+      <c r="D405" s="24"/>
+      <c r="E405" s="24"/>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="23"/>
+      <c r="B406" s="25"/>
+      <c r="C406" s="24"/>
+      <c r="D406" s="24"/>
+      <c r="E406" s="24"/>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" s="23"/>
+      <c r="B407" s="25"/>
+      <c r="C407" s="24"/>
+      <c r="D407" s="24"/>
+      <c r="E407" s="24"/>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="23"/>
+      <c r="B408" s="25"/>
+      <c r="C408" s="24"/>
+      <c r="D408" s="24"/>
+      <c r="E408" s="24"/>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" s="23"/>
+      <c r="B409" s="25"/>
+      <c r="C409" s="24"/>
+      <c r="D409" s="24"/>
+      <c r="E409" s="24"/>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" s="23"/>
+      <c r="B410" s="25"/>
+      <c r="C410" s="24"/>
+      <c r="D410" s="24"/>
+      <c r="E410" s="24"/>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="23"/>
+      <c r="B411" s="25"/>
+      <c r="C411" s="24"/>
+      <c r="D411" s="24"/>
+      <c r="E411" s="24"/>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="23"/>
+      <c r="B412" s="25"/>
+      <c r="C412" s="24"/>
+      <c r="D412" s="24"/>
+      <c r="E412" s="24"/>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" s="23"/>
+      <c r="B413" s="25"/>
+      <c r="C413" s="24"/>
+      <c r="D413" s="24"/>
+      <c r="E413" s="24"/>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="23"/>
+      <c r="B414" s="25"/>
+      <c r="C414" s="24"/>
+      <c r="D414" s="24"/>
+      <c r="E414" s="24"/>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="23"/>
+      <c r="B415" s="25"/>
+      <c r="C415" s="24"/>
+      <c r="D415" s="24"/>
+      <c r="E415" s="24"/>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="23"/>
+      <c r="B416" s="25"/>
+      <c r="C416" s="24"/>
+      <c r="D416" s="24"/>
+      <c r="E416" s="24"/>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" s="23"/>
+      <c r="B417" s="25"/>
+      <c r="C417" s="24"/>
+      <c r="D417" s="24"/>
+      <c r="E417" s="24"/>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" s="23"/>
+      <c r="B418" s="25"/>
+      <c r="C418" s="24"/>
+      <c r="D418" s="24"/>
+      <c r="E418" s="24"/>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" s="23"/>
+      <c r="B419" s="25"/>
+      <c r="C419" s="24"/>
+      <c r="D419" s="24"/>
+      <c r="E419" s="24"/>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" s="23"/>
+      <c r="B420" s="25"/>
+      <c r="C420" s="24"/>
+      <c r="D420" s="24"/>
+      <c r="E420" s="24"/>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" s="23"/>
+      <c r="B421" s="25"/>
+      <c r="C421" s="24"/>
+      <c r="D421" s="24"/>
+      <c r="E421" s="24"/>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="23"/>
+      <c r="B422" s="25"/>
+      <c r="C422" s="24"/>
+      <c r="D422" s="24"/>
+      <c r="E422" s="24"/>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="23"/>
+      <c r="B423" s="25"/>
+      <c r="C423" s="24"/>
+      <c r="D423" s="24"/>
+      <c r="E423" s="24"/>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" s="23"/>
+      <c r="B424" s="25"/>
+      <c r="C424" s="24"/>
+      <c r="D424" s="24"/>
+      <c r="E424" s="24"/>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" s="23"/>
+      <c r="B425" s="25"/>
+      <c r="C425" s="24"/>
+      <c r="D425" s="24"/>
+      <c r="E425" s="24"/>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" s="23"/>
+      <c r="B426" s="25"/>
+      <c r="C426" s="24"/>
+      <c r="D426" s="24"/>
+      <c r="E426" s="24"/>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" s="23"/>
+      <c r="B427" s="25"/>
+      <c r="C427" s="24"/>
+      <c r="D427" s="24"/>
+      <c r="E427" s="24"/>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" s="23"/>
+      <c r="B428" s="25"/>
+      <c r="C428" s="24"/>
+      <c r="D428" s="24"/>
+      <c r="E428" s="24"/>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" s="23"/>
+      <c r="B429" s="25"/>
+      <c r="C429" s="24"/>
+      <c r="D429" s="24"/>
+      <c r="E429" s="24"/>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" s="23"/>
+      <c r="B430" s="25"/>
+      <c r="C430" s="24"/>
+      <c r="D430" s="24"/>
+      <c r="E430" s="24"/>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" s="23"/>
+      <c r="B431" s="25"/>
+      <c r="C431" s="24"/>
+      <c r="D431" s="24"/>
+      <c r="E431" s="24"/>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" s="23"/>
+      <c r="B432" s="25"/>
+      <c r="C432" s="24"/>
+      <c r="D432" s="24"/>
+      <c r="E432" s="24"/>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" s="23"/>
+      <c r="B433" s="25"/>
+      <c r="C433" s="24"/>
+      <c r="D433" s="24"/>
+      <c r="E433" s="24"/>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" s="23"/>
+      <c r="B434" s="25"/>
+      <c r="C434" s="24"/>
+      <c r="D434" s="24"/>
+      <c r="E434" s="24"/>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" s="23"/>
+      <c r="B435" s="25"/>
+      <c r="C435" s="24"/>
+      <c r="D435" s="24"/>
+      <c r="E435" s="24"/>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" s="23"/>
+      <c r="B436" s="25"/>
+      <c r="C436" s="24"/>
+      <c r="D436" s="24"/>
+      <c r="E436" s="24"/>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" s="23"/>
+      <c r="B437" s="25"/>
+      <c r="C437" s="24"/>
+      <c r="D437" s="24"/>
+      <c r="E437" s="24"/>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" s="23"/>
+      <c r="B438" s="25"/>
+      <c r="C438" s="24"/>
+      <c r="D438" s="24"/>
+      <c r="E438" s="24"/>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" s="23"/>
+      <c r="B439" s="25"/>
+      <c r="C439" s="24"/>
+      <c r="D439" s="24"/>
+      <c r="E439" s="24"/>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" s="23"/>
+      <c r="B440" s="25"/>
+      <c r="C440" s="24"/>
+      <c r="D440" s="24"/>
+      <c r="E440" s="24"/>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" s="23"/>
+      <c r="B441" s="25"/>
+      <c r="C441" s="24"/>
+      <c r="D441" s="24"/>
+      <c r="E441" s="24"/>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" s="23"/>
+      <c r="B442" s="25"/>
+      <c r="C442" s="24"/>
+      <c r="D442" s="24"/>
+      <c r="E442" s="24"/>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" s="23"/>
+      <c r="B443" s="25"/>
+      <c r="C443" s="24"/>
+      <c r="D443" s="24"/>
+      <c r="E443" s="24"/>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" s="23"/>
+      <c r="B444" s="25"/>
+      <c r="C444" s="24"/>
+      <c r="D444" s="24"/>
+      <c r="E444" s="24"/>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" s="23"/>
+      <c r="B445" s="25"/>
+      <c r="C445" s="24"/>
+      <c r="D445" s="24"/>
+      <c r="E445" s="24"/>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" s="23"/>
+      <c r="B446" s="25"/>
+      <c r="C446" s="24"/>
+      <c r="D446" s="24"/>
+      <c r="E446" s="24"/>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" s="23"/>
+      <c r="B447" s="25"/>
+      <c r="C447" s="24"/>
+      <c r="D447" s="24"/>
+      <c r="E447" s="24"/>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" s="23"/>
+      <c r="B448" s="25"/>
+      <c r="C448" s="24"/>
+      <c r="D448" s="24"/>
+      <c r="E448" s="24"/>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" s="23"/>
+      <c r="B449" s="25"/>
+      <c r="C449" s="24"/>
+      <c r="D449" s="24"/>
+      <c r="E449" s="24"/>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450" s="23"/>
+      <c r="B450" s="25"/>
+      <c r="C450" s="24"/>
+      <c r="D450" s="24"/>
+      <c r="E450" s="24"/>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" s="23"/>
+      <c r="B451" s="25"/>
+      <c r="C451" s="24"/>
+      <c r="D451" s="24"/>
+      <c r="E451" s="24"/>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" s="23"/>
+      <c r="B452" s="25"/>
+      <c r="C452" s="24"/>
+      <c r="D452" s="24"/>
+      <c r="E452" s="24"/>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" s="23"/>
+      <c r="B453" s="25"/>
+      <c r="C453" s="24"/>
+      <c r="D453" s="24"/>
+      <c r="E453" s="24"/>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" s="23"/>
+      <c r="B454" s="25"/>
+      <c r="C454" s="24"/>
+      <c r="D454" s="24"/>
+      <c r="E454" s="24"/>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" s="23"/>
+      <c r="B455" s="25"/>
+      <c r="C455" s="24"/>
+      <c r="D455" s="24"/>
+      <c r="E455" s="24"/>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456" s="23"/>
+      <c r="B456" s="25"/>
+      <c r="C456" s="24"/>
+      <c r="D456" s="24"/>
+      <c r="E456" s="24"/>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" s="23"/>
+      <c r="B457" s="25"/>
+      <c r="C457" s="24"/>
+      <c r="D457" s="24"/>
+      <c r="E457" s="24"/>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="A458" s="23"/>
+      <c r="B458" s="25"/>
+      <c r="C458" s="24"/>
+      <c r="D458" s="24"/>
+      <c r="E458" s="24"/>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459" s="23"/>
+      <c r="B459" s="25"/>
+      <c r="C459" s="24"/>
+      <c r="D459" s="24"/>
+      <c r="E459" s="24"/>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" s="23"/>
+      <c r="B460" s="25"/>
+      <c r="C460" s="24"/>
+      <c r="D460" s="24"/>
+      <c r="E460" s="24"/>
+    </row>
+    <row r="461" spans="1:5">
+      <c r="A461" s="23"/>
+      <c r="B461" s="25"/>
+      <c r="C461" s="24"/>
+      <c r="D461" s="24"/>
+      <c r="E461" s="24"/>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="A462" s="23"/>
+      <c r="B462" s="25"/>
+      <c r="C462" s="24"/>
+      <c r="D462" s="24"/>
+      <c r="E462" s="24"/>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="A463" s="23"/>
+      <c r="B463" s="25"/>
+      <c r="C463" s="24"/>
+      <c r="D463" s="24"/>
+      <c r="E463" s="24"/>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" s="23"/>
+      <c r="B464" s="25"/>
+      <c r="C464" s="24"/>
+      <c r="D464" s="24"/>
+      <c r="E464" s="24"/>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="A465" s="23"/>
+      <c r="B465" s="25"/>
+      <c r="C465" s="24"/>
+      <c r="D465" s="24"/>
+      <c r="E465" s="24"/>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="A466" s="23"/>
+      <c r="B466" s="25"/>
+      <c r="C466" s="24"/>
+      <c r="D466" s="24"/>
+      <c r="E466" s="24"/>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" s="23"/>
+      <c r="B467" s="25"/>
+      <c r="C467" s="24"/>
+      <c r="D467" s="24"/>
+      <c r="E467" s="24"/>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" s="23"/>
+      <c r="B468" s="25"/>
+      <c r="C468" s="24"/>
+      <c r="D468" s="24"/>
+      <c r="E468" s="24"/>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469" s="23"/>
+      <c r="B469" s="25"/>
+      <c r="C469" s="24"/>
+      <c r="D469" s="24"/>
+      <c r="E469" s="24"/>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="A470" s="23"/>
+      <c r="B470" s="25"/>
+      <c r="C470" s="24"/>
+      <c r="D470" s="24"/>
+      <c r="E470" s="24"/>
+    </row>
+    <row r="471" spans="1:5">
+      <c r="A471" s="23"/>
+      <c r="B471" s="25"/>
+      <c r="C471" s="24"/>
+      <c r="D471" s="24"/>
+      <c r="E471" s="24"/>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" s="23"/>
+      <c r="B472" s="25"/>
+      <c r="C472" s="24"/>
+      <c r="D472" s="24"/>
+      <c r="E472" s="24"/>
+    </row>
+    <row r="473" spans="1:5">
+      <c r="A473" s="23"/>
+      <c r="B473" s="25"/>
+      <c r="C473" s="24"/>
+      <c r="D473" s="24"/>
+      <c r="E473" s="24"/>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474" s="23"/>
+      <c r="B474" s="25"/>
+      <c r="C474" s="24"/>
+      <c r="D474" s="24"/>
+      <c r="E474" s="24"/>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" s="23"/>
+      <c r="B475" s="25"/>
+      <c r="C475" s="24"/>
+      <c r="D475" s="24"/>
+      <c r="E475" s="24"/>
+    </row>
+    <row r="476" spans="1:5">
+      <c r="A476" s="23"/>
+      <c r="B476" s="25"/>
+      <c r="C476" s="24"/>
+      <c r="D476" s="24"/>
+      <c r="E476" s="24"/>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="A477" s="23"/>
+      <c r="B477" s="25"/>
+      <c r="C477" s="24"/>
+      <c r="D477" s="24"/>
+      <c r="E477" s="24"/>
+    </row>
+    <row r="478" spans="1:5">
+      <c r="A478" s="23"/>
+      <c r="B478" s="25"/>
+      <c r="C478" s="24"/>
+      <c r="D478" s="24"/>
+      <c r="E478" s="24"/>
+    </row>
+    <row r="479" spans="1:5">
+      <c r="A479" s="23"/>
+      <c r="B479" s="25"/>
+      <c r="C479" s="24"/>
+      <c r="D479" s="24"/>
+      <c r="E479" s="24"/>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="A480" s="23"/>
+      <c r="B480" s="25"/>
+      <c r="C480" s="24"/>
+      <c r="D480" s="24"/>
+      <c r="E480" s="24"/>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="A481" s="23"/>
+      <c r="B481" s="25"/>
+      <c r="C481" s="24"/>
+      <c r="D481" s="24"/>
+      <c r="E481" s="24"/>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="A482" s="23"/>
+      <c r="B482" s="25"/>
+      <c r="C482" s="24"/>
+      <c r="D482" s="24"/>
+      <c r="E482" s="24"/>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483" s="23"/>
+      <c r="B483" s="25"/>
+      <c r="C483" s="24"/>
+      <c r="D483" s="24"/>
+      <c r="E483" s="24"/>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484" s="23"/>
+      <c r="B484" s="25"/>
+      <c r="C484" s="24"/>
+      <c r="D484" s="24"/>
+      <c r="E484" s="24"/>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="A485" s="23"/>
+      <c r="B485" s="25"/>
+      <c r="C485" s="24"/>
+      <c r="D485" s="24"/>
+      <c r="E485" s="24"/>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="A486" s="23"/>
+      <c r="B486" s="25"/>
+      <c r="C486" s="24"/>
+      <c r="D486" s="24"/>
+      <c r="E486" s="24"/>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="A487" s="23"/>
+      <c r="B487" s="25"/>
+      <c r="C487" s="24"/>
+      <c r="D487" s="24"/>
+      <c r="E487" s="24"/>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="A488" s="23"/>
+      <c r="B488" s="25"/>
+      <c r="C488" s="24"/>
+      <c r="D488" s="24"/>
+      <c r="E488" s="24"/>
+    </row>
+    <row r="489" spans="1:5">
+      <c r="A489" s="23"/>
+      <c r="B489" s="25"/>
+      <c r="C489" s="24"/>
+      <c r="D489" s="24"/>
+      <c r="E489" s="24"/>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="A490" s="23"/>
+      <c r="B490" s="25"/>
+      <c r="C490" s="24"/>
+      <c r="D490" s="24"/>
+      <c r="E490" s="24"/>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="A491" s="23"/>
+      <c r="B491" s="25"/>
+      <c r="C491" s="24"/>
+      <c r="D491" s="24"/>
+      <c r="E491" s="24"/>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="A492" s="23"/>
+      <c r="B492" s="25"/>
+      <c r="C492" s="24"/>
+      <c r="D492" s="24"/>
+      <c r="E492" s="24"/>
+    </row>
+    <row r="493" spans="1:5">
+      <c r="A493" s="23"/>
+      <c r="B493" s="25"/>
+      <c r="C493" s="24"/>
+      <c r="D493" s="24"/>
+      <c r="E493" s="24"/>
+    </row>
+    <row r="494" spans="1:5">
+      <c r="A494" s="23"/>
+      <c r="B494" s="25"/>
+      <c r="C494" s="24"/>
+      <c r="D494" s="24"/>
+      <c r="E494" s="24"/>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="A495" s="23"/>
+      <c r="B495" s="25"/>
+      <c r="C495" s="24"/>
+      <c r="D495" s="24"/>
+      <c r="E495" s="24"/>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496" s="23"/>
+      <c r="B496" s="25"/>
+      <c r="C496" s="24"/>
+      <c r="D496" s="24"/>
+      <c r="E496" s="24"/>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497" s="23"/>
+      <c r="B497" s="25"/>
+      <c r="C497" s="24"/>
+      <c r="D497" s="24"/>
+      <c r="E497" s="24"/>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498" s="23"/>
+      <c r="B498" s="25"/>
+      <c r="C498" s="24"/>
+      <c r="D498" s="24"/>
+      <c r="E498" s="24"/>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="A499" s="23"/>
+      <c r="B499" s="25"/>
+      <c r="C499" s="24"/>
+      <c r="D499" s="24"/>
+      <c r="E499" s="24"/>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" s="23"/>
+      <c r="B500" s="25"/>
+      <c r="C500" s="24"/>
+      <c r="D500" s="24"/>
+      <c r="E500" s="24"/>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501" s="23"/>
+      <c r="B501" s="25"/>
+      <c r="C501" s="24"/>
+      <c r="D501" s="24"/>
+      <c r="E501" s="24"/>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="A502" s="23"/>
+      <c r="B502" s="25"/>
+      <c r="C502" s="24"/>
+      <c r="D502" s="24"/>
+      <c r="E502" s="24"/>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="A503" s="23"/>
+      <c r="B503" s="25"/>
+      <c r="C503" s="24"/>
+      <c r="D503" s="24"/>
+      <c r="E503" s="24"/>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="A504" s="23"/>
+      <c r="B504" s="25"/>
+      <c r="C504" s="24"/>
+      <c r="D504" s="24"/>
+      <c r="E504" s="24"/>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="A505" s="23"/>
+      <c r="B505" s="25"/>
+      <c r="C505" s="24"/>
+      <c r="D505" s="24"/>
+      <c r="E505" s="24"/>
+    </row>
+    <row r="506" spans="1:5">
+      <c r="A506" s="23"/>
+      <c r="B506" s="25"/>
+      <c r="C506" s="24"/>
+      <c r="D506" s="24"/>
+      <c r="E506" s="24"/>
+    </row>
+    <row r="507" spans="1:5">
+      <c r="A507" s="23"/>
+      <c r="B507" s="25"/>
+      <c r="C507" s="24"/>
+      <c r="D507" s="24"/>
+      <c r="E507" s="24"/>
+    </row>
+    <row r="508" spans="1:5">
+      <c r="A508" s="23"/>
+      <c r="B508" s="25"/>
+      <c r="C508" s="24"/>
+      <c r="D508" s="24"/>
+      <c r="E508" s="24"/>
+    </row>
+    <row r="509" spans="1:5">
+      <c r="A509" s="23"/>
+      <c r="B509" s="25"/>
+      <c r="C509" s="24"/>
+      <c r="D509" s="24"/>
+      <c r="E509" s="24"/>
+    </row>
+    <row r="510" spans="1:5">
+      <c r="A510" s="23"/>
+      <c r="B510" s="25"/>
+      <c r="C510" s="24"/>
+      <c r="D510" s="24"/>
+      <c r="E510" s="24"/>
+    </row>
+    <row r="511" spans="1:5">
+      <c r="A511" s="23"/>
+      <c r="B511" s="25"/>
+      <c r="C511" s="24"/>
+      <c r="D511" s="24"/>
+      <c r="E511" s="24"/>
+    </row>
+    <row r="512" spans="1:5">
+      <c r="A512" s="23"/>
+      <c r="B512" s="25"/>
+      <c r="C512" s="24"/>
+      <c r="D512" s="24"/>
+      <c r="E512" s="24"/>
+    </row>
+    <row r="513" spans="1:5">
+      <c r="A513" s="23"/>
+      <c r="B513" s="25"/>
+      <c r="C513" s="24"/>
+      <c r="D513" s="24"/>
+      <c r="E513" s="24"/>
+    </row>
+    <row r="514" spans="1:5">
+      <c r="A514" s="23"/>
+      <c r="B514" s="25"/>
+      <c r="C514" s="24"/>
+      <c r="D514" s="24"/>
+      <c r="E514" s="24"/>
+    </row>
+    <row r="515" spans="1:5">
+      <c r="A515" s="23"/>
+      <c r="B515" s="25"/>
+      <c r="C515" s="24"/>
+      <c r="D515" s="24"/>
+      <c r="E515" s="24"/>
+    </row>
+    <row r="516" spans="1:5">
+      <c r="A516" s="23"/>
+      <c r="B516" s="25"/>
+      <c r="C516" s="24"/>
+      <c r="D516" s="24"/>
+      <c r="E516" s="24"/>
+    </row>
+    <row r="517" spans="1:5">
+      <c r="A517" s="23"/>
+      <c r="B517" s="25"/>
+      <c r="C517" s="24"/>
+      <c r="D517" s="24"/>
+      <c r="E517" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="j7hY/oNBIjWVtIoQ64yBMLLsvn05JR8b1qTvgkOsoP0BIlupWGJsItClLnh8dCYPB8w1PtPkFItdzF4xxgaYmA==" saltValue="gMZWMdRS8OGkharZFsllFQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LvltBSTtFo61oDDcHJJU1Wqq9594Dpdp0vPncPXg2+96oD6/uq6Da9r9d49csjt7QYewWaYMU6yNHLIrMIEvuw==" saltValue="Nb+wXOKbu3IHjth4V9SMxw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{0C13EE4D-7CE1-4AA1-8E50-FA0088A2A213}">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="L17" sqref="L17"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -4005,7 +5537,7 @@
       <formula>C8="Your Name Here!"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:I111 J19:J20">
+  <conditionalFormatting sqref="J19:J20 A10:I517">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C$8="Your Name Here!"</formula>
     </cfRule>
@@ -4034,265 +5566,265 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="G1" s="29"/>
-      <c r="H1" s="30">
+      <c r="G1" s="27"/>
+      <c r="H1" s="28">
         <v>1</v>
       </c>
-      <c r="I1" s="30">
+      <c r="I1" s="28">
         <v>2</v>
       </c>
-      <c r="J1" s="30">
+      <c r="J1" s="28">
         <v>3</v>
       </c>
-      <c r="K1" s="30">
+      <c r="K1" s="28">
         <v>4</v>
       </c>
-      <c r="L1" s="30">
+      <c r="L1" s="28">
         <v>5</v>
       </c>
-      <c r="M1" s="30">
+      <c r="M1" s="28">
         <v>6</v>
       </c>
-      <c r="N1" s="30">
+      <c r="N1" s="28">
         <v>7</v>
       </c>
-      <c r="O1" s="30">
+      <c r="O1" s="28">
         <v>8</v>
       </c>
-      <c r="P1" s="30">
+      <c r="P1" s="28">
         <v>9</v>
       </c>
-      <c r="Q1" s="30">
+      <c r="Q1" s="28">
         <v>10</v>
       </c>
-      <c r="R1" s="30">
+      <c r="R1" s="28">
         <v>11</v>
       </c>
-      <c r="S1" s="30">
+      <c r="S1" s="28">
         <v>12</v>
       </c>
-      <c r="T1" s="30">
+      <c r="T1" s="28">
         <v>13</v>
       </c>
-      <c r="U1" s="30">
+      <c r="U1" s="28">
         <v>14</v>
       </c>
-      <c r="V1" s="30">
+      <c r="V1" s="28">
         <v>15</v>
       </c>
-      <c r="W1" s="31">
+      <c r="W1" s="29">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:23">
-      <c r="G2" s="32">
+      <c r="G2" s="30">
         <v>1</v>
       </c>
-      <c r="H2" s="33">
+      <c r="H2" s="31">
         <v>2</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="31">
         <v>3</v>
       </c>
-      <c r="J2" s="33">
+      <c r="J2" s="31">
         <v>5</v>
       </c>
-      <c r="K2" s="33">
+      <c r="K2" s="31">
         <v>7</v>
       </c>
-      <c r="L2" s="33">
+      <c r="L2" s="31">
         <v>11</v>
       </c>
-      <c r="M2" s="33">
+      <c r="M2" s="31">
         <v>13</v>
       </c>
-      <c r="N2" s="33">
+      <c r="N2" s="31">
         <v>17</v>
       </c>
-      <c r="O2" s="33">
+      <c r="O2" s="31">
         <v>19</v>
       </c>
-      <c r="P2" s="33">
+      <c r="P2" s="31">
         <v>23</v>
       </c>
-      <c r="Q2" s="33">
+      <c r="Q2" s="31">
         <v>29</v>
       </c>
-      <c r="R2" s="33">
+      <c r="R2" s="31">
         <v>947</v>
       </c>
-      <c r="S2" s="33">
+      <c r="S2" s="31">
         <v>953</v>
       </c>
-      <c r="T2" s="33">
+      <c r="T2" s="31">
         <v>967</v>
       </c>
-      <c r="U2" s="33">
+      <c r="U2" s="31">
         <v>971</v>
       </c>
-      <c r="V2" s="33">
+      <c r="V2" s="31">
         <v>977</v>
       </c>
-      <c r="W2" s="34">
+      <c r="W2" s="32">
         <v>983</v>
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="G3" s="32">
+      <c r="G3" s="30">
         <v>2</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="31">
         <v>31</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="31">
         <v>37</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="31">
         <v>41</v>
       </c>
-      <c r="K3" s="33">
+      <c r="K3" s="31">
         <v>43</v>
       </c>
-      <c r="L3" s="33">
+      <c r="L3" s="31">
         <v>47</v>
       </c>
-      <c r="M3" s="33">
+      <c r="M3" s="31">
         <v>53</v>
       </c>
-      <c r="N3" s="33">
+      <c r="N3" s="31">
         <v>59</v>
       </c>
-      <c r="O3" s="33">
+      <c r="O3" s="31">
         <v>61</v>
       </c>
-      <c r="P3" s="33">
+      <c r="P3" s="31">
         <v>67</v>
       </c>
-      <c r="Q3" s="33">
+      <c r="Q3" s="31">
         <v>71</v>
       </c>
-      <c r="R3" s="33">
+      <c r="R3" s="31">
         <v>991</v>
       </c>
-      <c r="S3" s="33">
+      <c r="S3" s="31">
         <v>997</v>
       </c>
-      <c r="T3" s="33">
+      <c r="T3" s="31">
         <v>1009</v>
       </c>
-      <c r="U3" s="33">
+      <c r="U3" s="31">
         <v>1013</v>
       </c>
-      <c r="V3" s="33">
+      <c r="V3" s="31">
         <v>1019</v>
       </c>
-      <c r="W3" s="34">
+      <c r="W3" s="32">
         <v>1021</v>
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="G4" s="32">
+      <c r="G4" s="30">
         <v>3</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="31">
         <v>73</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="31">
         <v>79</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="31">
         <v>83</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="31">
         <v>89</v>
       </c>
-      <c r="L4" s="33">
+      <c r="L4" s="31">
         <v>97</v>
       </c>
-      <c r="M4" s="33">
+      <c r="M4" s="31">
         <v>101</v>
       </c>
-      <c r="N4" s="33">
+      <c r="N4" s="31">
         <v>103</v>
       </c>
-      <c r="O4" s="33">
+      <c r="O4" s="31">
         <v>107</v>
       </c>
-      <c r="P4" s="33">
+      <c r="P4" s="31">
         <v>109</v>
       </c>
-      <c r="Q4" s="33">
+      <c r="Q4" s="31">
         <v>113</v>
       </c>
-      <c r="R4" s="33">
+      <c r="R4" s="31">
         <v>1031</v>
       </c>
-      <c r="S4" s="33">
+      <c r="S4" s="31">
         <v>1033</v>
       </c>
-      <c r="T4" s="33">
+      <c r="T4" s="31">
         <v>1039</v>
       </c>
-      <c r="U4" s="33">
+      <c r="U4" s="31">
         <v>1049</v>
       </c>
-      <c r="V4" s="33">
+      <c r="V4" s="31">
         <v>1051</v>
       </c>
-      <c r="W4" s="34">
+      <c r="W4" s="32">
         <v>1061</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" thickBot="1">
-      <c r="G5" s="32">
+      <c r="G5" s="30">
         <v>4</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="31">
         <v>127</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="31">
         <v>131</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="31">
         <v>137</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="31">
         <v>139</v>
       </c>
-      <c r="L5" s="33">
+      <c r="L5" s="31">
         <v>149</v>
       </c>
-      <c r="M5" s="33">
+      <c r="M5" s="31">
         <v>151</v>
       </c>
-      <c r="N5" s="33">
+      <c r="N5" s="31">
         <v>157</v>
       </c>
-      <c r="O5" s="33">
+      <c r="O5" s="31">
         <v>163</v>
       </c>
-      <c r="P5" s="33">
+      <c r="P5" s="31">
         <v>167</v>
       </c>
-      <c r="Q5" s="33">
+      <c r="Q5" s="31">
         <v>173</v>
       </c>
-      <c r="R5" s="33">
+      <c r="R5" s="31">
         <v>1993</v>
       </c>
-      <c r="S5" s="33">
+      <c r="S5" s="31">
         <v>1997</v>
       </c>
-      <c r="T5" s="33">
+      <c r="T5" s="31">
         <v>1999</v>
       </c>
-      <c r="U5" s="33">
+      <c r="U5" s="31">
         <v>2003</v>
       </c>
-      <c r="V5" s="33">
+      <c r="V5" s="31">
         <v>2011</v>
       </c>
-      <c r="W5" s="34">
+      <c r="W5" s="32">
         <v>2017</v>
       </c>
     </row>
@@ -4300,71 +5832,71 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="27">
         <f>CODE(MID(PayoffCC!C$8,A6,1))</f>
         <v>89</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="28">
         <f>MOD(B6,16)</f>
         <v>9</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="28">
         <f>MOD((B6-C6)/16,16)</f>
         <v>5</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="29">
         <f ca="1">INDIRECT("R"&amp;(C6+1)&amp;"C"&amp;(D6+7),0)</f>
         <v>439</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="30">
         <v>5</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="31">
         <v>179</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="31">
         <v>181</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="31">
         <v>191</v>
       </c>
-      <c r="K6" s="33">
+      <c r="K6" s="31">
         <v>193</v>
       </c>
-      <c r="L6" s="33">
+      <c r="L6" s="31">
         <v>197</v>
       </c>
-      <c r="M6" s="33">
+      <c r="M6" s="31">
         <v>199</v>
       </c>
-      <c r="N6" s="33">
+      <c r="N6" s="31">
         <v>211</v>
       </c>
-      <c r="O6" s="33">
+      <c r="O6" s="31">
         <v>223</v>
       </c>
-      <c r="P6" s="33">
+      <c r="P6" s="31">
         <v>227</v>
       </c>
-      <c r="Q6" s="33">
+      <c r="Q6" s="31">
         <v>229</v>
       </c>
-      <c r="R6" s="33">
+      <c r="R6" s="31">
         <v>2063</v>
       </c>
-      <c r="S6" s="33">
+      <c r="S6" s="31">
         <v>2069</v>
       </c>
-      <c r="T6" s="33">
+      <c r="T6" s="31">
         <v>2081</v>
       </c>
-      <c r="U6" s="33">
+      <c r="U6" s="31">
         <v>2083</v>
       </c>
-      <c r="V6" s="33">
+      <c r="V6" s="31">
         <v>2087</v>
       </c>
-      <c r="W6" s="34">
+      <c r="W6" s="32">
         <v>2089</v>
       </c>
     </row>
@@ -4372,71 +5904,71 @@
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="30">
         <f>CODE(MID(PayoffCC!C$8,A7,1))</f>
         <v>111</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="31">
         <f t="shared" ref="C7:C10" si="0">MOD(B7,16)</f>
         <v>15</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="31">
         <f t="shared" ref="D7:D10" si="1">MOD((B7-C7)/16,16)</f>
         <v>6</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="32">
         <f t="shared" ref="E7:E10" ca="1" si="2">INDIRECT("R"&amp;(C7+1)&amp;"C"&amp;(D7+7),0)</f>
         <v>839</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="30">
         <v>6</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="31">
         <v>233</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="31">
         <v>239</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="31">
         <v>241</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="31">
         <v>251</v>
       </c>
-      <c r="L7" s="33">
+      <c r="L7" s="31">
         <v>257</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="31">
         <v>263</v>
       </c>
-      <c r="N7" s="33">
+      <c r="N7" s="31">
         <v>269</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="31">
         <v>271</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="31">
         <v>277</v>
       </c>
-      <c r="Q7" s="33">
+      <c r="Q7" s="31">
         <v>281</v>
       </c>
-      <c r="R7" s="33">
+      <c r="R7" s="31">
         <v>2131</v>
       </c>
-      <c r="S7" s="33">
+      <c r="S7" s="31">
         <v>2137</v>
       </c>
-      <c r="T7" s="33">
+      <c r="T7" s="31">
         <v>2141</v>
       </c>
-      <c r="U7" s="33">
+      <c r="U7" s="31">
         <v>2143</v>
       </c>
-      <c r="V7" s="33">
+      <c r="V7" s="31">
         <v>2153</v>
       </c>
-      <c r="W7" s="34">
+      <c r="W7" s="32">
         <v>2161</v>
       </c>
     </row>
@@ -4444,71 +5976,71 @@
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="30">
         <f>CODE(MID(PayoffCC!C$8,A8,1))</f>
         <v>117</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="31">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="31">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="32">
         <f t="shared" ca="1" si="2"/>
         <v>211</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="30">
         <v>7</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="31">
         <v>283</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="31">
         <v>293</v>
       </c>
-      <c r="J8" s="33">
+      <c r="J8" s="31">
         <v>307</v>
       </c>
-      <c r="K8" s="33">
+      <c r="K8" s="31">
         <v>311</v>
       </c>
-      <c r="L8" s="33">
+      <c r="L8" s="31">
         <v>313</v>
       </c>
-      <c r="M8" s="33">
+      <c r="M8" s="31">
         <v>317</v>
       </c>
-      <c r="N8" s="33">
+      <c r="N8" s="31">
         <v>331</v>
       </c>
-      <c r="O8" s="33">
+      <c r="O8" s="31">
         <v>337</v>
       </c>
-      <c r="P8" s="33">
+      <c r="P8" s="31">
         <v>347</v>
       </c>
-      <c r="Q8" s="33">
+      <c r="Q8" s="31">
         <v>349</v>
       </c>
-      <c r="R8" s="33">
+      <c r="R8" s="31">
         <v>2221</v>
       </c>
-      <c r="S8" s="33">
+      <c r="S8" s="31">
         <v>2237</v>
       </c>
-      <c r="T8" s="33">
+      <c r="T8" s="31">
         <v>2239</v>
       </c>
-      <c r="U8" s="33">
+      <c r="U8" s="31">
         <v>2243</v>
       </c>
-      <c r="V8" s="33">
+      <c r="V8" s="31">
         <v>2251</v>
       </c>
-      <c r="W8" s="34">
+      <c r="W8" s="32">
         <v>2267</v>
       </c>
     </row>
@@ -4516,71 +6048,71 @@
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="30">
         <f>CODE(MID(PayoffCC!C$8,A9,1))</f>
         <v>114</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="31">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="31">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="32">
         <f t="shared" ca="1" si="2"/>
         <v>59</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="30">
         <v>8</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="31">
         <v>353</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="31">
         <v>359</v>
       </c>
-      <c r="J9" s="33">
+      <c r="J9" s="31">
         <v>367</v>
       </c>
-      <c r="K9" s="33">
+      <c r="K9" s="31">
         <v>373</v>
       </c>
-      <c r="L9" s="33">
+      <c r="L9" s="31">
         <v>379</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9" s="31">
         <v>383</v>
       </c>
-      <c r="N9" s="33">
+      <c r="N9" s="31">
         <v>389</v>
       </c>
-      <c r="O9" s="33">
+      <c r="O9" s="31">
         <v>397</v>
       </c>
-      <c r="P9" s="33">
+      <c r="P9" s="31">
         <v>401</v>
       </c>
-      <c r="Q9" s="33">
+      <c r="Q9" s="31">
         <v>409</v>
       </c>
-      <c r="R9" s="33">
+      <c r="R9" s="31">
         <v>2293</v>
       </c>
-      <c r="S9" s="33">
+      <c r="S9" s="31">
         <v>2297</v>
       </c>
-      <c r="T9" s="33">
+      <c r="T9" s="31">
         <v>2309</v>
       </c>
-      <c r="U9" s="33">
+      <c r="U9" s="31">
         <v>2311</v>
       </c>
-      <c r="V9" s="33">
+      <c r="V9" s="31">
         <v>2333</v>
       </c>
-      <c r="W9" s="34">
+      <c r="W9" s="32">
         <v>2339</v>
       </c>
     </row>
@@ -4588,71 +6120,71 @@
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="30">
         <f>CODE(MID(PayoffCC!C$8,A10,1))</f>
         <v>32</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="34">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="35">
         <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="30">
         <v>9</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="31">
         <v>419</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="31">
         <v>421</v>
       </c>
-      <c r="J10" s="33">
+      <c r="J10" s="31">
         <v>431</v>
       </c>
-      <c r="K10" s="33">
+      <c r="K10" s="31">
         <v>433</v>
       </c>
-      <c r="L10" s="33">
+      <c r="L10" s="31">
         <v>439</v>
       </c>
-      <c r="M10" s="33">
+      <c r="M10" s="31">
         <v>443</v>
       </c>
-      <c r="N10" s="33">
+      <c r="N10" s="31">
         <v>449</v>
       </c>
-      <c r="O10" s="33">
+      <c r="O10" s="31">
         <v>457</v>
       </c>
-      <c r="P10" s="33">
+      <c r="P10" s="31">
         <v>461</v>
       </c>
-      <c r="Q10" s="33">
+      <c r="Q10" s="31">
         <v>463</v>
       </c>
-      <c r="R10" s="33">
+      <c r="R10" s="31">
         <v>2371</v>
       </c>
-      <c r="S10" s="33">
+      <c r="S10" s="31">
         <v>2377</v>
       </c>
-      <c r="T10" s="33">
+      <c r="T10" s="31">
         <v>2381</v>
       </c>
-      <c r="U10" s="33">
+      <c r="U10" s="31">
         <v>2383</v>
       </c>
-      <c r="V10" s="33">
+      <c r="V10" s="31">
         <v>2389</v>
       </c>
-      <c r="W10" s="34">
+      <c r="W10" s="32">
         <v>2393</v>
       </c>
     </row>
@@ -4660,62 +6192,62 @@
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="36">
         <f ca="1">MOD(PRODUCT(E6:E10),F13)</f>
         <v>3778</v>
       </c>
       <c r="F11">
         <v>1103515245</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="30">
         <v>10</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="31">
         <v>467</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="31">
         <v>479</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="31">
         <v>487</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K11" s="31">
         <v>491</v>
       </c>
-      <c r="L11" s="33">
+      <c r="L11" s="31">
         <v>499</v>
       </c>
-      <c r="M11" s="33">
+      <c r="M11" s="31">
         <v>503</v>
       </c>
-      <c r="N11" s="33">
+      <c r="N11" s="31">
         <v>509</v>
       </c>
-      <c r="O11" s="33">
+      <c r="O11" s="31">
         <v>521</v>
       </c>
-      <c r="P11" s="33">
+      <c r="P11" s="31">
         <v>523</v>
       </c>
-      <c r="Q11" s="33">
+      <c r="Q11" s="31">
         <v>541</v>
       </c>
-      <c r="R11" s="33">
+      <c r="R11" s="31">
         <v>2437</v>
       </c>
-      <c r="S11" s="33">
+      <c r="S11" s="31">
         <v>2441</v>
       </c>
-      <c r="T11" s="33">
+      <c r="T11" s="31">
         <v>2447</v>
       </c>
-      <c r="U11" s="33">
+      <c r="U11" s="31">
         <v>2459</v>
       </c>
-      <c r="V11" s="33">
+      <c r="V11" s="31">
         <v>2467</v>
       </c>
-      <c r="W11" s="34">
+      <c r="W11" s="32">
         <v>2473</v>
       </c>
     </row>
@@ -4742,55 +6274,55 @@
       <c r="F12">
         <v>12345</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="30">
         <v>11</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="31">
         <v>547</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="31">
         <v>557</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="31">
         <v>563</v>
       </c>
-      <c r="K12" s="33">
+      <c r="K12" s="31">
         <v>569</v>
       </c>
-      <c r="L12" s="33">
+      <c r="L12" s="31">
         <v>571</v>
       </c>
-      <c r="M12" s="33">
+      <c r="M12" s="31">
         <v>577</v>
       </c>
-      <c r="N12" s="33">
+      <c r="N12" s="31">
         <v>587</v>
       </c>
-      <c r="O12" s="33">
+      <c r="O12" s="31">
         <v>593</v>
       </c>
-      <c r="P12" s="33">
+      <c r="P12" s="31">
         <v>599</v>
       </c>
-      <c r="Q12" s="33">
+      <c r="Q12" s="31">
         <v>601</v>
       </c>
-      <c r="R12" s="33">
+      <c r="R12" s="31">
         <v>2539</v>
       </c>
-      <c r="S12" s="33">
+      <c r="S12" s="31">
         <v>2543</v>
       </c>
-      <c r="T12" s="33">
+      <c r="T12" s="31">
         <v>2549</v>
       </c>
-      <c r="U12" s="33">
+      <c r="U12" s="31">
         <v>2551</v>
       </c>
-      <c r="V12" s="33">
+      <c r="V12" s="31">
         <v>2557</v>
       </c>
-      <c r="W12" s="34">
+      <c r="W12" s="32">
         <v>2579</v>
       </c>
     </row>
@@ -4798,7 +6330,7 @@
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <f t="shared" ref="B13:B33" ca="1" si="3">MOD(B12*F$11+F$12,F$13)</f>
         <v>22544</v>
       </c>
@@ -4817,55 +6349,55 @@
       <c r="F13">
         <v>32768</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="30">
         <v>12</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="31">
         <v>607</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="31">
         <v>613</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="31">
         <v>617</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="31">
         <v>619</v>
       </c>
-      <c r="L13" s="33">
+      <c r="L13" s="31">
         <v>631</v>
       </c>
-      <c r="M13" s="33">
+      <c r="M13" s="31">
         <v>641</v>
       </c>
-      <c r="N13" s="33">
+      <c r="N13" s="31">
         <v>643</v>
       </c>
-      <c r="O13" s="33">
+      <c r="O13" s="31">
         <v>647</v>
       </c>
-      <c r="P13" s="33">
+      <c r="P13" s="31">
         <v>653</v>
       </c>
-      <c r="Q13" s="33">
+      <c r="Q13" s="31">
         <v>659</v>
       </c>
-      <c r="R13" s="33">
+      <c r="R13" s="31">
         <v>2621</v>
       </c>
-      <c r="S13" s="33">
+      <c r="S13" s="31">
         <v>2633</v>
       </c>
-      <c r="T13" s="33">
+      <c r="T13" s="31">
         <v>2647</v>
       </c>
-      <c r="U13" s="33">
+      <c r="U13" s="31">
         <v>2657</v>
       </c>
-      <c r="V13" s="33">
+      <c r="V13" s="31">
         <v>2659</v>
       </c>
-      <c r="W13" s="34">
+      <c r="W13" s="32">
         <v>2663</v>
       </c>
     </row>
@@ -4873,7 +6405,7 @@
       <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <f t="shared" ca="1" si="3"/>
         <v>3849</v>
       </c>
@@ -4889,55 +6421,55 @@
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="30">
         <v>13</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="31">
         <v>661</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="31">
         <v>673</v>
       </c>
-      <c r="J14" s="33">
+      <c r="J14" s="31">
         <v>677</v>
       </c>
-      <c r="K14" s="33">
+      <c r="K14" s="31">
         <v>683</v>
       </c>
-      <c r="L14" s="33">
+      <c r="L14" s="31">
         <v>691</v>
       </c>
-      <c r="M14" s="33">
+      <c r="M14" s="31">
         <v>701</v>
       </c>
-      <c r="N14" s="33">
+      <c r="N14" s="31">
         <v>709</v>
       </c>
-      <c r="O14" s="33">
+      <c r="O14" s="31">
         <v>719</v>
       </c>
-      <c r="P14" s="33">
+      <c r="P14" s="31">
         <v>727</v>
       </c>
-      <c r="Q14" s="33">
+      <c r="Q14" s="31">
         <v>733</v>
       </c>
-      <c r="R14" s="33">
+      <c r="R14" s="31">
         <v>2689</v>
       </c>
-      <c r="S14" s="33">
+      <c r="S14" s="31">
         <v>2693</v>
       </c>
-      <c r="T14" s="33">
+      <c r="T14" s="31">
         <v>2699</v>
       </c>
-      <c r="U14" s="33">
+      <c r="U14" s="31">
         <v>2707</v>
       </c>
-      <c r="V14" s="33">
+      <c r="V14" s="31">
         <v>2711</v>
       </c>
-      <c r="W14" s="34">
+      <c r="W14" s="32">
         <v>2713</v>
       </c>
     </row>
@@ -4945,7 +6477,7 @@
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <f t="shared" ca="1" si="3"/>
         <v>21774</v>
       </c>
@@ -4961,55 +6493,55 @@
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="30">
         <v>14</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="31">
         <v>739</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="31">
         <v>743</v>
       </c>
-      <c r="J15" s="33">
+      <c r="J15" s="31">
         <v>751</v>
       </c>
-      <c r="K15" s="33">
+      <c r="K15" s="31">
         <v>757</v>
       </c>
-      <c r="L15" s="33">
+      <c r="L15" s="31">
         <v>761</v>
       </c>
-      <c r="M15" s="33">
+      <c r="M15" s="31">
         <v>769</v>
       </c>
-      <c r="N15" s="33">
+      <c r="N15" s="31">
         <v>773</v>
       </c>
-      <c r="O15" s="33">
+      <c r="O15" s="31">
         <v>787</v>
       </c>
-      <c r="P15" s="33">
+      <c r="P15" s="31">
         <v>797</v>
       </c>
-      <c r="Q15" s="33">
+      <c r="Q15" s="31">
         <v>809</v>
       </c>
-      <c r="R15" s="33">
+      <c r="R15" s="31">
         <v>2749</v>
       </c>
-      <c r="S15" s="33">
+      <c r="S15" s="31">
         <v>2753</v>
       </c>
-      <c r="T15" s="33">
+      <c r="T15" s="31">
         <v>2767</v>
       </c>
-      <c r="U15" s="33">
+      <c r="U15" s="31">
         <v>2777</v>
       </c>
-      <c r="V15" s="33">
+      <c r="V15" s="31">
         <v>2789</v>
       </c>
-      <c r="W15" s="34">
+      <c r="W15" s="32">
         <v>2791</v>
       </c>
     </row>
@@ -5017,7 +6549,7 @@
       <c r="A16" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="17">
         <f t="shared" ca="1" si="3"/>
         <v>11055</v>
       </c>
@@ -5033,55 +6565,55 @@
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="30">
         <v>15</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="31">
         <v>811</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="31">
         <v>821</v>
       </c>
-      <c r="J16" s="33">
+      <c r="J16" s="31">
         <v>823</v>
       </c>
-      <c r="K16" s="33">
+      <c r="K16" s="31">
         <v>827</v>
       </c>
-      <c r="L16" s="33">
+      <c r="L16" s="31">
         <v>829</v>
       </c>
-      <c r="M16" s="33">
+      <c r="M16" s="31">
         <v>839</v>
       </c>
-      <c r="N16" s="33">
+      <c r="N16" s="31">
         <v>853</v>
       </c>
-      <c r="O16" s="33">
+      <c r="O16" s="31">
         <v>857</v>
       </c>
-      <c r="P16" s="33">
+      <c r="P16" s="31">
         <v>859</v>
       </c>
-      <c r="Q16" s="33">
+      <c r="Q16" s="31">
         <v>863</v>
       </c>
-      <c r="R16" s="33">
+      <c r="R16" s="31">
         <v>2833</v>
       </c>
-      <c r="S16" s="33">
+      <c r="S16" s="31">
         <v>2837</v>
       </c>
-      <c r="T16" s="33">
+      <c r="T16" s="31">
         <v>2843</v>
       </c>
-      <c r="U16" s="33">
+      <c r="U16" s="31">
         <v>2851</v>
       </c>
-      <c r="V16" s="33">
+      <c r="V16" s="31">
         <v>2857</v>
       </c>
-      <c r="W16" s="34">
+      <c r="W16" s="32">
         <v>2861</v>
       </c>
     </row>
@@ -5089,7 +6621,7 @@
       <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <f t="shared" ca="1" si="3"/>
         <v>25916</v>
       </c>
@@ -5105,55 +6637,55 @@
         <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="33">
         <v>16</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="34">
         <v>877</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="34">
         <v>881</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="34">
         <v>883</v>
       </c>
-      <c r="K17" s="36">
+      <c r="K17" s="34">
         <v>887</v>
       </c>
-      <c r="L17" s="36">
+      <c r="L17" s="34">
         <v>907</v>
       </c>
-      <c r="M17" s="36">
+      <c r="M17" s="34">
         <v>911</v>
       </c>
-      <c r="N17" s="36">
+      <c r="N17" s="34">
         <v>919</v>
       </c>
-      <c r="O17" s="36">
+      <c r="O17" s="34">
         <v>929</v>
       </c>
-      <c r="P17" s="36">
+      <c r="P17" s="34">
         <v>937</v>
       </c>
-      <c r="Q17" s="36">
+      <c r="Q17" s="34">
         <v>941</v>
       </c>
-      <c r="R17" s="36">
+      <c r="R17" s="34">
         <v>2909</v>
       </c>
-      <c r="S17" s="36">
+      <c r="S17" s="34">
         <v>2917</v>
       </c>
-      <c r="T17" s="36">
+      <c r="T17" s="34">
         <v>2927</v>
       </c>
-      <c r="U17" s="36">
+      <c r="U17" s="34">
         <v>2939</v>
       </c>
-      <c r="V17" s="36">
+      <c r="V17" s="34">
         <v>2953</v>
       </c>
-      <c r="W17" s="37">
+      <c r="W17" s="35">
         <v>2957</v>
       </c>
     </row>
@@ -5161,7 +6693,7 @@
       <c r="A18" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="17">
         <f t="shared" ca="1" si="3"/>
         <v>4805</v>
       </c>
@@ -5182,7 +6714,7 @@
       <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="17">
         <f t="shared" ca="1" si="3"/>
         <v>13338</v>
       </c>
@@ -5207,7 +6739,7 @@
       <c r="A20" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="17">
         <f t="shared" ca="1" si="3"/>
         <v>19275</v>
       </c>
@@ -5232,7 +6764,7 @@
       <c r="A21" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="17">
         <f t="shared" ca="1" si="3"/>
         <v>6440</v>
       </c>
@@ -5257,7 +6789,7 @@
       <c r="A22" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="17">
         <f t="shared" ca="1" si="3"/>
         <v>5697</v>
       </c>
@@ -5277,13 +6809,13 @@
         <f ca="1">20+SUM(C29:C31)*5</f>
         <v>30</v>
       </c>
-      <c r="M22" s="18"/>
+      <c r="M22" s="17"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="17">
         <f t="shared" ca="1" si="3"/>
         <v>30694</v>
       </c>
@@ -5299,13 +6831,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-      <c r="M23" s="18"/>
+      <c r="M23" s="17"/>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="17">
         <f t="shared" ca="1" si="3"/>
         <v>20775</v>
       </c>
@@ -5321,13 +6853,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="M24" s="18"/>
+      <c r="M24" s="17"/>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="17">
         <f t="shared" ca="1" si="3"/>
         <v>8148</v>
       </c>
@@ -5343,13 +6875,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="M25" s="18"/>
+      <c r="M25" s="17"/>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="17">
         <f t="shared" ca="1" si="3"/>
         <v>21885</v>
       </c>
@@ -5365,13 +6897,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="M26" s="18"/>
+      <c r="M26" s="17"/>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="17">
         <f t="shared" ca="1" si="3"/>
         <v>11378</v>
       </c>
@@ -5387,13 +6919,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="M27" s="18"/>
+      <c r="M27" s="17"/>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="17">
         <f t="shared" ca="1" si="3"/>
         <v>22723</v>
       </c>
@@ -5409,13 +6941,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="M28" s="18"/>
+      <c r="M28" s="17"/>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="17">
         <f t="shared" ca="1" si="3"/>
         <v>25920</v>
       </c>
@@ -5431,13 +6963,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-      <c r="M29" s="18"/>
+      <c r="M29" s="17"/>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="17">
         <f t="shared" ca="1" si="3"/>
         <v>19577</v>
       </c>
@@ -5453,13 +6985,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="M30" s="18"/>
+      <c r="M30" s="17"/>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="17">
         <f t="shared" ca="1" si="3"/>
         <v>7614</v>
       </c>
@@ -5475,13 +7007,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="M31" s="18"/>
+      <c r="M31" s="17"/>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="17">
         <f t="shared" ca="1" si="3"/>
         <v>15903</v>
       </c>
@@ -5497,13 +7029,13 @@
         <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="M32" s="18"/>
+      <c r="M32" s="17"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="17">
         <f t="shared" ca="1" si="3"/>
         <v>5484</v>
       </c>
@@ -5519,7 +7051,7 @@
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="M33" s="18"/>
+      <c r="M33" s="17"/>
     </row>
   </sheetData>
   <customSheetViews>

--- a/144F20/Topic 4/PayingMinOnCC.xlsx
+++ b/144F20/Topic 4/PayingMinOnCC.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{814E34F7-CC26-4D7A-82E8-15115143EA0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{11ABEE3E-D607-4004-B04B-23BAC6ED0EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="480" windowWidth="19530" windowHeight="14385" xr2:uid="{CF10E6CE-D87B-417F-86FF-EEF4FA94E14B}"/>
   </bookViews>
   <sheets>
     <sheet name="PayoffCC" sheetId="1" r:id="rId1"/>
-    <sheet name="Random" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Random" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Interest</t>
   </si>
@@ -194,6 +195,9 @@
   <si>
     <t>Your Name ⇒</t>
   </si>
+  <si>
+    <t>Ignore the Halo preview you must download and open the file in Excel to correctly see the contents.</t>
+  </si>
 </sst>
 </file>
 
@@ -205,7 +209,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +251,14 @@
       <color theme="10"/>
       <name val="Comic Sans MS"/>
       <family val="4"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -701,7 +713,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -926,6 +938,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1463,11 +1478,12 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{AEAC5393-3BB8-4EDE-BF4A-5E303945DCE5}">
-  <header guid="{AEAC5393-3BB8-4EDE-BF4A-5E303945DCE5}" dateTime="2022-04-13T17:08:31" maxSheetId="3" userName="Richard Ketchersid" r:id="rId1">
-    <sheetIdMap count="2">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{ABD2013A-F976-4905-A37A-8A6EEC934236}">
+  <header guid="{ABD2013A-F976-4905-A37A-8A6EEC934236}" dateTime="2022-07-20T13:59:09" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
+    <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
+      <sheetId val="3"/>
     </sheetIdMap>
   </header>
 </headers>
@@ -1479,7 +1495,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{AEAC5393-3BB8-4EDE-BF4A-5E303945DCE5}" name="Richard Ketchersid" id="-1739562537" dateTime="2022-04-13T17:08:31"/>
+  <userInfo guid="{ABD2013A-F976-4905-A37A-8A6EEC934236}" name="Richard Ketchersid" id="-1739583045" dateTime="2022-07-20T13:59:09"/>
 </users>
 </file>
 
@@ -5553,6 +5569,90 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6E18E2-0BBB-4AE6-A681-F5B8F58E67E3}">
+  <dimension ref="B3:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="2:7">
+      <c r="B3" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{0C13EE4D-7CE1-4AA1-8E50-FA0088A2A213}" state="hidden">
+      <selection activeCell="G22" sqref="G22"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="1">
+    <mergeCell ref="B3:G9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F4AA2A-DDE8-4188-A353-CC009FC8809D}">
   <dimension ref="A1:W33"/>
   <sheetViews>

--- a/144F20/Topic 4/PayingMinOnCC.xlsx
+++ b/144F20/Topic 4/PayingMinOnCC.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{11ABEE3E-D607-4004-B04B-23BAC6ED0EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{D95922A0-1890-4BE9-8353-CF60FFAC063F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="480" windowWidth="19530" windowHeight="14385" xr2:uid="{CF10E6CE-D87B-417F-86FF-EEF4FA94E14B}"/>
   </bookViews>
   <sheets>
     <sheet name="PayoffCC" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="Random" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Random" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -1478,12 +1478,19 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{ABD2013A-F976-4905-A37A-8A6EEC934236}">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0D411F4A-97AD-438D-A219-9EFFD1C7DF99}" diskRevisions="1" version="2">
   <header guid="{ABD2013A-F976-4905-A37A-8A6EEC934236}" dateTime="2022-07-20T13:59:09" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
       <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0D411F4A-97AD-438D-A219-9EFFD1C7DF99}" dateTime="2022-07-20T14:41:59" maxSheetId="4" userName="Richard Ketchersid" r:id="rId2">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="3"/>
+      <sheetId val="2"/>
     </sheetIdMap>
   </header>
 </headers>
@@ -1493,9 +1500,17 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
 </file>
 
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{0C13EE4D-7CE1-4AA1-8E50-FA0088A2A213}" action="delete"/>
+  <rcv guid="{0C13EE4D-7CE1-4AA1-8E50-FA0088A2A213}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
   <userInfo guid="{ABD2013A-F976-4905-A37A-8A6EEC934236}" name="Richard Ketchersid" id="-1739583045" dateTime="2022-07-20T13:59:09"/>
+  <userInfo guid="{0D411F4A-97AD-438D-A219-9EFFD1C7DF99}" name="Richard Ketchersid" id="-1739554530" dateTime="2022-07-20T14:41:42"/>
 </users>
 </file>
 
@@ -5569,90 +5584,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6E18E2-0BBB-4AE6-A681-F5B8F58E67E3}">
-  <dimension ref="B3:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="3" spans="2:7">
-      <c r="B3" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-    </row>
-  </sheetData>
-  <customSheetViews>
-    <customSheetView guid="{0C13EE4D-7CE1-4AA1-8E50-FA0088A2A213}" state="hidden">
-      <selection activeCell="G22" sqref="G22"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-  </customSheetViews>
-  <mergeCells count="1">
-    <mergeCell ref="B3:G9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F4AA2A-DDE8-4188-A353-CC009FC8809D}">
   <dimension ref="A1:W33"/>
   <sheetViews>
@@ -7163,4 +7094,88 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6E18E2-0BBB-4AE6-A681-F5B8F58E67E3}">
+  <dimension ref="B3:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="2:7">
+      <c r="B3" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{0C13EE4D-7CE1-4AA1-8E50-FA0088A2A213}" state="hidden">
+      <selection activeCell="G22" sqref="G22"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="1">
+    <mergeCell ref="B3:G9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/144F20/Topic 4/PayingMinOnCC.xlsx
+++ b/144F20/Topic 4/PayingMinOnCC.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{D95922A0-1890-4BE9-8353-CF60FFAC063F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{CE6DFA16-22AF-4234-8C66-62D196321022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="19530" windowHeight="14385" xr2:uid="{CF10E6CE-D87B-417F-86FF-EEF4FA94E14B}"/>
+    <workbookView xWindow="6690" yWindow="1110" windowWidth="19530" windowHeight="14385" xr2:uid="{CF10E6CE-D87B-417F-86FF-EEF4FA94E14B}"/>
   </bookViews>
   <sheets>
     <sheet name="PayoffCC" sheetId="1" r:id="rId1"/>
-    <sheet name="Random" sheetId="3" state="hidden" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Random" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{0C13EE4D-7CE1-4AA1-8E50-FA0088A2A213}" mergeInterval="0" personalView="1" xWindow="32" yWindow="32" windowWidth="1302" windowHeight="959" activeSheetId="1"/>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{0C13EE4D-7CE1-4AA1-8E50-FA0088A2A213}" mergeInterval="0" personalView="1" xWindow="446" yWindow="74" windowWidth="1302" windowHeight="959" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1478,19 +1478,12 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0D411F4A-97AD-438D-A219-9EFFD1C7DF99}" diskRevisions="1" version="2">
-  <header guid="{ABD2013A-F976-4905-A37A-8A6EEC934236}" dateTime="2022-07-20T13:59:09" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0C4FB2B5-4342-482E-B96D-D05E8E7EE4A6}">
+  <header guid="{0C4FB2B5-4342-482E-B96D-D05E8E7EE4A6}" dateTime="2022-08-15T16:16:24" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
       <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{0D411F4A-97AD-438D-A219-9EFFD1C7DF99}" dateTime="2022-07-20T14:41:59" maxSheetId="4" userName="Richard Ketchersid" r:id="rId2">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="3"/>
-      <sheetId val="2"/>
     </sheetIdMap>
   </header>
 </headers>
@@ -1500,17 +1493,9 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
 </file>
 
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{0C13EE4D-7CE1-4AA1-8E50-FA0088A2A213}" action="delete"/>
-  <rcv guid="{0C13EE4D-7CE1-4AA1-8E50-FA0088A2A213}" action="add"/>
-</revisions>
-</file>
-
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
-  <userInfo guid="{ABD2013A-F976-4905-A37A-8A6EEC934236}" name="Richard Ketchersid" id="-1739583045" dateTime="2022-07-20T13:59:09"/>
-  <userInfo guid="{0D411F4A-97AD-438D-A219-9EFFD1C7DF99}" name="Richard Ketchersid" id="-1739554530" dateTime="2022-07-20T14:41:42"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{0C4FB2B5-4342-482E-B96D-D05E8E7EE4A6}" name="Richard Ketchersid" id="-1739574271" dateTime="2022-08-15T16:16:24"/>
 </users>
 </file>
 
@@ -1814,7 +1799,7 @@
   <dimension ref="A1:M517"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="J10" sqref="J10:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5540,10 +5525,10 @@
       <c r="E517" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LvltBSTtFo61oDDcHJJU1Wqq9594Dpdp0vPncPXg2+96oD6/uq6Da9r9d49csjt7QYewWaYMU6yNHLIrMIEvuw==" saltValue="Nb+wXOKbu3IHjth4V9SMxw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{0C13EE4D-7CE1-4AA1-8E50-FA0088A2A213}">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="J10" sqref="J10:M11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>

--- a/144F20/Topic 4/PayingMinOnCC.xlsx
+++ b/144F20/Topic 4/PayingMinOnCC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/154/26123Revision/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="10_ncr:80_{02A4D49E-1BE3-41D5-8229-9ED30F380881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B55F672-11BB-4929-93DD-64EA09AC1B18}"/>
+  <xr:revisionPtr revIDLastSave="157" documentId="10_ncr:80_{02A4D49E-1BE3-41D5-8229-9ED30F380881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71AB7474-4218-42D8-8098-6DA5F37A5C3E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{CF10E6CE-D87B-417F-86FF-EEF4FA94E14B}"/>
+    <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10560" xr2:uid="{CF10E6CE-D87B-417F-86FF-EEF4FA94E14B}"/>
   </bookViews>
   <sheets>
     <sheet name="PayingMinPmt" sheetId="1" r:id="rId1"/>
@@ -939,24 +939,6 @@
     <xf numFmtId="12" fontId="0" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1069,6 +1051,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1996,38 +1996,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.4" customHeight="1" thickBot="1">
-      <c r="A1" s="88" t="str">
+      <c r="A1" s="82" t="str">
         <f>IF(C10="Your Name Here!", "Enter your name below and your very own problem will appear here:)","Discover both how much is paid and how long it takes to pay off a $"&amp;Random!H19&amp;" credit card debt paying the minimal payment which is the maximum of "&amp;Random!H20&amp;"% or $"&amp;Random!H22&amp;". The credit card has "&amp;Random!H21&amp;"% APR compounded monthly. You want to find out how long it takes you to pay this off and how much you end up paying. Assume you make your payment on the current balance at the beginnig of each period (month), before interest is acrued"&amp;" and assuming that the card is not being used for any additional charges.")</f>
         <v>Enter your name below and your very own problem will appear here:)</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="84"/>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1">
-      <c r="A2" s="91"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93"/>
-      <c r="I2" s="61" t="s">
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="87"/>
+      <c r="I2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="62"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1">
-      <c r="A3" s="91"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="93"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="87"/>
       <c r="I3" s="41" t="s">
         <v>14</v>
       </c>
@@ -2036,13 +2036,13 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="91"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="93"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="87"/>
       <c r="I4" s="49" t="s">
         <v>55</v>
       </c>
@@ -2051,13 +2051,13 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="91"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="93"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="87"/>
       <c r="I5" s="44" t="s">
         <v>17</v>
       </c>
@@ -2066,13 +2066,13 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="91"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="93"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="87"/>
       <c r="I6" s="46" t="s">
         <v>19</v>
       </c>
@@ -2081,13 +2081,13 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1">
-      <c r="A7" s="91"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="93"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="87"/>
       <c r="I7" s="47" t="s">
         <v>21</v>
       </c>
@@ -2096,13 +2096,13 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1">
-      <c r="A8" s="94"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="96"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="90"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A9" s="25"/>
@@ -2110,104 +2110,104 @@
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
-      <c r="I9" s="82" t="s">
+      <c r="I9" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="84"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="78"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="79" t="s">
+      <c r="B10" s="72"/>
+      <c r="C10" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="81"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="87"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="75"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="81"/>
     </row>
     <row r="11" spans="1:12" ht="15" thickBot="1"/>
     <row r="12" spans="1:12" ht="28.2" customHeight="1" thickBot="1">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="76"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="59"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="73"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="68"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="62"/>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="73"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="50">
         <v>12</v>
       </c>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="68"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
     </row>
     <row r="15" spans="1:12" ht="15" thickBot="1">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="68"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="62"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="95" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="34"/>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="66"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="68"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="62"/>
     </row>
     <row r="17" spans="1:12" ht="15" thickBot="1">
-      <c r="A17" s="60"/>
+      <c r="A17" s="96"/>
       <c r="B17" s="12"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="71"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="65"/>
     </row>
     <row r="19" spans="1:12" ht="15" thickBot="1"/>
     <row r="20" spans="1:12" ht="29.4" thickBot="1">
@@ -2235,11 +2235,11 @@
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
-      <c r="G21" s="55" t="s">
+      <c r="G21" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
       <c r="J21" s="54"/>
       <c r="K21" t="s">
         <v>56</v>
@@ -2254,11 +2254,11 @@
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
-      <c r="G22" s="55" t="s">
+      <c r="G22" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
       <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:12">
@@ -2269,11 +2269,11 @@
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
       <c r="J23" s="35"/>
     </row>
     <row r="24" spans="1:12">
@@ -6750,6 +6750,11 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="14">
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="D12:H17"/>
     <mergeCell ref="A13:B13"/>
@@ -6759,11 +6764,6 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="I9:L10"/>
     <mergeCell ref="A1:G8"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
   </mergeCells>
   <conditionalFormatting sqref="C9:E10">
     <cfRule type="expression" dxfId="4" priority="2">
@@ -6795,10 +6795,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="76"/>
+      <c r="B1" s="70"/>
       <c r="C1" s="10"/>
       <c r="F1" s="97" t="s">
         <v>54</v>
@@ -6818,10 +6818,10 @@
       <c r="S1" s="99"/>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="67"/>
       <c r="C2" s="11"/>
       <c r="F2" s="100"/>
       <c r="G2" s="101"/>
@@ -6839,10 +6839,10 @@
       <c r="S2" s="102"/>
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="73"/>
+      <c r="B3" s="67"/>
       <c r="C3" s="40">
         <v>12</v>
       </c>
@@ -6862,11 +6862,11 @@
       <c r="S3" s="102"/>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="94"/>
       <c r="F4" s="100"/>
       <c r="G4" s="101"/>
       <c r="H4" s="101"/>
@@ -6883,7 +6883,7 @@
       <c r="S4" s="102"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="95" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="34"/>
@@ -6906,7 +6906,7 @@
       <c r="S5" s="102"/>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1">
-      <c r="A6" s="60"/>
+      <c r="A6" s="96"/>
       <c r="B6" s="12"/>
       <c r="C6" s="3"/>
       <c r="F6" s="100"/>
@@ -7009,11 +7009,11 @@
         <f>IF(OR($C$1="",$C$2="",$C$3="",$B$5="",$B$6="",D11=""),"",D11*C$1/C$3)</f>
         <v/>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
       <c r="J11" s="52" t="str">
         <f>IF(B509&lt;&gt;"",(COUNTIF(D11:D509,"&lt;&gt;0")+1)/12,"")</f>
         <v/>
@@ -7042,11 +7042,11 @@
         <f>IF(OR($C$1="",$C$2="",$C$3="",$B$5="",$B$6="",D12=""),"",D12*C$1/C$3)</f>
         <v/>
       </c>
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
       <c r="J12" s="38" t="str">
         <f>IF(B509&lt;&gt;"",SUM(C11:C509),"")</f>
         <v/>
@@ -7072,11 +7072,11 @@
         <f>IF(OR($C$1="",$C$2="",$C$3="",$B$5="",$B$6="",D13=""),"",D13*C$1/C$3)</f>
         <v/>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
       <c r="J13" s="39" t="str">
         <f>IF(B509&lt;&gt;"",J12-C2,"")</f>
         <v/>
@@ -17635,11 +17635,11 @@
         <f>IF(OR($C$1="",$C$2="",$C$3="",D8=""),"",D8*C$1/C$3)</f>
         <v/>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
       <c r="J8" s="38" t="str">
         <f>IF(B31&lt;&gt;"",SUM(C8:C31),"")</f>
         <v/>
@@ -17669,11 +17669,11 @@
         <f>IF(OR($C$1="",$C$2="",$C$3="",D9=""),"",D9*C$1/C$3)</f>
         <v/>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
       <c r="J9" s="39" t="str">
         <f>IF(B31&lt;&gt;"",J8-B4,"")</f>
         <v/>
@@ -18168,8 +18168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F4AA2A-DDE8-4188-A353-CC009FC8809D}">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/144F20/Topic 4/PayingMinOnCC.xlsx
+++ b/144F20/Topic 4/PayingMinOnCC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="10_ncr:80_{02A4D49E-1BE3-41D5-8229-9ED30F380881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71AB7474-4218-42D8-8098-6DA5F37A5C3E}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="10_ncr:80_{02A4D49E-1BE3-41D5-8229-9ED30F380881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B081C1F-1474-4D20-BDDE-04B655B9CF66}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10560" xr2:uid="{CF10E6CE-D87B-417F-86FF-EEF4FA94E14B}"/>
+    <workbookView xWindow="4476" yWindow="2484" windowWidth="17280" windowHeight="10020" xr2:uid="{CF10E6CE-D87B-417F-86FF-EEF4FA94E14B}"/>
   </bookViews>
   <sheets>
     <sheet name="PayingMinPmt" sheetId="1" r:id="rId1"/>
@@ -210,14 +210,6 @@
     <t>Amount of Interest paid</t>
   </si>
   <si>
-    <t>Here the formulas are provided for you to play with various scenarios. We ant you to consider the effects of increasing and decreasing various parameters on the amount paid and time taken to pay off the debt. 
-- Take exactly the same parameters from PayingMinPmt tab and add 1% to the minimum payment percentage, then try again subtracting 1%.
-- Reset the parameters, then add and subtract $10 from the min fixed payment.
-- Reset the parameters again and try adding and subtracting a couple of percentages from the APR.
-- Reset the parameters one last time, what happens if you set the minimum payment percentage to say 0.5%? 
-Reflect on what you notice for part 3 of the project.</t>
-  </si>
-  <si>
     <t>Yellow/Red</t>
   </si>
   <si>
@@ -225,6 +217,27 @@
   </si>
   <si>
     <t>Your Name Here!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here the formulas are provided for you to play with various scenarios. We ant you to consider the effects of increasing and decreasing various parameters on the amount paid and time taken to pay off the debt. 
+- Take exactly the same parameters from PayingMinPmt tab and add 1% to the minimum payment percentage, then try again subtracting 1%.
+- Reset the parameters, then add and subtract $10 from the min fixed payment.
+- Reset the parameters again and try adding and subtracting a couple of percentages from the APR.
+- Reset the parameters one last time, what happens if you set the minimum payment percentage to say 0.5%? 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reflect on what you notice:</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -297,7 +310,7 @@
       <family val="4"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,8 +365,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -784,6 +803,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -791,7 +834,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -935,9 +978,26 @@
     <xf numFmtId="12" fontId="0" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="12" fontId="0" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1052,24 +1112,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1117,6 +1159,39 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1996,38 +2071,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.4" customHeight="1" thickBot="1">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="87" t="str">
         <f>IF(C10="Your Name Here!", "Enter your name below and your very own problem will appear here:)","Discover both how much is paid and how long it takes to pay off a $"&amp;Random!H19&amp;" credit card debt paying the minimal payment which is the maximum of "&amp;Random!H20&amp;"% or $"&amp;Random!H22&amp;". The credit card has "&amp;Random!H21&amp;"% APR compounded monthly. You want to find out how long it takes you to pay this off and how much you end up paying. Assume you make your payment on the current balance at the beginnig of each period (month), before interest is acrued"&amp;" and assuming that the card is not being used for any additional charges.")</f>
         <v>Enter your name below and your very own problem will appear here:)</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="84"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="89"/>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="87"/>
-      <c r="I2" s="55" t="s">
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="92"/>
+      <c r="I2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="56"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="87"/>
+      <c r="A3" s="90"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="92"/>
       <c r="I3" s="41" t="s">
         <v>14</v>
       </c>
@@ -2036,28 +2111,28 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="85"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="87"/>
+      <c r="A4" s="90"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="92"/>
       <c r="I4" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J4" s="43" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="85"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="87"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="92"/>
       <c r="I5" s="44" t="s">
         <v>17</v>
       </c>
@@ -2066,13 +2141,13 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="85"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="87"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="92"/>
       <c r="I6" s="46" t="s">
         <v>19</v>
       </c>
@@ -2081,13 +2156,13 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1">
-      <c r="A7" s="85"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="87"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="92"/>
       <c r="I7" s="47" t="s">
         <v>21</v>
       </c>
@@ -2096,13 +2171,13 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1">
-      <c r="A8" s="88"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90"/>
+      <c r="A8" s="93"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A9" s="25"/>
@@ -2110,104 +2185,104 @@
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
-      <c r="I9" s="76" t="s">
+      <c r="I9" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="78"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="83"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="75"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="81"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="79"/>
+      <c r="E10" s="80"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="86"/>
     </row>
     <row r="11" spans="1:12" ht="15" thickBot="1"/>
     <row r="12" spans="1:12" ht="28.2" customHeight="1" thickBot="1">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="70"/>
+      <c r="B12" s="75"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="59"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="64"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="67"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="62"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="67"/>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="67"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="50">
         <v>12</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="62"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="67"/>
     </row>
     <row r="15" spans="1:12" ht="15" thickBot="1">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="93"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="62"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="67"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="58" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="34"/>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="67"/>
     </row>
     <row r="17" spans="1:12" ht="15" thickBot="1">
-      <c r="A17" s="96"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="12"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="65"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="70"/>
     </row>
     <row r="19" spans="1:12" ht="15" thickBot="1"/>
     <row r="20" spans="1:12" ht="29.4" thickBot="1">
@@ -2235,14 +2310,14 @@
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
-      <c r="G21" s="91" t="s">
+      <c r="G21" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="53"/>
       <c r="K21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L21" s="8"/>
     </row>
@@ -2254,11 +2329,11 @@
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
-      <c r="G22" s="91" t="s">
+      <c r="G22" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
       <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:12">
@@ -2269,11 +2344,11 @@
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
-      <c r="G23" s="91" t="s">
+      <c r="G23" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
       <c r="J23" s="35"/>
     </row>
     <row r="24" spans="1:12">
@@ -6750,11 +6825,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="14">
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="D12:H17"/>
     <mergeCell ref="A13:B13"/>
@@ -6764,6 +6834,11 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="I9:L10"/>
     <mergeCell ref="A1:G8"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
   </mergeCells>
   <conditionalFormatting sqref="C9:E10">
     <cfRule type="expression" dxfId="4" priority="2">
@@ -6785,7 +6860,7 @@
   <dimension ref="A1:S509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6795,182 +6870,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="70"/>
+      <c r="B1" s="75"/>
       <c r="C1" s="10"/>
-      <c r="F1" s="97" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="99"/>
+      <c r="F1" s="96" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="98"/>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="67"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="11"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="102"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="101"/>
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="67"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="40">
         <v>12</v>
       </c>
-      <c r="F3" s="100"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="102"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="101"/>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="94"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="102"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="100"/>
+      <c r="S4" s="101"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="58" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="100"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="102"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="101"/>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1">
-      <c r="A6" s="96"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="12"/>
       <c r="C6" s="3"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="101"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="101"/>
-      <c r="S6" s="102"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="100"/>
+      <c r="R6" s="100"/>
+      <c r="S6" s="101"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="F7" s="100"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="102"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
+      <c r="S7" s="101"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="F8" s="100"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="101"/>
-      <c r="S8" s="102"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="100"/>
+      <c r="R8" s="100"/>
+      <c r="S8" s="101"/>
     </row>
     <row r="9" spans="1:19" ht="15" thickBot="1">
-      <c r="F9" s="103"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="105"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="103"/>
+      <c r="R9" s="103"/>
+      <c r="S9" s="104"/>
     </row>
     <row r="10" spans="1:19" ht="43.8" thickBot="1">
       <c r="A10" s="4" t="s">
@@ -6985,9 +7060,20 @@
       <c r="D10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="112" t="s">
         <v>0</v>
       </c>
+      <c r="F10" s="114"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="116"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="27">
@@ -7005,22 +7091,21 @@
         <f>IF(OR($C$1="",$C$2="",$C$3="",$B$5="",$B$6="",C11=""),"",B11-C11)</f>
         <v/>
       </c>
-      <c r="E11" s="37" t="str">
+      <c r="E11" s="113" t="str">
         <f>IF(OR($C$1="",$C$2="",$C$3="",$B$5="",$B$6="",D11=""),"",D11*C$1/C$3)</f>
         <v/>
       </c>
-      <c r="G11" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="52" t="str">
-        <f>IF(B509&lt;&gt;"",(COUNTIF(D11:D509,"&lt;&gt;0")+1)/12,"")</f>
-        <v/>
-      </c>
-      <c r="K11" s="53" t="s">
-        <v>56</v>
-      </c>
+      <c r="F11" s="117"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="118"/>
+      <c r="N11" s="118"/>
+      <c r="O11" s="118"/>
+      <c r="P11" s="119"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="27">
@@ -7038,19 +7123,21 @@
         <f>IF(OR($C$1="",$C$2="",$C$3="",$B$5="",$B$6="",C12=""),"",B12-C12)</f>
         <v/>
       </c>
-      <c r="E12" s="37" t="str">
+      <c r="E12" s="113" t="str">
         <f>IF(OR($C$1="",$C$2="",$C$3="",$B$5="",$B$6="",D12=""),"",D12*C$1/C$3)</f>
         <v/>
       </c>
-      <c r="G12" s="91" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="38" t="str">
-        <f>IF(B509&lt;&gt;"",SUM(C11:C509),"")</f>
-        <v/>
-      </c>
+      <c r="F12" s="117"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="118"/>
+      <c r="N12" s="118"/>
+      <c r="O12" s="118"/>
+      <c r="P12" s="119"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="27">
@@ -7068,19 +7155,21 @@
         <f>IF(OR($C$1="",$C$2="",$C$3="",$B$5="",$B$6="",C13=""),"",B13-C13)</f>
         <v/>
       </c>
-      <c r="E13" s="37" t="str">
+      <c r="E13" s="113" t="str">
         <f>IF(OR($C$1="",$C$2="",$C$3="",$B$5="",$B$6="",D13=""),"",D13*C$1/C$3)</f>
         <v/>
       </c>
-      <c r="G13" s="91" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="39" t="str">
-        <f>IF(B509&lt;&gt;"",J12-C2,"")</f>
-        <v/>
-      </c>
+      <c r="F13" s="117"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="118"/>
+      <c r="N13" s="118"/>
+      <c r="O13" s="118"/>
+      <c r="P13" s="119"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="27">
@@ -7098,10 +7187,21 @@
         <f t="shared" ref="D14:D77" si="2">IF(OR($C$1="",$C$2="",$C$3="",$B$5="",$B$6="",C14=""),"",B14-C14)</f>
         <v/>
       </c>
-      <c r="E14" s="37" t="str">
+      <c r="E14" s="113" t="str">
         <f t="shared" ref="E14:E77" si="3">IF(OR($C$1="",$C$2="",$C$3="",$B$5="",$B$6="",D14=""),"",D14*C$1/C$3)</f>
         <v/>
       </c>
+      <c r="F14" s="117"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="118"/>
+      <c r="M14" s="118"/>
+      <c r="N14" s="118"/>
+      <c r="O14" s="118"/>
+      <c r="P14" s="119"/>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="27">
@@ -7119,12 +7219,23 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E15" s="37" t="str">
+      <c r="E15" s="113" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="F15" s="117"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="118"/>
+      <c r="M15" s="118"/>
+      <c r="N15" s="118"/>
+      <c r="O15" s="118"/>
+      <c r="P15" s="119"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" thickBot="1">
       <c r="A16" s="27">
         <v>6</v>
       </c>
@@ -7140,12 +7251,23 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E16" s="37" t="str">
+      <c r="E16" s="113" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="120"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="121"/>
+      <c r="P16" s="122"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="27">
         <v>7</v>
       </c>
@@ -7166,7 +7288,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:11">
       <c r="A18" s="27">
         <v>8</v>
       </c>
@@ -7187,7 +7309,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:11">
       <c r="A19" s="27">
         <v>9</v>
       </c>
@@ -7208,7 +7330,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:11">
       <c r="A20" s="27">
         <v>10</v>
       </c>
@@ -7228,8 +7350,20 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="52" t="str">
+        <f>IF(B509&lt;&gt;"",(COUNTIF(D11:D509,"&lt;&gt;0")+1)/12,"")</f>
+        <v/>
+      </c>
+      <c r="K20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="27">
         <v>11</v>
       </c>
@@ -7249,8 +7383,17 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="38" t="str">
+        <f>IF(B509&lt;&gt;"",SUM(C11:C509),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="27">
         <v>12</v>
       </c>
@@ -7270,8 +7413,17 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="39" t="str">
+        <f>IF(B509&lt;&gt;"",J21-C2,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="27">
         <v>13</v>
       </c>
@@ -7292,7 +7444,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:11">
       <c r="A24" s="27">
         <v>14</v>
       </c>
@@ -7313,7 +7465,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:11">
       <c r="A25" s="27">
         <v>15</v>
       </c>
@@ -7334,7 +7486,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:11">
       <c r="A26" s="27">
         <v>16</v>
       </c>
@@ -7355,7 +7507,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:11">
       <c r="A27" s="27">
         <v>17</v>
       </c>
@@ -7376,7 +7528,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:11">
       <c r="A28" s="27">
         <v>18</v>
       </c>
@@ -7397,7 +7549,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:11">
       <c r="A29" s="27">
         <v>19</v>
       </c>
@@ -7418,7 +7570,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:11">
       <c r="A30" s="27">
         <v>20</v>
       </c>
@@ -7439,7 +7591,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:11">
       <c r="A31" s="27">
         <v>21</v>
       </c>
@@ -7460,7 +7612,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:11">
       <c r="A32" s="27">
         <v>22</v>
       </c>
@@ -17499,18 +17651,19 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
+  <mergeCells count="10">
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="F1:S9"/>
+    <mergeCell ref="F10:P16"/>
   </mergeCells>
-  <conditionalFormatting sqref="A10:I10 F11:J12 F13 A1:C6 F14:I15 F22:I509 F16:H21 F1 A7:E9">
+  <conditionalFormatting sqref="A1:C6 F22:I509 F17:H21 F1 A7:E10 G20:J21">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>$C$11="Your Name Here!"</formula>
     </cfRule>
@@ -17521,6 +17674,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17535,50 +17689,50 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="107"/>
+      <c r="B1" s="106"/>
       <c r="C1" s="31"/>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="99"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="98"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="109"/>
+      <c r="B2" s="108"/>
       <c r="C2" s="32"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="102"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="101"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="111"/>
+      <c r="B3" s="110"/>
       <c r="C3" s="36">
         <v>12</v>
       </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="102"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="101"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1">
       <c r="A4" s="30" t="s">
@@ -17586,13 +17740,13 @@
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="29"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="105"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="104"/>
     </row>
     <row r="5" spans="1:11">
       <c r="D5" s="28"/>
@@ -17635,11 +17789,11 @@
         <f>IF(OR($C$1="",$C$2="",$C$3="",D8=""),"",D8*C$1/C$3)</f>
         <v/>
       </c>
-      <c r="G8" s="91" t="s">
+      <c r="G8" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
       <c r="J8" s="38" t="str">
         <f>IF(B31&lt;&gt;"",SUM(C8:C31),"")</f>
         <v/>
@@ -17669,11 +17823,11 @@
         <f>IF(OR($C$1="",$C$2="",$C$3="",D9=""),"",D9*C$1/C$3)</f>
         <v/>
       </c>
-      <c r="G9" s="91" t="s">
+      <c r="G9" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
       <c r="J9" s="39" t="str">
         <f>IF(B31&lt;&gt;"",J8-B4,"")</f>
         <v/>
@@ -19688,62 +19842,62 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="3" spans="2:7">
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="112"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
     </row>
   </sheetData>
   <customSheetViews>

--- a/144F20/Topic 4/PayingMinOnCC.xlsx
+++ b/144F20/Topic 4/PayingMinOnCC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="354" documentId="10_ncr:80_{02A4D49E-1BE3-41D5-8229-9ED30F380881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D399125-8318-469B-8C6C-299A7BF42572}"/>
+  <xr:revisionPtr revIDLastSave="358" documentId="10_ncr:80_{02A4D49E-1BE3-41D5-8229-9ED30F380881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A20AE776-9188-47E3-8F3A-1776AF79741C}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="10152" xr2:uid="{CF10E6CE-D87B-417F-86FF-EEF4FA94E14B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CF10E6CE-D87B-417F-86FF-EEF4FA94E14B}"/>
   </bookViews>
   <sheets>
     <sheet name="PayingMinPmt" sheetId="1" r:id="rId1"/>
@@ -238,9 +238,6 @@
     <t xml:space="preserve">5) </t>
   </si>
   <si>
-    <t>What is your best guess in C2?</t>
-  </si>
-  <si>
     <t>In this last tab figure out how much you need to pay each month in order to pay off the entire amount in 24 months. (Find this correct to two decimals, K8 should say "Just right" when you have this correct.</t>
   </si>
   <si>
@@ -264,6 +261,9 @@
       </rPr>
       <t>Enter your answers below and reflect on what you notice for part 3 of the project.</t>
     </r>
+  </si>
+  <si>
+    <t>What is your best guess in B4?</t>
   </si>
 </sst>
 </file>
@@ -1187,30 +1187,6 @@
     <xf numFmtId="1" fontId="0" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1355,6 +1331,34 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
@@ -1449,10 +1453,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2374,51 +2374,51 @@
       <selection activeCell="C10" sqref="C10:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="22"/>
-    <col min="2" max="2" width="10.109375" style="22" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="22"/>
+    <col min="2" max="2" width="10.140625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="22" customWidth="1"/>
-    <col min="5" max="8" width="8.88671875" style="22"/>
-    <col min="9" max="9" width="16.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="8.85546875" style="22"/>
+    <col min="9" max="9" width="16.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="22"/>
+    <col min="11" max="16384" width="8.85546875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.4" customHeight="1" thickBot="1">
-      <c r="A1" s="101" t="str">
+    <row r="1" spans="1:12" ht="14.45" customHeight="1" thickBot="1">
+      <c r="A1" s="95" t="str">
         <f>IF(C10="Your Name Here!", "Enter your name below and your very own problem will appear here:)","Discover both how much is paid and how long it takes to pay off a $"&amp;Random!H19&amp;" credit card debt paying the minimal payment which is the maximum of "&amp;Random!H20&amp;"% or $"&amp;Random!H22&amp;". The credit card has "&amp;Random!H21&amp;"% APR compounded monthly. You want to find out how long it takes you to pay this off and how much you end up paying. Assume you make your payment on the current balance at the beginnig of each period (month), before interest is acrued"&amp;" and assuming that the card is not being used for any additional charges.")</f>
         <v>Enter your name below and your very own problem will appear here:)</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="103"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1">
-      <c r="A2" s="104"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
-      <c r="I2" s="74" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="97"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="100"/>
+      <c r="I2" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="75"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1">
-      <c r="A3" s="104"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
+      <c r="J2" s="69"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="100"/>
       <c r="I3" s="53" t="s">
         <v>13</v>
       </c>
@@ -2427,13 +2427,13 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="104"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="100"/>
       <c r="I4" s="55" t="s">
         <v>52</v>
       </c>
@@ -2442,13 +2442,13 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="104"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="100"/>
       <c r="I5" s="57" t="s">
         <v>16</v>
       </c>
@@ -2457,13 +2457,13 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="104"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
+      <c r="A6" s="98"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="100"/>
       <c r="I6" s="59" t="s">
         <v>18</v>
       </c>
@@ -2471,14 +2471,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1">
-      <c r="A7" s="104"/>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="106"/>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A7" s="98"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="100"/>
       <c r="I7" s="60" t="s">
         <v>20</v>
       </c>
@@ -2486,122 +2486,122 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="62" customFormat="1" ht="15" thickBot="1">
-      <c r="A8" s="107"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="109"/>
-    </row>
-    <row r="9" spans="1:12" s="62" customFormat="1" ht="15" thickBot="1">
+    <row r="8" spans="1:12" s="62" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A8" s="101"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="103"/>
+    </row>
+    <row r="9" spans="1:12" s="62" customFormat="1" ht="15.75" thickBot="1">
       <c r="A9" s="63"/>
       <c r="B9" s="63"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="64"/>
-      <c r="I9" s="95" t="s">
+      <c r="I9" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="97"/>
-    </row>
-    <row r="10" spans="1:12" s="62" customFormat="1" ht="15" thickBot="1">
-      <c r="A10" s="90" t="s">
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="91"/>
+    </row>
+    <row r="10" spans="1:12" s="62" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A10" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="92" t="s">
+      <c r="B10" s="85"/>
+      <c r="C10" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="93"/>
-      <c r="E10" s="94"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="100"/>
-    </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1"/>
-    <row r="12" spans="1:12" ht="28.2" customHeight="1" thickBot="1">
-      <c r="A12" s="88" t="s">
+      <c r="D10" s="87"/>
+      <c r="E10" s="88"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="94"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="12" spans="1:12" ht="28.15" customHeight="1" thickBot="1">
+      <c r="A12" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="89"/>
+      <c r="B12" s="83"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="78"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="72"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="86"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="81"/>
-    </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1">
-      <c r="A14" s="87" t="s">
+      <c r="D13" s="73"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="75"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A14" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="86"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="67">
         <v>12</v>
       </c>
-      <c r="D14" s="79"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="81"/>
-    </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1">
-      <c r="A15" s="69" t="s">
+      <c r="D14" s="73"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="75"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A15" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="81"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="75"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="108" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="79"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="81"/>
-    </row>
-    <row r="17" spans="1:12" ht="15" thickBot="1">
-      <c r="A17" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="75"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A17" s="109"/>
       <c r="B17" s="4"/>
       <c r="C17" s="43"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="84"/>
-    </row>
-    <row r="19" spans="1:12" ht="15" thickBot="1"/>
-    <row r="20" spans="1:12" ht="29.4" thickBot="1">
+      <c r="D17" s="76"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="78"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="20" spans="1:12" ht="45.75" thickBot="1">
       <c r="A20" s="29" t="s">
         <v>11</v>
       </c>
@@ -2626,11 +2626,11 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="G21" s="68" t="s">
+      <c r="G21" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
       <c r="J21" s="21"/>
       <c r="K21" s="22" t="s">
         <v>53</v>
@@ -2645,11 +2645,11 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="G22" s="68" t="s">
+      <c r="G22" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:12">
@@ -2660,11 +2660,11 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="G23" s="68" t="s">
+      <c r="G23" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
       <c r="J23" s="66"/>
     </row>
     <row r="24" spans="1:12">
@@ -7141,6 +7141,11 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="14">
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="D12:H17"/>
     <mergeCell ref="A13:B13"/>
@@ -7150,11 +7155,6 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="I9:L10"/>
     <mergeCell ref="A1:G8"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
   </mergeCells>
   <conditionalFormatting sqref="C9:E10">
     <cfRule type="expression" dxfId="4" priority="2">
@@ -7179,194 +7179,194 @@
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="22"/>
+    <col min="1" max="1" width="8.85546875" style="22"/>
     <col min="2" max="4" width="10" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="8.88671875" style="22"/>
-    <col min="10" max="10" width="12.44140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="22"/>
+    <col min="5" max="9" width="8.85546875" style="22"/>
+    <col min="10" max="10" width="12.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="89"/>
+      <c r="B1" s="83"/>
       <c r="C1" s="2"/>
-      <c r="F1" s="116" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="118"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1">
-      <c r="A2" s="85" t="s">
+      <c r="F1" s="117" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="119"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A2" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="86"/>
+      <c r="B2" s="80"/>
       <c r="C2" s="3"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="121"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1">
-      <c r="A3" s="87" t="s">
+      <c r="F2" s="120"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="122"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A3" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="86"/>
+      <c r="B3" s="80"/>
       <c r="C3" s="41">
         <v>12</v>
       </c>
-      <c r="F3" s="119"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="120"/>
-      <c r="R3" s="120"/>
-      <c r="S3" s="121"/>
-    </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1">
-      <c r="A4" s="69" t="s">
+      <c r="F3" s="120"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="122"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A4" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120"/>
-      <c r="O4" s="120"/>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="120"/>
-      <c r="R4" s="120"/>
-      <c r="S4" s="121"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="107"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="121"/>
+      <c r="Q4" s="121"/>
+      <c r="R4" s="121"/>
+      <c r="S4" s="122"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="110" t="s">
         <v>56</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="119"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="120"/>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="120"/>
-      <c r="S5" s="121"/>
-    </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1">
-      <c r="A6" s="73"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="121"/>
+      <c r="Q5" s="121"/>
+      <c r="R5" s="121"/>
+      <c r="S5" s="122"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A6" s="109"/>
       <c r="B6" s="4"/>
       <c r="C6" s="43"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120"/>
-      <c r="N6" s="120"/>
-      <c r="O6" s="120"/>
-      <c r="P6" s="120"/>
-      <c r="Q6" s="120"/>
-      <c r="R6" s="120"/>
-      <c r="S6" s="121"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="121"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="122"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="F7" s="119"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
-      <c r="S7" s="121"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="122"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="F8" s="119"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="120"/>
-      <c r="M8" s="120"/>
-      <c r="N8" s="120"/>
-      <c r="O8" s="120"/>
-      <c r="P8" s="120"/>
-      <c r="Q8" s="120"/>
-      <c r="R8" s="120"/>
-      <c r="S8" s="121"/>
-    </row>
-    <row r="9" spans="1:19" ht="15" thickBot="1">
-      <c r="F9" s="119"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="121"/>
-    </row>
-    <row r="10" spans="1:19" ht="43.8" thickBot="1">
+      <c r="F8" s="120"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="121"/>
+      <c r="Q8" s="121"/>
+      <c r="R8" s="121"/>
+      <c r="S8" s="122"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1">
+      <c r="F9" s="120"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="122"/>
+    </row>
+    <row r="10" spans="1:19" ht="45.75" thickBot="1">
       <c r="A10" s="29" t="s">
         <v>11</v>
       </c>
@@ -7382,20 +7382,20 @@
       <c r="E10" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="122"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="123"/>
-      <c r="M10" s="123"/>
-      <c r="N10" s="123"/>
-      <c r="O10" s="123"/>
-      <c r="P10" s="123"/>
-      <c r="Q10" s="123"/>
-      <c r="R10" s="123"/>
-      <c r="S10" s="124"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="124"/>
+      <c r="P10" s="124"/>
+      <c r="Q10" s="124"/>
+      <c r="R10" s="124"/>
+      <c r="S10" s="125"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="33">
@@ -7417,11 +7417,11 @@
         <f>IF(OR($C$1="",$C$2="",$C$3="",$B$5="",$B$6="",D11=""),"",D11*C$1/C$3)</f>
         <v/>
       </c>
-      <c r="G11" s="133" t="s">
+      <c r="G11" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
       <c r="J11" s="44" t="str">
         <f>IF(B509&lt;&gt;"",(COUNTIF(D11:D509,"&lt;&gt;0")+1)/12,"")</f>
         <v/>
@@ -7450,11 +7450,11 @@
         <f>IF(OR($C$1="",$C$2="",$C$3="",$B$5="",$B$6="",D12=""),"",D12*C$1/C$3)</f>
         <v/>
       </c>
-      <c r="G12" s="68" t="s">
+      <c r="G12" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
       <c r="J12" s="46" t="str">
         <f>IF(B509&lt;&gt;"",SUM(C11:C509),"")</f>
         <v/>
@@ -7480,17 +7480,17 @@
         <f>IF(OR($C$1="",$C$2="",$C$3="",$B$5="",$B$6="",D13=""),"",D13*C$1/C$3)</f>
         <v/>
       </c>
-      <c r="G13" s="68" t="s">
+      <c r="G13" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
       <c r="J13" s="47" t="str">
         <f>IF(B509&lt;&gt;"",J12-C2,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15" thickBot="1">
+    <row r="14" spans="1:19" ht="15.75" thickBot="1">
       <c r="A14" s="33">
         <v>4</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15" thickBot="1">
+    <row r="15" spans="1:19" ht="15.75" thickBot="1">
       <c r="A15" s="33">
         <v>5</v>
       </c>
@@ -7532,13 +7532,13 @@
         <v/>
       </c>
       <c r="G15" s="52"/>
-      <c r="H15" s="113" t="s">
+      <c r="H15" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="116"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="33">
@@ -7563,11 +7563,11 @@
       <c r="G16" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="126"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="127"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="128"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="33">
@@ -7589,11 +7589,11 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="130"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="131"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="33">
@@ -7615,11 +7615,11 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H18" s="128"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="129"/>
-      <c r="K18" s="129"/>
-      <c r="L18" s="130"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="131"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="33">
@@ -7644,11 +7644,11 @@
       <c r="G19" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="110"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="131"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="132"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="132"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="133"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="33">
@@ -7673,13 +7673,13 @@
       <c r="G20" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="110"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="131"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="132"/>
-    </row>
-    <row r="21" spans="1:12" ht="15" thickBot="1">
+      <c r="H20" s="111"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="133"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1">
       <c r="A21" s="33">
         <v>11</v>
       </c>
@@ -7702,13 +7702,13 @@
       <c r="G21" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="110"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="111"/>
-      <c r="L21" s="112"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.6" thickTop="1" thickBot="1">
+      <c r="H21" s="111"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="113"/>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="33">
         <v>12</v>
       </c>
@@ -7737,7 +7737,7 @@
       <c r="K22" s="50"/>
       <c r="L22" s="50"/>
     </row>
-    <row r="23" spans="1:12" ht="15" thickTop="1">
+    <row r="23" spans="1:12" ht="15.75" thickTop="1">
       <c r="A23" s="33">
         <v>13</v>
       </c>
@@ -17967,11 +17967,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="1LKPwXZGaNR4XwwCL8CHOjf/z90Tv44OKUtKoNNu4zjbsJ5ZBN+3/T1gEyJ/wkedoI05t1cPBh/qblKMj6eMKQ==" saltValue="m6GizUWUwaXIqdzikh5KhQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="14">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:A6"/>
     <mergeCell ref="H21:L21"/>
     <mergeCell ref="H15:L15"/>
     <mergeCell ref="F1:S10"/>
@@ -17981,6 +17976,11 @@
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <conditionalFormatting sqref="F11:J12 F13 A1:C6 F14:I14 F22:I509 F1 A7:E10 F15:G15 F16:H16 F17:F21 H19:H21 G19:G22">
     <cfRule type="expression" dxfId="3" priority="2">
@@ -18001,14 +18001,16 @@
   <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="10" width="8.88671875" style="22"/>
-    <col min="11" max="11" width="9.88671875" style="22" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="22"/>
+    <col min="1" max="8" width="8.85546875" style="22"/>
+    <col min="9" max="9" width="9.5703125" style="22" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="22"/>
+    <col min="11" max="11" width="9.85546875" style="22" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
@@ -18017,15 +18019,15 @@
       </c>
       <c r="B1" s="143"/>
       <c r="C1" s="17"/>
-      <c r="D1" s="117" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="118"/>
+      <c r="D1" s="118" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="119"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="144" t="s">
@@ -18033,15 +18035,15 @@
       </c>
       <c r="B2" s="145"/>
       <c r="C2" s="18"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="121"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1">
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" s="146" t="s">
         <v>50</v>
       </c>
@@ -18049,36 +18051,36 @@
       <c r="C3" s="23">
         <v>12</v>
       </c>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="121"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1">
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="122"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1">
       <c r="A4" s="24" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="125"/>
     </row>
     <row r="5" spans="1:11">
       <c r="D5" s="26"/>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1">
       <c r="G6" s="27"/>
       <c r="H6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="43.8" thickBot="1">
+    <row r="7" spans="1:11" ht="45.75" thickBot="1">
       <c r="A7" s="29" t="s">
         <v>11</v>
       </c>
@@ -18129,7 +18131,7 @@
         <v>Enter PMT</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1">
       <c r="A9" s="33">
         <v>2</v>
       </c>
@@ -18159,7 +18161,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1">
       <c r="A10" s="33">
         <v>3</v>
       </c>
@@ -18180,7 +18182,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" thickBot="1">
+    <row r="11" spans="1:11" ht="15.75" thickBot="1">
       <c r="A11" s="33">
         <v>4</v>
       </c>
@@ -18201,7 +18203,7 @@
         <v/>
       </c>
       <c r="G11" s="135" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H11" s="136"/>
       <c r="I11" s="137"/>
@@ -18641,7 +18643,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kbbv0/wPNYqWO2YL/0K7wVC0ACOzWbcNoW0T0I0w/wFga9gBM8jTnyAPwk8kMofbCy3IjiqoIG0JF8Kk9vxfBA==" saltValue="QLzcs8tLMpiqgh7XFQWb8A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7Lp55eCRVchAISAEyI+TWqc/Nh3/SZe402JR7yJi7K91EVdKORyu0y0zbw+qt7AzAOV5zxc/ieGClhqvNsDEQQ==" saltValue="NgzGdA/O8LspW24hODjBJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="7">
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="G8:I8"/>
@@ -18673,7 +18675,7 @@
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -18888,7 +18890,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15" thickBot="1">
+    <row r="5" spans="1:23" ht="15.75" thickBot="1">
       <c r="G5" s="10">
         <v>4</v>
       </c>
@@ -19229,7 +19231,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15" thickBot="1">
+    <row r="10" spans="1:23" ht="15.75" thickBot="1">
       <c r="A10">
         <v>5</v>
       </c>
@@ -19301,7 +19303,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15" thickBot="1">
+    <row r="11" spans="1:23" ht="15.75" thickBot="1">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -19730,7 +19732,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="15" thickBot="1">
+    <row r="17" spans="1:23" ht="15.75" thickBot="1">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -20186,7 +20188,7 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="2:7">
       <c r="B3" s="147" t="s">

--- a/144F20/Topic 4/PayingMinOnCC.xlsx
+++ b/144F20/Topic 4/PayingMinOnCC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="358" documentId="10_ncr:80_{02A4D49E-1BE3-41D5-8229-9ED30F380881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A20AE776-9188-47E3-8F3A-1776AF79741C}"/>
+  <xr:revisionPtr revIDLastSave="361" documentId="10_ncr:80_{02A4D49E-1BE3-41D5-8229-9ED30F380881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67E3B228-28FA-4ACC-8ACF-1EB7F491DAB6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CF10E6CE-D87B-417F-86FF-EEF4FA94E14B}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12456" xr2:uid="{CF10E6CE-D87B-417F-86FF-EEF4FA94E14B}"/>
   </bookViews>
   <sheets>
     <sheet name="PayingMinPmt" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
   <si>
     <t>Interest</t>
   </si>
@@ -262,9 +262,6 @@
       <t>Enter your answers below and reflect on what you notice for part 3 of the project.</t>
     </r>
   </si>
-  <si>
-    <t>What is your best guess in B4?</t>
-  </si>
 </sst>
 </file>
 
@@ -407,7 +404,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -839,21 +836,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color indexed="64"/>
       </left>
@@ -977,7 +959,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1089,9 +1071,6 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="8" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
@@ -1118,13 +1097,13 @@
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -1186,6 +1165,30 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1331,43 +1334,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
@@ -1419,7 +1394,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
@@ -1427,7 +1402,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
@@ -1436,18 +1419,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
@@ -1455,16 +1430,8 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2387,218 +2354,218 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.45" customHeight="1" thickBot="1">
-      <c r="A1" s="95" t="str">
+      <c r="A1" s="100" t="str">
         <f>IF(C10="Your Name Here!", "Enter your name below and your very own problem will appear here:)","Discover both how much is paid and how long it takes to pay off a $"&amp;Random!H19&amp;" credit card debt paying the minimal payment which is the maximum of "&amp;Random!H20&amp;"% or $"&amp;Random!H22&amp;". The credit card has "&amp;Random!H21&amp;"% APR compounded monthly. You want to find out how long it takes you to pay this off and how much you end up paying. Assume you make your payment on the current balance at the beginnig of each period (month), before interest is acrued"&amp;" and assuming that the card is not being used for any additional charges.")</f>
         <v>Enter your name below and your very own problem will appear here:)</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="97"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="102"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A2" s="98"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="100"/>
-      <c r="I2" s="68" t="s">
+      <c r="A2" s="103"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="105"/>
+      <c r="I2" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="69"/>
+      <c r="J2" s="74"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A3" s="98"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="100"/>
-      <c r="I3" s="53" t="s">
+      <c r="A3" s="103"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="105"/>
+      <c r="I3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="53" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="98"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="100"/>
-      <c r="I4" s="55" t="s">
+      <c r="A4" s="103"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="105"/>
+      <c r="I4" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="56" t="s">
+      <c r="J4" s="55" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="98"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="100"/>
-      <c r="I5" s="57" t="s">
+      <c r="A5" s="103"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="105"/>
+      <c r="I5" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="58" t="s">
+      <c r="J5" s="57" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="98"/>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="100"/>
-      <c r="I6" s="59" t="s">
+      <c r="A6" s="103"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="105"/>
+      <c r="I6" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="58" t="s">
+      <c r="J6" s="57" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A7" s="98"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="100"/>
-      <c r="I7" s="60" t="s">
+      <c r="A7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="105"/>
+      <c r="I7" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="61" t="s">
+      <c r="J7" s="60" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="62" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A8" s="101"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="103"/>
-    </row>
-    <row r="9" spans="1:12" s="62" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A9" s="63"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="I9" s="89" t="s">
+    <row r="8" spans="1:12" s="61" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A8" s="106"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="108"/>
+    </row>
+    <row r="9" spans="1:12" s="61" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="I9" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="91"/>
-    </row>
-    <row r="10" spans="1:12" s="62" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A10" s="84" t="s">
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="96"/>
+    </row>
+    <row r="10" spans="1:12" s="61" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A10" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="86" t="s">
+      <c r="B10" s="90"/>
+      <c r="C10" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="87"/>
-      <c r="E10" s="88"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="94"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="93"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="99"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="12" spans="1:12" ht="28.15" customHeight="1" thickBot="1">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="83"/>
+      <c r="B12" s="88"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="72"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="77"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="80"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="75"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="80"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="67">
+      <c r="B14" s="85"/>
+      <c r="C14" s="66">
         <v>12</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="75"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="80"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A15" s="105" t="s">
+      <c r="A15" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="106"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="75"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="80"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="71" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="20"/>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="75"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="80"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A17" s="109"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="78"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="83"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="20" spans="1:12" ht="45.75" thickBot="1">
@@ -2626,16 +2593,16 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="G21" s="104" t="s">
+      <c r="G21" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
       <c r="J21" s="21"/>
       <c r="K21" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="L21" s="65"/>
+      <c r="L21" s="64"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="33">
@@ -2645,11 +2612,11 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="G22" s="104" t="s">
+      <c r="G22" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:12">
@@ -2660,12 +2627,12 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="G23" s="104" t="s">
+      <c r="G23" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="66"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="65"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="33">
@@ -7141,11 +7108,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="14">
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="D12:H17"/>
     <mergeCell ref="A13:B13"/>
@@ -7155,6 +7117,11 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="I9:L10"/>
     <mergeCell ref="A1:G8"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
   </mergeCells>
   <conditionalFormatting sqref="C9:E10">
     <cfRule type="expression" dxfId="4" priority="2">
@@ -7189,182 +7156,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="83"/>
+      <c r="B1" s="88"/>
       <c r="C1" s="2"/>
-      <c r="F1" s="117" t="s">
+      <c r="F1" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="119"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="117"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="85"/>
       <c r="C2" s="3"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="122"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="120"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="41">
+      <c r="B3" s="85"/>
+      <c r="C3" s="40">
         <v>12</v>
       </c>
-      <c r="F3" s="120"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="122"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="119"/>
+      <c r="S3" s="120"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="107"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="121"/>
-      <c r="O4" s="121"/>
-      <c r="P4" s="121"/>
-      <c r="Q4" s="121"/>
-      <c r="R4" s="121"/>
-      <c r="S4" s="122"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="120"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="133" t="s">
         <v>56</v>
       </c>
       <c r="B5" s="20"/>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="120"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="121"/>
-      <c r="P5" s="121"/>
-      <c r="Q5" s="121"/>
-      <c r="R5" s="121"/>
-      <c r="S5" s="122"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="120"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A6" s="109"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="43"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="121"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="121"/>
-      <c r="O6" s="121"/>
-      <c r="P6" s="121"/>
-      <c r="Q6" s="121"/>
-      <c r="R6" s="121"/>
-      <c r="S6" s="122"/>
+      <c r="C6" s="42"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="120"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="F7" s="120"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
-      <c r="S7" s="122"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="120"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="F8" s="120"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="121"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="121"/>
-      <c r="P8" s="121"/>
-      <c r="Q8" s="121"/>
-      <c r="R8" s="121"/>
-      <c r="S8" s="122"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="119"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="119"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="120"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1">
-      <c r="F9" s="120"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="121"/>
-      <c r="N9" s="121"/>
-      <c r="O9" s="121"/>
-      <c r="P9" s="121"/>
-      <c r="Q9" s="121"/>
-      <c r="R9" s="121"/>
-      <c r="S9" s="122"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="119"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="120"/>
     </row>
     <row r="10" spans="1:19" ht="45.75" thickBot="1">
       <c r="A10" s="29" t="s">
@@ -7382,20 +7349,20 @@
       <c r="E10" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="123"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="124"/>
-      <c r="M10" s="124"/>
-      <c r="N10" s="124"/>
-      <c r="O10" s="124"/>
-      <c r="P10" s="124"/>
-      <c r="Q10" s="124"/>
-      <c r="R10" s="124"/>
-      <c r="S10" s="125"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="122"/>
+      <c r="R10" s="122"/>
+      <c r="S10" s="123"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="33">
@@ -7417,16 +7384,16 @@
         <f>IF(OR($C$1="",$C$2="",$C$3="",$B$5="",$B$6="",D11=""),"",D11*C$1/C$3)</f>
         <v/>
       </c>
-      <c r="G11" s="134" t="s">
+      <c r="G11" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="44" t="str">
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="43" t="str">
         <f>IF(B509&lt;&gt;"",(COUNTIF(D11:D509,"&lt;&gt;0")+1)/12,"")</f>
         <v/>
       </c>
-      <c r="K11" s="45" t="s">
+      <c r="K11" s="44" t="s">
         <v>53</v>
       </c>
     </row>
@@ -7434,7 +7401,7 @@
       <c r="A12" s="33">
         <v>2</v>
       </c>
-      <c r="B12" s="46" t="str">
+      <c r="B12" s="45" t="str">
         <f>IF(OR($C$1="",$C$2="",$C$3="",$B$5="",$B$6="",E11=""),"",D11+E11)</f>
         <v/>
       </c>
@@ -7450,12 +7417,12 @@
         <f>IF(OR($C$1="",$C$2="",$C$3="",$B$5="",$B$6="",D12=""),"",D12*C$1/C$3)</f>
         <v/>
       </c>
-      <c r="G12" s="104" t="s">
+      <c r="G12" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="46" t="str">
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="45" t="str">
         <f>IF(B509&lt;&gt;"",SUM(C11:C509),"")</f>
         <v/>
       </c>
@@ -7464,7 +7431,7 @@
       <c r="A13" s="33">
         <v>3</v>
       </c>
-      <c r="B13" s="46" t="str">
+      <c r="B13" s="45" t="str">
         <f>IF(OR($C$1="",$C$2="",$C$3="",$B$5="",$B$6="",E12=""),"",D12+E12)</f>
         <v/>
       </c>
@@ -7480,12 +7447,12 @@
         <f>IF(OR($C$1="",$C$2="",$C$3="",$B$5="",$B$6="",D13=""),"",D13*C$1/C$3)</f>
         <v/>
       </c>
-      <c r="G13" s="104" t="s">
+      <c r="G13" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="47" t="str">
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="46" t="str">
         <f>IF(B509&lt;&gt;"",J12-C2,"")</f>
         <v/>
       </c>
@@ -7494,7 +7461,7 @@
       <c r="A14" s="33">
         <v>4</v>
       </c>
-      <c r="B14" s="46" t="str">
+      <c r="B14" s="45" t="str">
         <f t="shared" ref="B14:B77" si="0">IF(OR($C$1="",$C$2="",$C$3="",$B$5="",$B$6="",E13=""),"",D13+E13)</f>
         <v/>
       </c>
@@ -7515,7 +7482,7 @@
       <c r="A15" s="33">
         <v>5</v>
       </c>
-      <c r="B15" s="46" t="str">
+      <c r="B15" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7531,20 +7498,20 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="114" t="s">
+      <c r="G15" s="51"/>
+      <c r="H15" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="116"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="114"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="33">
         <v>6</v>
       </c>
-      <c r="B16" s="46" t="str">
+      <c r="B16" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7560,20 +7527,20 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G16" s="48" t="s">
+      <c r="G16" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="128"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="125"/>
+      <c r="L16" s="126"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="33">
         <v>7</v>
       </c>
-      <c r="B17" s="46" t="str">
+      <c r="B17" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7589,17 +7556,17 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H17" s="129"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="131"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="129"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="33">
         <v>8</v>
       </c>
-      <c r="B18" s="46" t="str">
+      <c r="B18" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7615,17 +7582,17 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H18" s="129"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="131"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="128"/>
+      <c r="L18" s="129"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="33">
         <v>9</v>
       </c>
-      <c r="B19" s="46" t="str">
+      <c r="B19" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7641,20 +7608,20 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G19" s="48" t="s">
+      <c r="G19" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="111"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="132"/>
-      <c r="K19" s="132"/>
-      <c r="L19" s="133"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="130"/>
+      <c r="L19" s="131"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="33">
         <v>10</v>
       </c>
-      <c r="B20" s="46" t="str">
+      <c r="B20" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7670,20 +7637,20 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G20" s="48" t="s">
+      <c r="G20" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="111"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="132"/>
-      <c r="K20" s="132"/>
-      <c r="L20" s="133"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="130"/>
+      <c r="L20" s="131"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1">
       <c r="A21" s="33">
         <v>11</v>
       </c>
-      <c r="B21" s="46" t="str">
+      <c r="B21" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7699,20 +7666,20 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G21" s="48" t="s">
+      <c r="G21" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="111"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="112"/>
-      <c r="L21" s="113"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="111"/>
     </row>
     <row r="22" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="33">
         <v>12</v>
       </c>
-      <c r="B22" s="46" t="str">
+      <c r="B22" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7728,20 +7695,20 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G22" s="48" t="s">
+      <c r="G22" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="51"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickTop="1">
       <c r="A23" s="33">
         <v>13</v>
       </c>
-      <c r="B23" s="46" t="str">
+      <c r="B23" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7762,7 +7729,7 @@
       <c r="A24" s="33">
         <v>14</v>
       </c>
-      <c r="B24" s="46" t="str">
+      <c r="B24" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7783,7 +7750,7 @@
       <c r="A25" s="33">
         <v>15</v>
       </c>
-      <c r="B25" s="46" t="str">
+      <c r="B25" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7804,7 +7771,7 @@
       <c r="A26" s="33">
         <v>16</v>
       </c>
-      <c r="B26" s="46" t="str">
+      <c r="B26" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7825,7 +7792,7 @@
       <c r="A27" s="33">
         <v>17</v>
       </c>
-      <c r="B27" s="46" t="str">
+      <c r="B27" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7846,7 +7813,7 @@
       <c r="A28" s="33">
         <v>18</v>
       </c>
-      <c r="B28" s="46" t="str">
+      <c r="B28" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7867,7 +7834,7 @@
       <c r="A29" s="33">
         <v>19</v>
       </c>
-      <c r="B29" s="46" t="str">
+      <c r="B29" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7888,7 +7855,7 @@
       <c r="A30" s="33">
         <v>20</v>
       </c>
-      <c r="B30" s="46" t="str">
+      <c r="B30" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7909,7 +7876,7 @@
       <c r="A31" s="33">
         <v>21</v>
       </c>
-      <c r="B31" s="46" t="str">
+      <c r="B31" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7930,7 +7897,7 @@
       <c r="A32" s="33">
         <v>22</v>
       </c>
-      <c r="B32" s="46" t="str">
+      <c r="B32" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7951,7 +7918,7 @@
       <c r="A33" s="33">
         <v>23</v>
       </c>
-      <c r="B33" s="46" t="str">
+      <c r="B33" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7972,7 +7939,7 @@
       <c r="A34" s="33">
         <v>24</v>
       </c>
-      <c r="B34" s="46" t="str">
+      <c r="B34" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7993,7 +7960,7 @@
       <c r="A35" s="33">
         <v>25</v>
       </c>
-      <c r="B35" s="46" t="str">
+      <c r="B35" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8014,7 +7981,7 @@
       <c r="A36" s="33">
         <v>26</v>
       </c>
-      <c r="B36" s="46" t="str">
+      <c r="B36" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8035,7 +8002,7 @@
       <c r="A37" s="33">
         <v>27</v>
       </c>
-      <c r="B37" s="46" t="str">
+      <c r="B37" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8056,7 +8023,7 @@
       <c r="A38" s="33">
         <v>28</v>
       </c>
-      <c r="B38" s="46" t="str">
+      <c r="B38" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8077,7 +8044,7 @@
       <c r="A39" s="33">
         <v>29</v>
       </c>
-      <c r="B39" s="46" t="str">
+      <c r="B39" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8098,7 +8065,7 @@
       <c r="A40" s="33">
         <v>30</v>
       </c>
-      <c r="B40" s="46" t="str">
+      <c r="B40" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8119,7 +8086,7 @@
       <c r="A41" s="33">
         <v>31</v>
       </c>
-      <c r="B41" s="46" t="str">
+      <c r="B41" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8140,7 +8107,7 @@
       <c r="A42" s="33">
         <v>32</v>
       </c>
-      <c r="B42" s="46" t="str">
+      <c r="B42" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8161,7 +8128,7 @@
       <c r="A43" s="33">
         <v>33</v>
       </c>
-      <c r="B43" s="46" t="str">
+      <c r="B43" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8182,7 +8149,7 @@
       <c r="A44" s="33">
         <v>34</v>
       </c>
-      <c r="B44" s="46" t="str">
+      <c r="B44" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8203,7 +8170,7 @@
       <c r="A45" s="33">
         <v>35</v>
       </c>
-      <c r="B45" s="46" t="str">
+      <c r="B45" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8224,7 +8191,7 @@
       <c r="A46" s="33">
         <v>36</v>
       </c>
-      <c r="B46" s="46" t="str">
+      <c r="B46" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8245,7 +8212,7 @@
       <c r="A47" s="33">
         <v>37</v>
       </c>
-      <c r="B47" s="46" t="str">
+      <c r="B47" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8266,7 +8233,7 @@
       <c r="A48" s="33">
         <v>38</v>
       </c>
-      <c r="B48" s="46" t="str">
+      <c r="B48" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8287,7 +8254,7 @@
       <c r="A49" s="33">
         <v>39</v>
       </c>
-      <c r="B49" s="46" t="str">
+      <c r="B49" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8308,7 +8275,7 @@
       <c r="A50" s="33">
         <v>40</v>
       </c>
-      <c r="B50" s="46" t="str">
+      <c r="B50" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8329,7 +8296,7 @@
       <c r="A51" s="33">
         <v>41</v>
       </c>
-      <c r="B51" s="46" t="str">
+      <c r="B51" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8350,7 +8317,7 @@
       <c r="A52" s="33">
         <v>42</v>
       </c>
-      <c r="B52" s="46" t="str">
+      <c r="B52" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8371,7 +8338,7 @@
       <c r="A53" s="33">
         <v>43</v>
       </c>
-      <c r="B53" s="46" t="str">
+      <c r="B53" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8392,7 +8359,7 @@
       <c r="A54" s="33">
         <v>44</v>
       </c>
-      <c r="B54" s="46" t="str">
+      <c r="B54" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8413,7 +8380,7 @@
       <c r="A55" s="33">
         <v>45</v>
       </c>
-      <c r="B55" s="46" t="str">
+      <c r="B55" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8434,7 +8401,7 @@
       <c r="A56" s="33">
         <v>46</v>
       </c>
-      <c r="B56" s="46" t="str">
+      <c r="B56" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8455,7 +8422,7 @@
       <c r="A57" s="33">
         <v>47</v>
       </c>
-      <c r="B57" s="46" t="str">
+      <c r="B57" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8476,7 +8443,7 @@
       <c r="A58" s="33">
         <v>48</v>
       </c>
-      <c r="B58" s="46" t="str">
+      <c r="B58" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8497,7 +8464,7 @@
       <c r="A59" s="33">
         <v>49</v>
       </c>
-      <c r="B59" s="46" t="str">
+      <c r="B59" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8518,7 +8485,7 @@
       <c r="A60" s="33">
         <v>50</v>
       </c>
-      <c r="B60" s="46" t="str">
+      <c r="B60" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8539,7 +8506,7 @@
       <c r="A61" s="33">
         <v>51</v>
       </c>
-      <c r="B61" s="46" t="str">
+      <c r="B61" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8560,7 +8527,7 @@
       <c r="A62" s="33">
         <v>52</v>
       </c>
-      <c r="B62" s="46" t="str">
+      <c r="B62" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8581,7 +8548,7 @@
       <c r="A63" s="33">
         <v>53</v>
       </c>
-      <c r="B63" s="46" t="str">
+      <c r="B63" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8602,7 +8569,7 @@
       <c r="A64" s="33">
         <v>54</v>
       </c>
-      <c r="B64" s="46" t="str">
+      <c r="B64" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8623,7 +8590,7 @@
       <c r="A65" s="33">
         <v>55</v>
       </c>
-      <c r="B65" s="46" t="str">
+      <c r="B65" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8644,7 +8611,7 @@
       <c r="A66" s="33">
         <v>56</v>
       </c>
-      <c r="B66" s="46" t="str">
+      <c r="B66" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8665,7 +8632,7 @@
       <c r="A67" s="33">
         <v>57</v>
       </c>
-      <c r="B67" s="46" t="str">
+      <c r="B67" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8686,7 +8653,7 @@
       <c r="A68" s="33">
         <v>58</v>
       </c>
-      <c r="B68" s="46" t="str">
+      <c r="B68" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8707,7 +8674,7 @@
       <c r="A69" s="33">
         <v>59</v>
       </c>
-      <c r="B69" s="46" t="str">
+      <c r="B69" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8728,7 +8695,7 @@
       <c r="A70" s="33">
         <v>60</v>
       </c>
-      <c r="B70" s="46" t="str">
+      <c r="B70" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8749,7 +8716,7 @@
       <c r="A71" s="33">
         <v>61</v>
       </c>
-      <c r="B71" s="46" t="str">
+      <c r="B71" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8770,7 +8737,7 @@
       <c r="A72" s="33">
         <v>62</v>
       </c>
-      <c r="B72" s="46" t="str">
+      <c r="B72" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8791,7 +8758,7 @@
       <c r="A73" s="33">
         <v>63</v>
       </c>
-      <c r="B73" s="46" t="str">
+      <c r="B73" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8812,7 +8779,7 @@
       <c r="A74" s="33">
         <v>64</v>
       </c>
-      <c r="B74" s="46" t="str">
+      <c r="B74" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8833,7 +8800,7 @@
       <c r="A75" s="33">
         <v>65</v>
       </c>
-      <c r="B75" s="46" t="str">
+      <c r="B75" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8854,7 +8821,7 @@
       <c r="A76" s="33">
         <v>66</v>
       </c>
-      <c r="B76" s="46" t="str">
+      <c r="B76" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8875,7 +8842,7 @@
       <c r="A77" s="33">
         <v>67</v>
       </c>
-      <c r="B77" s="46" t="str">
+      <c r="B77" s="45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -8896,7 +8863,7 @@
       <c r="A78" s="33">
         <v>68</v>
       </c>
-      <c r="B78" s="46" t="str">
+      <c r="B78" s="45" t="str">
         <f t="shared" ref="B78:B141" si="4">IF(OR($C$1="",$C$2="",$C$3="",$B$5="",$B$6="",E77=""),"",D77+E77)</f>
         <v/>
       </c>
@@ -8917,7 +8884,7 @@
       <c r="A79" s="33">
         <v>69</v>
       </c>
-      <c r="B79" s="46" t="str">
+      <c r="B79" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -8938,7 +8905,7 @@
       <c r="A80" s="33">
         <v>70</v>
       </c>
-      <c r="B80" s="46" t="str">
+      <c r="B80" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -8959,7 +8926,7 @@
       <c r="A81" s="33">
         <v>71</v>
       </c>
-      <c r="B81" s="46" t="str">
+      <c r="B81" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -8980,7 +8947,7 @@
       <c r="A82" s="33">
         <v>72</v>
       </c>
-      <c r="B82" s="46" t="str">
+      <c r="B82" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9001,7 +8968,7 @@
       <c r="A83" s="33">
         <v>73</v>
       </c>
-      <c r="B83" s="46" t="str">
+      <c r="B83" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9022,7 +8989,7 @@
       <c r="A84" s="33">
         <v>74</v>
       </c>
-      <c r="B84" s="46" t="str">
+      <c r="B84" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9043,7 +9010,7 @@
       <c r="A85" s="33">
         <v>75</v>
       </c>
-      <c r="B85" s="46" t="str">
+      <c r="B85" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9064,7 +9031,7 @@
       <c r="A86" s="33">
         <v>76</v>
       </c>
-      <c r="B86" s="46" t="str">
+      <c r="B86" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9085,7 +9052,7 @@
       <c r="A87" s="33">
         <v>77</v>
       </c>
-      <c r="B87" s="46" t="str">
+      <c r="B87" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9106,7 +9073,7 @@
       <c r="A88" s="33">
         <v>78</v>
       </c>
-      <c r="B88" s="46" t="str">
+      <c r="B88" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9127,7 +9094,7 @@
       <c r="A89" s="33">
         <v>79</v>
       </c>
-      <c r="B89" s="46" t="str">
+      <c r="B89" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9148,7 +9115,7 @@
       <c r="A90" s="33">
         <v>80</v>
       </c>
-      <c r="B90" s="46" t="str">
+      <c r="B90" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9169,7 +9136,7 @@
       <c r="A91" s="33">
         <v>81</v>
       </c>
-      <c r="B91" s="46" t="str">
+      <c r="B91" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9190,7 +9157,7 @@
       <c r="A92" s="33">
         <v>82</v>
       </c>
-      <c r="B92" s="46" t="str">
+      <c r="B92" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9211,7 +9178,7 @@
       <c r="A93" s="33">
         <v>83</v>
       </c>
-      <c r="B93" s="46" t="str">
+      <c r="B93" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9232,7 +9199,7 @@
       <c r="A94" s="33">
         <v>84</v>
       </c>
-      <c r="B94" s="46" t="str">
+      <c r="B94" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9253,7 +9220,7 @@
       <c r="A95" s="33">
         <v>85</v>
       </c>
-      <c r="B95" s="46" t="str">
+      <c r="B95" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9274,7 +9241,7 @@
       <c r="A96" s="33">
         <v>86</v>
       </c>
-      <c r="B96" s="46" t="str">
+      <c r="B96" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9295,7 +9262,7 @@
       <c r="A97" s="33">
         <v>87</v>
       </c>
-      <c r="B97" s="46" t="str">
+      <c r="B97" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9316,7 +9283,7 @@
       <c r="A98" s="33">
         <v>88</v>
       </c>
-      <c r="B98" s="46" t="str">
+      <c r="B98" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9337,7 +9304,7 @@
       <c r="A99" s="33">
         <v>89</v>
       </c>
-      <c r="B99" s="46" t="str">
+      <c r="B99" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9358,7 +9325,7 @@
       <c r="A100" s="33">
         <v>90</v>
       </c>
-      <c r="B100" s="46" t="str">
+      <c r="B100" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9379,7 +9346,7 @@
       <c r="A101" s="33">
         <v>91</v>
       </c>
-      <c r="B101" s="46" t="str">
+      <c r="B101" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9400,7 +9367,7 @@
       <c r="A102" s="33">
         <v>92</v>
       </c>
-      <c r="B102" s="46" t="str">
+      <c r="B102" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9421,7 +9388,7 @@
       <c r="A103" s="33">
         <v>93</v>
       </c>
-      <c r="B103" s="46" t="str">
+      <c r="B103" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9442,7 +9409,7 @@
       <c r="A104" s="33">
         <v>94</v>
       </c>
-      <c r="B104" s="46" t="str">
+      <c r="B104" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9463,7 +9430,7 @@
       <c r="A105" s="33">
         <v>95</v>
       </c>
-      <c r="B105" s="46" t="str">
+      <c r="B105" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9484,7 +9451,7 @@
       <c r="A106" s="33">
         <v>96</v>
       </c>
-      <c r="B106" s="46" t="str">
+      <c r="B106" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9505,7 +9472,7 @@
       <c r="A107" s="33">
         <v>97</v>
       </c>
-      <c r="B107" s="46" t="str">
+      <c r="B107" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9526,7 +9493,7 @@
       <c r="A108" s="33">
         <v>98</v>
       </c>
-      <c r="B108" s="46" t="str">
+      <c r="B108" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9547,7 +9514,7 @@
       <c r="A109" s="33">
         <v>99</v>
       </c>
-      <c r="B109" s="46" t="str">
+      <c r="B109" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9568,7 +9535,7 @@
       <c r="A110" s="33">
         <v>100</v>
       </c>
-      <c r="B110" s="46" t="str">
+      <c r="B110" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9589,7 +9556,7 @@
       <c r="A111" s="33">
         <v>101</v>
       </c>
-      <c r="B111" s="46" t="str">
+      <c r="B111" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9610,7 +9577,7 @@
       <c r="A112" s="33">
         <v>102</v>
       </c>
-      <c r="B112" s="46" t="str">
+      <c r="B112" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9631,7 +9598,7 @@
       <c r="A113" s="33">
         <v>103</v>
       </c>
-      <c r="B113" s="46" t="str">
+      <c r="B113" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9652,7 +9619,7 @@
       <c r="A114" s="33">
         <v>104</v>
       </c>
-      <c r="B114" s="46" t="str">
+      <c r="B114" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9673,7 +9640,7 @@
       <c r="A115" s="33">
         <v>105</v>
       </c>
-      <c r="B115" s="46" t="str">
+      <c r="B115" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9694,7 +9661,7 @@
       <c r="A116" s="33">
         <v>106</v>
       </c>
-      <c r="B116" s="46" t="str">
+      <c r="B116" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9715,7 +9682,7 @@
       <c r="A117" s="33">
         <v>107</v>
       </c>
-      <c r="B117" s="46" t="str">
+      <c r="B117" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9736,7 +9703,7 @@
       <c r="A118" s="33">
         <v>108</v>
       </c>
-      <c r="B118" s="46" t="str">
+      <c r="B118" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9757,7 +9724,7 @@
       <c r="A119" s="33">
         <v>109</v>
       </c>
-      <c r="B119" s="46" t="str">
+      <c r="B119" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9778,7 +9745,7 @@
       <c r="A120" s="33">
         <v>110</v>
       </c>
-      <c r="B120" s="46" t="str">
+      <c r="B120" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9799,7 +9766,7 @@
       <c r="A121" s="33">
         <v>111</v>
       </c>
-      <c r="B121" s="46" t="str">
+      <c r="B121" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9820,7 +9787,7 @@
       <c r="A122" s="33">
         <v>112</v>
       </c>
-      <c r="B122" s="46" t="str">
+      <c r="B122" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9841,7 +9808,7 @@
       <c r="A123" s="33">
         <v>113</v>
       </c>
-      <c r="B123" s="46" t="str">
+      <c r="B123" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9862,7 +9829,7 @@
       <c r="A124" s="33">
         <v>114</v>
       </c>
-      <c r="B124" s="46" t="str">
+      <c r="B124" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9883,7 +9850,7 @@
       <c r="A125" s="33">
         <v>115</v>
       </c>
-      <c r="B125" s="46" t="str">
+      <c r="B125" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9904,7 +9871,7 @@
       <c r="A126" s="33">
         <v>116</v>
       </c>
-      <c r="B126" s="46" t="str">
+      <c r="B126" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9925,7 +9892,7 @@
       <c r="A127" s="33">
         <v>117</v>
       </c>
-      <c r="B127" s="46" t="str">
+      <c r="B127" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9946,7 +9913,7 @@
       <c r="A128" s="33">
         <v>118</v>
       </c>
-      <c r="B128" s="46" t="str">
+      <c r="B128" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9967,7 +9934,7 @@
       <c r="A129" s="33">
         <v>119</v>
       </c>
-      <c r="B129" s="46" t="str">
+      <c r="B129" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -9988,7 +9955,7 @@
       <c r="A130" s="33">
         <v>120</v>
       </c>
-      <c r="B130" s="46" t="str">
+      <c r="B130" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -10009,7 +9976,7 @@
       <c r="A131" s="33">
         <v>121</v>
       </c>
-      <c r="B131" s="46" t="str">
+      <c r="B131" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -10030,7 +9997,7 @@
       <c r="A132" s="33">
         <v>122</v>
       </c>
-      <c r="B132" s="46" t="str">
+      <c r="B132" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -10051,7 +10018,7 @@
       <c r="A133" s="33">
         <v>123</v>
       </c>
-      <c r="B133" s="46" t="str">
+      <c r="B133" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -10072,7 +10039,7 @@
       <c r="A134" s="33">
         <v>124</v>
       </c>
-      <c r="B134" s="46" t="str">
+      <c r="B134" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -10093,7 +10060,7 @@
       <c r="A135" s="33">
         <v>125</v>
       </c>
-      <c r="B135" s="46" t="str">
+      <c r="B135" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -10114,7 +10081,7 @@
       <c r="A136" s="33">
         <v>126</v>
       </c>
-      <c r="B136" s="46" t="str">
+      <c r="B136" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -10135,7 +10102,7 @@
       <c r="A137" s="33">
         <v>127</v>
       </c>
-      <c r="B137" s="46" t="str">
+      <c r="B137" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -10156,7 +10123,7 @@
       <c r="A138" s="33">
         <v>128</v>
       </c>
-      <c r="B138" s="46" t="str">
+      <c r="B138" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -10177,7 +10144,7 @@
       <c r="A139" s="33">
         <v>129</v>
       </c>
-      <c r="B139" s="46" t="str">
+      <c r="B139" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -10198,7 +10165,7 @@
       <c r="A140" s="33">
         <v>130</v>
       </c>
-      <c r="B140" s="46" t="str">
+      <c r="B140" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -10219,7 +10186,7 @@
       <c r="A141" s="33">
         <v>131</v>
       </c>
-      <c r="B141" s="46" t="str">
+      <c r="B141" s="45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -10240,7 +10207,7 @@
       <c r="A142" s="33">
         <v>132</v>
       </c>
-      <c r="B142" s="46" t="str">
+      <c r="B142" s="45" t="str">
         <f t="shared" ref="B142:B205" si="8">IF(OR($C$1="",$C$2="",$C$3="",$B$5="",$B$6="",E141=""),"",D141+E141)</f>
         <v/>
       </c>
@@ -10261,7 +10228,7 @@
       <c r="A143" s="33">
         <v>133</v>
       </c>
-      <c r="B143" s="46" t="str">
+      <c r="B143" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10282,7 +10249,7 @@
       <c r="A144" s="33">
         <v>134</v>
       </c>
-      <c r="B144" s="46" t="str">
+      <c r="B144" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10303,7 +10270,7 @@
       <c r="A145" s="33">
         <v>135</v>
       </c>
-      <c r="B145" s="46" t="str">
+      <c r="B145" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10324,7 +10291,7 @@
       <c r="A146" s="33">
         <v>136</v>
       </c>
-      <c r="B146" s="46" t="str">
+      <c r="B146" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10345,7 +10312,7 @@
       <c r="A147" s="33">
         <v>137</v>
       </c>
-      <c r="B147" s="46" t="str">
+      <c r="B147" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10366,7 +10333,7 @@
       <c r="A148" s="33">
         <v>138</v>
       </c>
-      <c r="B148" s="46" t="str">
+      <c r="B148" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10387,7 +10354,7 @@
       <c r="A149" s="33">
         <v>139</v>
       </c>
-      <c r="B149" s="46" t="str">
+      <c r="B149" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10408,7 +10375,7 @@
       <c r="A150" s="33">
         <v>140</v>
       </c>
-      <c r="B150" s="46" t="str">
+      <c r="B150" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10429,7 +10396,7 @@
       <c r="A151" s="33">
         <v>141</v>
       </c>
-      <c r="B151" s="46" t="str">
+      <c r="B151" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10450,7 +10417,7 @@
       <c r="A152" s="33">
         <v>142</v>
       </c>
-      <c r="B152" s="46" t="str">
+      <c r="B152" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10471,7 +10438,7 @@
       <c r="A153" s="33">
         <v>143</v>
       </c>
-      <c r="B153" s="46" t="str">
+      <c r="B153" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10492,7 +10459,7 @@
       <c r="A154" s="33">
         <v>144</v>
       </c>
-      <c r="B154" s="46" t="str">
+      <c r="B154" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10513,7 +10480,7 @@
       <c r="A155" s="33">
         <v>145</v>
       </c>
-      <c r="B155" s="46" t="str">
+      <c r="B155" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10534,7 +10501,7 @@
       <c r="A156" s="33">
         <v>146</v>
       </c>
-      <c r="B156" s="46" t="str">
+      <c r="B156" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10555,7 +10522,7 @@
       <c r="A157" s="33">
         <v>147</v>
       </c>
-      <c r="B157" s="46" t="str">
+      <c r="B157" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10576,7 +10543,7 @@
       <c r="A158" s="33">
         <v>148</v>
       </c>
-      <c r="B158" s="46" t="str">
+      <c r="B158" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10597,7 +10564,7 @@
       <c r="A159" s="33">
         <v>149</v>
       </c>
-      <c r="B159" s="46" t="str">
+      <c r="B159" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10618,7 +10585,7 @@
       <c r="A160" s="33">
         <v>150</v>
       </c>
-      <c r="B160" s="46" t="str">
+      <c r="B160" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10639,7 +10606,7 @@
       <c r="A161" s="33">
         <v>151</v>
       </c>
-      <c r="B161" s="46" t="str">
+      <c r="B161" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10660,7 +10627,7 @@
       <c r="A162" s="33">
         <v>152</v>
       </c>
-      <c r="B162" s="46" t="str">
+      <c r="B162" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10681,7 +10648,7 @@
       <c r="A163" s="33">
         <v>153</v>
       </c>
-      <c r="B163" s="46" t="str">
+      <c r="B163" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10702,7 +10669,7 @@
       <c r="A164" s="33">
         <v>154</v>
       </c>
-      <c r="B164" s="46" t="str">
+      <c r="B164" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10723,7 +10690,7 @@
       <c r="A165" s="33">
         <v>155</v>
       </c>
-      <c r="B165" s="46" t="str">
+      <c r="B165" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10744,7 +10711,7 @@
       <c r="A166" s="33">
         <v>156</v>
       </c>
-      <c r="B166" s="46" t="str">
+      <c r="B166" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10765,7 +10732,7 @@
       <c r="A167" s="33">
         <v>157</v>
       </c>
-      <c r="B167" s="46" t="str">
+      <c r="B167" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10786,7 +10753,7 @@
       <c r="A168" s="33">
         <v>158</v>
       </c>
-      <c r="B168" s="46" t="str">
+      <c r="B168" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10807,7 +10774,7 @@
       <c r="A169" s="33">
         <v>159</v>
       </c>
-      <c r="B169" s="46" t="str">
+      <c r="B169" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10828,7 +10795,7 @@
       <c r="A170" s="33">
         <v>160</v>
       </c>
-      <c r="B170" s="46" t="str">
+      <c r="B170" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10849,7 +10816,7 @@
       <c r="A171" s="33">
         <v>161</v>
       </c>
-      <c r="B171" s="46" t="str">
+      <c r="B171" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10870,7 +10837,7 @@
       <c r="A172" s="33">
         <v>162</v>
       </c>
-      <c r="B172" s="46" t="str">
+      <c r="B172" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10891,7 +10858,7 @@
       <c r="A173" s="33">
         <v>163</v>
       </c>
-      <c r="B173" s="46" t="str">
+      <c r="B173" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10912,7 +10879,7 @@
       <c r="A174" s="33">
         <v>164</v>
       </c>
-      <c r="B174" s="46" t="str">
+      <c r="B174" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10933,7 +10900,7 @@
       <c r="A175" s="33">
         <v>165</v>
       </c>
-      <c r="B175" s="46" t="str">
+      <c r="B175" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10954,7 +10921,7 @@
       <c r="A176" s="33">
         <v>166</v>
       </c>
-      <c r="B176" s="46" t="str">
+      <c r="B176" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10975,7 +10942,7 @@
       <c r="A177" s="33">
         <v>167</v>
       </c>
-      <c r="B177" s="46" t="str">
+      <c r="B177" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -10996,7 +10963,7 @@
       <c r="A178" s="33">
         <v>168</v>
       </c>
-      <c r="B178" s="46" t="str">
+      <c r="B178" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -11017,7 +10984,7 @@
       <c r="A179" s="33">
         <v>169</v>
       </c>
-      <c r="B179" s="46" t="str">
+      <c r="B179" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -11038,7 +11005,7 @@
       <c r="A180" s="33">
         <v>170</v>
       </c>
-      <c r="B180" s="46" t="str">
+      <c r="B180" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -11059,7 +11026,7 @@
       <c r="A181" s="33">
         <v>171</v>
       </c>
-      <c r="B181" s="46" t="str">
+      <c r="B181" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -11080,7 +11047,7 @@
       <c r="A182" s="33">
         <v>172</v>
       </c>
-      <c r="B182" s="46" t="str">
+      <c r="B182" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -11101,7 +11068,7 @@
       <c r="A183" s="33">
         <v>173</v>
       </c>
-      <c r="B183" s="46" t="str">
+      <c r="B183" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -11122,7 +11089,7 @@
       <c r="A184" s="33">
         <v>174</v>
       </c>
-      <c r="B184" s="46" t="str">
+      <c r="B184" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -11143,7 +11110,7 @@
       <c r="A185" s="33">
         <v>175</v>
       </c>
-      <c r="B185" s="46" t="str">
+      <c r="B185" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -11164,7 +11131,7 @@
       <c r="A186" s="33">
         <v>176</v>
       </c>
-      <c r="B186" s="46" t="str">
+      <c r="B186" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -11185,7 +11152,7 @@
       <c r="A187" s="33">
         <v>177</v>
       </c>
-      <c r="B187" s="46" t="str">
+      <c r="B187" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -11206,7 +11173,7 @@
       <c r="A188" s="33">
         <v>178</v>
       </c>
-      <c r="B188" s="46" t="str">
+      <c r="B188" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -11227,7 +11194,7 @@
       <c r="A189" s="33">
         <v>179</v>
       </c>
-      <c r="B189" s="46" t="str">
+      <c r="B189" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -11248,7 +11215,7 @@
       <c r="A190" s="33">
         <v>180</v>
       </c>
-      <c r="B190" s="46" t="str">
+      <c r="B190" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -11269,7 +11236,7 @@
       <c r="A191" s="33">
         <v>181</v>
       </c>
-      <c r="B191" s="46" t="str">
+      <c r="B191" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -11290,7 +11257,7 @@
       <c r="A192" s="33">
         <v>182</v>
       </c>
-      <c r="B192" s="46" t="str">
+      <c r="B192" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -11311,7 +11278,7 @@
       <c r="A193" s="33">
         <v>183</v>
       </c>
-      <c r="B193" s="46" t="str">
+      <c r="B193" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -11332,7 +11299,7 @@
       <c r="A194" s="33">
         <v>184</v>
       </c>
-      <c r="B194" s="46" t="str">
+      <c r="B194" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -11353,7 +11320,7 @@
       <c r="A195" s="33">
         <v>185</v>
       </c>
-      <c r="B195" s="46" t="str">
+      <c r="B195" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -11374,7 +11341,7 @@
       <c r="A196" s="33">
         <v>186</v>
       </c>
-      <c r="B196" s="46" t="str">
+      <c r="B196" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -11395,7 +11362,7 @@
       <c r="A197" s="33">
         <v>187</v>
       </c>
-      <c r="B197" s="46" t="str">
+      <c r="B197" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -11416,7 +11383,7 @@
       <c r="A198" s="33">
         <v>188</v>
       </c>
-      <c r="B198" s="46" t="str">
+      <c r="B198" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -11437,7 +11404,7 @@
       <c r="A199" s="33">
         <v>189</v>
       </c>
-      <c r="B199" s="46" t="str">
+      <c r="B199" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -11458,7 +11425,7 @@
       <c r="A200" s="33">
         <v>190</v>
       </c>
-      <c r="B200" s="46" t="str">
+      <c r="B200" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -11479,7 +11446,7 @@
       <c r="A201" s="33">
         <v>191</v>
       </c>
-      <c r="B201" s="46" t="str">
+      <c r="B201" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -11500,7 +11467,7 @@
       <c r="A202" s="33">
         <v>192</v>
       </c>
-      <c r="B202" s="46" t="str">
+      <c r="B202" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -11521,7 +11488,7 @@
       <c r="A203" s="33">
         <v>193</v>
       </c>
-      <c r="B203" s="46" t="str">
+      <c r="B203" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -11542,7 +11509,7 @@
       <c r="A204" s="33">
         <v>194</v>
       </c>
-      <c r="B204" s="46" t="str">
+      <c r="B204" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -11563,7 +11530,7 @@
       <c r="A205" s="33">
         <v>195</v>
       </c>
-      <c r="B205" s="46" t="str">
+      <c r="B205" s="45" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -11584,7 +11551,7 @@
       <c r="A206" s="33">
         <v>196</v>
       </c>
-      <c r="B206" s="46" t="str">
+      <c r="B206" s="45" t="str">
         <f t="shared" ref="B206:B269" si="12">IF(OR($C$1="",$C$2="",$C$3="",$B$5="",$B$6="",E205=""),"",D205+E205)</f>
         <v/>
       </c>
@@ -11605,7 +11572,7 @@
       <c r="A207" s="33">
         <v>197</v>
       </c>
-      <c r="B207" s="46" t="str">
+      <c r="B207" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -11626,7 +11593,7 @@
       <c r="A208" s="33">
         <v>198</v>
       </c>
-      <c r="B208" s="46" t="str">
+      <c r="B208" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -11647,7 +11614,7 @@
       <c r="A209" s="33">
         <v>199</v>
       </c>
-      <c r="B209" s="46" t="str">
+      <c r="B209" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -11668,7 +11635,7 @@
       <c r="A210" s="33">
         <v>200</v>
       </c>
-      <c r="B210" s="46" t="str">
+      <c r="B210" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -11689,7 +11656,7 @@
       <c r="A211" s="33">
         <v>201</v>
       </c>
-      <c r="B211" s="46" t="str">
+      <c r="B211" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -11710,7 +11677,7 @@
       <c r="A212" s="33">
         <v>202</v>
       </c>
-      <c r="B212" s="46" t="str">
+      <c r="B212" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -11731,7 +11698,7 @@
       <c r="A213" s="33">
         <v>203</v>
       </c>
-      <c r="B213" s="46" t="str">
+      <c r="B213" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -11752,7 +11719,7 @@
       <c r="A214" s="33">
         <v>204</v>
       </c>
-      <c r="B214" s="46" t="str">
+      <c r="B214" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -11773,7 +11740,7 @@
       <c r="A215" s="33">
         <v>205</v>
       </c>
-      <c r="B215" s="46" t="str">
+      <c r="B215" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -11794,7 +11761,7 @@
       <c r="A216" s="33">
         <v>206</v>
       </c>
-      <c r="B216" s="46" t="str">
+      <c r="B216" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -11815,7 +11782,7 @@
       <c r="A217" s="33">
         <v>207</v>
       </c>
-      <c r="B217" s="46" t="str">
+      <c r="B217" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -11836,7 +11803,7 @@
       <c r="A218" s="33">
         <v>208</v>
       </c>
-      <c r="B218" s="46" t="str">
+      <c r="B218" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -11857,7 +11824,7 @@
       <c r="A219" s="33">
         <v>209</v>
       </c>
-      <c r="B219" s="46" t="str">
+      <c r="B219" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -11878,7 +11845,7 @@
       <c r="A220" s="33">
         <v>210</v>
       </c>
-      <c r="B220" s="46" t="str">
+      <c r="B220" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -11899,7 +11866,7 @@
       <c r="A221" s="33">
         <v>211</v>
       </c>
-      <c r="B221" s="46" t="str">
+      <c r="B221" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -11920,7 +11887,7 @@
       <c r="A222" s="33">
         <v>212</v>
       </c>
-      <c r="B222" s="46" t="str">
+      <c r="B222" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -11941,7 +11908,7 @@
       <c r="A223" s="33">
         <v>213</v>
       </c>
-      <c r="B223" s="46" t="str">
+      <c r="B223" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -11962,7 +11929,7 @@
       <c r="A224" s="33">
         <v>214</v>
       </c>
-      <c r="B224" s="46" t="str">
+      <c r="B224" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -11983,7 +11950,7 @@
       <c r="A225" s="33">
         <v>215</v>
       </c>
-      <c r="B225" s="46" t="str">
+      <c r="B225" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12004,7 +11971,7 @@
       <c r="A226" s="33">
         <v>216</v>
       </c>
-      <c r="B226" s="46" t="str">
+      <c r="B226" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12025,7 +11992,7 @@
       <c r="A227" s="33">
         <v>217</v>
       </c>
-      <c r="B227" s="46" t="str">
+      <c r="B227" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12046,7 +12013,7 @@
       <c r="A228" s="33">
         <v>218</v>
       </c>
-      <c r="B228" s="46" t="str">
+      <c r="B228" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12067,7 +12034,7 @@
       <c r="A229" s="33">
         <v>219</v>
       </c>
-      <c r="B229" s="46" t="str">
+      <c r="B229" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12088,7 +12055,7 @@
       <c r="A230" s="33">
         <v>220</v>
       </c>
-      <c r="B230" s="46" t="str">
+      <c r="B230" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12109,7 +12076,7 @@
       <c r="A231" s="33">
         <v>221</v>
       </c>
-      <c r="B231" s="46" t="str">
+      <c r="B231" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12130,7 +12097,7 @@
       <c r="A232" s="33">
         <v>222</v>
       </c>
-      <c r="B232" s="46" t="str">
+      <c r="B232" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12151,7 +12118,7 @@
       <c r="A233" s="33">
         <v>223</v>
       </c>
-      <c r="B233" s="46" t="str">
+      <c r="B233" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12172,7 +12139,7 @@
       <c r="A234" s="33">
         <v>224</v>
       </c>
-      <c r="B234" s="46" t="str">
+      <c r="B234" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12193,7 +12160,7 @@
       <c r="A235" s="33">
         <v>225</v>
       </c>
-      <c r="B235" s="46" t="str">
+      <c r="B235" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12214,7 +12181,7 @@
       <c r="A236" s="33">
         <v>226</v>
       </c>
-      <c r="B236" s="46" t="str">
+      <c r="B236" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12235,7 +12202,7 @@
       <c r="A237" s="33">
         <v>227</v>
       </c>
-      <c r="B237" s="46" t="str">
+      <c r="B237" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12256,7 +12223,7 @@
       <c r="A238" s="33">
         <v>228</v>
       </c>
-      <c r="B238" s="46" t="str">
+      <c r="B238" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12277,7 +12244,7 @@
       <c r="A239" s="33">
         <v>229</v>
       </c>
-      <c r="B239" s="46" t="str">
+      <c r="B239" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12298,7 +12265,7 @@
       <c r="A240" s="33">
         <v>230</v>
       </c>
-      <c r="B240" s="46" t="str">
+      <c r="B240" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12319,7 +12286,7 @@
       <c r="A241" s="33">
         <v>231</v>
       </c>
-      <c r="B241" s="46" t="str">
+      <c r="B241" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12340,7 +12307,7 @@
       <c r="A242" s="33">
         <v>232</v>
       </c>
-      <c r="B242" s="46" t="str">
+      <c r="B242" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12361,7 +12328,7 @@
       <c r="A243" s="33">
         <v>233</v>
       </c>
-      <c r="B243" s="46" t="str">
+      <c r="B243" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12382,7 +12349,7 @@
       <c r="A244" s="33">
         <v>234</v>
       </c>
-      <c r="B244" s="46" t="str">
+      <c r="B244" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12403,7 +12370,7 @@
       <c r="A245" s="33">
         <v>235</v>
       </c>
-      <c r="B245" s="46" t="str">
+      <c r="B245" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12424,7 +12391,7 @@
       <c r="A246" s="33">
         <v>236</v>
       </c>
-      <c r="B246" s="46" t="str">
+      <c r="B246" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12445,7 +12412,7 @@
       <c r="A247" s="33">
         <v>237</v>
       </c>
-      <c r="B247" s="46" t="str">
+      <c r="B247" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12466,7 +12433,7 @@
       <c r="A248" s="33">
         <v>238</v>
       </c>
-      <c r="B248" s="46" t="str">
+      <c r="B248" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12487,7 +12454,7 @@
       <c r="A249" s="33">
         <v>239</v>
       </c>
-      <c r="B249" s="46" t="str">
+      <c r="B249" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12508,7 +12475,7 @@
       <c r="A250" s="33">
         <v>240</v>
       </c>
-      <c r="B250" s="46" t="str">
+      <c r="B250" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12529,7 +12496,7 @@
       <c r="A251" s="33">
         <v>241</v>
       </c>
-      <c r="B251" s="46" t="str">
+      <c r="B251" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12550,7 +12517,7 @@
       <c r="A252" s="33">
         <v>242</v>
       </c>
-      <c r="B252" s="46" t="str">
+      <c r="B252" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12571,7 +12538,7 @@
       <c r="A253" s="33">
         <v>243</v>
       </c>
-      <c r="B253" s="46" t="str">
+      <c r="B253" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12592,7 +12559,7 @@
       <c r="A254" s="33">
         <v>244</v>
       </c>
-      <c r="B254" s="46" t="str">
+      <c r="B254" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12613,7 +12580,7 @@
       <c r="A255" s="33">
         <v>245</v>
       </c>
-      <c r="B255" s="46" t="str">
+      <c r="B255" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12634,7 +12601,7 @@
       <c r="A256" s="33">
         <v>246</v>
       </c>
-      <c r="B256" s="46" t="str">
+      <c r="B256" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12655,7 +12622,7 @@
       <c r="A257" s="33">
         <v>247</v>
       </c>
-      <c r="B257" s="46" t="str">
+      <c r="B257" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12676,7 +12643,7 @@
       <c r="A258" s="33">
         <v>248</v>
       </c>
-      <c r="B258" s="46" t="str">
+      <c r="B258" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12697,7 +12664,7 @@
       <c r="A259" s="33">
         <v>249</v>
       </c>
-      <c r="B259" s="46" t="str">
+      <c r="B259" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12718,7 +12685,7 @@
       <c r="A260" s="33">
         <v>250</v>
       </c>
-      <c r="B260" s="46" t="str">
+      <c r="B260" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12739,7 +12706,7 @@
       <c r="A261" s="33">
         <v>251</v>
       </c>
-      <c r="B261" s="46" t="str">
+      <c r="B261" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12760,7 +12727,7 @@
       <c r="A262" s="33">
         <v>252</v>
       </c>
-      <c r="B262" s="46" t="str">
+      <c r="B262" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12781,7 +12748,7 @@
       <c r="A263" s="33">
         <v>253</v>
       </c>
-      <c r="B263" s="46" t="str">
+      <c r="B263" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12802,7 +12769,7 @@
       <c r="A264" s="33">
         <v>254</v>
       </c>
-      <c r="B264" s="46" t="str">
+      <c r="B264" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12823,7 +12790,7 @@
       <c r="A265" s="33">
         <v>255</v>
       </c>
-      <c r="B265" s="46" t="str">
+      <c r="B265" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12844,7 +12811,7 @@
       <c r="A266" s="33">
         <v>256</v>
       </c>
-      <c r="B266" s="46" t="str">
+      <c r="B266" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12865,7 +12832,7 @@
       <c r="A267" s="33">
         <v>257</v>
       </c>
-      <c r="B267" s="46" t="str">
+      <c r="B267" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12886,7 +12853,7 @@
       <c r="A268" s="33">
         <v>258</v>
       </c>
-      <c r="B268" s="46" t="str">
+      <c r="B268" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12907,7 +12874,7 @@
       <c r="A269" s="33">
         <v>259</v>
       </c>
-      <c r="B269" s="46" t="str">
+      <c r="B269" s="45" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
@@ -12928,7 +12895,7 @@
       <c r="A270" s="33">
         <v>260</v>
       </c>
-      <c r="B270" s="46" t="str">
+      <c r="B270" s="45" t="str">
         <f t="shared" ref="B270:B333" si="16">IF(OR($C$1="",$C$2="",$C$3="",$B$5="",$B$6="",E269=""),"",D269+E269)</f>
         <v/>
       </c>
@@ -12949,7 +12916,7 @@
       <c r="A271" s="33">
         <v>261</v>
       </c>
-      <c r="B271" s="46" t="str">
+      <c r="B271" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -12970,7 +12937,7 @@
       <c r="A272" s="33">
         <v>262</v>
       </c>
-      <c r="B272" s="46" t="str">
+      <c r="B272" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -12991,7 +12958,7 @@
       <c r="A273" s="33">
         <v>263</v>
       </c>
-      <c r="B273" s="46" t="str">
+      <c r="B273" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13012,7 +12979,7 @@
       <c r="A274" s="33">
         <v>264</v>
       </c>
-      <c r="B274" s="46" t="str">
+      <c r="B274" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13033,7 +13000,7 @@
       <c r="A275" s="33">
         <v>265</v>
       </c>
-      <c r="B275" s="46" t="str">
+      <c r="B275" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13054,7 +13021,7 @@
       <c r="A276" s="33">
         <v>266</v>
       </c>
-      <c r="B276" s="46" t="str">
+      <c r="B276" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13075,7 +13042,7 @@
       <c r="A277" s="33">
         <v>267</v>
       </c>
-      <c r="B277" s="46" t="str">
+      <c r="B277" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13096,7 +13063,7 @@
       <c r="A278" s="33">
         <v>268</v>
       </c>
-      <c r="B278" s="46" t="str">
+      <c r="B278" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13117,7 +13084,7 @@
       <c r="A279" s="33">
         <v>269</v>
       </c>
-      <c r="B279" s="46" t="str">
+      <c r="B279" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13138,7 +13105,7 @@
       <c r="A280" s="33">
         <v>270</v>
       </c>
-      <c r="B280" s="46" t="str">
+      <c r="B280" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13159,7 +13126,7 @@
       <c r="A281" s="33">
         <v>271</v>
       </c>
-      <c r="B281" s="46" t="str">
+      <c r="B281" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13180,7 +13147,7 @@
       <c r="A282" s="33">
         <v>272</v>
       </c>
-      <c r="B282" s="46" t="str">
+      <c r="B282" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13201,7 +13168,7 @@
       <c r="A283" s="33">
         <v>273</v>
       </c>
-      <c r="B283" s="46" t="str">
+      <c r="B283" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13222,7 +13189,7 @@
       <c r="A284" s="33">
         <v>274</v>
       </c>
-      <c r="B284" s="46" t="str">
+      <c r="B284" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13243,7 +13210,7 @@
       <c r="A285" s="33">
         <v>275</v>
       </c>
-      <c r="B285" s="46" t="str">
+      <c r="B285" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13264,7 +13231,7 @@
       <c r="A286" s="33">
         <v>276</v>
       </c>
-      <c r="B286" s="46" t="str">
+      <c r="B286" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13285,7 +13252,7 @@
       <c r="A287" s="33">
         <v>277</v>
       </c>
-      <c r="B287" s="46" t="str">
+      <c r="B287" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13306,7 +13273,7 @@
       <c r="A288" s="33">
         <v>278</v>
       </c>
-      <c r="B288" s="46" t="str">
+      <c r="B288" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13327,7 +13294,7 @@
       <c r="A289" s="33">
         <v>279</v>
       </c>
-      <c r="B289" s="46" t="str">
+      <c r="B289" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13348,7 +13315,7 @@
       <c r="A290" s="33">
         <v>280</v>
       </c>
-      <c r="B290" s="46" t="str">
+      <c r="B290" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13369,7 +13336,7 @@
       <c r="A291" s="33">
         <v>281</v>
       </c>
-      <c r="B291" s="46" t="str">
+      <c r="B291" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13390,7 +13357,7 @@
       <c r="A292" s="33">
         <v>282</v>
       </c>
-      <c r="B292" s="46" t="str">
+      <c r="B292" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13411,7 +13378,7 @@
       <c r="A293" s="33">
         <v>283</v>
       </c>
-      <c r="B293" s="46" t="str">
+      <c r="B293" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13432,7 +13399,7 @@
       <c r="A294" s="33">
         <v>284</v>
       </c>
-      <c r="B294" s="46" t="str">
+      <c r="B294" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13453,7 +13420,7 @@
       <c r="A295" s="33">
         <v>285</v>
       </c>
-      <c r="B295" s="46" t="str">
+      <c r="B295" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13474,7 +13441,7 @@
       <c r="A296" s="33">
         <v>286</v>
       </c>
-      <c r="B296" s="46" t="str">
+      <c r="B296" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13495,7 +13462,7 @@
       <c r="A297" s="33">
         <v>287</v>
       </c>
-      <c r="B297" s="46" t="str">
+      <c r="B297" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13516,7 +13483,7 @@
       <c r="A298" s="33">
         <v>288</v>
       </c>
-      <c r="B298" s="46" t="str">
+      <c r="B298" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13537,7 +13504,7 @@
       <c r="A299" s="33">
         <v>289</v>
       </c>
-      <c r="B299" s="46" t="str">
+      <c r="B299" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13558,7 +13525,7 @@
       <c r="A300" s="33">
         <v>290</v>
       </c>
-      <c r="B300" s="46" t="str">
+      <c r="B300" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13579,7 +13546,7 @@
       <c r="A301" s="33">
         <v>291</v>
       </c>
-      <c r="B301" s="46" t="str">
+      <c r="B301" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13600,7 +13567,7 @@
       <c r="A302" s="33">
         <v>292</v>
       </c>
-      <c r="B302" s="46" t="str">
+      <c r="B302" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13621,7 +13588,7 @@
       <c r="A303" s="33">
         <v>293</v>
       </c>
-      <c r="B303" s="46" t="str">
+      <c r="B303" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13642,7 +13609,7 @@
       <c r="A304" s="33">
         <v>294</v>
       </c>
-      <c r="B304" s="46" t="str">
+      <c r="B304" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13663,7 +13630,7 @@
       <c r="A305" s="33">
         <v>295</v>
       </c>
-      <c r="B305" s="46" t="str">
+      <c r="B305" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13684,7 +13651,7 @@
       <c r="A306" s="33">
         <v>296</v>
       </c>
-      <c r="B306" s="46" t="str">
+      <c r="B306" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13705,7 +13672,7 @@
       <c r="A307" s="33">
         <v>297</v>
       </c>
-      <c r="B307" s="46" t="str">
+      <c r="B307" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13726,7 +13693,7 @@
       <c r="A308" s="33">
         <v>298</v>
       </c>
-      <c r="B308" s="46" t="str">
+      <c r="B308" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13747,7 +13714,7 @@
       <c r="A309" s="33">
         <v>299</v>
       </c>
-      <c r="B309" s="46" t="str">
+      <c r="B309" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13768,7 +13735,7 @@
       <c r="A310" s="33">
         <v>300</v>
       </c>
-      <c r="B310" s="46" t="str">
+      <c r="B310" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13789,7 +13756,7 @@
       <c r="A311" s="33">
         <v>301</v>
       </c>
-      <c r="B311" s="46" t="str">
+      <c r="B311" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13810,7 +13777,7 @@
       <c r="A312" s="33">
         <v>302</v>
       </c>
-      <c r="B312" s="46" t="str">
+      <c r="B312" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13831,7 +13798,7 @@
       <c r="A313" s="33">
         <v>303</v>
       </c>
-      <c r="B313" s="46" t="str">
+      <c r="B313" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13852,7 +13819,7 @@
       <c r="A314" s="33">
         <v>304</v>
       </c>
-      <c r="B314" s="46" t="str">
+      <c r="B314" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13873,7 +13840,7 @@
       <c r="A315" s="33">
         <v>305</v>
       </c>
-      <c r="B315" s="46" t="str">
+      <c r="B315" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13894,7 +13861,7 @@
       <c r="A316" s="33">
         <v>306</v>
       </c>
-      <c r="B316" s="46" t="str">
+      <c r="B316" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13915,7 +13882,7 @@
       <c r="A317" s="33">
         <v>307</v>
       </c>
-      <c r="B317" s="46" t="str">
+      <c r="B317" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13936,7 +13903,7 @@
       <c r="A318" s="33">
         <v>308</v>
       </c>
-      <c r="B318" s="46" t="str">
+      <c r="B318" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13957,7 +13924,7 @@
       <c r="A319" s="33">
         <v>309</v>
       </c>
-      <c r="B319" s="46" t="str">
+      <c r="B319" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13978,7 +13945,7 @@
       <c r="A320" s="33">
         <v>310</v>
       </c>
-      <c r="B320" s="46" t="str">
+      <c r="B320" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -13999,7 +13966,7 @@
       <c r="A321" s="33">
         <v>311</v>
       </c>
-      <c r="B321" s="46" t="str">
+      <c r="B321" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -14020,7 +13987,7 @@
       <c r="A322" s="33">
         <v>312</v>
       </c>
-      <c r="B322" s="46" t="str">
+      <c r="B322" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -14041,7 +14008,7 @@
       <c r="A323" s="33">
         <v>313</v>
       </c>
-      <c r="B323" s="46" t="str">
+      <c r="B323" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -14062,7 +14029,7 @@
       <c r="A324" s="33">
         <v>314</v>
       </c>
-      <c r="B324" s="46" t="str">
+      <c r="B324" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -14083,7 +14050,7 @@
       <c r="A325" s="33">
         <v>315</v>
       </c>
-      <c r="B325" s="46" t="str">
+      <c r="B325" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -14104,7 +14071,7 @@
       <c r="A326" s="33">
         <v>316</v>
       </c>
-      <c r="B326" s="46" t="str">
+      <c r="B326" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -14125,7 +14092,7 @@
       <c r="A327" s="33">
         <v>317</v>
       </c>
-      <c r="B327" s="46" t="str">
+      <c r="B327" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -14146,7 +14113,7 @@
       <c r="A328" s="33">
         <v>318</v>
       </c>
-      <c r="B328" s="46" t="str">
+      <c r="B328" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -14167,7 +14134,7 @@
       <c r="A329" s="33">
         <v>319</v>
       </c>
-      <c r="B329" s="46" t="str">
+      <c r="B329" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -14188,7 +14155,7 @@
       <c r="A330" s="33">
         <v>320</v>
       </c>
-      <c r="B330" s="46" t="str">
+      <c r="B330" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -14209,7 +14176,7 @@
       <c r="A331" s="33">
         <v>321</v>
       </c>
-      <c r="B331" s="46" t="str">
+      <c r="B331" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -14230,7 +14197,7 @@
       <c r="A332" s="33">
         <v>322</v>
       </c>
-      <c r="B332" s="46" t="str">
+      <c r="B332" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -14251,7 +14218,7 @@
       <c r="A333" s="33">
         <v>323</v>
       </c>
-      <c r="B333" s="46" t="str">
+      <c r="B333" s="45" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
@@ -14272,7 +14239,7 @@
       <c r="A334" s="33">
         <v>324</v>
       </c>
-      <c r="B334" s="46" t="str">
+      <c r="B334" s="45" t="str">
         <f t="shared" ref="B334:B397" si="20">IF(OR($C$1="",$C$2="",$C$3="",$B$5="",$B$6="",E333=""),"",D333+E333)</f>
         <v/>
       </c>
@@ -14293,7 +14260,7 @@
       <c r="A335" s="33">
         <v>325</v>
       </c>
-      <c r="B335" s="46" t="str">
+      <c r="B335" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -14314,7 +14281,7 @@
       <c r="A336" s="33">
         <v>326</v>
       </c>
-      <c r="B336" s="46" t="str">
+      <c r="B336" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -14335,7 +14302,7 @@
       <c r="A337" s="33">
         <v>327</v>
       </c>
-      <c r="B337" s="46" t="str">
+      <c r="B337" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -14356,7 +14323,7 @@
       <c r="A338" s="33">
         <v>328</v>
       </c>
-      <c r="B338" s="46" t="str">
+      <c r="B338" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -14377,7 +14344,7 @@
       <c r="A339" s="33">
         <v>329</v>
       </c>
-      <c r="B339" s="46" t="str">
+      <c r="B339" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -14398,7 +14365,7 @@
       <c r="A340" s="33">
         <v>330</v>
       </c>
-      <c r="B340" s="46" t="str">
+      <c r="B340" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -14419,7 +14386,7 @@
       <c r="A341" s="33">
         <v>331</v>
       </c>
-      <c r="B341" s="46" t="str">
+      <c r="B341" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -14440,7 +14407,7 @@
       <c r="A342" s="33">
         <v>332</v>
       </c>
-      <c r="B342" s="46" t="str">
+      <c r="B342" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -14461,7 +14428,7 @@
       <c r="A343" s="33">
         <v>333</v>
       </c>
-      <c r="B343" s="46" t="str">
+      <c r="B343" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -14482,7 +14449,7 @@
       <c r="A344" s="33">
         <v>334</v>
       </c>
-      <c r="B344" s="46" t="str">
+      <c r="B344" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -14503,7 +14470,7 @@
       <c r="A345" s="33">
         <v>335</v>
       </c>
-      <c r="B345" s="46" t="str">
+      <c r="B345" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -14524,7 +14491,7 @@
       <c r="A346" s="33">
         <v>336</v>
       </c>
-      <c r="B346" s="46" t="str">
+      <c r="B346" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -14545,7 +14512,7 @@
       <c r="A347" s="33">
         <v>337</v>
       </c>
-      <c r="B347" s="46" t="str">
+      <c r="B347" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -14566,7 +14533,7 @@
       <c r="A348" s="33">
         <v>338</v>
       </c>
-      <c r="B348" s="46" t="str">
+      <c r="B348" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -14587,7 +14554,7 @@
       <c r="A349" s="33">
         <v>339</v>
       </c>
-      <c r="B349" s="46" t="str">
+      <c r="B349" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -14608,7 +14575,7 @@
       <c r="A350" s="33">
         <v>340</v>
       </c>
-      <c r="B350" s="46" t="str">
+      <c r="B350" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -14629,7 +14596,7 @@
       <c r="A351" s="33">
         <v>341</v>
       </c>
-      <c r="B351" s="46" t="str">
+      <c r="B351" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -14650,7 +14617,7 @@
       <c r="A352" s="33">
         <v>342</v>
       </c>
-      <c r="B352" s="46" t="str">
+      <c r="B352" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -14671,7 +14638,7 @@
       <c r="A353" s="33">
         <v>343</v>
       </c>
-      <c r="B353" s="46" t="str">
+      <c r="B353" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -14692,7 +14659,7 @@
       <c r="A354" s="33">
         <v>344</v>
       </c>
-      <c r="B354" s="46" t="str">
+      <c r="B354" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -14713,7 +14680,7 @@
       <c r="A355" s="33">
         <v>345</v>
       </c>
-      <c r="B355" s="46" t="str">
+      <c r="B355" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -14734,7 +14701,7 @@
       <c r="A356" s="33">
         <v>346</v>
       </c>
-      <c r="B356" s="46" t="str">
+      <c r="B356" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -14755,7 +14722,7 @@
       <c r="A357" s="33">
         <v>347</v>
       </c>
-      <c r="B357" s="46" t="str">
+      <c r="B357" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -14776,7 +14743,7 @@
       <c r="A358" s="33">
         <v>348</v>
       </c>
-      <c r="B358" s="46" t="str">
+      <c r="B358" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -14797,7 +14764,7 @@
       <c r="A359" s="33">
         <v>349</v>
       </c>
-      <c r="B359" s="46" t="str">
+      <c r="B359" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -14818,7 +14785,7 @@
       <c r="A360" s="33">
         <v>350</v>
       </c>
-      <c r="B360" s="46" t="str">
+      <c r="B360" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -14839,7 +14806,7 @@
       <c r="A361" s="33">
         <v>351</v>
       </c>
-      <c r="B361" s="46" t="str">
+      <c r="B361" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -14860,7 +14827,7 @@
       <c r="A362" s="33">
         <v>352</v>
       </c>
-      <c r="B362" s="46" t="str">
+      <c r="B362" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -14881,7 +14848,7 @@
       <c r="A363" s="33">
         <v>353</v>
       </c>
-      <c r="B363" s="46" t="str">
+      <c r="B363" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -14902,7 +14869,7 @@
       <c r="A364" s="33">
         <v>354</v>
       </c>
-      <c r="B364" s="46" t="str">
+      <c r="B364" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -14923,7 +14890,7 @@
       <c r="A365" s="33">
         <v>355</v>
       </c>
-      <c r="B365" s="46" t="str">
+      <c r="B365" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -14944,7 +14911,7 @@
       <c r="A366" s="33">
         <v>356</v>
       </c>
-      <c r="B366" s="46" t="str">
+      <c r="B366" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -14965,7 +14932,7 @@
       <c r="A367" s="33">
         <v>357</v>
       </c>
-      <c r="B367" s="46" t="str">
+      <c r="B367" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -14986,7 +14953,7 @@
       <c r="A368" s="33">
         <v>358</v>
       </c>
-      <c r="B368" s="46" t="str">
+      <c r="B368" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -15007,7 +14974,7 @@
       <c r="A369" s="33">
         <v>359</v>
       </c>
-      <c r="B369" s="46" t="str">
+      <c r="B369" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -15028,7 +14995,7 @@
       <c r="A370" s="33">
         <v>360</v>
       </c>
-      <c r="B370" s="46" t="str">
+      <c r="B370" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -15049,7 +15016,7 @@
       <c r="A371" s="33">
         <v>361</v>
       </c>
-      <c r="B371" s="46" t="str">
+      <c r="B371" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -15070,7 +15037,7 @@
       <c r="A372" s="33">
         <v>362</v>
       </c>
-      <c r="B372" s="46" t="str">
+      <c r="B372" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -15091,7 +15058,7 @@
       <c r="A373" s="33">
         <v>363</v>
       </c>
-      <c r="B373" s="46" t="str">
+      <c r="B373" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -15112,7 +15079,7 @@
       <c r="A374" s="33">
         <v>364</v>
       </c>
-      <c r="B374" s="46" t="str">
+      <c r="B374" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -15133,7 +15100,7 @@
       <c r="A375" s="33">
         <v>365</v>
       </c>
-      <c r="B375" s="46" t="str">
+      <c r="B375" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -15154,7 +15121,7 @@
       <c r="A376" s="33">
         <v>366</v>
       </c>
-      <c r="B376" s="46" t="str">
+      <c r="B376" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -15175,7 +15142,7 @@
       <c r="A377" s="33">
         <v>367</v>
       </c>
-      <c r="B377" s="46" t="str">
+      <c r="B377" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -15196,7 +15163,7 @@
       <c r="A378" s="33">
         <v>368</v>
       </c>
-      <c r="B378" s="46" t="str">
+      <c r="B378" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -15217,7 +15184,7 @@
       <c r="A379" s="33">
         <v>369</v>
       </c>
-      <c r="B379" s="46" t="str">
+      <c r="B379" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -15238,7 +15205,7 @@
       <c r="A380" s="33">
         <v>370</v>
       </c>
-      <c r="B380" s="46" t="str">
+      <c r="B380" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -15259,7 +15226,7 @@
       <c r="A381" s="33">
         <v>371</v>
       </c>
-      <c r="B381" s="46" t="str">
+      <c r="B381" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -15280,7 +15247,7 @@
       <c r="A382" s="33">
         <v>372</v>
       </c>
-      <c r="B382" s="46" t="str">
+      <c r="B382" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -15301,7 +15268,7 @@
       <c r="A383" s="33">
         <v>373</v>
       </c>
-      <c r="B383" s="46" t="str">
+      <c r="B383" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -15322,7 +15289,7 @@
       <c r="A384" s="33">
         <v>374</v>
       </c>
-      <c r="B384" s="46" t="str">
+      <c r="B384" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -15343,7 +15310,7 @@
       <c r="A385" s="33">
         <v>375</v>
       </c>
-      <c r="B385" s="46" t="str">
+      <c r="B385" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -15364,7 +15331,7 @@
       <c r="A386" s="33">
         <v>376</v>
       </c>
-      <c r="B386" s="46" t="str">
+      <c r="B386" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -15385,7 +15352,7 @@
       <c r="A387" s="33">
         <v>377</v>
       </c>
-      <c r="B387" s="46" t="str">
+      <c r="B387" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -15406,7 +15373,7 @@
       <c r="A388" s="33">
         <v>378</v>
       </c>
-      <c r="B388" s="46" t="str">
+      <c r="B388" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -15427,7 +15394,7 @@
       <c r="A389" s="33">
         <v>379</v>
       </c>
-      <c r="B389" s="46" t="str">
+      <c r="B389" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -15448,7 +15415,7 @@
       <c r="A390" s="33">
         <v>380</v>
       </c>
-      <c r="B390" s="46" t="str">
+      <c r="B390" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -15469,7 +15436,7 @@
       <c r="A391" s="33">
         <v>381</v>
       </c>
-      <c r="B391" s="46" t="str">
+      <c r="B391" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -15490,7 +15457,7 @@
       <c r="A392" s="33">
         <v>382</v>
       </c>
-      <c r="B392" s="46" t="str">
+      <c r="B392" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -15511,7 +15478,7 @@
       <c r="A393" s="33">
         <v>383</v>
       </c>
-      <c r="B393" s="46" t="str">
+      <c r="B393" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -15532,7 +15499,7 @@
       <c r="A394" s="33">
         <v>384</v>
       </c>
-      <c r="B394" s="46" t="str">
+      <c r="B394" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -15553,7 +15520,7 @@
       <c r="A395" s="33">
         <v>385</v>
       </c>
-      <c r="B395" s="46" t="str">
+      <c r="B395" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -15574,7 +15541,7 @@
       <c r="A396" s="33">
         <v>386</v>
       </c>
-      <c r="B396" s="46" t="str">
+      <c r="B396" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -15595,7 +15562,7 @@
       <c r="A397" s="33">
         <v>387</v>
       </c>
-      <c r="B397" s="46" t="str">
+      <c r="B397" s="45" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
@@ -15616,7 +15583,7 @@
       <c r="A398" s="33">
         <v>388</v>
       </c>
-      <c r="B398" s="46" t="str">
+      <c r="B398" s="45" t="str">
         <f t="shared" ref="B398:B461" si="24">IF(OR($C$1="",$C$2="",$C$3="",$B$5="",$B$6="",E397=""),"",D397+E397)</f>
         <v/>
       </c>
@@ -15637,7 +15604,7 @@
       <c r="A399" s="33">
         <v>389</v>
       </c>
-      <c r="B399" s="46" t="str">
+      <c r="B399" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -15658,7 +15625,7 @@
       <c r="A400" s="33">
         <v>390</v>
       </c>
-      <c r="B400" s="46" t="str">
+      <c r="B400" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -15679,7 +15646,7 @@
       <c r="A401" s="33">
         <v>391</v>
       </c>
-      <c r="B401" s="46" t="str">
+      <c r="B401" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -15700,7 +15667,7 @@
       <c r="A402" s="33">
         <v>392</v>
       </c>
-      <c r="B402" s="46" t="str">
+      <c r="B402" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -15721,7 +15688,7 @@
       <c r="A403" s="33">
         <v>393</v>
       </c>
-      <c r="B403" s="46" t="str">
+      <c r="B403" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -15742,7 +15709,7 @@
       <c r="A404" s="33">
         <v>394</v>
       </c>
-      <c r="B404" s="46" t="str">
+      <c r="B404" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -15763,7 +15730,7 @@
       <c r="A405" s="33">
         <v>395</v>
       </c>
-      <c r="B405" s="46" t="str">
+      <c r="B405" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -15784,7 +15751,7 @@
       <c r="A406" s="33">
         <v>396</v>
       </c>
-      <c r="B406" s="46" t="str">
+      <c r="B406" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -15805,7 +15772,7 @@
       <c r="A407" s="33">
         <v>397</v>
       </c>
-      <c r="B407" s="46" t="str">
+      <c r="B407" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -15826,7 +15793,7 @@
       <c r="A408" s="33">
         <v>398</v>
       </c>
-      <c r="B408" s="46" t="str">
+      <c r="B408" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -15847,7 +15814,7 @@
       <c r="A409" s="33">
         <v>399</v>
       </c>
-      <c r="B409" s="46" t="str">
+      <c r="B409" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -15868,7 +15835,7 @@
       <c r="A410" s="33">
         <v>400</v>
       </c>
-      <c r="B410" s="46" t="str">
+      <c r="B410" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -15889,7 +15856,7 @@
       <c r="A411" s="33">
         <v>401</v>
       </c>
-      <c r="B411" s="46" t="str">
+      <c r="B411" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -15910,7 +15877,7 @@
       <c r="A412" s="33">
         <v>402</v>
       </c>
-      <c r="B412" s="46" t="str">
+      <c r="B412" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -15931,7 +15898,7 @@
       <c r="A413" s="33">
         <v>403</v>
       </c>
-      <c r="B413" s="46" t="str">
+      <c r="B413" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -15952,7 +15919,7 @@
       <c r="A414" s="33">
         <v>404</v>
       </c>
-      <c r="B414" s="46" t="str">
+      <c r="B414" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -15973,7 +15940,7 @@
       <c r="A415" s="33">
         <v>405</v>
       </c>
-      <c r="B415" s="46" t="str">
+      <c r="B415" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -15994,7 +15961,7 @@
       <c r="A416" s="33">
         <v>406</v>
       </c>
-      <c r="B416" s="46" t="str">
+      <c r="B416" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16015,7 +15982,7 @@
       <c r="A417" s="33">
         <v>407</v>
       </c>
-      <c r="B417" s="46" t="str">
+      <c r="B417" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16036,7 +16003,7 @@
       <c r="A418" s="33">
         <v>408</v>
       </c>
-      <c r="B418" s="46" t="str">
+      <c r="B418" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16057,7 +16024,7 @@
       <c r="A419" s="33">
         <v>409</v>
       </c>
-      <c r="B419" s="46" t="str">
+      <c r="B419" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16078,7 +16045,7 @@
       <c r="A420" s="33">
         <v>410</v>
       </c>
-      <c r="B420" s="46" t="str">
+      <c r="B420" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16099,7 +16066,7 @@
       <c r="A421" s="33">
         <v>411</v>
       </c>
-      <c r="B421" s="46" t="str">
+      <c r="B421" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16120,7 +16087,7 @@
       <c r="A422" s="33">
         <v>412</v>
       </c>
-      <c r="B422" s="46" t="str">
+      <c r="B422" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16141,7 +16108,7 @@
       <c r="A423" s="33">
         <v>413</v>
       </c>
-      <c r="B423" s="46" t="str">
+      <c r="B423" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16162,7 +16129,7 @@
       <c r="A424" s="33">
         <v>414</v>
       </c>
-      <c r="B424" s="46" t="str">
+      <c r="B424" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16183,7 +16150,7 @@
       <c r="A425" s="33">
         <v>415</v>
       </c>
-      <c r="B425" s="46" t="str">
+      <c r="B425" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16204,7 +16171,7 @@
       <c r="A426" s="33">
         <v>416</v>
       </c>
-      <c r="B426" s="46" t="str">
+      <c r="B426" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16225,7 +16192,7 @@
       <c r="A427" s="33">
         <v>417</v>
       </c>
-      <c r="B427" s="46" t="str">
+      <c r="B427" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16246,7 +16213,7 @@
       <c r="A428" s="33">
         <v>418</v>
       </c>
-      <c r="B428" s="46" t="str">
+      <c r="B428" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16267,7 +16234,7 @@
       <c r="A429" s="33">
         <v>419</v>
       </c>
-      <c r="B429" s="46" t="str">
+      <c r="B429" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16288,7 +16255,7 @@
       <c r="A430" s="33">
         <v>420</v>
       </c>
-      <c r="B430" s="46" t="str">
+      <c r="B430" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16309,7 +16276,7 @@
       <c r="A431" s="33">
         <v>421</v>
       </c>
-      <c r="B431" s="46" t="str">
+      <c r="B431" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16330,7 +16297,7 @@
       <c r="A432" s="33">
         <v>422</v>
       </c>
-      <c r="B432" s="46" t="str">
+      <c r="B432" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16351,7 +16318,7 @@
       <c r="A433" s="33">
         <v>423</v>
       </c>
-      <c r="B433" s="46" t="str">
+      <c r="B433" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16372,7 +16339,7 @@
       <c r="A434" s="33">
         <v>424</v>
       </c>
-      <c r="B434" s="46" t="str">
+      <c r="B434" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16393,7 +16360,7 @@
       <c r="A435" s="33">
         <v>425</v>
       </c>
-      <c r="B435" s="46" t="str">
+      <c r="B435" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16414,7 +16381,7 @@
       <c r="A436" s="33">
         <v>426</v>
       </c>
-      <c r="B436" s="46" t="str">
+      <c r="B436" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16435,7 +16402,7 @@
       <c r="A437" s="33">
         <v>427</v>
       </c>
-      <c r="B437" s="46" t="str">
+      <c r="B437" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16456,7 +16423,7 @@
       <c r="A438" s="33">
         <v>428</v>
       </c>
-      <c r="B438" s="46" t="str">
+      <c r="B438" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16477,7 +16444,7 @@
       <c r="A439" s="33">
         <v>429</v>
       </c>
-      <c r="B439" s="46" t="str">
+      <c r="B439" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16498,7 +16465,7 @@
       <c r="A440" s="33">
         <v>430</v>
       </c>
-      <c r="B440" s="46" t="str">
+      <c r="B440" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16519,7 +16486,7 @@
       <c r="A441" s="33">
         <v>431</v>
       </c>
-      <c r="B441" s="46" t="str">
+      <c r="B441" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16540,7 +16507,7 @@
       <c r="A442" s="33">
         <v>432</v>
       </c>
-      <c r="B442" s="46" t="str">
+      <c r="B442" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16561,7 +16528,7 @@
       <c r="A443" s="33">
         <v>433</v>
       </c>
-      <c r="B443" s="46" t="str">
+      <c r="B443" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16582,7 +16549,7 @@
       <c r="A444" s="33">
         <v>434</v>
       </c>
-      <c r="B444" s="46" t="str">
+      <c r="B444" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16603,7 +16570,7 @@
       <c r="A445" s="33">
         <v>435</v>
       </c>
-      <c r="B445" s="46" t="str">
+      <c r="B445" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16624,7 +16591,7 @@
       <c r="A446" s="33">
         <v>436</v>
       </c>
-      <c r="B446" s="46" t="str">
+      <c r="B446" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16645,7 +16612,7 @@
       <c r="A447" s="33">
         <v>437</v>
       </c>
-      <c r="B447" s="46" t="str">
+      <c r="B447" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16666,7 +16633,7 @@
       <c r="A448" s="33">
         <v>438</v>
       </c>
-      <c r="B448" s="46" t="str">
+      <c r="B448" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16687,7 +16654,7 @@
       <c r="A449" s="33">
         <v>439</v>
       </c>
-      <c r="B449" s="46" t="str">
+      <c r="B449" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16708,7 +16675,7 @@
       <c r="A450" s="33">
         <v>440</v>
       </c>
-      <c r="B450" s="46" t="str">
+      <c r="B450" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16729,7 +16696,7 @@
       <c r="A451" s="33">
         <v>441</v>
       </c>
-      <c r="B451" s="46" t="str">
+      <c r="B451" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16750,7 +16717,7 @@
       <c r="A452" s="33">
         <v>442</v>
       </c>
-      <c r="B452" s="46" t="str">
+      <c r="B452" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16771,7 +16738,7 @@
       <c r="A453" s="33">
         <v>443</v>
       </c>
-      <c r="B453" s="46" t="str">
+      <c r="B453" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16792,7 +16759,7 @@
       <c r="A454" s="33">
         <v>444</v>
       </c>
-      <c r="B454" s="46" t="str">
+      <c r="B454" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16813,7 +16780,7 @@
       <c r="A455" s="33">
         <v>445</v>
       </c>
-      <c r="B455" s="46" t="str">
+      <c r="B455" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16834,7 +16801,7 @@
       <c r="A456" s="33">
         <v>446</v>
       </c>
-      <c r="B456" s="46" t="str">
+      <c r="B456" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16855,7 +16822,7 @@
       <c r="A457" s="33">
         <v>447</v>
       </c>
-      <c r="B457" s="46" t="str">
+      <c r="B457" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16876,7 +16843,7 @@
       <c r="A458" s="33">
         <v>448</v>
       </c>
-      <c r="B458" s="46" t="str">
+      <c r="B458" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16897,7 +16864,7 @@
       <c r="A459" s="33">
         <v>449</v>
       </c>
-      <c r="B459" s="46" t="str">
+      <c r="B459" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16918,7 +16885,7 @@
       <c r="A460" s="33">
         <v>450</v>
       </c>
-      <c r="B460" s="46" t="str">
+      <c r="B460" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16939,7 +16906,7 @@
       <c r="A461" s="33">
         <v>451</v>
       </c>
-      <c r="B461" s="46" t="str">
+      <c r="B461" s="45" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -16960,7 +16927,7 @@
       <c r="A462" s="33">
         <v>452</v>
       </c>
-      <c r="B462" s="46" t="str">
+      <c r="B462" s="45" t="str">
         <f t="shared" ref="B462:B509" si="28">IF(OR($C$1="",$C$2="",$C$3="",$B$5="",$B$6="",E461=""),"",D461+E461)</f>
         <v/>
       </c>
@@ -16981,7 +16948,7 @@
       <c r="A463" s="33">
         <v>453</v>
       </c>
-      <c r="B463" s="46" t="str">
+      <c r="B463" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17002,7 +16969,7 @@
       <c r="A464" s="33">
         <v>454</v>
       </c>
-      <c r="B464" s="46" t="str">
+      <c r="B464" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17023,7 +16990,7 @@
       <c r="A465" s="33">
         <v>455</v>
       </c>
-      <c r="B465" s="46" t="str">
+      <c r="B465" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17044,7 +17011,7 @@
       <c r="A466" s="33">
         <v>456</v>
       </c>
-      <c r="B466" s="46" t="str">
+      <c r="B466" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17065,7 +17032,7 @@
       <c r="A467" s="33">
         <v>457</v>
       </c>
-      <c r="B467" s="46" t="str">
+      <c r="B467" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17086,7 +17053,7 @@
       <c r="A468" s="33">
         <v>458</v>
       </c>
-      <c r="B468" s="46" t="str">
+      <c r="B468" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17107,7 +17074,7 @@
       <c r="A469" s="33">
         <v>459</v>
       </c>
-      <c r="B469" s="46" t="str">
+      <c r="B469" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17128,7 +17095,7 @@
       <c r="A470" s="33">
         <v>460</v>
       </c>
-      <c r="B470" s="46" t="str">
+      <c r="B470" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17149,7 +17116,7 @@
       <c r="A471" s="33">
         <v>461</v>
       </c>
-      <c r="B471" s="46" t="str">
+      <c r="B471" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17170,7 +17137,7 @@
       <c r="A472" s="33">
         <v>462</v>
       </c>
-      <c r="B472" s="46" t="str">
+      <c r="B472" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17191,7 +17158,7 @@
       <c r="A473" s="33">
         <v>463</v>
       </c>
-      <c r="B473" s="46" t="str">
+      <c r="B473" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17212,7 +17179,7 @@
       <c r="A474" s="33">
         <v>464</v>
       </c>
-      <c r="B474" s="46" t="str">
+      <c r="B474" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17233,7 +17200,7 @@
       <c r="A475" s="33">
         <v>465</v>
       </c>
-      <c r="B475" s="46" t="str">
+      <c r="B475" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17254,7 +17221,7 @@
       <c r="A476" s="33">
         <v>466</v>
       </c>
-      <c r="B476" s="46" t="str">
+      <c r="B476" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17275,7 +17242,7 @@
       <c r="A477" s="33">
         <v>467</v>
       </c>
-      <c r="B477" s="46" t="str">
+      <c r="B477" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17296,7 +17263,7 @@
       <c r="A478" s="33">
         <v>468</v>
       </c>
-      <c r="B478" s="46" t="str">
+      <c r="B478" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17317,7 +17284,7 @@
       <c r="A479" s="33">
         <v>469</v>
       </c>
-      <c r="B479" s="46" t="str">
+      <c r="B479" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17338,7 +17305,7 @@
       <c r="A480" s="33">
         <v>470</v>
       </c>
-      <c r="B480" s="46" t="str">
+      <c r="B480" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17359,7 +17326,7 @@
       <c r="A481" s="33">
         <v>471</v>
       </c>
-      <c r="B481" s="46" t="str">
+      <c r="B481" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17380,7 +17347,7 @@
       <c r="A482" s="33">
         <v>472</v>
       </c>
-      <c r="B482" s="46" t="str">
+      <c r="B482" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17401,7 +17368,7 @@
       <c r="A483" s="33">
         <v>473</v>
       </c>
-      <c r="B483" s="46" t="str">
+      <c r="B483" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17422,7 +17389,7 @@
       <c r="A484" s="33">
         <v>474</v>
       </c>
-      <c r="B484" s="46" t="str">
+      <c r="B484" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17443,7 +17410,7 @@
       <c r="A485" s="33">
         <v>475</v>
       </c>
-      <c r="B485" s="46" t="str">
+      <c r="B485" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17464,7 +17431,7 @@
       <c r="A486" s="33">
         <v>476</v>
       </c>
-      <c r="B486" s="46" t="str">
+      <c r="B486" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17485,7 +17452,7 @@
       <c r="A487" s="33">
         <v>477</v>
       </c>
-      <c r="B487" s="46" t="str">
+      <c r="B487" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17506,7 +17473,7 @@
       <c r="A488" s="33">
         <v>478</v>
       </c>
-      <c r="B488" s="46" t="str">
+      <c r="B488" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17527,7 +17494,7 @@
       <c r="A489" s="33">
         <v>479</v>
       </c>
-      <c r="B489" s="46" t="str">
+      <c r="B489" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17548,7 +17515,7 @@
       <c r="A490" s="33">
         <v>480</v>
       </c>
-      <c r="B490" s="46" t="str">
+      <c r="B490" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17569,7 +17536,7 @@
       <c r="A491" s="33">
         <v>481</v>
       </c>
-      <c r="B491" s="46" t="str">
+      <c r="B491" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17590,7 +17557,7 @@
       <c r="A492" s="33">
         <v>482</v>
       </c>
-      <c r="B492" s="46" t="str">
+      <c r="B492" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17611,7 +17578,7 @@
       <c r="A493" s="33">
         <v>483</v>
       </c>
-      <c r="B493" s="46" t="str">
+      <c r="B493" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17632,7 +17599,7 @@
       <c r="A494" s="33">
         <v>484</v>
       </c>
-      <c r="B494" s="46" t="str">
+      <c r="B494" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17653,7 +17620,7 @@
       <c r="A495" s="33">
         <v>485</v>
       </c>
-      <c r="B495" s="46" t="str">
+      <c r="B495" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17674,7 +17641,7 @@
       <c r="A496" s="33">
         <v>486</v>
       </c>
-      <c r="B496" s="46" t="str">
+      <c r="B496" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17695,7 +17662,7 @@
       <c r="A497" s="33">
         <v>487</v>
       </c>
-      <c r="B497" s="46" t="str">
+      <c r="B497" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17716,7 +17683,7 @@
       <c r="A498" s="33">
         <v>488</v>
       </c>
-      <c r="B498" s="46" t="str">
+      <c r="B498" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17737,7 +17704,7 @@
       <c r="A499" s="33">
         <v>489</v>
       </c>
-      <c r="B499" s="46" t="str">
+      <c r="B499" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17758,7 +17725,7 @@
       <c r="A500" s="33">
         <v>490</v>
       </c>
-      <c r="B500" s="46" t="str">
+      <c r="B500" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17779,7 +17746,7 @@
       <c r="A501" s="33">
         <v>491</v>
       </c>
-      <c r="B501" s="46" t="str">
+      <c r="B501" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17800,7 +17767,7 @@
       <c r="A502" s="33">
         <v>492</v>
       </c>
-      <c r="B502" s="46" t="str">
+      <c r="B502" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17821,7 +17788,7 @@
       <c r="A503" s="33">
         <v>493</v>
       </c>
-      <c r="B503" s="46" t="str">
+      <c r="B503" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17842,7 +17809,7 @@
       <c r="A504" s="33">
         <v>494</v>
       </c>
-      <c r="B504" s="46" t="str">
+      <c r="B504" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17863,7 +17830,7 @@
       <c r="A505" s="33">
         <v>495</v>
       </c>
-      <c r="B505" s="46" t="str">
+      <c r="B505" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17884,7 +17851,7 @@
       <c r="A506" s="33">
         <v>496</v>
       </c>
-      <c r="B506" s="46" t="str">
+      <c r="B506" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17905,7 +17872,7 @@
       <c r="A507" s="33">
         <v>497</v>
       </c>
-      <c r="B507" s="46" t="str">
+      <c r="B507" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17926,7 +17893,7 @@
       <c r="A508" s="33">
         <v>498</v>
       </c>
-      <c r="B508" s="46" t="str">
+      <c r="B508" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17947,7 +17914,7 @@
       <c r="A509" s="33">
         <v>499</v>
       </c>
-      <c r="B509" s="46" t="str">
+      <c r="B509" s="45" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -17967,6 +17934,11 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="1LKPwXZGaNR4XwwCL8CHOjf/z90Tv44OKUtKoNNu4zjbsJ5ZBN+3/T1gEyJ/wkedoI05t1cPBh/qblKMj6eMKQ==" saltValue="m6GizUWUwaXIqdzikh5KhQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="14">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="H21:L21"/>
     <mergeCell ref="H15:L15"/>
     <mergeCell ref="F1:S10"/>
@@ -17976,11 +17948,6 @@
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <conditionalFormatting sqref="F11:J12 F13 A1:C6 F14:I14 F22:I509 F1 A7:E10 F15:G15 F16:H16 F17:F21 H19:H21 G19:G22">
     <cfRule type="expression" dxfId="3" priority="2">
@@ -18001,7 +17968,7 @@
   <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -18014,50 +17981,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="143"/>
+      <c r="B1" s="139"/>
       <c r="C1" s="17"/>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="119"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="117"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="145"/>
+      <c r="B2" s="141"/>
       <c r="C2" s="18"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="122"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="120"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="141"/>
+      <c r="B3" s="137"/>
       <c r="C3" s="23">
         <v>12</v>
       </c>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="122"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="120"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1">
       <c r="A4" s="24" t="s">
@@ -18065,13 +18032,13 @@
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="125"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="123"/>
     </row>
     <row r="5" spans="1:11">
       <c r="D5" s="26"/>
@@ -18117,11 +18084,11 @@
         <f>IF(OR($C$1="",$C$2="",$C$3="",D8=""),"",D8*C$1/C$3)</f>
         <v/>
       </c>
-      <c r="G8" s="138" t="s">
+      <c r="G8" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="139"/>
-      <c r="I8" s="139"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="135"/>
       <c r="J8" s="35" t="str">
         <f>IF(B31&lt;&gt;"",SUM(C8:C31),"")</f>
         <v/>
@@ -18151,17 +18118,17 @@
         <f>IF(OR($C$1="",$C$2="",$C$3="",D9=""),"",D9*C$1/C$3)</f>
         <v/>
       </c>
-      <c r="G9" s="140" t="s">
+      <c r="G9" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
       <c r="J9" s="37" t="str">
         <f>IF(B31&lt;&gt;"",J8-B4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1">
+    <row r="10" spans="1:11">
       <c r="A10" s="33">
         <v>3</v>
       </c>
@@ -18182,7 +18149,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1">
+    <row r="11" spans="1:11">
       <c r="A11" s="33">
         <v>4</v>
       </c>
@@ -18202,12 +18169,6 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G11" s="135" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="136"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="33">
@@ -18643,9 +18604,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7Lp55eCRVchAISAEyI+TWqc/Nh3/SZe402JR7yJi7K91EVdKORyu0y0zbw+qt7AzAOV5zxc/ieGClhqvNsDEQQ==" saltValue="NgzGdA/O8LspW24hODjBJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="7">
-    <mergeCell ref="G11:I11"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sbhEwFkx1ZqDB9EpsrKi6DThNUc3qMEstt6ga1fytkVvJOhMOpMhq29tMrX65fepveXTb+Lcw8qdR3fG9Nm37Q==" saltValue="B0kEtMNcahgW4/GScSuZvg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="6">
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="D1:J4"/>
     <mergeCell ref="G9:I9"/>
@@ -18653,7 +18613,7 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A5:I7 A1:D1 A2:C4 B32:I506 F10:I10 F9 F8:J8 B8:C31 F12:I31 F11:G11">
+  <conditionalFormatting sqref="A5:I7 A1:D1 A2:C4 B32:I506 F10:I10 F9 F8:J8 B8:C31 F12:I31 F11">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$C$8="Your Name Here!"</formula>
     </cfRule>
@@ -20191,62 +20151,62 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="2:7">
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="147"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="147"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
+      <c r="B6" s="143"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="147"/>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
+      <c r="B7" s="143"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="147"/>
+      <c r="B8" s="143"/>
+      <c r="C8" s="143"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="143"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="147"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="147"/>
+      <c r="B9" s="143"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="143"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="143"/>
     </row>
   </sheetData>
   <customSheetViews>

--- a/144F20/Topic 4/PayingMinOnCC.xlsx
+++ b/144F20/Topic 4/PayingMinOnCC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="361" documentId="10_ncr:80_{02A4D49E-1BE3-41D5-8229-9ED30F380881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67E3B228-28FA-4ACC-8ACF-1EB7F491DAB6}"/>
+  <xr:revisionPtr revIDLastSave="366" documentId="10_ncr:80_{02A4D49E-1BE3-41D5-8229-9ED30F380881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E60C5C93-22C0-4786-8A5B-60EB46963B60}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12456" xr2:uid="{CF10E6CE-D87B-417F-86FF-EEF4FA94E14B}"/>
   </bookViews>
@@ -192,9 +192,6 @@
     <t>Your Name ⇒</t>
   </si>
   <si>
-    <t>Ignore the Halo preview you must download and open the file in Excel to correctly see the contents.</t>
-  </si>
-  <si>
     <t>PMT</t>
   </si>
   <si>
@@ -261,6 +258,9 @@
       </rPr>
       <t>Enter your answers below and reflect on what you notice for part 3 of the project.</t>
     </r>
+  </si>
+  <si>
+    <t>Ignore the Halo preview you must download and open the file in Excel to correctly see the contents:)</t>
   </si>
 </sst>
 </file>
@@ -1166,30 +1166,6 @@
     <xf numFmtId="1" fontId="0" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1334,6 +1310,34 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
@@ -1428,10 +1432,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2354,38 +2354,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.45" customHeight="1" thickBot="1">
-      <c r="A1" s="100" t="str">
+      <c r="A1" s="94" t="str">
         <f>IF(C10="Your Name Here!", "Enter your name below and your very own problem will appear here:)","Discover both how much is paid and how long it takes to pay off a $"&amp;Random!H19&amp;" credit card debt paying the minimal payment which is the maximum of "&amp;Random!H20&amp;"% or $"&amp;Random!H22&amp;". The credit card has "&amp;Random!H21&amp;"% APR compounded monthly. You want to find out how long it takes you to pay this off and how much you end up paying. Assume you make your payment on the current balance at the beginnig of each period (month), before interest is acrued"&amp;" and assuming that the card is not being used for any additional charges.")</f>
         <v>Enter your name below and your very own problem will appear here:)</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="102"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="96"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A2" s="103"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="105"/>
-      <c r="I2" s="73" t="s">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="99"/>
+      <c r="I2" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="74"/>
+      <c r="J2" s="68"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A3" s="103"/>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="105"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="99"/>
       <c r="I3" s="52" t="s">
         <v>13</v>
       </c>
@@ -2394,28 +2394,28 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="103"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="105"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
       <c r="I4" s="54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J4" s="55" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="103"/>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="105"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
       <c r="I5" s="56" t="s">
         <v>16</v>
       </c>
@@ -2424,13 +2424,13 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="103"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="105"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="99"/>
       <c r="I6" s="58" t="s">
         <v>18</v>
       </c>
@@ -2439,13 +2439,13 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A7" s="103"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="105"/>
+      <c r="A7" s="97"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="99"/>
       <c r="I7" s="59" t="s">
         <v>20</v>
       </c>
@@ -2454,13 +2454,13 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="61" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A8" s="106"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="108"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="102"/>
     </row>
     <row r="9" spans="1:12" s="61" customFormat="1" ht="15.75" thickBot="1">
       <c r="A9" s="62"/>
@@ -2468,104 +2468,104 @@
       <c r="C9" s="63"/>
       <c r="D9" s="63"/>
       <c r="E9" s="63"/>
-      <c r="I9" s="94" t="s">
+      <c r="I9" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="96"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="90"/>
     </row>
     <row r="10" spans="1:12" s="61" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="92"/>
-      <c r="E10" s="93"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="99"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="86"/>
+      <c r="E10" s="87"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="93"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="12" spans="1:12" ht="28.15" customHeight="1" thickBot="1">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="88"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="77"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="71"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="85"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="80"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="74"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="85"/>
+      <c r="B14" s="79"/>
       <c r="C14" s="66">
         <v>12</v>
       </c>
-      <c r="D14" s="78"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="80"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="80"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="74"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="107" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="78"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="80"/>
+        <v>54</v>
+      </c>
+      <c r="D16" s="72"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="74"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A17" s="72"/>
+      <c r="A17" s="108"/>
       <c r="B17" s="4"/>
       <c r="C17" s="42"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="83"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="77"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="20" spans="1:12" ht="45.75" thickBot="1">
@@ -2593,14 +2593,14 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="G21" s="67" t="s">
+      <c r="G21" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
       <c r="J21" s="21"/>
       <c r="K21" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L21" s="64"/>
     </row>
@@ -2612,11 +2612,11 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="G22" s="67" t="s">
+      <c r="G22" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:12">
@@ -2627,11 +2627,11 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="G23" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
+      <c r="G23" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
       <c r="J23" s="65"/>
     </row>
     <row r="24" spans="1:12">
@@ -7108,6 +7108,11 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="14">
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="D12:H17"/>
     <mergeCell ref="A13:B13"/>
@@ -7117,11 +7122,6 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="I9:L10"/>
     <mergeCell ref="A1:G8"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
   </mergeCells>
   <conditionalFormatting sqref="C9:E10">
     <cfRule type="expression" dxfId="4" priority="2">
@@ -7156,182 +7156,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="88"/>
+      <c r="B1" s="82"/>
       <c r="C1" s="2"/>
-      <c r="F1" s="115" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="117"/>
+      <c r="F1" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="118"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="85"/>
+      <c r="B2" s="79"/>
       <c r="C2" s="3"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="120"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="121"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="85"/>
+      <c r="B3" s="79"/>
       <c r="C3" s="40">
         <v>12</v>
       </c>
-      <c r="F3" s="118"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="119"/>
-      <c r="S3" s="120"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="120"/>
+      <c r="R3" s="120"/>
+      <c r="S3" s="121"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="120"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="106"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="120"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="120"/>
+      <c r="S4" s="121"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="133" t="s">
-        <v>56</v>
+      <c r="A5" s="109" t="s">
+        <v>55</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="118"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="119"/>
-      <c r="N5" s="119"/>
-      <c r="O5" s="119"/>
-      <c r="P5" s="119"/>
-      <c r="Q5" s="119"/>
-      <c r="R5" s="119"/>
-      <c r="S5" s="120"/>
+        <v>54</v>
+      </c>
+      <c r="F5" s="119"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="121"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A6" s="72"/>
+      <c r="A6" s="108"/>
       <c r="B6" s="4"/>
       <c r="C6" s="42"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
-      <c r="P6" s="119"/>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119"/>
-      <c r="S6" s="120"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="120"/>
+      <c r="O6" s="120"/>
+      <c r="P6" s="120"/>
+      <c r="Q6" s="120"/>
+      <c r="R6" s="120"/>
+      <c r="S6" s="121"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="F7" s="118"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="120"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="120"/>
+      <c r="S7" s="121"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="F8" s="118"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="119"/>
-      <c r="O8" s="119"/>
-      <c r="P8" s="119"/>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="120"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="120"/>
+      <c r="S8" s="121"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1">
-      <c r="F9" s="118"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="119"/>
-      <c r="Q9" s="119"/>
-      <c r="R9" s="119"/>
-      <c r="S9" s="120"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="121"/>
     </row>
     <row r="10" spans="1:19" ht="45.75" thickBot="1">
       <c r="A10" s="29" t="s">
@@ -7349,20 +7349,20 @@
       <c r="E10" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="121"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="122"/>
-      <c r="O10" s="122"/>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="122"/>
-      <c r="R10" s="122"/>
-      <c r="S10" s="123"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="123"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="123"/>
+      <c r="S10" s="124"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="33">
@@ -7384,17 +7384,17 @@
         <f>IF(OR($C$1="",$C$2="",$C$3="",$B$5="",$B$6="",D11=""),"",D11*C$1/C$3)</f>
         <v/>
       </c>
-      <c r="G11" s="132" t="s">
+      <c r="G11" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
       <c r="J11" s="43" t="str">
         <f>IF(B509&lt;&gt;"",(COUNTIF(D11:D509,"&lt;&gt;0")+1)/12,"")</f>
         <v/>
       </c>
       <c r="K11" s="44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7417,11 +7417,11 @@
         <f>IF(OR($C$1="",$C$2="",$C$3="",$B$5="",$B$6="",D12=""),"",D12*C$1/C$3)</f>
         <v/>
       </c>
-      <c r="G12" s="67" t="s">
+      <c r="G12" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
       <c r="J12" s="45" t="str">
         <f>IF(B509&lt;&gt;"",SUM(C11:C509),"")</f>
         <v/>
@@ -7447,11 +7447,11 @@
         <f>IF(OR($C$1="",$C$2="",$C$3="",$B$5="",$B$6="",D13=""),"",D13*C$1/C$3)</f>
         <v/>
       </c>
-      <c r="G13" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
+      <c r="G13" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
       <c r="J13" s="46" t="str">
         <f>IF(B509&lt;&gt;"",J12-C2,"")</f>
         <v/>
@@ -7499,13 +7499,13 @@
         <v/>
       </c>
       <c r="G15" s="51"/>
-      <c r="H15" s="112" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="113"/>
-      <c r="L15" s="114"/>
+      <c r="H15" s="113" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="115"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="33">
@@ -7528,13 +7528,13 @@
         <v/>
       </c>
       <c r="G16" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="124"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="126"/>
+        <v>57</v>
+      </c>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="126"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="127"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="33">
@@ -7556,11 +7556,11 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="129"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="129"/>
+      <c r="K17" s="129"/>
+      <c r="L17" s="130"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="33">
@@ -7582,11 +7582,11 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H18" s="127"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="128"/>
-      <c r="L18" s="129"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="129"/>
+      <c r="K18" s="129"/>
+      <c r="L18" s="130"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="33">
@@ -7609,13 +7609,13 @@
         <v/>
       </c>
       <c r="G19" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="109"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="130"/>
-      <c r="K19" s="130"/>
-      <c r="L19" s="131"/>
+        <v>58</v>
+      </c>
+      <c r="H19" s="110"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="131"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="132"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="33">
@@ -7638,13 +7638,13 @@
         <v/>
       </c>
       <c r="G20" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" s="109"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="130"/>
-      <c r="L20" s="131"/>
+        <v>59</v>
+      </c>
+      <c r="H20" s="110"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="131"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="132"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1">
       <c r="A21" s="33">
@@ -7667,13 +7667,13 @@
         <v/>
       </c>
       <c r="G21" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="109"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="111"/>
+        <v>60</v>
+      </c>
+      <c r="H21" s="110"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="112"/>
     </row>
     <row r="22" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="33">
@@ -7696,7 +7696,7 @@
         <v/>
       </c>
       <c r="G22" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H22" s="50"/>
       <c r="I22" s="48"/>
@@ -17934,11 +17934,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="1LKPwXZGaNR4XwwCL8CHOjf/z90Tv44OKUtKoNNu4zjbsJ5ZBN+3/T1gEyJ/wkedoI05t1cPBh/qblKMj6eMKQ==" saltValue="m6GizUWUwaXIqdzikh5KhQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="14">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:A6"/>
     <mergeCell ref="H21:L21"/>
     <mergeCell ref="H15:L15"/>
     <mergeCell ref="F1:S10"/>
@@ -17948,6 +17943,11 @@
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <conditionalFormatting sqref="F11:J12 F13 A1:C6 F14:I14 F22:I509 F1 A7:E10 F15:G15 F16:H16 F17:F21 H19:H21 G19:G22">
     <cfRule type="expression" dxfId="3" priority="2">
@@ -17986,15 +17986,15 @@
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="17"/>
-      <c r="D1" s="116" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="117"/>
+      <c r="D1" s="117" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="118"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="140" t="s">
@@ -18002,43 +18002,43 @@
       </c>
       <c r="B2" s="141"/>
       <c r="C2" s="18"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="121"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" s="142" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="137"/>
       <c r="C3" s="23">
         <v>12</v>
       </c>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="121"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1">
       <c r="A4" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="124"/>
     </row>
     <row r="5" spans="1:11">
       <c r="D5" s="26"/>
@@ -18119,7 +18119,7 @@
         <v/>
       </c>
       <c r="G9" s="136" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="137"/>
       <c r="I9" s="137"/>
@@ -20145,14 +20145,14 @@
   <dimension ref="B3:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="2:7">
       <c r="B3" s="143" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C3" s="143"/>
       <c r="D3" s="143"/>

--- a/144F20/Topic 4/PayingMinOnCC.xlsx
+++ b/144F20/Topic 4/PayingMinOnCC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="366" documentId="10_ncr:80_{02A4D49E-1BE3-41D5-8229-9ED30F380881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E60C5C93-22C0-4786-8A5B-60EB46963B60}"/>
+  <xr:revisionPtr revIDLastSave="371" documentId="10_ncr:80_{02A4D49E-1BE3-41D5-8229-9ED30F380881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3314AC4-81B8-454D-BBA8-0029D0ECD59D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12456" xr2:uid="{CF10E6CE-D87B-417F-86FF-EEF4FA94E14B}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="27000" windowHeight="14115" xr2:uid="{CF10E6CE-D87B-417F-86FF-EEF4FA94E14B}"/>
   </bookViews>
   <sheets>
     <sheet name="PayingMinPmt" sheetId="1" r:id="rId1"/>
@@ -1166,6 +1166,30 @@
     <xf numFmtId="1" fontId="0" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1310,34 +1334,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
@@ -1432,6 +1428,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1556,15 +1556,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>280035</xdr:colOff>
+      <xdr:colOff>518160</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>14660</xdr:rowOff>
+      <xdr:rowOff>43235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>240030</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>150495</xdr:rowOff>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1594,8 +1594,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8082915" y="1508180"/>
-          <a:ext cx="321945" cy="326335"/>
+          <a:off x="8100060" y="1595810"/>
+          <a:ext cx="312420" cy="335860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2039,9 +2039,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2079,7 +2079,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2185,7 +2185,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2327,7 +2327,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2338,7 +2338,7 @@
   <dimension ref="A1:L519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:E10"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2354,38 +2354,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.45" customHeight="1" thickBot="1">
-      <c r="A1" s="94" t="str">
+      <c r="A1" s="100" t="str">
         <f>IF(C10="Your Name Here!", "Enter your name below and your very own problem will appear here:)","Discover both how much is paid and how long it takes to pay off a $"&amp;Random!H19&amp;" credit card debt paying the minimal payment which is the maximum of "&amp;Random!H20&amp;"% or $"&amp;Random!H22&amp;". The credit card has "&amp;Random!H21&amp;"% APR compounded monthly. You want to find out how long it takes you to pay this off and how much you end up paying. Assume you make your payment on the current balance at the beginnig of each period (month), before interest is acrued"&amp;" and assuming that the card is not being used for any additional charges.")</f>
         <v>Enter your name below and your very own problem will appear here:)</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="96"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="102"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="99"/>
-      <c r="I2" s="67" t="s">
+      <c r="A2" s="103"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="105"/>
+      <c r="I2" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="68"/>
+      <c r="J2" s="74"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A3" s="97"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="99"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="105"/>
       <c r="I3" s="52" t="s">
         <v>13</v>
       </c>
@@ -2394,13 +2394,13 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="97"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="99"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="105"/>
       <c r="I4" s="54" t="s">
         <v>51</v>
       </c>
@@ -2409,13 +2409,13 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="97"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="99"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="105"/>
       <c r="I5" s="56" t="s">
         <v>16</v>
       </c>
@@ -2424,13 +2424,13 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="97"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="99"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="105"/>
       <c r="I6" s="58" t="s">
         <v>18</v>
       </c>
@@ -2439,13 +2439,13 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A7" s="97"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="99"/>
+      <c r="A7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="105"/>
       <c r="I7" s="59" t="s">
         <v>20</v>
       </c>
@@ -2454,13 +2454,13 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="61" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A8" s="100"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="102"/>
+      <c r="A8" s="106"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="108"/>
     </row>
     <row r="9" spans="1:12" s="61" customFormat="1" ht="15.75" thickBot="1">
       <c r="A9" s="62"/>
@@ -2468,104 +2468,104 @@
       <c r="C9" s="63"/>
       <c r="D9" s="63"/>
       <c r="E9" s="63"/>
-      <c r="I9" s="88" t="s">
+      <c r="I9" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="90"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="96"/>
     </row>
     <row r="10" spans="1:12" s="61" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="85" t="s">
+      <c r="B10" s="90"/>
+      <c r="C10" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="86"/>
-      <c r="E10" s="87"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="93"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="93"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="99"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="12" spans="1:12" ht="28.15" customHeight="1" thickBot="1">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="82"/>
+      <c r="B12" s="88"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="71"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="77"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="79"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="74"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="80"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="79"/>
+      <c r="B14" s="85"/>
       <c r="C14" s="66">
         <v>12</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="74"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="80"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="74"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="80"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="107" t="s">
+      <c r="A16" s="71" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="72"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="74"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="80"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A17" s="108"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="4"/>
       <c r="C17" s="42"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="77"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="83"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="20" spans="1:12" ht="45.75" thickBot="1">
@@ -2593,11 +2593,11 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="G21" s="103" t="s">
+      <c r="G21" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
       <c r="J21" s="21"/>
       <c r="K21" s="22" t="s">
         <v>52</v>
@@ -2612,11 +2612,11 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="G22" s="103" t="s">
+      <c r="G22" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:12">
@@ -2627,11 +2627,11 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="G23" s="103" t="s">
+      <c r="G23" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="103"/>
-      <c r="I23" s="103"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
       <c r="J23" s="65"/>
     </row>
     <row r="24" spans="1:12">
@@ -7108,11 +7108,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="14">
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="D12:H17"/>
     <mergeCell ref="A13:B13"/>
@@ -7122,6 +7117,11 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="I9:L10"/>
     <mergeCell ref="A1:G8"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
   </mergeCells>
   <conditionalFormatting sqref="C9:E10">
     <cfRule type="expression" dxfId="4" priority="2">
@@ -7156,182 +7156,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="82"/>
+      <c r="B1" s="88"/>
       <c r="C1" s="2"/>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="118"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="117"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="79"/>
+      <c r="B2" s="85"/>
       <c r="C2" s="3"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="121"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="120"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="79"/>
+      <c r="B3" s="85"/>
       <c r="C3" s="40">
         <v>12</v>
       </c>
-      <c r="F3" s="119"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="120"/>
-      <c r="R3" s="120"/>
-      <c r="S3" s="121"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="119"/>
+      <c r="S3" s="120"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="106"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120"/>
-      <c r="O4" s="120"/>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="120"/>
-      <c r="R4" s="120"/>
-      <c r="S4" s="121"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="120"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="133" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="119"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="120"/>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="120"/>
-      <c r="S5" s="121"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="120"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A6" s="108"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="4"/>
       <c r="C6" s="42"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120"/>
-      <c r="N6" s="120"/>
-      <c r="O6" s="120"/>
-      <c r="P6" s="120"/>
-      <c r="Q6" s="120"/>
-      <c r="R6" s="120"/>
-      <c r="S6" s="121"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="120"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="F7" s="119"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="120"/>
-      <c r="O7" s="120"/>
-      <c r="P7" s="120"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
-      <c r="S7" s="121"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="120"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="F8" s="119"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="120"/>
-      <c r="M8" s="120"/>
-      <c r="N8" s="120"/>
-      <c r="O8" s="120"/>
-      <c r="P8" s="120"/>
-      <c r="Q8" s="120"/>
-      <c r="R8" s="120"/>
-      <c r="S8" s="121"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="119"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="119"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="120"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1">
-      <c r="F9" s="119"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="121"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="119"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="120"/>
     </row>
     <row r="10" spans="1:19" ht="45.75" thickBot="1">
       <c r="A10" s="29" t="s">
@@ -7349,20 +7349,20 @@
       <c r="E10" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="122"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="123"/>
-      <c r="M10" s="123"/>
-      <c r="N10" s="123"/>
-      <c r="O10" s="123"/>
-      <c r="P10" s="123"/>
-      <c r="Q10" s="123"/>
-      <c r="R10" s="123"/>
-      <c r="S10" s="124"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="122"/>
+      <c r="R10" s="122"/>
+      <c r="S10" s="123"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="33">
@@ -7384,11 +7384,11 @@
         <f>IF(OR($C$1="",$C$2="",$C$3="",$B$5="",$B$6="",D11=""),"",D11*C$1/C$3)</f>
         <v/>
       </c>
-      <c r="G11" s="133" t="s">
+      <c r="G11" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
       <c r="J11" s="43" t="str">
         <f>IF(B509&lt;&gt;"",(COUNTIF(D11:D509,"&lt;&gt;0")+1)/12,"")</f>
         <v/>
@@ -7417,11 +7417,11 @@
         <f>IF(OR($C$1="",$C$2="",$C$3="",$B$5="",$B$6="",D12=""),"",D12*C$1/C$3)</f>
         <v/>
       </c>
-      <c r="G12" s="103" t="s">
+      <c r="G12" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
       <c r="J12" s="45" t="str">
         <f>IF(B509&lt;&gt;"",SUM(C11:C509),"")</f>
         <v/>
@@ -7447,11 +7447,11 @@
         <f>IF(OR($C$1="",$C$2="",$C$3="",$B$5="",$B$6="",D13=""),"",D13*C$1/C$3)</f>
         <v/>
       </c>
-      <c r="G13" s="103" t="s">
+      <c r="G13" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
       <c r="J13" s="46" t="str">
         <f>IF(B509&lt;&gt;"",J12-C2,"")</f>
         <v/>
@@ -7499,13 +7499,13 @@
         <v/>
       </c>
       <c r="G15" s="51"/>
-      <c r="H15" s="113" t="s">
+      <c r="H15" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="115"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="114"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="33">
@@ -7530,11 +7530,11 @@
       <c r="G16" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="126"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="127"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="125"/>
+      <c r="L16" s="126"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="33">
@@ -7556,11 +7556,11 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="130"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="129"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="33">
@@ -7582,11 +7582,11 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H18" s="128"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="129"/>
-      <c r="K18" s="129"/>
-      <c r="L18" s="130"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="128"/>
+      <c r="L18" s="129"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="33">
@@ -7611,11 +7611,11 @@
       <c r="G19" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="110"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="131"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="132"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="130"/>
+      <c r="L19" s="131"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="33">
@@ -7640,11 +7640,11 @@
       <c r="G20" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="110"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="131"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="132"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="130"/>
+      <c r="L20" s="131"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1">
       <c r="A21" s="33">
@@ -7669,11 +7669,11 @@
       <c r="G21" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="110"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="111"/>
-      <c r="L21" s="112"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="111"/>
     </row>
     <row r="22" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="33">
@@ -17934,6 +17934,11 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="1LKPwXZGaNR4XwwCL8CHOjf/z90Tv44OKUtKoNNu4zjbsJ5ZBN+3/T1gEyJ/wkedoI05t1cPBh/qblKMj6eMKQ==" saltValue="m6GizUWUwaXIqdzikh5KhQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="14">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="H21:L21"/>
     <mergeCell ref="H15:L15"/>
     <mergeCell ref="F1:S10"/>
@@ -17943,19 +17948,14 @@
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:A6"/>
   </mergeCells>
-  <conditionalFormatting sqref="F11:J12 F13 A1:C6 F14:I14 F22:I509 F1 A7:E10 F15:G15 F16:H16 F17:F21 H19:H21 G19:G22">
-    <cfRule type="expression" dxfId="3" priority="2">
+  <conditionalFormatting sqref="A11:A509">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$C$11="Your Name Here!"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:A509">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <conditionalFormatting sqref="F1 A1:C6 A7:E10 F11:J12 F13 F14:I14 F15:G15 F16:H16 F17:F21 H19:H21 G19:G22 F22:I509">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$C$11="Your Name Here!"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17968,7 +17968,7 @@
   <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -17986,15 +17986,15 @@
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="17"/>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="118"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="117"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="140" t="s">
@@ -18002,13 +18002,13 @@
       </c>
       <c r="B2" s="141"/>
       <c r="C2" s="18"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="121"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="120"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" s="142" t="s">
@@ -18018,13 +18018,13 @@
       <c r="C3" s="23">
         <v>12</v>
       </c>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="121"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="120"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1">
       <c r="A4" s="24" t="s">
@@ -18032,13 +18032,13 @@
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="124"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="123"/>
     </row>
     <row r="5" spans="1:11">
       <c r="D5" s="26"/>
@@ -18124,7 +18124,7 @@
       <c r="H9" s="137"/>
       <c r="I9" s="137"/>
       <c r="J9" s="37" t="str">
-        <f>IF(B31&lt;&gt;"",J8-B4,"")</f>
+        <f>IF(B31&lt;&gt;"",J8-B8,"")</f>
         <v/>
       </c>
     </row>
@@ -18604,7 +18604,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sbhEwFkx1ZqDB9EpsrKi6DThNUc3qMEstt6ga1fytkVvJOhMOpMhq29tMrX65fepveXTb+Lcw8qdR3fG9Nm37Q==" saltValue="B0kEtMNcahgW4/GScSuZvg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="86dU6kQRsYwtC+XpnrMBjqJzPpWKvpXnWnacudIrJZQbj4/0KcqMiG0V+xdyrGiYxC1JUiyRxKIhNFfxw9n8VQ==" saltValue="WxGoKkC6OP30aBBmWqC/zQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <mergeCells count="6">
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="D1:J4"/>
@@ -18613,13 +18613,13 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A5:I7 A1:D1 A2:C4 B32:I506 F10:I10 F9 F8:J8 B8:C31 F12:I31 F11">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A8:C31">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$C$8="Your Name Here!"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A31">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A1:D1 A2:C4 A5:I7 F8:J8 F9 F10:I10 F11 F12:I31 B32:I506">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$C$8="Your Name Here!"</formula>
     </cfRule>
   </conditionalFormatting>
